--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK68"/>
+  <dimension ref="A1:AK57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-21/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>incentive-vars</t>
+          <t>vocab</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/incentive/variables/</t>
+          <t>http://purl.org/m4m-21/subjects/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1063,7 +1063,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>INCENTIVE Project Variables</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1114,7 +1114,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Quantitative and qualitative variables describing ...</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1165,7 +1165,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://zenodo.org/communities/incentive/about/ </t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1214,11 +1214,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9381-9693</t>
-        </is>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1262,17 +1258,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1313,17 +1309,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:hasVersion</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4645-9442</t>
+          <t>0.1.1</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1364,17 +1360,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:created</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9719-9161</t>
+          <t>enter date of creation in the form bellow</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1415,17 +1411,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:modified</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0002-9346-0190</t>
+          <t>2022-06-04T19:41:32+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1466,19 +1462,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-8954-0470</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1517,38 +1505,114 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0001-8888-635X</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
-      <c r="F22" t="inlineStr"/>
-      <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
+          <t>qudt:unit(separator=",")</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
@@ -1568,19 +1632,11 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-1352-9213</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1598,7 +1654,11 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1619,19 +1679,11 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-6796-6780</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1649,7 +1701,11 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1670,19 +1726,11 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-9432-4297</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1700,7 +1748,11 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1721,19 +1773,11 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-5914-3554</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr"/>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1751,7 +1795,11 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1772,19 +1820,11 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5323-3180</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr"/>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1802,7 +1842,11 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0003-3277-3107</t>
+        </is>
+      </c>
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
@@ -1823,19 +1867,11 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
@@ -1874,19 +1910,11 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>0.1.1</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
@@ -1925,19 +1953,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>dct:created</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2021-08-23T16:13+00:00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
@@ -1976,19 +1996,11 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>dct:modified</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2022-06-04T11:26:36+00:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
@@ -2027,7 +2039,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B32" t="inlineStr"/>
@@ -2070,114 +2082,30 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>qudt:unit(separator=",")</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T33" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U33" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="V33" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
@@ -2197,21 +2125,13 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>incentive-vars:1000</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr"/>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>levels of IgG subclasses to Flu antigens</t>
-        </is>
-      </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2227,11 +2147,7 @@
       <c r="R34" t="inlineStr"/>
       <c r="S34" t="inlineStr"/>
       <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
@@ -2252,81 +2168,29 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>incentive-vars:1001</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>IgG1-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-1against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
@@ -2347,27 +2211,15 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>incentive-vars:1002</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>IgG2-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-2 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -2378,18 +2230,10 @@
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R36" t="inlineStr"/>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr"/>
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
@@ -2410,27 +2254,15 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>incentive-vars:1003</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>IgG3-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-3 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -2441,18 +2273,10 @@
       <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R37" t="inlineStr"/>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
@@ -2473,27 +2297,15 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>incentive-vars:1004</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>IgG4-HA1</t>
-        </is>
-      </c>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>levels of immunoglobulin G-4 against HA-1 antigen</t>
-        </is>
-      </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>IgG Subclasses</t>
-        </is>
-      </c>
+      <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -2504,18 +2316,10 @@
       <c r="O38" t="inlineStr"/>
       <c r="P38" t="inlineStr"/>
       <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R38" t="inlineStr"/>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
@@ -2536,21 +2340,13 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>incentive-vars:1005</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>level of surface antigenexpression</t>
-        </is>
-      </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2563,11 +2359,7 @@
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R39" t="inlineStr"/>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
@@ -2591,27 +2383,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>incentive-vars:1006</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>CD3</t>
-        </is>
-      </c>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>level of CD3 expression</t>
-        </is>
-      </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Surface Antigens-FC</t>
-        </is>
-      </c>
+      <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -2622,11 +2402,7 @@
       <c r="O40" t="inlineStr"/>
       <c r="P40" t="inlineStr"/>
       <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R40" t="inlineStr"/>
       <c r="S40" t="inlineStr"/>
       <c r="T40" t="inlineStr"/>
       <c r="U40" t="inlineStr"/>
@@ -2650,21 +2426,13 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>incentive-vars:1007</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>level of cytokine expreesion/secretion</t>
-        </is>
-      </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2677,11 +2445,7 @@
       <c r="O41" t="inlineStr"/>
       <c r="P41" t="inlineStr"/>
       <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R41" t="inlineStr"/>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
@@ -2705,27 +2469,15 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>incentive-vars:1008</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>IFNg</t>
-        </is>
-      </c>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>level of IFNg expression/secretion</t>
-        </is>
-      </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Cytokines-FC</t>
-        </is>
-      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -2736,11 +2488,7 @@
       <c r="O42" t="inlineStr"/>
       <c r="P42" t="inlineStr"/>
       <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R42" t="inlineStr"/>
       <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
@@ -2764,21 +2512,13 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>incentive-vars:1009</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Chemokines-FC</t>
-        </is>
-      </c>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>level of chemokine expression</t>
-        </is>
-      </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2791,11 +2531,7 @@
       <c r="O43" t="inlineStr"/>
       <c r="P43" t="inlineStr"/>
       <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr">
-        <is>
-          <t>MFI</t>
-        </is>
-      </c>
+      <c r="R43" t="inlineStr"/>
       <c r="S43" t="inlineStr"/>
       <c r="T43" t="inlineStr"/>
       <c r="U43" t="inlineStr"/>
@@ -2819,7 +2555,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>incentive-vars:1010</t>
+          <t>vocab:1021</t>
         </is>
       </c>
       <c r="B44" t="inlineStr"/>
@@ -2862,7 +2598,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>incentive-vars:1011</t>
+          <t>vocab:1022</t>
         </is>
       </c>
       <c r="B45" t="inlineStr"/>
@@ -2905,7 +2641,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>incentive-vars:1012</t>
+          <t>vocab:1023</t>
         </is>
       </c>
       <c r="B46" t="inlineStr"/>
@@ -2948,7 +2684,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>incentive-vars:1013</t>
+          <t>vocab:1024</t>
         </is>
       </c>
       <c r="B47" t="inlineStr"/>
@@ -2991,7 +2727,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>incentive-vars:1014</t>
+          <t>vocab:1025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr"/>
@@ -3034,7 +2770,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>incentive-vars:1015</t>
+          <t>vocab:1026</t>
         </is>
       </c>
       <c r="B49" t="inlineStr"/>
@@ -3077,7 +2813,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>incentive-vars:1016</t>
+          <t>vocab:1027</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
@@ -3120,7 +2856,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>incentive-vars:1017</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
@@ -3163,7 +2899,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>incentive-vars:1018</t>
+          <t>vocab:1029</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
@@ -3206,7 +2942,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>incentive-vars:1019</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="B53" t="inlineStr"/>
@@ -3249,7 +2985,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>incentive-vars:1020</t>
+          <t>vocab:1031</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
@@ -3292,7 +3028,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>incentive-vars:1021</t>
+          <t>vocab:1032</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
@@ -3335,7 +3071,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>incentive-vars:1022</t>
+          <t>vocab:1033</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
@@ -3378,7 +3114,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>incentive-vars:1023</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
@@ -3418,479 +3154,6 @@
       <c r="AJ57" t="inlineStr"/>
       <c r="AK57" t="inlineStr"/>
     </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>incentive-vars:1024</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>incentive-vars:1025</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>incentive-vars:1026</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="inlineStr"/>
-      <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="inlineStr"/>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="inlineStr"/>
-      <c r="T60" t="inlineStr"/>
-      <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
-      <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr"/>
-      <c r="Z60" t="inlineStr"/>
-      <c r="AA60" t="inlineStr"/>
-      <c r="AB60" t="inlineStr"/>
-      <c r="AC60" t="inlineStr"/>
-      <c r="AD60" t="inlineStr"/>
-      <c r="AE60" t="inlineStr"/>
-      <c r="AF60" t="inlineStr"/>
-      <c r="AG60" t="inlineStr"/>
-      <c r="AH60" t="inlineStr"/>
-      <c r="AI60" t="inlineStr"/>
-      <c r="AJ60" t="inlineStr"/>
-      <c r="AK60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>incentive-vars:1027</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="inlineStr"/>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="inlineStr"/>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="inlineStr"/>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
-      <c r="T61" t="inlineStr"/>
-      <c r="U61" t="inlineStr"/>
-      <c r="V61" t="inlineStr"/>
-      <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr"/>
-      <c r="Z61" t="inlineStr"/>
-      <c r="AA61" t="inlineStr"/>
-      <c r="AB61" t="inlineStr"/>
-      <c r="AC61" t="inlineStr"/>
-      <c r="AD61" t="inlineStr"/>
-      <c r="AE61" t="inlineStr"/>
-      <c r="AF61" t="inlineStr"/>
-      <c r="AG61" t="inlineStr"/>
-      <c r="AH61" t="inlineStr"/>
-      <c r="AI61" t="inlineStr"/>
-      <c r="AJ61" t="inlineStr"/>
-      <c r="AK61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>incentive-vars:1028</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="inlineStr"/>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="inlineStr"/>
-      <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="inlineStr"/>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
-      <c r="T62" t="inlineStr"/>
-      <c r="U62" t="inlineStr"/>
-      <c r="V62" t="inlineStr"/>
-      <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr"/>
-      <c r="Z62" t="inlineStr"/>
-      <c r="AA62" t="inlineStr"/>
-      <c r="AB62" t="inlineStr"/>
-      <c r="AC62" t="inlineStr"/>
-      <c r="AD62" t="inlineStr"/>
-      <c r="AE62" t="inlineStr"/>
-      <c r="AF62" t="inlineStr"/>
-      <c r="AG62" t="inlineStr"/>
-      <c r="AH62" t="inlineStr"/>
-      <c r="AI62" t="inlineStr"/>
-      <c r="AJ62" t="inlineStr"/>
-      <c r="AK62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>incentive-vars:1029</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="inlineStr"/>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="inlineStr"/>
-      <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="inlineStr"/>
-      <c r="T63" t="inlineStr"/>
-      <c r="U63" t="inlineStr"/>
-      <c r="V63" t="inlineStr"/>
-      <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr"/>
-      <c r="Z63" t="inlineStr"/>
-      <c r="AA63" t="inlineStr"/>
-      <c r="AB63" t="inlineStr"/>
-      <c r="AC63" t="inlineStr"/>
-      <c r="AD63" t="inlineStr"/>
-      <c r="AE63" t="inlineStr"/>
-      <c r="AF63" t="inlineStr"/>
-      <c r="AG63" t="inlineStr"/>
-      <c r="AH63" t="inlineStr"/>
-      <c r="AI63" t="inlineStr"/>
-      <c r="AJ63" t="inlineStr"/>
-      <c r="AK63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>incentive-vars:1030</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="inlineStr"/>
-      <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
-      <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="inlineStr"/>
-      <c r="T64" t="inlineStr"/>
-      <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr"/>
-      <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr"/>
-      <c r="Z64" t="inlineStr"/>
-      <c r="AA64" t="inlineStr"/>
-      <c r="AB64" t="inlineStr"/>
-      <c r="AC64" t="inlineStr"/>
-      <c r="AD64" t="inlineStr"/>
-      <c r="AE64" t="inlineStr"/>
-      <c r="AF64" t="inlineStr"/>
-      <c r="AG64" t="inlineStr"/>
-      <c r="AH64" t="inlineStr"/>
-      <c r="AI64" t="inlineStr"/>
-      <c r="AJ64" t="inlineStr"/>
-      <c r="AK64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>incentive-vars:1031</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="inlineStr"/>
-      <c r="D65" t="inlineStr"/>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
-      <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="inlineStr"/>
-      <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr"/>
-      <c r="Z65" t="inlineStr"/>
-      <c r="AA65" t="inlineStr"/>
-      <c r="AB65" t="inlineStr"/>
-      <c r="AC65" t="inlineStr"/>
-      <c r="AD65" t="inlineStr"/>
-      <c r="AE65" t="inlineStr"/>
-      <c r="AF65" t="inlineStr"/>
-      <c r="AG65" t="inlineStr"/>
-      <c r="AH65" t="inlineStr"/>
-      <c r="AI65" t="inlineStr"/>
-      <c r="AJ65" t="inlineStr"/>
-      <c r="AK65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>incentive-vars:1032</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
-      <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr"/>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="inlineStr"/>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="inlineStr"/>
-      <c r="T66" t="inlineStr"/>
-      <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr"/>
-      <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr"/>
-      <c r="Z66" t="inlineStr"/>
-      <c r="AA66" t="inlineStr"/>
-      <c r="AB66" t="inlineStr"/>
-      <c r="AC66" t="inlineStr"/>
-      <c r="AD66" t="inlineStr"/>
-      <c r="AE66" t="inlineStr"/>
-      <c r="AF66" t="inlineStr"/>
-      <c r="AG66" t="inlineStr"/>
-      <c r="AH66" t="inlineStr"/>
-      <c r="AI66" t="inlineStr"/>
-      <c r="AJ66" t="inlineStr"/>
-      <c r="AK66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>incentive-vars:1033</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
-      <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr"/>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
-      <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr"/>
-      <c r="Z67" t="inlineStr"/>
-      <c r="AA67" t="inlineStr"/>
-      <c r="AB67" t="inlineStr"/>
-      <c r="AC67" t="inlineStr"/>
-      <c r="AD67" t="inlineStr"/>
-      <c r="AE67" t="inlineStr"/>
-      <c r="AF67" t="inlineStr"/>
-      <c r="AG67" t="inlineStr"/>
-      <c r="AH67" t="inlineStr"/>
-      <c r="AI67" t="inlineStr"/>
-      <c r="AJ67" t="inlineStr"/>
-      <c r="AK67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>incentive-vars:1034</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="inlineStr"/>
-      <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
-      <c r="G68" t="inlineStr"/>
-      <c r="H68" t="inlineStr"/>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="inlineStr"/>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="inlineStr"/>
-      <c r="T68" t="inlineStr"/>
-      <c r="U68" t="inlineStr"/>
-      <c r="V68" t="inlineStr"/>
-      <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr"/>
-      <c r="Z68" t="inlineStr"/>
-      <c r="AA68" t="inlineStr"/>
-      <c r="AB68" t="inlineStr"/>
-      <c r="AC68" t="inlineStr"/>
-      <c r="AD68" t="inlineStr"/>
-      <c r="AE68" t="inlineStr"/>
-      <c r="AF68" t="inlineStr"/>
-      <c r="AG68" t="inlineStr"/>
-      <c r="AH68" t="inlineStr"/>
-      <c r="AI68" t="inlineStr"/>
-      <c r="AJ68" t="inlineStr"/>
-      <c r="AK68" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK57"/>
+  <dimension ref="A1:AK26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-21/subjects</t>
+          <t>http://purl.org/m4m21/subjects</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -528,7 +528,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m-21/subjects/</t>
+          <t>http://purl.org/m4m21/subjects/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-04T19:41:32+00:00</t>
+          <t>2022-06-05T08:18:49+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1515,105 +1515,109 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>qudt:unit(separator=",")</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+          <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>iop:hasProperty</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>puv:statistic(separator=",")</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>puv:uom(separator=",")</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>puv:uom(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="U22" t="inlineStr">
         <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="V22" t="inlineStr">
+      <c r="W22" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
@@ -1635,9 +1639,21 @@
           <t>vocab:1000</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Test Top Subject</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Test Subject Alternative Label</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Test Subject Definition</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
       <c r="G23" t="inlineStr"/>
@@ -1654,11 +1670,7 @@
       <c r="R23" t="inlineStr"/>
       <c r="S23" t="inlineStr"/>
       <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U23" t="inlineStr"/>
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
@@ -1682,11 +1694,19 @@
           <t>vocab:1001</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Test Narrow Subject</t>
+        </is>
+      </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Test Top Subject</t>
+        </is>
+      </c>
       <c r="G24" t="inlineStr"/>
       <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
@@ -1701,11 +1721,7 @@
       <c r="R24" t="inlineStr"/>
       <c r="S24" t="inlineStr"/>
       <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U24" t="inlineStr"/>
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
@@ -1729,7 +1745,11 @@
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Test Top Subject 2</t>
+        </is>
+      </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1748,11 +1768,7 @@
       <c r="R25" t="inlineStr"/>
       <c r="S25" t="inlineStr"/>
       <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U25" t="inlineStr"/>
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
@@ -1776,11 +1792,19 @@
           <t>vocab:1003</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Test Narrow Subject 2</t>
+        </is>
+      </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Test Top Subject 2</t>
+        </is>
+      </c>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1795,11 +1819,7 @@
       <c r="R26" t="inlineStr"/>
       <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
+      <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
@@ -1817,1343 +1837,6 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vocab:1004</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0003-3277-3107</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>vocab:1005</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vocab:1008</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vocab:1009</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vocab:1010</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1012</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vocab:1013</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vocab:1014</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>vocab:1015</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vocab:1016</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vocab:1018</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>vocab:1019</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>vocab:1022</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>vocab:1023</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>vocab:1025</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vocab:1026</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>vocab:1027</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>vocab:1029</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>vocab:1030</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>vocab:1031</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>vocab:1032</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>vocab:1033</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>vocab:1034</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:18:49+00:00</t>
+          <t>2022-06-05T08:56:29+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1309,12 +1309,12 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.1</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1360,12 +1360,12 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>enter date of creation in the form bellow</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1411,12 +1411,12 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:modified</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-05T08:56:29+00:00</t>
+          <t>2022-06-11T18:34:42+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>skos:prefLabel@en(id="label")^^xsd:string</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T18:34:42+00:00</t>
+          <t>2022-06-11T18:39:12+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")^^xsd:string</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK26"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,19 +458,6 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
-      <c r="Z1" t="inlineStr"/>
-      <c r="AA1" t="inlineStr"/>
-      <c r="AB1" t="inlineStr"/>
-      <c r="AC1" t="inlineStr"/>
-      <c r="AD1" t="inlineStr"/>
-      <c r="AE1" t="inlineStr"/>
-      <c r="AF1" t="inlineStr"/>
-      <c r="AG1" t="inlineStr"/>
-      <c r="AH1" t="inlineStr"/>
-      <c r="AI1" t="inlineStr"/>
-      <c r="AJ1" t="inlineStr"/>
-      <c r="AK1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -501,19 +488,6 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
-      <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -556,19 +530,6 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="inlineStr"/>
-      <c r="AE3" t="inlineStr"/>
-      <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -611,19 +572,6 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="inlineStr"/>
-      <c r="AE4" t="inlineStr"/>
-      <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -666,19 +614,6 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
-      <c r="AD5" t="inlineStr"/>
-      <c r="AE5" t="inlineStr"/>
-      <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -721,41 +656,16 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
-      <c r="AD6" t="inlineStr"/>
-      <c r="AE6" t="inlineStr"/>
-      <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>iop</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>I-ADOPT Ontology</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -776,43 +686,24 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
-      <c r="Z7" t="inlineStr"/>
-      <c r="AA7" t="inlineStr"/>
-      <c r="AB7" t="inlineStr"/>
-      <c r="AC7" t="inlineStr"/>
-      <c r="AD7" t="inlineStr"/>
-      <c r="AE7" t="inlineStr"/>
-      <c r="AF7" t="inlineStr"/>
-      <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>puv</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>A simple ontology which implements the Parameter Usage 
-Vocabulary semantic model, as described at 
-https://github.com/nvs-vocabs/P01.</t>
-        </is>
-      </c>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -833,41 +724,24 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr"/>
-      <c r="Z8" t="inlineStr"/>
-      <c r="AA8" t="inlineStr"/>
-      <c r="AB8" t="inlineStr"/>
-      <c r="AC8" t="inlineStr"/>
-      <c r="AD8" t="inlineStr"/>
-      <c r="AE8" t="inlineStr"/>
-      <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>sosa</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Semantic Sensor Network Ontology</t>
-        </is>
-      </c>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -888,41 +762,24 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
-      <c r="AE9" t="inlineStr"/>
-      <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>PREFIX</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+          <t>Home page of community creating vocabulary</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -943,41 +800,20 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="inlineStr"/>
-      <c r="AA10" t="inlineStr"/>
-      <c r="AB10" t="inlineStr"/>
-      <c r="AC10" t="inlineStr"/>
-      <c r="AD10" t="inlineStr"/>
-      <c r="AE10" t="inlineStr"/>
-      <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>PREFIX</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>unit</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -998,28 +834,23 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
-      <c r="Z11" t="inlineStr"/>
-      <c r="AA11" t="inlineStr"/>
-      <c r="AB11" t="inlineStr"/>
-      <c r="AC11" t="inlineStr"/>
-      <c r="AD11" t="inlineStr"/>
-      <c r="AE11" t="inlineStr"/>
-      <c r="AF11" t="inlineStr"/>
-      <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
+          <t>dct:rights</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -1041,34 +872,21 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
-      <c r="AE12" t="inlineStr"/>
-      <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -1092,34 +910,21 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
-      <c r="Y13" t="inlineStr"/>
-      <c r="Z13" t="inlineStr"/>
-      <c r="AA13" t="inlineStr"/>
-      <c r="AB13" t="inlineStr"/>
-      <c r="AC13" t="inlineStr"/>
-      <c r="AD13" t="inlineStr"/>
-      <c r="AE13" t="inlineStr"/>
-      <c r="AF13" t="inlineStr"/>
-      <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1143,34 +948,21 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
-      <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
-      <c r="AD14" t="inlineStr"/>
-      <c r="AE14" t="inlineStr"/>
-      <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>23/06/2022T11:30:05+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1194,32 +986,15 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
-      <c r="Z15" t="inlineStr"/>
-      <c r="AA15" t="inlineStr"/>
-      <c r="AB15" t="inlineStr"/>
-      <c r="AC15" t="inlineStr"/>
-      <c r="AD15" t="inlineStr"/>
-      <c r="AE15" t="inlineStr"/>
-      <c r="AF15" t="inlineStr"/>
-      <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>Definition of terms</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1241,48 +1016,83 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
-      <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="inlineStr"/>
-      <c r="AB16" t="inlineStr"/>
-      <c r="AC16" t="inlineStr"/>
-      <c r="AD16" t="inlineStr"/>
-      <c r="AE16" t="inlineStr"/>
-      <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr"/>
-      <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1292,47 +1102,54 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
-      <c r="Y17" t="inlineStr"/>
-      <c r="Z17" t="inlineStr"/>
-      <c r="AA17" t="inlineStr"/>
-      <c r="AB17" t="inlineStr"/>
-      <c r="AC17" t="inlineStr"/>
-      <c r="AD17" t="inlineStr"/>
-      <c r="AE17" t="inlineStr"/>
-      <c r="AF17" t="inlineStr"/>
-      <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+          <t>attention</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>The process of focusing on certain aspects of current experience to the exclusion of others. It is the act of heeding or taking notice or concentrating. (MeSH)</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1843</t>
+        </is>
+      </c>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1843</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1343,47 +1160,54 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr"/>
-      <c r="Z18" t="inlineStr"/>
-      <c r="AA18" t="inlineStr"/>
-      <c r="AB18" t="inlineStr"/>
-      <c r="AC18" t="inlineStr"/>
-      <c r="AD18" t="inlineStr"/>
-      <c r="AE18" t="inlineStr"/>
-      <c r="AF18" t="inlineStr"/>
-      <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+          <t>consciousness</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>The state of being alert, oriented, and responsive to the environment.</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C37929</t>
+        </is>
+      </c>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C37929</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1394,47 +1218,54 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
-      <c r="Y19" t="inlineStr"/>
-      <c r="Z19" t="inlineStr"/>
-      <c r="AA19" t="inlineStr"/>
-      <c r="AB19" t="inlineStr"/>
-      <c r="AC19" t="inlineStr"/>
-      <c r="AD19" t="inlineStr"/>
-      <c r="AE19" t="inlineStr"/>
-      <c r="AF19" t="inlineStr"/>
-      <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-11T18:39:12+00:00</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>The cognitive process of encoding, storing and retrieving past experience</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1833</t>
+        </is>
+      </c>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1833</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1445,39 +1276,58 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-      <c r="Z20" t="inlineStr"/>
-      <c r="AA20" t="inlineStr"/>
-      <c r="AB20" t="inlineStr"/>
-      <c r="AC20" t="inlineStr"/>
-      <c r="AD20" t="inlineStr"/>
-      <c r="AE20" t="inlineStr"/>
-      <c r="AF20" t="inlineStr"/>
-      <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>working memory</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
-      <c r="G21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>active maintenance and flexible updating of goal-task relevant information (items, goals, strategies, etc.) in a form that resists interference but has limited capacity. These representations may involve flexible binding of representations, may be characterized by the absence of external support for the internally maintained representations, and are frequently temporary due to ongoing interference</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>http://www.cognitiveatlas.org/ontology/cogat.owl#CAO_00587</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>memory</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>http://www.cognitiveatlas.org/ontology/cogat.owl#CAO_00587</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1488,182 +1338,112 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
-      <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
-      <c r="AE21" t="inlineStr"/>
-      <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>vocab:1004</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
+          <t>somatosensory</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>The tactile modality is the sensory modality pertaining to the sense of contact via the skin with other, external objects.</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
+          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_0000456</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
+          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_0000456</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>2022-06-23</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr"/>
-      <c r="Z22" t="inlineStr"/>
-      <c r="AA22" t="inlineStr"/>
-      <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="inlineStr"/>
-      <c r="AD22" t="inlineStr"/>
-      <c r="AE22" t="inlineStr"/>
-      <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>vocab:1005</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Test Top Subject</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Test Subject Alternative Label</t>
-        </is>
-      </c>
+          <t>magnetoencephalography</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr"/>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Test Subject Definition</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr"/>
+          <t>The measurement of the magnetic fields produced by electrical activity in the brain, usually conducted externally, using extremely sensitive devices. The measurement of electric fields in the brain provides information about the localization of brain activity which is complementary to that provided by electroencephalography.</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16811</t>
+        </is>
+      </c>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16811</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>0000-0003-2195-3997</t>
+        </is>
+      </c>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1674,168 +1454,6 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr"/>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
-      <c r="AB23" t="inlineStr"/>
-      <c r="AC23" t="inlineStr"/>
-      <c r="AD23" t="inlineStr"/>
-      <c r="AE23" t="inlineStr"/>
-      <c r="AF23" t="inlineStr"/>
-      <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Test Narrow Subject</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Test Top Subject</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Test Top Subject 2</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Test Narrow Subject 2</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Test Top Subject 2</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -957,7 +957,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23/06/2022T11:30:05+00:00</t>
+          <t>23/06/2022T14:52:27+00:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1455,6 +1455,114 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>bids</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Brain Imaging Data Structure</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>https://bids.neuroimaging.io/specification.html</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>0000-0001-6361-2571</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>power spectral analysis</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Computation of the power spectrum of the signal</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>https://www.sciencedirect.com/topics/engineering/power-spectrum</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>0000-0001-6361-2571</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:AM23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/subjects</t>
+          <t>http://purl.org/m4m</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
@@ -458,6 +458,21 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr"/>
+      <c r="Z1" t="inlineStr"/>
+      <c r="AA1" t="inlineStr"/>
+      <c r="AB1" t="inlineStr"/>
+      <c r="AC1" t="inlineStr"/>
+      <c r="AD1" t="inlineStr"/>
+      <c r="AE1" t="inlineStr"/>
+      <c r="AF1" t="inlineStr"/>
+      <c r="AG1" t="inlineStr"/>
+      <c r="AH1" t="inlineStr"/>
+      <c r="AI1" t="inlineStr"/>
+      <c r="AJ1" t="inlineStr"/>
+      <c r="AK1" t="inlineStr"/>
+      <c r="AL1" t="inlineStr"/>
+      <c r="AM1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -488,6 +503,21 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -502,7 +532,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m21/subjects/</t>
+          <t>http://purl.org/m4m/</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -530,6 +560,21 @@
       <c r="V3" t="inlineStr"/>
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -572,6 +617,21 @@
       <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -614,6 +674,21 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -656,16 +731,43 @@
       <c r="V6" t="inlineStr"/>
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>iop</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>I-ADOPT Ontology</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
@@ -686,24 +788,45 @@
       <c r="V7" t="inlineStr"/>
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>puv</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>A simple ontology which implements the Parameter Usage 
+Vocabulary semantic model, as described at 
+https://github.com/nvs-vocabs/P01.</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
@@ -724,24 +847,43 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>sosa</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Semantic Sensor Network Ontology</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
@@ -762,24 +904,43 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -800,20 +961,43 @@
       <c r="V10" t="inlineStr"/>
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
@@ -834,23 +1018,30 @@
       <c r="V11" t="inlineStr"/>
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
@@ -872,21 +1063,36 @@
       <c r="V12" t="inlineStr"/>
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D13" t="inlineStr"/>
@@ -910,21 +1116,36 @@
       <c r="V13" t="inlineStr"/>
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -948,21 +1169,36 @@
       <c r="V14" t="inlineStr"/>
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>23/06/2022T14:52:27+00:00</t>
+          <t>URL to the community developing vocab</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -986,15 +1222,34 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1016,83 +1271,50 @@
       <c r="V16" t="inlineStr"/>
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
       <c r="P17" t="inlineStr"/>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="inlineStr"/>
@@ -1102,54 +1324,49 @@
       <c r="V17" t="inlineStr"/>
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>attention</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>The process of focusing on certain aspects of current experience to the exclusion of others. It is the act of heeding or taking notice or concentrating. (MeSH)</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1843</t>
-        </is>
-      </c>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1843</t>
-        </is>
-      </c>
+      <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
       <c r="O18" t="inlineStr"/>
       <c r="P18" t="inlineStr"/>
       <c r="Q18" t="inlineStr"/>
@@ -1160,54 +1377,49 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>consciousness</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>The state of being alert, oriented, and responsive to the environment.</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C37929</t>
-        </is>
-      </c>
+          <t>2022-06-01T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C37929</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
       <c r="O19" t="inlineStr"/>
       <c r="P19" t="inlineStr"/>
       <c r="Q19" t="inlineStr"/>
@@ -1218,54 +1430,49 @@
       <c r="V19" t="inlineStr"/>
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>The cognitive process of encoding, storing and retrieving past experience</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1833</t>
-        </is>
-      </c>
+          <t>2023-01-29T19:40:52+00:00</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>http://uri.neuinfo.org/nif/nifstd/birnlex_1833</t>
-        </is>
-      </c>
+      <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="O20" t="inlineStr"/>
       <c r="P20" t="inlineStr"/>
       <c r="Q20" t="inlineStr"/>
@@ -1276,58 +1483,41 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>working memory</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>active maintenance and flexible updating of goal-task relevant information (items, goals, strategies, etc.) in a form that resists interference but has limited capacity. These representations may involve flexible binding of representations, may be characterized by the absence of external support for the internally maintained representations, and are frequently temporary due to ongoing interference</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>http://www.cognitiveatlas.org/ontology/cogat.owl#CAO_00587</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>memory</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>http://www.cognitiveatlas.org/ontology/cogat.owl#CAO_00587</t>
-        </is>
-      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="inlineStr"/>
       <c r="O21" t="inlineStr"/>
       <c r="P21" t="inlineStr"/>
       <c r="Q21" t="inlineStr"/>
@@ -1338,112 +1528,182 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>somatosensory</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>The tactile modality is the sensory modality pertaining to the sense of contact via the skin with other, external objects.</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_0000456</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr"/>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>http://purl.bioontology.org/NEMO/ontology/NEMO.owl#NEMO_0000456</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr"/>
-      <c r="I22" t="inlineStr"/>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2022-06-23</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="inlineStr"/>
-      <c r="T22" t="inlineStr"/>
-      <c r="U22" t="inlineStr"/>
-      <c r="V22" t="inlineStr"/>
-      <c r="W22" t="inlineStr"/>
-      <c r="X22" t="inlineStr"/>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>magnetoencephalography</t>
+          <t>test term</t>
         </is>
       </c>
       <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>The measurement of the magnetic fields produced by electrical activity in the brain, usually conducted externally, using extremely sensitive devices. The measurement of electric fields in the brain provides information about the localization of brain activity which is complementary to that provided by electroencephalography.</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16811</t>
-        </is>
-      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16811</t>
-        </is>
-      </c>
+      <c r="G23" t="inlineStr"/>
       <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>0000-0003-2195-3997</t>
-        </is>
-      </c>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
       <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr"/>
@@ -1454,114 +1714,21 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>bids</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Brain Imaging Data Structure</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://bids.neuroimaging.io/specification.html</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>0000-0001-6361-2571</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>power spectral analysis</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Computation of the power spectrum of the signal</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://www.sciencedirect.com/topics/engineering/power-spectrum</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>2022-06-23</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0000-0001-6361-2571</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM23"/>
+  <dimension ref="A1:AM24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -928,19 +928,15 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>xsd</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -985,17 +981,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>qudt</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
       <c r="E11" t="inlineStr"/>
@@ -1037,12 +1033,24 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>unit</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
@@ -1082,19 +1090,11 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Vocabulary title</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1135,17 +1135,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>Vocabulary title</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
@@ -1188,17 +1188,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>Vocabulary description</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1241,13 +1241,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:creator</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>foaf:homepage</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>URL to the community developing vocab</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1290,17 +1294,13 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:rights</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
-        </is>
-      </c>
+          <t>dct:creator</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1343,17 +1343,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1396,17 +1396,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1449,17 +1449,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2023-01-29T19:40:52+00:00</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1502,11 +1502,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>dct:modified^^xsd:datetime</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2023-01-29T20:06:06+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
@@ -1547,124 +1555,32 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="R22" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="T22" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="U22" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="W22" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="X22" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr"/>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr"/>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
@@ -1684,36 +1600,124 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>test term</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr"/>
-      <c r="E23" t="inlineStr"/>
-      <c r="F23" t="inlineStr"/>
-      <c r="G23" t="inlineStr"/>
-      <c r="H23" t="inlineStr"/>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="inlineStr"/>
-      <c r="T23" t="inlineStr"/>
-      <c r="U23" t="inlineStr"/>
-      <c r="V23" t="inlineStr"/>
-      <c r="W23" t="inlineStr"/>
-      <c r="X23" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
@@ -1730,6 +1734,55 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
     </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>test term</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM24"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-01-29T20:06:06+00:00</t>
+          <t>2023-05-01T13:17:01+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>test term</t>
+          <t>M4M26 vocabulary</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1783,6 +1783,112 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
     </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-01T13:17:01+00:00</t>
+          <t>2023-05-01T13:21:00+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1799,7 +1799,7 @@
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>M4M26 vocabulary</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1852,7 +1852,7 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>M4M26 vocabulary</t>
         </is>
       </c>
       <c r="G26" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-01T13:21:00+00:00</t>
+          <t>2023-05-03T09:31:11+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1889,6 +1889,381 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>concentration of chemical substances in environment</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>This is concentration level of a chemical in the environment</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>concentration of alpha-HCH</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>concentration of beta-HCH</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>concentration of gamma-HCH</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>concentration of delta-HCH</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>concentration of sum of HCHs</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>concentration of o,p'-DDE</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Vocabulary title</t>
+          <t>PARC Demo Vocabulary</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Vocabulary description</t>
+          <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1246,7 +1246,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>URL to the community developing vocab</t>
+          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1297,7 +1297,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://orcid.org/0000-0002-5727-4999</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1507,7 +1511,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-03T09:31:11+00:00</t>
+          <t>2023-05-03T09:39:39+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-03T09:39:39+00:00</t>
+          <t>2023-05-03T10:02:02+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2268,6 +2268,108 @@
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>sampling method</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>active sampling</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>sampling method</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM35"/>
+  <dimension ref="A1:AM26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1140,7 +1140,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>PARC Demo Vocabulary</t>
+          <t>Demo M4M Vocabulary</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1297,11 +1297,7 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0002-5727-4999</t>
-        </is>
-      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1511,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-05-03T10:02:02+00:00</t>
+          <t>2023-06-08T05:50:35+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1614,22 +1610,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
@@ -1798,14 +1794,14 @@
           <t>subject</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr"/>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>M4M26 vocabulary</t>
+        </is>
+      </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>M4M26 vocabulary</t>
-        </is>
-      </c>
+      <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
@@ -1851,14 +1847,14 @@
           <t>variable</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>M4M26 vocabulary</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>M4M26 vocabulary</t>
-        </is>
-      </c>
+      <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
@@ -1893,483 +1889,6 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>concentration of chemical substances in environment</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>This is concentration level of a chemical in the environment</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>vocab:1004</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>concentration of alpha-HCH</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vocab:1005</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>concentration of beta-HCH</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>concentration of gamma-HCH</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>concentration of delta-HCH</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vocab:1008</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>concentration of sum of HCHs</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vocab:1009</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>concentration of o,p'-DDE</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>vocab:1010</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>sampling method</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>active sampling</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>sampling method</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-08T05:50:35+00:00</t>
+          <t>2023-06-08T05:52:32+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1742,7 +1742,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M4M26 vocabulary</t>
+          <t>M4M.25 vocabulary</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-08T05:52:32+00:00</t>
+          <t>2023-06-12T09:19:29+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1507,7 +1507,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-12T09:19:29+00:00</t>
+          <t>2023-06-12T14:18:58+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>M4M26 vocabulary</t>
+          <t>M4M.25 vocabulary</t>
         </is>
       </c>
       <c r="D25" t="inlineStr"/>
@@ -1849,7 +1849,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>M4M26 vocabulary</t>
+          <t>M4M.25 vocabulary</t>
         </is>
       </c>
       <c r="D26" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM26"/>
+  <dimension ref="A1:AM44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,7 +1297,11 @@
           <t>dct:creator</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0000-0002-1665-678X</t>
+        </is>
+      </c>
       <c r="C17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
@@ -1507,7 +1511,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-12T14:18:58+00:00</t>
+          <t>2023-06-12T17:32:46+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1889,6 +1893,960 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
     </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>nNOS-CreERT2 x GCaMP6f-expressing mice</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>ChAT-Cre x GCaMP6f-expressing mice</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mouse study</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>neurological studies</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>phasic calcium transient response</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Myenteric neurons</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Murine colon</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Spontaneous colonic migrating motor complexes (CMMCs)</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Brush stimulation of the mucosa</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Electrical field stimulation (EFS)</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Elongation of the colon</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Microscopy</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Optical physiology</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Myenteric nerve plexus</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Calcium imaging</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Neuron activity</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Nikon Eclipse FN1 upright fluorescence microscope</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Photometrics Prime 95B sCMOS camera</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>subject</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM44"/>
+  <dimension ref="A1:AM29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-06-12T17:32:46+00:00</t>
+          <t>2023-08-17T07:59:39+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>M4M.25 vocabulary</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1795,14 +1795,10 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>M4M.25 vocabulary</t>
-        </is>
-      </c>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
@@ -1848,14 +1844,10 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>M4M.25 vocabulary</t>
-        </is>
-      </c>
+          <t>community maturity level</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
@@ -1901,12 +1893,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>nNOS-CreERT2 x GCaMP6f-expressing mice</t>
+          <t>emerging</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>community maturity level</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1954,12 +1946,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ChAT-Cre x GCaMP6f-expressing mice</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>community maturity level</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2007,12 +1999,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mouse study</t>
+          <t>mature</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>community maturity level</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
@@ -2052,801 +2044,6 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>neurological studies</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>phasic calcium transient response</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vocab:1008</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Myenteric neurons</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vocab:1009</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Murine colon</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>vocab:1010</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Spontaneous colonic migrating motor complexes (CMMCs)</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Brush stimulation of the mucosa</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vocab:1012</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Electrical field stimulation (EFS)</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vocab:1013</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Elongation of the colon</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>vocab:1014</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Microscopy</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vocab:1015</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Optical physiology</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vocab:1016</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Myenteric nerve plexus</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Calcium imaging</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>vocab:1018</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Neuron activity</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>vocab:1019</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Nikon Eclipse FN1 upright fluorescence microscope</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Photometrics Prime 95B sCMOS camera</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM29"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,6 +473,7 @@
       <c r="AK1" t="inlineStr"/>
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
+      <c r="AN1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -518,6 +519,7 @@
       <c r="AK2" t="inlineStr"/>
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -535,12 +537,12 @@
           <t>http://purl.org/m4m/</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
@@ -575,6 +577,7 @@
       <c r="AK3" t="inlineStr"/>
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -592,12 +595,12 @@
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
@@ -632,6 +635,7 @@
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -649,12 +653,12 @@
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
@@ -689,6 +693,7 @@
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,12 +711,12 @@
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
@@ -746,6 +751,7 @@
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -763,12 +769,12 @@
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
@@ -803,6 +809,7 @@
       <c r="AK7" t="inlineStr"/>
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -820,14 +827,14 @@
           <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
@@ -862,6 +869,7 @@
       <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -879,12 +887,12 @@
           <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
@@ -919,6 +927,7 @@
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -972,6 +981,7 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -989,12 +999,12 @@
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1029,6 +1039,7 @@
       <c r="AK11" t="inlineStr"/>
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1046,12 +1057,12 @@
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1086,6 +1097,7 @@
       <c r="AK12" t="inlineStr"/>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1131,6 +1143,7 @@
       <c r="AK13" t="inlineStr"/>
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1184,6 +1197,7 @@
       <c r="AK14" t="inlineStr"/>
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1237,6 +1251,7 @@
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1290,6 +1305,7 @@
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1343,6 +1359,7 @@
       <c r="AK17" t="inlineStr"/>
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1396,6 +1413,7 @@
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1449,6 +1467,7 @@
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1502,6 +1521,7 @@
       <c r="AK20" t="inlineStr"/>
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1511,7 +1531,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T07:59:39+00:00</t>
+          <t>2023-08-17T09:08:29+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1555,6 +1575,7 @@
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1600,6 +1621,7 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1619,110 +1641,114 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>puv:statistic(separator=",")</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>puv:uom(separator=",")</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -1737,6 +1763,7 @@
       <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1786,6 +1813,7 @@
       <c r="AK24" t="inlineStr"/>
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1835,6 +1863,7 @@
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1884,6 +1913,7 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1937,6 +1967,7 @@
       <c r="AK27" t="inlineStr"/>
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1990,6 +2021,7 @@
       <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2043,6 +2075,61 @@
       <c r="AK29" t="inlineStr"/>
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>hasMaturityLevel</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T09:08:29+00:00</t>
+          <t>2023-08-17T11:10:08+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1636,7 +1636,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>skos:broader(lookupColumn="skos:prefLabel" separator=",")</t>
+          <t>skos:broader(separator=",")</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1928,7 +1928,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>community maturity level</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
@@ -1982,7 +1982,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>community maturity level</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
@@ -2036,7 +2036,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>community maturity level</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="D29" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T11:10:08+00:00</t>
+          <t>2023-08-17T12:01:39+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1531,7 +1531,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-08-17T12:01:39+00:00</t>
+          <t>2023-09-13T05:57:53+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1765,372 +1765,6 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
-      <c r="Z24" t="inlineStr"/>
-      <c r="AA24" t="inlineStr"/>
-      <c r="AB24" t="inlineStr"/>
-      <c r="AC24" t="inlineStr"/>
-      <c r="AD24" t="inlineStr"/>
-      <c r="AE24" t="inlineStr"/>
-      <c r="AF24" t="inlineStr"/>
-      <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
-      <c r="H25" t="inlineStr"/>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
-      <c r="AC25" t="inlineStr"/>
-      <c r="AD25" t="inlineStr"/>
-      <c r="AE25" t="inlineStr"/>
-      <c r="AF25" t="inlineStr"/>
-      <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>community maturity level</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="inlineStr"/>
-      <c r="T26" t="inlineStr"/>
-      <c r="U26" t="inlineStr"/>
-      <c r="V26" t="inlineStr"/>
-      <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
-      <c r="Z26" t="inlineStr"/>
-      <c r="AA26" t="inlineStr"/>
-      <c r="AB26" t="inlineStr"/>
-      <c r="AC26" t="inlineStr"/>
-      <c r="AD26" t="inlineStr"/>
-      <c r="AE26" t="inlineStr"/>
-      <c r="AF26" t="inlineStr"/>
-      <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>emerging</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="inlineStr"/>
-      <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr"/>
-      <c r="V27" t="inlineStr"/>
-      <c r="W27" t="inlineStr"/>
-      <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr"/>
-      <c r="Z27" t="inlineStr"/>
-      <c r="AA27" t="inlineStr"/>
-      <c r="AB27" t="inlineStr"/>
-      <c r="AC27" t="inlineStr"/>
-      <c r="AD27" t="inlineStr"/>
-      <c r="AE27" t="inlineStr"/>
-      <c r="AF27" t="inlineStr"/>
-      <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>vocab:1004</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="inlineStr"/>
-      <c r="T28" t="inlineStr"/>
-      <c r="U28" t="inlineStr"/>
-      <c r="V28" t="inlineStr"/>
-      <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr"/>
-      <c r="Z28" t="inlineStr"/>
-      <c r="AA28" t="inlineStr"/>
-      <c r="AB28" t="inlineStr"/>
-      <c r="AC28" t="inlineStr"/>
-      <c r="AD28" t="inlineStr"/>
-      <c r="AE28" t="inlineStr"/>
-      <c r="AF28" t="inlineStr"/>
-      <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>vocab:1005</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>mature</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="inlineStr"/>
-      <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="inlineStr"/>
-      <c r="T29" t="inlineStr"/>
-      <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
-      <c r="W29" t="inlineStr"/>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
-      <c r="Z29" t="inlineStr"/>
-      <c r="AA29" t="inlineStr"/>
-      <c r="AB29" t="inlineStr"/>
-      <c r="AC29" t="inlineStr"/>
-      <c r="AD29" t="inlineStr"/>
-      <c r="AE29" t="inlineStr"/>
-      <c r="AF29" t="inlineStr"/>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>vocab:1006</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>hasMaturityLevel</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="inlineStr"/>
-      <c r="T30" t="inlineStr"/>
-      <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
-      <c r="W30" t="inlineStr"/>
-      <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr"/>
-      <c r="Z30" t="inlineStr"/>
-      <c r="AA30" t="inlineStr"/>
-      <c r="AB30" t="inlineStr"/>
-      <c r="AC30" t="inlineStr"/>
-      <c r="AD30" t="inlineStr"/>
-      <c r="AE30" t="inlineStr"/>
-      <c r="AF30" t="inlineStr"/>
-      <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN23"/>
+  <dimension ref="A1:AQ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,13 +432,13 @@
           <t>http://purl.org/m4m</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -474,6 +474,9 @@
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +523,9 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,19 +538,19 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>http://purl.org/m4m/</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
+          <t>http://purl.org/m4m/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -578,6 +584,9 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,19 +599,19 @@
           <t>skos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -636,6 +645,9 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,19 +660,19 @@
           <t>pav</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -694,6 +706,9 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,19 +721,19 @@
           <t>dct</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -752,6 +767,9 @@
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -764,19 +782,19 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -810,6 +828,9 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -822,21 +843,21 @@
           <t>puv</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -870,6 +891,9 @@
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -882,19 +906,19 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/sosa/</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -928,6 +952,9 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -940,13 +967,13 @@
           <t>xsd</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -982,6 +1009,9 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -994,19 +1024,19 @@
           <t>qudt</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1040,6 +1070,9 @@
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1052,19 +1085,19 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1098,6 +1131,9 @@
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1144,6 +1180,9 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1156,13 +1195,13 @@
           <t>Demo M4M Vocabulary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1198,6 +1237,9 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1210,13 +1252,13 @@
           <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1252,6 +1294,9 @@
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1264,13 +1309,13 @@
           <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Home page of community creating vocabulary</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1306,6 +1351,9 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1318,13 +1366,13 @@
           <t>0000-0002-1665-678X</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1360,6 +1408,9 @@
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1372,13 +1423,13 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1414,6 +1465,9 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1426,13 +1480,13 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vocabulary version</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1468,6 +1522,9 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1480,13 +1537,13 @@
           <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Date when vocabulary was initially created</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1522,6 +1579,9 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1531,16 +1591,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T05:57:53+00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>2023-09-13T11:10:24+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1576,6 +1636,9 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1622,6 +1685,9 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1636,121 +1702,129 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>skos:altLabel@en(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>puv:statistic(separator=",")</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>puv:uom(separator=",")</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1764,6 +1838,2065 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>analytical method</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>identification method</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>spectrometry</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
+      <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
+      <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>vocab:1004</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>inductively coupled plasma mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
+      <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>vocab:1005</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>atmospheric presure chemical ionization high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
+      <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr"/>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>electrothermal capture negative ion mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mass spectrometry with Negative chemical ionization</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">other spectrometry </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Flame Atomic Emission Spectrometry</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>flame Atomic absorption Spectrometry</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>electrotermal atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>inductively coupled plasma with optical emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>separation method</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>chromatography</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gas chromatography</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>combined method</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HPLC combination</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vocab:1023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with diode array detector</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HPLC-DAD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>HPLC-DAD</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vocab:1025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vocab:1026</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GC combination</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>gas chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vocab:1029</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gas chromatography with electron capture detector</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vocab:1030</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vocab:1031</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gas chromatography coupled to electron capture negative ion mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gas chromatography with mass spectrometry with Negative chemical ionization</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vocab:1033</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gas chromatography with high resolution mass spectrometry (HRMS)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vocab:1034</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vocab:1035</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gas chromatography with electron capture detector</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ59"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,12 +433,12 @@
         </is>
       </c>
       <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -475,8 +475,6 @@
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
-      <c r="AP1" t="inlineStr"/>
-      <c r="AQ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -524,8 +522,6 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -539,18 +535,18 @@
         </is>
       </c>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>http://purl.org/m4m/</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -585,8 +581,6 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -600,18 +594,18 @@
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
         <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -646,8 +640,6 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -661,18 +653,18 @@
         </is>
       </c>
       <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -707,8 +699,6 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -722,18 +712,18 @@
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -768,8 +758,6 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -783,18 +771,18 @@
         </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
         <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -829,8 +817,6 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -844,20 +830,20 @@
         </is>
       </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -892,8 +878,6 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -907,18 +891,18 @@
         </is>
       </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
         <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -953,8 +937,6 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -968,12 +950,12 @@
         </is>
       </c>
       <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1010,8 +992,6 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1025,18 +1005,18 @@
         </is>
       </c>
       <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1071,8 +1051,6 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1086,18 +1064,18 @@
         </is>
       </c>
       <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
         <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1132,8 +1110,6 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1181,8 +1157,6 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1196,12 +1170,12 @@
         </is>
       </c>
       <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1238,8 +1212,6 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1253,12 +1225,12 @@
         </is>
       </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
         </is>
       </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1295,8 +1267,6 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1310,12 +1280,12 @@
         </is>
       </c>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Home page of community creating vocabulary</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1352,8 +1322,6 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1367,12 +1335,12 @@
         </is>
       </c>
       <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1409,8 +1377,6 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1424,12 +1390,12 @@
         </is>
       </c>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1466,8 +1432,6 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1481,12 +1445,12 @@
         </is>
       </c>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Vocabulary version</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1523,8 +1487,6 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1538,12 +1500,12 @@
         </is>
       </c>
       <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Date when vocabulary was initially created</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1580,8 +1542,6 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1591,16 +1551,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T11:10:24+00:00</t>
+          <t>2023-09-13T11:15:24+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1637,8 +1597,6 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1686,8 +1644,6 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1702,129 +1658,125 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>skos:altLabel@en(separator=",")</t>
+          <t>skos:notation</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>skos:notation</t>
+          <t>skos:broader(separator=",")</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>skos:broader(separator=",")</t>
+          <t>rdf:type</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>skos:broadMatch(separator=",")</t>
+          <t>iop:hasProperty</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>puv:statistic(separator=",")</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>puv:uom(separator=",")</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>puv:uom(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1839,8 +1791,6 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1892,8 +1842,6 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1907,12 +1855,12 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>vocab:1000</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
       <c r="H25" t="inlineStr"/>
@@ -1949,8 +1897,6 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1964,12 +1910,12 @@
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>vocab:1001</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
       <c r="H26" t="inlineStr"/>
@@ -2006,8 +1952,6 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2021,12 +1965,12 @@
         </is>
       </c>
       <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -2063,8 +2007,6 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2078,12 +2020,12 @@
         </is>
       </c>
       <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2120,8 +2062,6 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2135,12 +2075,12 @@
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2177,8 +2117,6 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2192,12 +2130,12 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2234,8 +2172,6 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2249,12 +2185,12 @@
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2291,8 +2227,6 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
-      <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2306,12 +2240,12 @@
         </is>
       </c>
       <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
       <c r="H32" t="inlineStr"/>
@@ -2348,8 +2282,6 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
-      <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2363,12 +2295,12 @@
         </is>
       </c>
       <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>vocab:1003</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr"/>
       <c r="H33" t="inlineStr"/>
@@ -2405,8 +2337,6 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
-      <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2420,12 +2350,12 @@
         </is>
       </c>
       <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>vocab:1001</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr"/>
       <c r="H34" t="inlineStr"/>
@@ -2462,8 +2392,6 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
-      <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2477,12 +2405,12 @@
         </is>
       </c>
       <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>vocab:1011</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
       <c r="H35" t="inlineStr"/>
@@ -2519,8 +2447,6 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2534,12 +2460,12 @@
         </is>
       </c>
       <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
-      <c r="E36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>vocab:1011</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
       <c r="H36" t="inlineStr"/>
@@ -2576,8 +2502,6 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2591,12 +2515,12 @@
         </is>
       </c>
       <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>vocab:1011</t>
         </is>
       </c>
+      <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
@@ -2633,8 +2557,6 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2648,12 +2570,12 @@
         </is>
       </c>
       <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>vocab:1011</t>
         </is>
       </c>
+      <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="inlineStr"/>
@@ -2690,8 +2612,6 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
-      <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2705,12 +2625,12 @@
         </is>
       </c>
       <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
+      <c r="D39" t="inlineStr">
         <is>
           <t>vocab:1011</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
       <c r="H39" t="inlineStr"/>
@@ -2747,8 +2667,6 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2762,12 +2680,12 @@
         </is>
       </c>
       <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr">
+      <c r="D40" t="inlineStr">
         <is>
           <t>vocab:1000</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="inlineStr"/>
@@ -2804,8 +2722,6 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2819,12 +2735,12 @@
         </is>
       </c>
       <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr">
+      <c r="D41" t="inlineStr">
         <is>
           <t>vocab:1016</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
@@ -2861,8 +2777,6 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2876,12 +2790,12 @@
         </is>
       </c>
       <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
+      <c r="D42" t="inlineStr">
         <is>
           <t>vocab:1017</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
       <c r="H42" t="inlineStr"/>
@@ -2918,8 +2832,6 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
-      <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2933,12 +2845,12 @@
         </is>
       </c>
       <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>vocab:1017</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
@@ -2975,8 +2887,6 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
-      <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2990,12 +2900,12 @@
         </is>
       </c>
       <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>vocab:1000</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
       <c r="H44" t="inlineStr"/>
@@ -3032,8 +2942,6 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
-      <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3047,12 +2955,12 @@
         </is>
       </c>
       <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr">
+      <c r="D45" t="inlineStr">
         <is>
           <t>vocab:1020</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
       <c r="H45" t="inlineStr"/>
@@ -3089,8 +2997,6 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
-      <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3104,12 +3010,12 @@
         </is>
       </c>
       <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>vocab:1021</t>
         </is>
       </c>
+      <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
@@ -3146,8 +3052,6 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
-      <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3167,14 +3071,10 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>HPLC-DAD</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
           <t>vocab:1021</t>
         </is>
       </c>
+      <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
       <c r="H47" t="inlineStr"/>
@@ -3211,8 +3111,6 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
-      <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3226,12 +3124,12 @@
         </is>
       </c>
       <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>vocab:1022</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
@@ -3268,8 +3166,6 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
-      <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3283,12 +3179,12 @@
         </is>
       </c>
       <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>vocab:1021</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="inlineStr"/>
@@ -3325,8 +3221,6 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
-      <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3340,12 +3234,12 @@
         </is>
       </c>
       <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>vocab:1022</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
@@ -3382,8 +3276,6 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
-      <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3397,12 +3289,12 @@
         </is>
       </c>
       <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>vocab:1020</t>
         </is>
       </c>
+      <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
       <c r="H51" t="inlineStr"/>
@@ -3439,8 +3331,6 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
-      <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3454,12 +3344,12 @@
         </is>
       </c>
       <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>vocab:1027</t>
         </is>
       </c>
+      <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr"/>
       <c r="H52" t="inlineStr"/>
@@ -3496,8 +3386,6 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
-      <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3511,12 +3399,12 @@
         </is>
       </c>
       <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
@@ -3553,8 +3441,6 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
-      <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3568,12 +3454,12 @@
         </is>
       </c>
       <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr"/>
       <c r="H54" t="inlineStr"/>
@@ -3610,8 +3496,6 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
-      <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3625,12 +3509,12 @@
         </is>
       </c>
       <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
@@ -3667,8 +3551,6 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
-      <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3682,12 +3564,12 @@
         </is>
       </c>
       <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr"/>
       <c r="H56" t="inlineStr"/>
@@ -3724,8 +3606,6 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
-      <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3739,12 +3619,12 @@
         </is>
       </c>
       <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr">
+      <c r="D57" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
       <c r="H57" t="inlineStr"/>
@@ -3781,8 +3661,6 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
-      <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3796,12 +3674,12 @@
         </is>
       </c>
       <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr">
+      <c r="D58" t="inlineStr">
         <is>
           <t>vocab:1028</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
       <c r="H58" t="inlineStr"/>
@@ -3838,8 +3716,6 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
-      <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3853,12 +3729,12 @@
         </is>
       </c>
       <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
+      <c r="D59" t="inlineStr">
         <is>
           <t>vocab:1027</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
       <c r="H59" t="inlineStr"/>
@@ -3895,8 +3771,6 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
-      <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T11:15:24+00:00</t>
+          <t>2023-09-13T11:29:56+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr"/>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>skos:prefLabel@en</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,12 +432,12 @@
           <t>http://purl.org/m4m</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
-      <c r="D1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr"/>
       <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
@@ -474,7 +474,6 @@
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
-      <c r="AO1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -521,7 +520,6 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -534,18 +532,18 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>http://purl.org/m4m/</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
@@ -580,7 +578,6 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -593,18 +590,18 @@
           <t>skos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>http://www.w3.org/2004/02/skos/core#</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
@@ -639,7 +636,6 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,18 +648,18 @@
           <t>pav</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.org/pav/ </t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
@@ -698,7 +694,6 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -711,18 +706,18 @@
           <t>dct</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t xml:space="preserve">http://purl.org/dc/terms/ </t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
@@ -757,7 +752,6 @@
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -770,18 +764,18 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://w3id.org/iadopt/ont/</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr"/>
       <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
@@ -816,7 +810,6 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -829,20 +822,20 @@
           <t>puv</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://w3id.org/env/puv#</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
       <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
@@ -877,7 +870,6 @@
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -890,18 +882,18 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>http://www.w3.org/ns/sosa/</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
@@ -936,7 +928,6 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -949,12 +940,12 @@
           <t>xsd</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
@@ -991,7 +982,6 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1004,18 +994,18 @@
           <t>qudt</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>http://qudt.org/schema/qudt/</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr">
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
@@ -1050,7 +1040,6 @@
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1063,18 +1052,18 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
+      <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
@@ -1109,7 +1098,6 @@
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1156,7 +1144,6 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1169,12 +1156,12 @@
           <t>Demo M4M Vocabulary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
@@ -1211,7 +1198,6 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1224,12 +1210,12 @@
           <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
@@ -1266,7 +1252,6 @@
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1279,12 +1264,12 @@
           <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>Home page of community creating vocabulary</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
@@ -1321,7 +1306,6 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1334,12 +1318,12 @@
           <t>0000-0002-1665-678X</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
@@ -1376,7 +1360,6 @@
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1389,12 +1372,12 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
@@ -1431,7 +1414,6 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1444,12 +1426,12 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>Vocabulary version</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
@@ -1486,7 +1468,6 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1499,12 +1480,12 @@
           <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>Date when vocabulary was initially created</t>
         </is>
       </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
@@ -1541,7 +1522,6 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1551,15 +1531,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T11:29:56+00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr">
+          <t>2023-09-13T14:43:31+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
@@ -1596,7 +1576,6 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1643,7 +1622,6 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1653,129 +1631,125 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en</t>
+          <t>skos:prefLabel@en(id="label")</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>skos:notation</t>
+          <t>skos:broader(separator=",")</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>skos:broader(separator=",")</t>
+          <t>rdf:type</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>skos:definition@en</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>skos:definition@en</t>
+          <t>dct:source(separator=",")</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>dct:source(separator=",")</t>
+          <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
+          <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>skos:exactMatch(separator=",")</t>
+          <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>skos:closeMatch(separator=",")</t>
+          <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>skos:broadMatch(separator=",")</t>
+          <t>iop:hasProperty</t>
         </is>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>iop:hasProperty</t>
+          <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>iop:hasObjectOfInterest</t>
+          <t>iop:hasMatrix</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>iop:hasMatrix</t>
+          <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>iop:hasContextObject(separator=",")</t>
+          <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>iop:hasConstraint(separator=",")</t>
+          <t>puv:statistic(separator=",")</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>puv:statistic(separator=",")</t>
+          <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>puv:usesMethod(separator=",")</t>
+          <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>sosa:madeBySensor(separator=",")</t>
+          <t>puv:uom(separator=",")</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>puv:uom(separator=",")</t>
+          <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
       <c r="U23" t="inlineStr">
         <is>
-          <t>owl:deprecated^^xsd:boolean</t>
+          <t>skos:editorialNote@en</t>
         </is>
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1790,7 +1764,6 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1800,7 +1773,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>analytical method</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1841,7 +1814,6 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1851,15 +1823,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>identification method</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1896,7 +1864,6 @@
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1906,15 +1873,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>spectrometry</t>
+          <t>community maturity level</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
@@ -1951,7 +1914,6 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1961,15 +1923,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>emerging</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
@@ -2006,7 +1968,6 @@
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2016,15 +1977,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>inductively coupled plasma mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
+          <t>developing</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
@@ -2061,7 +2022,6 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2071,15 +2031,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atmospheric presure chemical ionization high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
+          <t>mature</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
@@ -2116,7 +2076,6 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2126,13 +2085,13 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>high resolution mass spectrometry</t>
+          <t>hasMaturityLevel</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>owl:ObjectProperty</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2171,1606 +2130,6 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>vocab:1007</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>electrothermal capture negative ion mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
-      <c r="F31" t="inlineStr"/>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
-      <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="inlineStr"/>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="inlineStr"/>
-      <c r="T31" t="inlineStr"/>
-      <c r="U31" t="inlineStr"/>
-      <c r="V31" t="inlineStr"/>
-      <c r="W31" t="inlineStr"/>
-      <c r="X31" t="inlineStr"/>
-      <c r="Y31" t="inlineStr"/>
-      <c r="Z31" t="inlineStr"/>
-      <c r="AA31" t="inlineStr"/>
-      <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="inlineStr"/>
-      <c r="AD31" t="inlineStr"/>
-      <c r="AE31" t="inlineStr"/>
-      <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
-      <c r="AO31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>vocab:1008</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr"/>
-      <c r="F32" t="inlineStr"/>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="inlineStr"/>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="inlineStr"/>
-      <c r="T32" t="inlineStr"/>
-      <c r="U32" t="inlineStr"/>
-      <c r="V32" t="inlineStr"/>
-      <c r="W32" t="inlineStr"/>
-      <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr"/>
-      <c r="Z32" t="inlineStr"/>
-      <c r="AA32" t="inlineStr"/>
-      <c r="AB32" t="inlineStr"/>
-      <c r="AC32" t="inlineStr"/>
-      <c r="AD32" t="inlineStr"/>
-      <c r="AE32" t="inlineStr"/>
-      <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="inlineStr"/>
-      <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="inlineStr"/>
-      <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
-      <c r="AL32" t="inlineStr"/>
-      <c r="AM32" t="inlineStr"/>
-      <c r="AN32" t="inlineStr"/>
-      <c r="AO32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>vocab:1009</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>mass spectrometry with Negative chemical ionization</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>vocab:1003</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr"/>
-      <c r="F33" t="inlineStr"/>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
-      <c r="T33" t="inlineStr"/>
-      <c r="U33" t="inlineStr"/>
-      <c r="V33" t="inlineStr"/>
-      <c r="W33" t="inlineStr"/>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
-      <c r="AD33" t="inlineStr"/>
-      <c r="AE33" t="inlineStr"/>
-      <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
-      <c r="AH33" t="inlineStr"/>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="inlineStr"/>
-      <c r="AK33" t="inlineStr"/>
-      <c r="AL33" t="inlineStr"/>
-      <c r="AM33" t="inlineStr"/>
-      <c r="AN33" t="inlineStr"/>
-      <c r="AO33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>vocab:1010</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">other spectrometry </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr"/>
-      <c r="F34" t="inlineStr"/>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="inlineStr"/>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="inlineStr"/>
-      <c r="T34" t="inlineStr"/>
-      <c r="U34" t="inlineStr"/>
-      <c r="V34" t="inlineStr"/>
-      <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
-      <c r="Z34" t="inlineStr"/>
-      <c r="AA34" t="inlineStr"/>
-      <c r="AB34" t="inlineStr"/>
-      <c r="AC34" t="inlineStr"/>
-      <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="inlineStr"/>
-      <c r="AF34" t="inlineStr"/>
-      <c r="AG34" t="inlineStr"/>
-      <c r="AH34" t="inlineStr"/>
-      <c r="AI34" t="inlineStr"/>
-      <c r="AJ34" t="inlineStr"/>
-      <c r="AK34" t="inlineStr"/>
-      <c r="AL34" t="inlineStr"/>
-      <c r="AM34" t="inlineStr"/>
-      <c r="AN34" t="inlineStr"/>
-      <c r="AO34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Flame Atomic Emission Spectrometry</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr"/>
-      <c r="F35" t="inlineStr"/>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="inlineStr"/>
-      <c r="T35" t="inlineStr"/>
-      <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr"/>
-      <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="inlineStr"/>
-      <c r="AE35" t="inlineStr"/>
-      <c r="AF35" t="inlineStr"/>
-      <c r="AG35" t="inlineStr"/>
-      <c r="AH35" t="inlineStr"/>
-      <c r="AI35" t="inlineStr"/>
-      <c r="AJ35" t="inlineStr"/>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
-      <c r="AM35" t="inlineStr"/>
-      <c r="AN35" t="inlineStr"/>
-      <c r="AO35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>vocab:1012</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>flame Atomic absorption Spectrometry</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr"/>
-      <c r="F36" t="inlineStr"/>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="inlineStr"/>
-      <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
-      <c r="AE36" t="inlineStr"/>
-      <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
-      <c r="AH36" t="inlineStr"/>
-      <c r="AI36" t="inlineStr"/>
-      <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="inlineStr"/>
-      <c r="AL36" t="inlineStr"/>
-      <c r="AM36" t="inlineStr"/>
-      <c r="AN36" t="inlineStr"/>
-      <c r="AO36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>vocab:1013</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>electrotermal atomic absorption spectrometry</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr"/>
-      <c r="F37" t="inlineStr"/>
-      <c r="G37" t="inlineStr"/>
-      <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="inlineStr"/>
-      <c r="T37" t="inlineStr"/>
-      <c r="U37" t="inlineStr"/>
-      <c r="V37" t="inlineStr"/>
-      <c r="W37" t="inlineStr"/>
-      <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr"/>
-      <c r="Z37" t="inlineStr"/>
-      <c r="AA37" t="inlineStr"/>
-      <c r="AB37" t="inlineStr"/>
-      <c r="AC37" t="inlineStr"/>
-      <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="inlineStr"/>
-      <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="inlineStr"/>
-      <c r="AH37" t="inlineStr"/>
-      <c r="AI37" t="inlineStr"/>
-      <c r="AJ37" t="inlineStr"/>
-      <c r="AK37" t="inlineStr"/>
-      <c r="AL37" t="inlineStr"/>
-      <c r="AM37" t="inlineStr"/>
-      <c r="AN37" t="inlineStr"/>
-      <c r="AO37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>vocab:1014</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>atomic absorption spectrometry</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
-      <c r="G38" t="inlineStr"/>
-      <c r="H38" t="inlineStr"/>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="inlineStr"/>
-      <c r="T38" t="inlineStr"/>
-      <c r="U38" t="inlineStr"/>
-      <c r="V38" t="inlineStr"/>
-      <c r="W38" t="inlineStr"/>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
-      <c r="AE38" t="inlineStr"/>
-      <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
-      <c r="AH38" t="inlineStr"/>
-      <c r="AI38" t="inlineStr"/>
-      <c r="AJ38" t="inlineStr"/>
-      <c r="AK38" t="inlineStr"/>
-      <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
-      <c r="AN38" t="inlineStr"/>
-      <c r="AO38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>vocab:1015</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>inductively coupled plasma with optical emission spectrometry</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>vocab:1011</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="inlineStr"/>
-      <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="inlineStr"/>
-      <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr"/>
-      <c r="V39" t="inlineStr"/>
-      <c r="W39" t="inlineStr"/>
-      <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr"/>
-      <c r="Z39" t="inlineStr"/>
-      <c r="AA39" t="inlineStr"/>
-      <c r="AB39" t="inlineStr"/>
-      <c r="AC39" t="inlineStr"/>
-      <c r="AD39" t="inlineStr"/>
-      <c r="AE39" t="inlineStr"/>
-      <c r="AF39" t="inlineStr"/>
-      <c r="AG39" t="inlineStr"/>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
-      <c r="AK39" t="inlineStr"/>
-      <c r="AL39" t="inlineStr"/>
-      <c r="AM39" t="inlineStr"/>
-      <c r="AN39" t="inlineStr"/>
-      <c r="AO39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>vocab:1016</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>separation method</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="inlineStr"/>
-      <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="inlineStr"/>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="inlineStr"/>
-      <c r="T40" t="inlineStr"/>
-      <c r="U40" t="inlineStr"/>
-      <c r="V40" t="inlineStr"/>
-      <c r="W40" t="inlineStr"/>
-      <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr"/>
-      <c r="Z40" t="inlineStr"/>
-      <c r="AA40" t="inlineStr"/>
-      <c r="AB40" t="inlineStr"/>
-      <c r="AC40" t="inlineStr"/>
-      <c r="AD40" t="inlineStr"/>
-      <c r="AE40" t="inlineStr"/>
-      <c r="AF40" t="inlineStr"/>
-      <c r="AG40" t="inlineStr"/>
-      <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
-      <c r="AJ40" t="inlineStr"/>
-      <c r="AK40" t="inlineStr"/>
-      <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
-      <c r="AN40" t="inlineStr"/>
-      <c r="AO40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>chromatography</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>vocab:1016</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
-      <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="inlineStr"/>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="inlineStr"/>
-      <c r="T41" t="inlineStr"/>
-      <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
-      <c r="W41" t="inlineStr"/>
-      <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr"/>
-      <c r="Z41" t="inlineStr"/>
-      <c r="AA41" t="inlineStr"/>
-      <c r="AB41" t="inlineStr"/>
-      <c r="AC41" t="inlineStr"/>
-      <c r="AD41" t="inlineStr"/>
-      <c r="AE41" t="inlineStr"/>
-      <c r="AF41" t="inlineStr"/>
-      <c r="AG41" t="inlineStr"/>
-      <c r="AH41" t="inlineStr"/>
-      <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
-      <c r="AL41" t="inlineStr"/>
-      <c r="AM41" t="inlineStr"/>
-      <c r="AN41" t="inlineStr"/>
-      <c r="AO41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>vocab:1018</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>gas chromatography</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="inlineStr"/>
-      <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="inlineStr"/>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="inlineStr"/>
-      <c r="T42" t="inlineStr"/>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
-      <c r="W42" t="inlineStr"/>
-      <c r="X42" t="inlineStr"/>
-      <c r="Y42" t="inlineStr"/>
-      <c r="Z42" t="inlineStr"/>
-      <c r="AA42" t="inlineStr"/>
-      <c r="AB42" t="inlineStr"/>
-      <c r="AC42" t="inlineStr"/>
-      <c r="AD42" t="inlineStr"/>
-      <c r="AE42" t="inlineStr"/>
-      <c r="AF42" t="inlineStr"/>
-      <c r="AG42" t="inlineStr"/>
-      <c r="AH42" t="inlineStr"/>
-      <c r="AI42" t="inlineStr"/>
-      <c r="AJ42" t="inlineStr"/>
-      <c r="AK42" t="inlineStr"/>
-      <c r="AL42" t="inlineStr"/>
-      <c r="AM42" t="inlineStr"/>
-      <c r="AN42" t="inlineStr"/>
-      <c r="AO42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>vocab:1019</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>vocab:1017</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="inlineStr"/>
-      <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="inlineStr"/>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="inlineStr"/>
-      <c r="T43" t="inlineStr"/>
-      <c r="U43" t="inlineStr"/>
-      <c r="V43" t="inlineStr"/>
-      <c r="W43" t="inlineStr"/>
-      <c r="X43" t="inlineStr"/>
-      <c r="Y43" t="inlineStr"/>
-      <c r="Z43" t="inlineStr"/>
-      <c r="AA43" t="inlineStr"/>
-      <c r="AB43" t="inlineStr"/>
-      <c r="AC43" t="inlineStr"/>
-      <c r="AD43" t="inlineStr"/>
-      <c r="AE43" t="inlineStr"/>
-      <c r="AF43" t="inlineStr"/>
-      <c r="AG43" t="inlineStr"/>
-      <c r="AH43" t="inlineStr"/>
-      <c r="AI43" t="inlineStr"/>
-      <c r="AJ43" t="inlineStr"/>
-      <c r="AK43" t="inlineStr"/>
-      <c r="AL43" t="inlineStr"/>
-      <c r="AM43" t="inlineStr"/>
-      <c r="AN43" t="inlineStr"/>
-      <c r="AO43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>combined method</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="inlineStr"/>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr"/>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="inlineStr"/>
-      <c r="T44" t="inlineStr"/>
-      <c r="U44" t="inlineStr"/>
-      <c r="V44" t="inlineStr"/>
-      <c r="W44" t="inlineStr"/>
-      <c r="X44" t="inlineStr"/>
-      <c r="Y44" t="inlineStr"/>
-      <c r="Z44" t="inlineStr"/>
-      <c r="AA44" t="inlineStr"/>
-      <c r="AB44" t="inlineStr"/>
-      <c r="AC44" t="inlineStr"/>
-      <c r="AD44" t="inlineStr"/>
-      <c r="AE44" t="inlineStr"/>
-      <c r="AF44" t="inlineStr"/>
-      <c r="AG44" t="inlineStr"/>
-      <c r="AH44" t="inlineStr"/>
-      <c r="AI44" t="inlineStr"/>
-      <c r="AJ44" t="inlineStr"/>
-      <c r="AK44" t="inlineStr"/>
-      <c r="AL44" t="inlineStr"/>
-      <c r="AM44" t="inlineStr"/>
-      <c r="AN44" t="inlineStr"/>
-      <c r="AO44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>HPLC combination</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="inlineStr"/>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
-      <c r="V45" t="inlineStr"/>
-      <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr"/>
-      <c r="Z45" t="inlineStr"/>
-      <c r="AA45" t="inlineStr"/>
-      <c r="AB45" t="inlineStr"/>
-      <c r="AC45" t="inlineStr"/>
-      <c r="AD45" t="inlineStr"/>
-      <c r="AE45" t="inlineStr"/>
-      <c r="AF45" t="inlineStr"/>
-      <c r="AG45" t="inlineStr"/>
-      <c r="AH45" t="inlineStr"/>
-      <c r="AI45" t="inlineStr"/>
-      <c r="AJ45" t="inlineStr"/>
-      <c r="AK45" t="inlineStr"/>
-      <c r="AL45" t="inlineStr"/>
-      <c r="AM45" t="inlineStr"/>
-      <c r="AN45" t="inlineStr"/>
-      <c r="AO45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>vocab:1022</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography with mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="inlineStr"/>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
-      <c r="T46" t="inlineStr"/>
-      <c r="U46" t="inlineStr"/>
-      <c r="V46" t="inlineStr"/>
-      <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr"/>
-      <c r="Z46" t="inlineStr"/>
-      <c r="AA46" t="inlineStr"/>
-      <c r="AB46" t="inlineStr"/>
-      <c r="AC46" t="inlineStr"/>
-      <c r="AD46" t="inlineStr"/>
-      <c r="AE46" t="inlineStr"/>
-      <c r="AF46" t="inlineStr"/>
-      <c r="AG46" t="inlineStr"/>
-      <c r="AH46" t="inlineStr"/>
-      <c r="AI46" t="inlineStr"/>
-      <c r="AJ46" t="inlineStr"/>
-      <c r="AK46" t="inlineStr"/>
-      <c r="AL46" t="inlineStr"/>
-      <c r="AM46" t="inlineStr"/>
-      <c r="AN46" t="inlineStr"/>
-      <c r="AO46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>vocab:1023</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography with diode array detector</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>HPLC-DAD</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr"/>
-      <c r="F47" t="inlineStr"/>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="inlineStr"/>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="inlineStr"/>
-      <c r="T47" t="inlineStr"/>
-      <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr"/>
-      <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr"/>
-      <c r="Z47" t="inlineStr"/>
-      <c r="AA47" t="inlineStr"/>
-      <c r="AB47" t="inlineStr"/>
-      <c r="AC47" t="inlineStr"/>
-      <c r="AD47" t="inlineStr"/>
-      <c r="AE47" t="inlineStr"/>
-      <c r="AF47" t="inlineStr"/>
-      <c r="AG47" t="inlineStr"/>
-      <c r="AH47" t="inlineStr"/>
-      <c r="AI47" t="inlineStr"/>
-      <c r="AJ47" t="inlineStr"/>
-      <c r="AK47" t="inlineStr"/>
-      <c r="AL47" t="inlineStr"/>
-      <c r="AM47" t="inlineStr"/>
-      <c r="AN47" t="inlineStr"/>
-      <c r="AO47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>vocab:1024</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography with high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>vocab:1022</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="inlineStr"/>
-      <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr"/>
-      <c r="Z48" t="inlineStr"/>
-      <c r="AA48" t="inlineStr"/>
-      <c r="AB48" t="inlineStr"/>
-      <c r="AC48" t="inlineStr"/>
-      <c r="AD48" t="inlineStr"/>
-      <c r="AE48" t="inlineStr"/>
-      <c r="AF48" t="inlineStr"/>
-      <c r="AG48" t="inlineStr"/>
-      <c r="AH48" t="inlineStr"/>
-      <c r="AI48" t="inlineStr"/>
-      <c r="AJ48" t="inlineStr"/>
-      <c r="AK48" t="inlineStr"/>
-      <c r="AL48" t="inlineStr"/>
-      <c r="AM48" t="inlineStr"/>
-      <c r="AN48" t="inlineStr"/>
-      <c r="AO48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>vocab:1025</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography with fluorescence detection</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>vocab:1021</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="inlineStr"/>
-      <c r="T49" t="inlineStr"/>
-      <c r="U49" t="inlineStr"/>
-      <c r="V49" t="inlineStr"/>
-      <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr"/>
-      <c r="Z49" t="inlineStr"/>
-      <c r="AA49" t="inlineStr"/>
-      <c r="AB49" t="inlineStr"/>
-      <c r="AC49" t="inlineStr"/>
-      <c r="AD49" t="inlineStr"/>
-      <c r="AE49" t="inlineStr"/>
-      <c r="AF49" t="inlineStr"/>
-      <c r="AG49" t="inlineStr"/>
-      <c r="AH49" t="inlineStr"/>
-      <c r="AI49" t="inlineStr"/>
-      <c r="AJ49" t="inlineStr"/>
-      <c r="AK49" t="inlineStr"/>
-      <c r="AL49" t="inlineStr"/>
-      <c r="AM49" t="inlineStr"/>
-      <c r="AN49" t="inlineStr"/>
-      <c r="AO49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>vocab:1026</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>high performance liquid chromatography with tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>vocab:1022</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr"/>
-      <c r="F50" t="inlineStr"/>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="inlineStr"/>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="inlineStr"/>
-      <c r="T50" t="inlineStr"/>
-      <c r="U50" t="inlineStr"/>
-      <c r="V50" t="inlineStr"/>
-      <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr"/>
-      <c r="Z50" t="inlineStr"/>
-      <c r="AA50" t="inlineStr"/>
-      <c r="AB50" t="inlineStr"/>
-      <c r="AC50" t="inlineStr"/>
-      <c r="AD50" t="inlineStr"/>
-      <c r="AE50" t="inlineStr"/>
-      <c r="AF50" t="inlineStr"/>
-      <c r="AG50" t="inlineStr"/>
-      <c r="AH50" t="inlineStr"/>
-      <c r="AI50" t="inlineStr"/>
-      <c r="AJ50" t="inlineStr"/>
-      <c r="AK50" t="inlineStr"/>
-      <c r="AL50" t="inlineStr"/>
-      <c r="AM50" t="inlineStr"/>
-      <c r="AN50" t="inlineStr"/>
-      <c r="AO50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>vocab:1027</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>GC combination</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr"/>
-      <c r="F51" t="inlineStr"/>
-      <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr"/>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="inlineStr"/>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="inlineStr"/>
-      <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr"/>
-      <c r="V51" t="inlineStr"/>
-      <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr"/>
-      <c r="Z51" t="inlineStr"/>
-      <c r="AA51" t="inlineStr"/>
-      <c r="AB51" t="inlineStr"/>
-      <c r="AC51" t="inlineStr"/>
-      <c r="AD51" t="inlineStr"/>
-      <c r="AE51" t="inlineStr"/>
-      <c r="AF51" t="inlineStr"/>
-      <c r="AG51" t="inlineStr"/>
-      <c r="AH51" t="inlineStr"/>
-      <c r="AI51" t="inlineStr"/>
-      <c r="AJ51" t="inlineStr"/>
-      <c r="AK51" t="inlineStr"/>
-      <c r="AL51" t="inlineStr"/>
-      <c r="AM51" t="inlineStr"/>
-      <c r="AN51" t="inlineStr"/>
-      <c r="AO51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>gas chromatography with mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>vocab:1027</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr"/>
-      <c r="F52" t="inlineStr"/>
-      <c r="G52" t="inlineStr"/>
-      <c r="H52" t="inlineStr"/>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="inlineStr"/>
-      <c r="T52" t="inlineStr"/>
-      <c r="U52" t="inlineStr"/>
-      <c r="V52" t="inlineStr"/>
-      <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr"/>
-      <c r="Z52" t="inlineStr"/>
-      <c r="AA52" t="inlineStr"/>
-      <c r="AB52" t="inlineStr"/>
-      <c r="AC52" t="inlineStr"/>
-      <c r="AD52" t="inlineStr"/>
-      <c r="AE52" t="inlineStr"/>
-      <c r="AF52" t="inlineStr"/>
-      <c r="AG52" t="inlineStr"/>
-      <c r="AH52" t="inlineStr"/>
-      <c r="AI52" t="inlineStr"/>
-      <c r="AJ52" t="inlineStr"/>
-      <c r="AK52" t="inlineStr"/>
-      <c r="AL52" t="inlineStr"/>
-      <c r="AM52" t="inlineStr"/>
-      <c r="AN52" t="inlineStr"/>
-      <c r="AO52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>vocab:1029</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>gas chromatography with electron capture detector</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr"/>
-      <c r="G53" t="inlineStr"/>
-      <c r="H53" t="inlineStr"/>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="inlineStr"/>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="inlineStr"/>
-      <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
-      <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr"/>
-      <c r="Z53" t="inlineStr"/>
-      <c r="AA53" t="inlineStr"/>
-      <c r="AB53" t="inlineStr"/>
-      <c r="AC53" t="inlineStr"/>
-      <c r="AD53" t="inlineStr"/>
-      <c r="AE53" t="inlineStr"/>
-      <c r="AF53" t="inlineStr"/>
-      <c r="AG53" t="inlineStr"/>
-      <c r="AH53" t="inlineStr"/>
-      <c r="AI53" t="inlineStr"/>
-      <c r="AJ53" t="inlineStr"/>
-      <c r="AK53" t="inlineStr"/>
-      <c r="AL53" t="inlineStr"/>
-      <c r="AM53" t="inlineStr"/>
-      <c r="AN53" t="inlineStr"/>
-      <c r="AO53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>vocab:1030</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
-      <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
-      <c r="T54" t="inlineStr"/>
-      <c r="U54" t="inlineStr"/>
-      <c r="V54" t="inlineStr"/>
-      <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr"/>
-      <c r="Z54" t="inlineStr"/>
-      <c r="AA54" t="inlineStr"/>
-      <c r="AB54" t="inlineStr"/>
-      <c r="AC54" t="inlineStr"/>
-      <c r="AD54" t="inlineStr"/>
-      <c r="AE54" t="inlineStr"/>
-      <c r="AF54" t="inlineStr"/>
-      <c r="AG54" t="inlineStr"/>
-      <c r="AH54" t="inlineStr"/>
-      <c r="AI54" t="inlineStr"/>
-      <c r="AJ54" t="inlineStr"/>
-      <c r="AK54" t="inlineStr"/>
-      <c r="AL54" t="inlineStr"/>
-      <c r="AM54" t="inlineStr"/>
-      <c r="AN54" t="inlineStr"/>
-      <c r="AO54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>vocab:1031</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>gas chromatography coupled to electron capture negative ion mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr"/>
-      <c r="F55" t="inlineStr"/>
-      <c r="G55" t="inlineStr"/>
-      <c r="H55" t="inlineStr"/>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="inlineStr"/>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="inlineStr"/>
-      <c r="T55" t="inlineStr"/>
-      <c r="U55" t="inlineStr"/>
-      <c r="V55" t="inlineStr"/>
-      <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr"/>
-      <c r="Z55" t="inlineStr"/>
-      <c r="AA55" t="inlineStr"/>
-      <c r="AB55" t="inlineStr"/>
-      <c r="AC55" t="inlineStr"/>
-      <c r="AD55" t="inlineStr"/>
-      <c r="AE55" t="inlineStr"/>
-      <c r="AF55" t="inlineStr"/>
-      <c r="AG55" t="inlineStr"/>
-      <c r="AH55" t="inlineStr"/>
-      <c r="AI55" t="inlineStr"/>
-      <c r="AJ55" t="inlineStr"/>
-      <c r="AK55" t="inlineStr"/>
-      <c r="AL55" t="inlineStr"/>
-      <c r="AM55" t="inlineStr"/>
-      <c r="AN55" t="inlineStr"/>
-      <c r="AO55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>vocab:1032</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>gas chromatography with mass spectrometry with Negative chemical ionization</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr"/>
-      <c r="F56" t="inlineStr"/>
-      <c r="G56" t="inlineStr"/>
-      <c r="H56" t="inlineStr"/>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="inlineStr"/>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
-      <c r="T56" t="inlineStr"/>
-      <c r="U56" t="inlineStr"/>
-      <c r="V56" t="inlineStr"/>
-      <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr"/>
-      <c r="Z56" t="inlineStr"/>
-      <c r="AA56" t="inlineStr"/>
-      <c r="AB56" t="inlineStr"/>
-      <c r="AC56" t="inlineStr"/>
-      <c r="AD56" t="inlineStr"/>
-      <c r="AE56" t="inlineStr"/>
-      <c r="AF56" t="inlineStr"/>
-      <c r="AG56" t="inlineStr"/>
-      <c r="AH56" t="inlineStr"/>
-      <c r="AI56" t="inlineStr"/>
-      <c r="AJ56" t="inlineStr"/>
-      <c r="AK56" t="inlineStr"/>
-      <c r="AL56" t="inlineStr"/>
-      <c r="AM56" t="inlineStr"/>
-      <c r="AN56" t="inlineStr"/>
-      <c r="AO56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>vocab:1033</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>gas chromatography with high resolution mass spectrometry (HRMS)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="inlineStr"/>
-      <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="inlineStr"/>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="inlineStr"/>
-      <c r="T57" t="inlineStr"/>
-      <c r="U57" t="inlineStr"/>
-      <c r="V57" t="inlineStr"/>
-      <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr"/>
-      <c r="Z57" t="inlineStr"/>
-      <c r="AA57" t="inlineStr"/>
-      <c r="AB57" t="inlineStr"/>
-      <c r="AC57" t="inlineStr"/>
-      <c r="AD57" t="inlineStr"/>
-      <c r="AE57" t="inlineStr"/>
-      <c r="AF57" t="inlineStr"/>
-      <c r="AG57" t="inlineStr"/>
-      <c r="AH57" t="inlineStr"/>
-      <c r="AI57" t="inlineStr"/>
-      <c r="AJ57" t="inlineStr"/>
-      <c r="AK57" t="inlineStr"/>
-      <c r="AL57" t="inlineStr"/>
-      <c r="AM57" t="inlineStr"/>
-      <c r="AN57" t="inlineStr"/>
-      <c r="AO57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>vocab:1034</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="inlineStr"/>
-      <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="inlineStr"/>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="inlineStr"/>
-      <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr"/>
-      <c r="V58" t="inlineStr"/>
-      <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr"/>
-      <c r="Z58" t="inlineStr"/>
-      <c r="AA58" t="inlineStr"/>
-      <c r="AB58" t="inlineStr"/>
-      <c r="AC58" t="inlineStr"/>
-      <c r="AD58" t="inlineStr"/>
-      <c r="AE58" t="inlineStr"/>
-      <c r="AF58" t="inlineStr"/>
-      <c r="AG58" t="inlineStr"/>
-      <c r="AH58" t="inlineStr"/>
-      <c r="AI58" t="inlineStr"/>
-      <c r="AJ58" t="inlineStr"/>
-      <c r="AK58" t="inlineStr"/>
-      <c r="AL58" t="inlineStr"/>
-      <c r="AM58" t="inlineStr"/>
-      <c r="AN58" t="inlineStr"/>
-      <c r="AO58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>vocab:1035</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>gas chromatography with electron capture detector</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>vocab:1027</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="inlineStr"/>
-      <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="inlineStr"/>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="inlineStr"/>
-      <c r="T59" t="inlineStr"/>
-      <c r="U59" t="inlineStr"/>
-      <c r="V59" t="inlineStr"/>
-      <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr"/>
-      <c r="Z59" t="inlineStr"/>
-      <c r="AA59" t="inlineStr"/>
-      <c r="AB59" t="inlineStr"/>
-      <c r="AC59" t="inlineStr"/>
-      <c r="AD59" t="inlineStr"/>
-      <c r="AE59" t="inlineStr"/>
-      <c r="AF59" t="inlineStr"/>
-      <c r="AG59" t="inlineStr"/>
-      <c r="AH59" t="inlineStr"/>
-      <c r="AI59" t="inlineStr"/>
-      <c r="AJ59" t="inlineStr"/>
-      <c r="AK59" t="inlineStr"/>
-      <c r="AL59" t="inlineStr"/>
-      <c r="AM59" t="inlineStr"/>
-      <c r="AN59" t="inlineStr"/>
-      <c r="AO59" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AP30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,13 +432,13 @@
           <t>http://purl.org/m4m</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" t="inlineStr"/>
+      <c r="D1" t="inlineStr"/>
+      <c r="E1" t="inlineStr">
         <is>
           <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -474,6 +474,8 @@
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +522,8 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -532,19 +536,19 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>http://purl.org/m4m/</t>
-        </is>
-      </c>
+      <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
+          <t>http://purl.org/m4m/</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -578,6 +582,8 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -590,19 +596,19 @@
           <t>skos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
-        </is>
-      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -636,6 +642,8 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -648,19 +656,19 @@
           <t>pav</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
-        </is>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -694,6 +702,8 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -706,19 +716,19 @@
           <t>dct</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
-        </is>
-      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -752,6 +762,8 @@
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -764,19 +776,19 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>https://w3id.org/iadopt/ont/</t>
-        </is>
-      </c>
+      <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>I-ADOPT Ontology</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -810,6 +822,8 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -822,21 +836,21 @@
           <t>puv</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
+      <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
+        <is>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -870,6 +884,8 @@
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -882,19 +898,19 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/ns/sosa/</t>
-        </is>
-      </c>
+      <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -928,6 +944,8 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -940,13 +958,13 @@
           <t>xsd</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>http://www.w3.org/2001/XMLSchema#</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -982,6 +1000,8 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -994,19 +1014,19 @@
           <t>qudt</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>http://qudt.org/schema/qudt/</t>
-        </is>
-      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1040,6 +1060,8 @@
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1052,19 +1074,19 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/unit/</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr">
+        <is>
           <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1098,6 +1120,8 @@
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1144,6 +1168,8 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1156,13 +1182,13 @@
           <t>Demo M4M Vocabulary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>Title of the vocabulary</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1198,6 +1224,8 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1210,13 +1238,13 @@
           <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Description of the controlled vocabulary</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1252,6 +1280,8 @@
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1264,13 +1294,13 @@
           <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Home page of community creating vocabulary</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1306,6 +1336,8 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1318,13 +1350,13 @@
           <t>0000-0002-1665-678X</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1360,6 +1392,8 @@
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1372,13 +1406,13 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>License under which the vocabulary is provided</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1414,6 +1448,8 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1426,13 +1462,13 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Vocabulary version</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1468,6 +1504,8 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1480,13 +1518,13 @@
           <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
         <is>
           <t>Date when vocabulary was initially created</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1522,6 +1560,8 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1531,16 +1571,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T14:43:31+00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+          <t>2023-09-13T14:52:23+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Automatic update when vocabulary is updated</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1576,6 +1616,8 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1622,6 +1664,8 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1636,121 +1680,125 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>skos:definition@en</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>dct:source(separator=",")</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>puv:statistic(separator=",")</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>puv:uom(separator=",")</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1764,6 +1812,8 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1776,7 +1826,11 @@
           <t>subject</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr"/>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>task</t>
+        </is>
+      </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1814,6 +1868,8 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1827,7 +1883,11 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1864,6 +1924,8 @@
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1914,6 +1976,8 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1926,13 +1990,13 @@
           <t>emerging</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1968,6 +2032,8 @@
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1980,13 +2046,13 @@
           <t>developing</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2022,6 +2088,8 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2034,13 +2102,13 @@
           <t>mature</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2076,6 +2144,8 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2089,13 +2159,13 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr">
         <is>
           <t>owl:ObjectProperty</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2130,6 +2200,8 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -432,13 +432,13 @@
           <t>http://purl.org/m4m</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr"/>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
+        </is>
+      </c>
       <c r="D1" t="inlineStr"/>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Main GUPRI (i.e. PID) under which all terms are defined. Preference is to use PURLs or W3IDs as they provide permanent resolvable identifiers.</t>
-        </is>
-      </c>
+      <c r="E1" t="inlineStr"/>
       <c r="F1" t="inlineStr"/>
       <c r="G1" t="inlineStr"/>
       <c r="H1" t="inlineStr"/>
@@ -475,7 +475,6 @@
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
-      <c r="AP1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -523,7 +522,6 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
-      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -536,19 +534,19 @@
           <t>vocab</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>http://purl.org/m4m/</t>
+        </is>
+      </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
-          <t>http://purl.org/m4m/</t>
+          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Prefix for our controlled vocabulary since it is rather tedious to write long URLs all the time</t>
-        </is>
-      </c>
+      <c r="G3" t="inlineStr"/>
       <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -583,7 +581,6 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
-      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -596,19 +593,19 @@
           <t>skos</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr"/>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2004/02/skos/core#</t>
+        </is>
+      </c>
       <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
-          <t>http://www.w3.org/2004/02/skos/core#</t>
+          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Prefix for SKOS Onotlogy is which our base for defining SKOS based controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="G4" t="inlineStr"/>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -643,7 +640,6 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
-      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -656,19 +652,19 @@
           <t>pav</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.org/pav/ </t>
+        </is>
+      </c>
       <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/pav/ </t>
+          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Prefix for Provenance, Authoring and Versioning Onotlogy which properties such as version and createdOn we will use to describe our controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -703,7 +699,6 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
-      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -716,19 +711,19 @@
           <t>dct</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr"/>
       <c r="E6" t="inlineStr">
         <is>
-          <t xml:space="preserve">http://purl.org/dc/terms/ </t>
+          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Prefix for Dublin Core (Terms) Ontology which properties such as title, description, rights, source, etc. we will use to describe our controlled vocabulary as well to define its terms</t>
-        </is>
-      </c>
+      <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -763,7 +758,6 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
-      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -776,19 +770,19 @@
           <t>iop</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>https://w3id.org/iadopt/ont/</t>
+        </is>
+      </c>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://w3id.org/iadopt/ont/</t>
+          <t>I-ADOPT Ontology</t>
         </is>
       </c>
       <c r="F7" t="inlineStr"/>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>I-ADOPT Ontology</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -823,7 +817,6 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
-      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -836,21 +829,21 @@
           <t>puv</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr"/>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>https://w3id.org/env/puv#</t>
+        </is>
+      </c>
       <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
-        <is>
-          <t>https://w3id.org/env/puv#</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr"/>
-      <c r="G8" t="inlineStr">
         <is>
           <t>A simple ontology which implements the Parameter Usage 
 Vocabulary semantic model, as described at 
 https://github.com/nvs-vocabs/P01.</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -885,7 +878,6 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
-      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -898,19 +890,19 @@
           <t>sosa</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr"/>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/ns/sosa/</t>
+        </is>
+      </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
-          <t>http://www.w3.org/ns/sosa/</t>
+          <t>Semantic Sensor Network Ontology</t>
         </is>
       </c>
       <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Semantic Sensor Network Ontology</t>
-        </is>
-      </c>
+      <c r="G9" t="inlineStr"/>
       <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -945,7 +937,6 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
-      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -958,13 +949,13 @@
           <t>xsd</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2001/XMLSchema#</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>http://www.w3.org/2001/XMLSchema#</t>
-        </is>
-      </c>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr"/>
       <c r="H10" t="inlineStr"/>
@@ -1001,7 +992,6 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
-      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1014,19 +1004,19 @@
           <t>qudt</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -1061,7 +1051,6 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
-      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1074,19 +1063,19 @@
           <t>unit</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr"/>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/unit/</t>
+        </is>
+      </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
         </is>
       </c>
       <c r="F12" t="inlineStr"/>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -1121,7 +1110,6 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
-      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1169,7 +1157,6 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
-      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1182,13 +1169,13 @@
           <t>Demo M4M Vocabulary</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr"/>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Title of the vocabulary</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1225,7 +1212,6 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
-      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1238,13 +1224,13 @@
           <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr"/>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Description of the controlled vocabulary</t>
+        </is>
+      </c>
       <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr"/>
       <c r="H15" t="inlineStr"/>
@@ -1281,7 +1267,6 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
-      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1294,13 +1279,13 @@
           <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Home page of community creating vocabulary</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Home page of community creating vocabulary</t>
-        </is>
-      </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
       <c r="G16" t="inlineStr"/>
       <c r="H16" t="inlineStr"/>
@@ -1337,7 +1322,6 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
-      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1350,13 +1334,13 @@
           <t>0000-0002-1665-678X</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>An ORCID ID of the vocabulary creator</t>
+        </is>
+      </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>An ORCID ID of the vocabulary creator</t>
-        </is>
-      </c>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="inlineStr"/>
@@ -1393,7 +1377,6 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
-      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1406,13 +1389,13 @@
           <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>License under which the vocabulary is provided</t>
+        </is>
+      </c>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>License under which the vocabulary is provided</t>
-        </is>
-      </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr"/>
       <c r="G18" t="inlineStr"/>
       <c r="H18" t="inlineStr"/>
@@ -1449,7 +1432,6 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
-      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1462,13 +1444,13 @@
           <t>0.1.0</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Vocabulary version</t>
+        </is>
+      </c>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Vocabulary version</t>
-        </is>
-      </c>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr"/>
       <c r="H19" t="inlineStr"/>
@@ -1505,7 +1487,6 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
-      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1518,13 +1499,13 @@
           <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr"/>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Date when vocabulary was initially created</t>
-        </is>
-      </c>
+      <c r="E20" t="inlineStr"/>
       <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="inlineStr"/>
@@ -1561,7 +1542,6 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
-      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1571,16 +1551,16 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T14:52:23+00:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>2023-09-13T15:01:00+00:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Automatic update when vocabulary is updated</t>
-        </is>
-      </c>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr"/>
       <c r="H21" t="inlineStr"/>
@@ -1617,7 +1597,6 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
-      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1665,7 +1644,6 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
-      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1690,115 +1668,115 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr"/>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>skos:editorialNote@en</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1813,7 +1791,6 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
-      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1826,11 +1803,7 @@
           <t>subject</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>task</t>
-        </is>
-      </c>
+      <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
@@ -1869,7 +1842,6 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
-      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1925,7 +1897,6 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
-      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1977,7 +1948,6 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
-      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1990,15 +1960,19 @@
           <t>emerging</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr"/>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
+      <c r="E27" t="inlineStr"/>
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2033,7 +2007,6 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
-      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2046,15 +2019,19 @@
           <t>developing</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>intermediate</t>
+        </is>
+      </c>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2089,7 +2066,6 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
-      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2104,13 +2080,13 @@
       </c>
       <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
         <is>
           <t>vocab:1002</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2145,7 +2121,6 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
-      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2161,11 +2136,7 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
@@ -2181,7 +2152,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2201,7 +2176,6 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
-      <c r="AP30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AN30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,7 +474,6 @@
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
-      <c r="AO1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -521,7 +520,6 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
-      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -580,7 +578,6 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
-      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -639,7 +636,6 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
-      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -698,7 +694,6 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
-      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -757,7 +752,6 @@
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
-      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -816,7 +810,6 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
-      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -877,7 +870,6 @@
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
-      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -936,7 +928,6 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
-      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -991,7 +982,6 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
-      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1050,7 +1040,6 @@
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
-      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1109,7 +1098,6 @@
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1156,7 +1144,6 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
-      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1211,7 +1198,6 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1266,7 +1252,6 @@
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
-      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1321,7 +1306,6 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
-      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1376,7 +1360,6 @@
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
-      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1431,7 +1414,6 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
-      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1486,7 +1468,6 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
-      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1541,7 +1522,6 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
-      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1551,7 +1531,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T15:01:00+00:00</t>
+          <t>2023-09-13T15:10:53+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1596,7 +1576,6 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
-      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1643,7 +1622,6 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
-      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1658,29 +1636,29 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>skos:altLabel(separator=",")</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
           <t>skos:exactMatch(separator=",")</t>
@@ -1753,29 +1731,25 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1790,7 +1764,6 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
-      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1841,7 +1814,6 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
-      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1855,11 +1827,7 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1896,7 +1864,6 @@
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
-      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1947,7 +1914,6 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
-      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1962,17 +1928,13 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>new</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -2006,7 +1968,6 @@
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
-      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2021,17 +1982,13 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>intermediate</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2065,7 +2022,6 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
-      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2078,15 +2034,15 @@
           <t>mature</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr"/>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
+      <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2120,7 +2076,6 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
-      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2134,7 +2089,11 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2152,11 +2111,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2175,7 +2130,6 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
-      <c r="AO30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AN31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1102,11 +1102,19 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>owl</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/2002/07/owl#</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
@@ -1148,19 +1156,11 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:title</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Demo M4M Vocabulary</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Title of the vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1202,17 +1202,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:description</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>This vocabulary is used in DEMO M4M workshop</t>
+          <t>Demo M4M Vocabulary</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Description of the controlled vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1256,17 +1256,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
+          <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1310,17 +1310,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0000-0002-1665-678X</t>
+          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1364,17 +1364,17 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>0000-0002-1665-678X</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1418,17 +1418,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1472,17 +1472,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1526,17 +1526,17 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:created^^xsd:datetime</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T15:10:53+00:00</t>
+          <t>2022-06-01T00:00:00+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Date when vocabulary was initially created</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1580,11 +1580,19 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>dct:modified^^xsd:datetime</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2023-09-13T15:17:21+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1626,129 +1634,33 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>skos:prefLabel@en(id="label")</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -1768,37 +1680,129 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>subject</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
-      <c r="F24" t="inlineStr"/>
-      <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="inlineStr"/>
-      <c r="T24" t="inlineStr"/>
-      <c r="U24" t="inlineStr"/>
-      <c r="V24" t="inlineStr"/>
-      <c r="W24" t="inlineStr"/>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -1818,12 +1822,12 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>subject</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
@@ -1868,12 +1872,12 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>community maturity level</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1918,19 +1922,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>emerging</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
+          <t>community maturity level</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -1972,12 +1972,12 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>emerging</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2026,12 +2026,12 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>vocab:1004</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mature</t>
+          <t>developing</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -2080,20 +2080,20 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:1006</t>
+          <t>vocab:1005</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hasMaturityLevel</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+          <t>mature</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2131,6 +2131,60 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1006</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>hasMaturityLevel</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN31"/>
+  <dimension ref="A1:AG176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,13 +467,6 @@
       <c r="AE1" t="inlineStr"/>
       <c r="AF1" t="inlineStr"/>
       <c r="AG1" t="inlineStr"/>
-      <c r="AH1" t="inlineStr"/>
-      <c r="AI1" t="inlineStr"/>
-      <c r="AJ1" t="inlineStr"/>
-      <c r="AK1" t="inlineStr"/>
-      <c r="AL1" t="inlineStr"/>
-      <c r="AM1" t="inlineStr"/>
-      <c r="AN1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -513,13 +506,6 @@
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="inlineStr"/>
-      <c r="AH2" t="inlineStr"/>
-      <c r="AI2" t="inlineStr"/>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
-      <c r="AL2" t="inlineStr"/>
-      <c r="AM2" t="inlineStr"/>
-      <c r="AN2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -529,7 +515,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vocab</t>
+          <t>gdmt</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -571,13 +557,6 @@
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="inlineStr"/>
-      <c r="AH3" t="inlineStr"/>
-      <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="inlineStr"/>
-      <c r="AM3" t="inlineStr"/>
-      <c r="AN3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -629,13 +608,6 @@
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="inlineStr"/>
-      <c r="AH4" t="inlineStr"/>
-      <c r="AI4" t="inlineStr"/>
-      <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
-      <c r="AL4" t="inlineStr"/>
-      <c r="AM4" t="inlineStr"/>
-      <c r="AN4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -687,13 +659,6 @@
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="inlineStr"/>
-      <c r="AH5" t="inlineStr"/>
-      <c r="AI5" t="inlineStr"/>
-      <c r="AJ5" t="inlineStr"/>
-      <c r="AK5" t="inlineStr"/>
-      <c r="AL5" t="inlineStr"/>
-      <c r="AM5" t="inlineStr"/>
-      <c r="AN5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -745,13 +710,6 @@
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="inlineStr"/>
-      <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="inlineStr"/>
-      <c r="AJ6" t="inlineStr"/>
-      <c r="AK6" t="inlineStr"/>
-      <c r="AL6" t="inlineStr"/>
-      <c r="AM6" t="inlineStr"/>
-      <c r="AN6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -803,13 +761,6 @@
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="inlineStr"/>
-      <c r="AH7" t="inlineStr"/>
-      <c r="AI7" t="inlineStr"/>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
-      <c r="AL7" t="inlineStr"/>
-      <c r="AM7" t="inlineStr"/>
-      <c r="AN7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -863,13 +814,6 @@
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="inlineStr"/>
-      <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="inlineStr"/>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
-      <c r="AL8" t="inlineStr"/>
-      <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -921,13 +865,6 @@
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="inlineStr"/>
-      <c r="AH9" t="inlineStr"/>
-      <c r="AI9" t="inlineStr"/>
-      <c r="AJ9" t="inlineStr"/>
-      <c r="AK9" t="inlineStr"/>
-      <c r="AL9" t="inlineStr"/>
-      <c r="AM9" t="inlineStr"/>
-      <c r="AN9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -975,13 +912,6 @@
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="inlineStr"/>
-      <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
-      <c r="AL10" t="inlineStr"/>
-      <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1033,13 +963,6 @@
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="inlineStr"/>
-      <c r="AH11" t="inlineStr"/>
-      <c r="AI11" t="inlineStr"/>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="inlineStr"/>
-      <c r="AM11" t="inlineStr"/>
-      <c r="AN11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1091,13 +1014,6 @@
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="inlineStr"/>
-      <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
-      <c r="AL12" t="inlineStr"/>
-      <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1145,22 +1061,23 @@
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="inlineStr"/>
-      <c r="AH13" t="inlineStr"/>
-      <c r="AI13" t="inlineStr"/>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
-      <c r="AM13" t="inlineStr"/>
-      <c r="AN13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>rdf</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
+        </is>
+      </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
@@ -1191,28 +1108,21 @@
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="inlineStr"/>
-      <c r="AH14" t="inlineStr"/>
-      <c r="AI14" t="inlineStr"/>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
-      <c r="AL14" t="inlineStr"/>
-      <c r="AM14" t="inlineStr"/>
-      <c r="AN14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Demo M4M Vocabulary</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D15" t="inlineStr"/>
@@ -1245,30 +1155,15 @@
       <c r="AE15" t="inlineStr"/>
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="inlineStr"/>
-      <c r="AH15" t="inlineStr"/>
-      <c r="AI15" t="inlineStr"/>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
-      <c r="AL15" t="inlineStr"/>
-      <c r="AM15" t="inlineStr"/>
-      <c r="AN15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>dct:description</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>This vocabulary is used in DEMO M4M workshop</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr"/>
@@ -1299,28 +1194,21 @@
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="inlineStr"/>
-      <c r="AH16" t="inlineStr"/>
-      <c r="AI16" t="inlineStr"/>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
-      <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="inlineStr"/>
-      <c r="AN16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
+          <t>Demo M4M Vocabulary</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1353,28 +1241,21 @@
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="inlineStr"/>
-      <c r="AH17" t="inlineStr"/>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="inlineStr"/>
-      <c r="AM17" t="inlineStr"/>
-      <c r="AN17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0000-0002-1665-678X</t>
+          <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1407,28 +1288,21 @@
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="inlineStr"/>
-      <c r="AH18" t="inlineStr"/>
-      <c r="AI18" t="inlineStr"/>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
-      <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="inlineStr"/>
-      <c r="AN18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1461,28 +1335,21 @@
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="inlineStr"/>
-      <c r="AH19" t="inlineStr"/>
-      <c r="AI19" t="inlineStr"/>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
-      <c r="AL19" t="inlineStr"/>
-      <c r="AM19" t="inlineStr"/>
-      <c r="AN19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0000-0002-1665-678X</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1515,28 +1382,21 @@
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="inlineStr"/>
-      <c r="AH20" t="inlineStr"/>
-      <c r="AI20" t="inlineStr"/>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
-      <c r="AL20" t="inlineStr"/>
-      <c r="AM20" t="inlineStr"/>
-      <c r="AN20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1569,28 +1429,21 @@
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="inlineStr"/>
-      <c r="AH21" t="inlineStr"/>
-      <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
-      <c r="AL21" t="inlineStr"/>
-      <c r="AM21" t="inlineStr"/>
-      <c r="AN21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2023-09-13T15:17:21+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D22" t="inlineStr"/>
@@ -1623,22 +1476,23 @@
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="inlineStr"/>
-      <c r="AH22" t="inlineStr"/>
-      <c r="AI22" t="inlineStr"/>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
-      <c r="AL22" t="inlineStr"/>
-      <c r="AM22" t="inlineStr"/>
-      <c r="AN22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="inlineStr"/>
+          <t>dct:created^^xsd:datetime</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2022-06-01T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr"/>
       <c r="F23" t="inlineStr"/>
@@ -1669,140 +1523,45 @@
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="inlineStr"/>
-      <c r="AH23" t="inlineStr"/>
-      <c r="AI23" t="inlineStr"/>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
-      <c r="AL23" t="inlineStr"/>
-      <c r="AM23" t="inlineStr"/>
-      <c r="AN23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>2023-09-13T15:36:49+00:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="R24" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="S24" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="T24" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="U24" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="V24" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="X24" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr"/>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr"/>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -1811,25 +1570,14 @@
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="inlineStr"/>
-      <c r="AH24" t="inlineStr"/>
-      <c r="AI24" t="inlineStr"/>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
-      <c r="AL24" t="inlineStr"/>
-      <c r="AM24" t="inlineStr"/>
-      <c r="AN24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>subject</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
@@ -1861,35 +1609,68 @@
       <c r="AE25" t="inlineStr"/>
       <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="inlineStr"/>
-      <c r="AH25" t="inlineStr"/>
-      <c r="AI25" t="inlineStr"/>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
-      <c r="AL25" t="inlineStr"/>
-      <c r="AM25" t="inlineStr"/>
-      <c r="AN25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>variable</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
-      <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr"/>
-      <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+          <t>skos:prefLabel</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>rdfs:label</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>skos:note@en</t>
+        </is>
+      </c>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
       <c r="O26" t="inlineStr"/>
@@ -1901,8 +1682,16 @@
       <c r="U26" t="inlineStr"/>
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
-      <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr"/>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -1911,28 +1700,33 @@
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="inlineStr"/>
-      <c r="AH26" t="inlineStr"/>
-      <c r="AI26" t="inlineStr"/>
-      <c r="AJ26" t="inlineStr"/>
-      <c r="AK26" t="inlineStr"/>
-      <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
-      <c r="AN26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>gdmt:hasResourceTypeInfo</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>community maturity level</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+          <t>has Resource Type Info</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>has Resource Type Info</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Information about the type of the resource being described with metadata.</t>
+        </is>
+      </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
@@ -1961,32 +1755,33 @@
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="inlineStr"/>
-      <c r="AH27" t="inlineStr"/>
-      <c r="AI27" t="inlineStr"/>
-      <c r="AJ27" t="inlineStr"/>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
-      <c r="AM27" t="inlineStr"/>
-      <c r="AN27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>gdmt:hasDatasetIdentifierInfo</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>emerging</t>
+          <t>has Dataset Identifier Info</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>has Dataset Identifier Info</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Information about the globally unique and persistent identifier used to identify and optionally access (meta)data of the dataset being described.</t>
+        </is>
+      </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
@@ -2015,32 +1810,33 @@
       <c r="AE28" t="inlineStr"/>
       <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="inlineStr"/>
-      <c r="AH28" t="inlineStr"/>
-      <c r="AI28" t="inlineStr"/>
-      <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="inlineStr"/>
-      <c r="AL28" t="inlineStr"/>
-      <c r="AM28" t="inlineStr"/>
-      <c r="AN28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>gdmt:hasRelatedResourcesInfo</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>developing</t>
+          <t>has Related Resources Info</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>has Related Resources Info</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Information about resource related to the dataset or other entity being described.</t>
+        </is>
+      </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="inlineStr"/>
@@ -2069,32 +1865,33 @@
       <c r="AE29" t="inlineStr"/>
       <c r="AF29" t="inlineStr"/>
       <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
-      <c r="AI29" t="inlineStr"/>
-      <c r="AJ29" t="inlineStr"/>
-      <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
-      <c r="AM29" t="inlineStr"/>
-      <c r="AN29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>gdmt:hasVersionInfo</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>mature</t>
+          <t>has Version Info</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>has Version Info</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Information about the version of the resource being described.</t>
+        </is>
+      </c>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
@@ -2123,32 +1920,33 @@
       <c r="AE30" t="inlineStr"/>
       <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="inlineStr"/>
-      <c r="AH30" t="inlineStr"/>
-      <c r="AI30" t="inlineStr"/>
-      <c r="AJ30" t="inlineStr"/>
-      <c r="AK30" t="inlineStr"/>
-      <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="inlineStr"/>
-      <c r="AN30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vocab:1006</t>
+          <t>gdmt:hasLanguageInfo</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>hasMaturityLevel</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
+          <t>has Language Info</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr"/>
+          <t>has Language Info</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Information about the language in which the dataset being described is provided.</t>
+        </is>
+      </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr"/>
       <c r="H31" t="inlineStr"/>
@@ -2177,13 +1975,7917 @@
       <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
       <c r="AG31" t="inlineStr"/>
-      <c r="AH31" t="inlineStr"/>
-      <c r="AI31" t="inlineStr"/>
-      <c r="AJ31" t="inlineStr"/>
-      <c r="AK31" t="inlineStr"/>
-      <c r="AL31" t="inlineStr"/>
-      <c r="AM31" t="inlineStr"/>
-      <c r="AN31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>gdmt:hasTitleInfo</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>has Title Info</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>has Title Info</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Information about a name or title by which the dataset being described is known.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>gdmt:hasDescriptionInfo</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>has Description Info</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>has Description Info</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Detailed information (typically at the level of an abstract) about the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>gdmt:hasSubjectInfo</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>has Subject Info</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>has Subject Info</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Topic information that defines the dataset's subject or purpose.</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>gdmt:hasSubjectAndKeywordInfo</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>has Subject And Keyword Info</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>has Subject And Keyword Info</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Concepts (keywords, classification, or free text terms) that define the dataset or purpose (subjects which can be addressed) using the dataset.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr"/>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>gdmt:hasControlledTermsInfo</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>has Controlled Terms Info</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>has Controlled Terms Info</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Controlled concepts that define the dataset or purpose.</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorInfo</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>has Creator Info</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>has Creator Info</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Information about the Creator entity that brought into existence the dataset being described. Creators can be people, organizations and/or physical or virtual infrastructure (e.g., sensors, software).</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr"/>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorNameInfo</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>has Creator Name Info</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>has Creator Name Info</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Information about the creator name.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorIdentifierInfo</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Info</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Info</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Information about the creator identifier.</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr"/>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorAffiliationInfo</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Info</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Info</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Information about the creator affiliations.</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorInfo</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>has Contributor Info</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>has Contributor Info</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Information about a Contributor entity that helped bring into existence the dataset being described. Contributors can be people, organizations and/or physical or virtual infrastructure (e.g., sensors, software).</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorNameInfo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>has Contributor Name Info</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>has Contributor Name Info</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Information about a contributor name.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorIdentifierInfo</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Info</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Info</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Information about a contributor identifier.</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorAffiliationInfo</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Info</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Info</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Information about a contributor's affiliations.</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherInfo</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>has Publisher Info</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>has Publisher Info</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Information about the entity that plays the principal role in officially making the dataset public. The role can be to hold, archive, publish, print, distribute, release, issue, or produce the dataset being described. This property is often used to formulate the citation, so consider the prominence of the role and of the entity. For datasets, use the primary repository for serving the data, or the primary organization taking responsibility for serving the data, as the Publisher. The Distribution element can be used to describe the entity(ies) that make the dataset accessible.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherIdentifierInfo</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Info</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Info</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Information about the publisher identifier.</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>gdmt:hasRightsInfo</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>has Rights Info</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>has Rights Info</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Information about ways in which the dataset may or may not be accessed and used.</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>gdmt:hasLicenseIdentifierInfo</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>has License Identifier Info</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>has License Identifier Info</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Information about the license identifier.</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>gdmt:hasDateInfo</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>has Date Info</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>has Date Info</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Information about relevant dates related to the resource being described. One instance of date must be of datsetDateType=Published.</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionInfo</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>has Distribution Info</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>has Distribution Info</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Details about the distribution for this individual public presentation of the dataset (if part of the Distribution metadata), or for all the public presentations of the dataset being described (if part of the Dataset metadata).</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr"/>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionAccessInfo</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>has Distribution Access Info</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>has Distribution Access Info</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Details about the distribution access.</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorInfo</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>has Distributor Info</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>has Distributor Info</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Information about the distributor of this dataset distribution. The Distributor includes persons or legal entities that responsible for distributing the dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorNameInfo</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>has Distributor Name Info</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>has Distributor Name Info</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Information about the distributor name.</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorIdentifierInfo</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Info</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Info</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Information about the distributor identifier.</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorAffiliationInfo</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Info</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Info</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Information about the distributor affiliations.</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>gdmt:hasContentInfo</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>has Content Info</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>has Content Info</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Information describing the entities that constitute the dataset being described, and their organization and provenance. (The dataset is defined as coming from a single Data Source.)</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataStreamInfo</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>has Data Stream Info</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>has Data Stream Info</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Information about a Data Stream, a collection of one or more variable records originating from a single data source (e.g., sensor, process, or person). A data stream can grow over time.</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataSourceInfo</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>has Data Source Info</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>has Data Source Info</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Information about a Data Source, a physical or conceptual entity that creates the data streams that make up the described dataset. The data source may or may not be associated with a fixed location; for example, a series of discrete sensors deployed over time to a single location may be considered a single data source in some systems.</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>gdmt:hasVariableInfo</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>has Variable Info</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>has Variable Info</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Information about a single entity being measured or computed.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr"/>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>gdmt:hasSpatialCoverageInfo</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Info</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Info</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Information about the geospatial area (region on Earth) covered by the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>gdmt:hasSpatialCoveragePointInfo</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Point Info</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Point Info</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Information about a geospatial coverage represented as a single point.</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr"/>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>gdmt:hasSpatialCoverageBoundingBoxInfo</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Bounding Box Info</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Bounding Box Info</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Information about a geospatial coverage represented using bounding box.</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>gdmt:hasSpatialCoveragePolygonInfo</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Polygon Info</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>has Spatial Coverage Polygon Info</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Information about a geospatial coverage represented using polygon.</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalCoverageInfo</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>has Vertical Coverage Info</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>has Vertical Coverage Info</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Information about the vertical area (altitude and/or depth) covered by the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>gdmt:hasTemporalCoverageInfo</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>has Temporal Coverage Info</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>has Temporal Coverage Info</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Information about the temporal coverage and resolution of the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr"/>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>gdmt:hasFundingInfo</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>has Funding Info</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>has Funding Info</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Information about the sources of funding that enabled and drove the creation of the dataset. (Non-monetary sources are described under Contributor.)</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>gdmt:hasAwardInfo</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>has Award Info</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>has Award Info</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Information about the project award.</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>gdmt:hasFunderInfo</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>has Funder Info</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>has Funder Info</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Information about the award funder.</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>gdmt:hasDatasetIdentifierSubType</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>has Dataset Identifier Sub Type</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>has Dataset Identifier Sub Type</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>The subtype of the identifier used to specify the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr"/>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>gdmt:hasRelatedResourceIdentifierSubType</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>has Related Resource Identifier Sub Type</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>has Related Resource Identifier Sub Type</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>The subtype of the identifier used to specify the related resource.</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr"/>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>gdmt:hasPrimaryLanguage</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>has Primary Language</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>has Primary Language</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Primary language used to present the dataset (if multiple languages are present). Use a code from IETF BCP 47</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>gdmt:hasSubjectIRI</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>has Subject IRI</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>has Subject IRI</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>The IRI of a concept (keyword, classification code, or controlled key phrase) that defines the dataset or indicates for which concepts the dataset can be used.</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>gdmt:hasSubjectScheme</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>has Subject Scheme</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>has Subject Scheme</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Subject Concept IRI.</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>gdmt:hasSubjectSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>has Subject Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>has Subject Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Subject Concept IRI.</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr"/>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>gdmt:hasKeyword</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>has Keyword</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>has Keyword</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Free text subject, keyword, classification code, or key phrase describing the dataset or purpose for which the dataset can be used.</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorIdentifier</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>has Creator Identifier</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>has Creator Identifier</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the creator (an individual or legal entity).</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Creator Identifier.</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>has Creator Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Creator Identifier.</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorAffiliation</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>The organizational or institutional affiliation of the creator.</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr"/>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorAffiliationIdentifier</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the organizational affiliation of the creator.</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorAffiliationIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Creator Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr"/>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorAffiliationIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>has Creator Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Creator Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorRole</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>has Creator Role</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>has Creator Role</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>The role of the creator in bringing the described dataset into existence.</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr"/>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>gdmt:hasCreatorType</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>has Creator Type</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>has Creator Type</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>The type of the creator of the described dataset (organization or person).</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr"/>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorIdentifier</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the contributor (an individual or legal entity).</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr"/>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Contributor Identifier.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr"/>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>has Contributor Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Contributor Identifier.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr"/>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorAffiliation</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>The organizational or institutional affiliation of the contributor.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorAffiliationIdentifier</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the organizational affiliation of the contributor.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr"/>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorAffiliationIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Contributor Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr"/>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorAffiliationIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>has Contributor Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Contributor Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr"/>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorRole</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>has Contributor Role</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>has Contributor Role</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>The role of the contributor in bringing the described dataset into existence.</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>gdmt:hasContributorType</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>has Contributor Type</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>has Contributor Type</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>The type of the contributor of the described dataset (organization or person).</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr"/>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherIdentifier</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the publisher.</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr"/>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Publisher Identifier.</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr"/>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>has Publisher Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Publisher Identifier.</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>gdmt:hasPublisherAddress</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>has Publisher Address</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>has Publisher Address</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>An address of the publisher.</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>gdmt:hasLicenseName</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>has License Name</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>has License Name</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>A standardized version of the license name.</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>gdmt:hasLicenseIdentifier</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>has License Identifier</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>has License Identifier</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>IRI of the license for the dataset being described.</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr"/>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>gdmt:hasLicenseIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>has License Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>has License Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Rights Identifier.</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>gdmt:hasLicenseIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>has License Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>has License Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Rights Identifier.</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>gdmt:hasDatasetDate</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>has Dataset Date</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>has Dataset Date</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Date relevant to dataset.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>gdmt:hasDatasetDateType</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>has Dataset Date Type</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>has Dataset Date Type</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Type of the date with respect to the dataset.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr"/>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionIdentifier</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>has Distribution Identifier</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>has Distribution Identifier</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>A globally unique string that identifies the dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionIdentifierType</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>has Distribution Identifier Type</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>has Distribution Identifier Type</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>The identifier type used to identify the dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr"/>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionMediaType</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>has Distribution Media Type</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>has Distribution Media Type</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>A media type, formerly known as a MIME type, of dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr"/>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionSize</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>has Distribution Size</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>has Distribution Size</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Total size of dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionAccessProtocol</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>has Distribution Access Protocol</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>has Distribution Access Protocol</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>The protocol used to access the dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionAccessConfiguration</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>has Distribution Access Configuration</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>has Distribution Access Configuration</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>The access protocol configuration for quering dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionQueryStatement</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>has Distribution Query Statement</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>has Distribution Query Statement</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Technical statement(s) for querying dataset distribution.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributionDate</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>has Distribution Date</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>has Distribution Date</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Date when the dataset was distributed.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr"/>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorIdentifier</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the distributor (an individual or legal entity).</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Distributor Identifier.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>has Distributor Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Distributor Identifier.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr"/>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorAffiliation</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>The organizational or institutional affiliation of the distributor.</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr"/>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorAffiliationIdentifier</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the organizational affiliation of the distributor.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorAffiliationIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Distributor Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr"/>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorAffiliationIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>has Distributor Affiliation Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Distributor Affiliation Identifier.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr"/>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorRole</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>has Distributor Role</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>has Distributor Role</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>The role of the distributor in bringing the described dataset into existence.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>gdmt:hasDistributorType</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>has Distributor Type</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>has Distributor Type</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>The type of the distributor of the described dataset (organization, or person).</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataStream</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>has Data Stream</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>has Data Stream</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Human readable name of collection of records coming from a data source.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataStreamIRI</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>has Data Stream IRI</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>has Data Stream IRI</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Unique identifier of collection of records coming from a data source.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr"/>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataStreamScheme</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>has Data Stream Scheme</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>has Data Stream Scheme</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Data Stream Identifier.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr"/>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataStreamSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>has Data Stream Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>has Data Stream Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Data Stream Identifier.</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr"/>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataSource</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>has Data Source</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>has Data Source</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Human readable name of data source from which the variable(s) come(s).</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr"/>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataSourceIRI</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>has Data Source IRI</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>has Data Source IRI</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>IRI describing the data source (e.g., PID of an instrument).</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr"/>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataSourceScheme</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>has Data Source Scheme</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>has Data Source Scheme</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Data Source Identifier.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr"/>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>gdmt:hasDataSourceSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>has Data Source Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>has Data Source Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Data Source Identifier.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr"/>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>gdmt:hasVariable</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>has Variable</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>has Variable</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Human readable name of variable being recorded in datastream.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr"/>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>gdmt:hasVariableIRI</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>has Variable IRI</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>has Variable IRI</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>IRI describing the variable.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr"/>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>gdmt:hasVariableScheme</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>has Variable Scheme</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>has Variable Scheme</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Variable Identifier.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr"/>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>gdmt:hasVariableSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>has Variable Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>has Variable Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Variable Identifier.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr"/>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>gdmt:hasPointLatitude</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>has Point Latitude</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>has Point Latitude</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Geographic latitude of a point which represents a location of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr"/>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>gdmt:hasPointLongitude</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>has Point Longitude</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>has Point Longitude</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Geographic longitude of a point which represents a location of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr"/>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>gdmt:hasWestBoundLongitude</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>has West Bound Longitude</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>has West Bound Longitude</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>The most west longitude of a bounding box representing an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>gdmt:hasEastBoundLongitude</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>has East Bound Longitude</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>has East Bound Longitude</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>The most east longitude of a bounding box representing an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr"/>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>gdmt:hasSouthBoundLatitude</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>has South Bound Latitude</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>has South Bound Latitude</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>The most south latitude of a bounding box representing an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr"/>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>gdmt:hasNorthBoundLatitude</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>has North Bound Latitude</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>has North Bound Latitude</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>The most north latitude of a bounding box representing an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr"/>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>gdmt:hasPolygonPointLatitude</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>has Polygon Point Latitude</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>has Polygon Point Latitude</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Geographical latitude of a polygon point which represents one vertex of an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr"/>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>gdmt:hasPolygonPointLongitude</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>has Polygon Point Longitude</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>has Polygon Point Longitude</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Geographical longitude of a polygon point which represents one vertex of an area of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr"/>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>gdmt:hasGeoLocationDescription</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>has Geo Location Description</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>has Geo Location Description</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>The description of a geographical location of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr"/>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalResolutionInMeters</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>has Vertical Resolution In Meters</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>has Vertical Resolution In Meters</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Minimum vertical separation resolvable in a dataset, measured in meters.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr"/>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentMaximumValue</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Maximum Value</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Maximum Value</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>A maximum vertical extent of dataset collection. In case of depth, this represents a minimum depth of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr"/>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentMinimumValue</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Minimum Value</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Minimum Value</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>A minimum vertical extent of dataset collection. In case of depth, this represents a maximum depth of dataset collection.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr"/>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentUnit</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Unit used to specify Vertical Extent.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr"/>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentUnitIRI</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit IRI</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit IRI</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>The IRI for the unit used to specify Vertical Extent.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr"/>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentUnitScheme</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit Scheme</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit Scheme</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>The name of the scheme or authority used for the Vertical Extent Unit Identifier.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr"/>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentUnitSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Unit Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>The IRI of the scheme or authority used for the Vertical Extent Unit Identifier.</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr"/>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentDatum</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Datum</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Datum</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>The name of the Datum (reference frame) used for the Vertical Extent values.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr"/>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>gdmt:hasVerticalExtentDatumIRI</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Datum IRI</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>has Vertical Extent Datum IRI</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>The unique identifier of the Datum (reference frame) used for the Vertical Extent values.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr"/>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>gdmt:hasTemporalExtentMinimumValue</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>has Temporal Extent Minimum Value</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>has Temporal Extent Minimum Value</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>The start date of the data.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr"/>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>gdmt:hasTemporalExtentMaximumValue</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>has Temporal Extent Maximum Value</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>has Temporal Extent Maximum Value</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>The end date of the data.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr"/>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>gdmt:hasTemporalResolution</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>has Temporal Resolution</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>has Temporal Resolution</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Interval between two consecutive data records.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr"/>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>gdmt:hasDuration</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>has Duration</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>has Duration</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>The total duration of data temporal coverage.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr"/>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>gdmt:hasAwardTitle</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>has Award Title</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>has Award Title</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>The human readable title of the award, grant, or other specific funding mechanism for the described dataset.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr"/>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>gdmt:hasAwardPageIRI</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>has Award Page IRI</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>has Award Page IRI</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>The IRI leading to a page provided by the funder for more information about the award (grant).</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr"/>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>gdmt:hasAwardLocalIdentifier</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>has Award Local Identifier</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>has Award Local Identifier</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>The code assigned by the funding provider to a sponsored award (grant). (Can be an IRI, but typically is not.)</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr"/>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>gdmt:hasFunderName</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>has Funder Name</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>has Funder Name</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>Name of the organization providing the funding for the described dataset ('funding provider').</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr"/>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>gdmt:hasFunderIdentifier</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>has Funder Identifier</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>has Funder Identifier</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>Globally unique string that identifies the funding provider.</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr"/>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>gdmt:hasFunderIdentifierScheme</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>has Funder Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>has Funder Identifier Scheme</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Name of the schema for the funderIdentifier.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr"/>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>gdmt:hasFunderIdentifierSchemeIRI</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>has Funder Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>owl:DatatypeProperty</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>has Funder Identifier Scheme IRI</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>IRI of the schema for the funder identifier.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr"/>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Resource Type Category</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>This is a set of controlled terms from DataCite/DCMI for the category of resource being described.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr"/>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>gdmt:Audiovisual</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Audiovisual</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>A series of visual representations imparting an impression of motion when shown in succession. May or may not include sound.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>gdmt:Collection</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>An aggregation of resources, which may encompass collections of one resourceType as well as those of mixed types. A collection is described as a group; its parts may also be separately described.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>gdmt:DataPaper</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Data Paper</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>A factual and objective publication with a focused intent to identify and describe specific data, sets of data, or data collections to facilitate discoverability.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>gdmt:DataCatalog</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Data Catalog</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>A collection of datasets.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>gdmt:Dataset</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Dataset</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Dataset is a logical grouping of one or more data streams. It is can be provided in various data distributions. Dataset might be part of (parent) data catalog.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>gdmt:DataStream</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Data Stream</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Data stream represent a collection of one or more variable records originating from a single data source (e.g., sensor) which properties remain unchanged during the data stream existence. In some use-cases, the data source location is required to remain unchanged (e.g., sensors attached to a meteorological tower). Data stream can grow over time.</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>gdmt:Event</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>A non-persistent, time-based occurrence.</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>gdmt:Image</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Image</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>A visual representation other than text</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>gdmt:InteractiveResource</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Interactive Resource</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>A resource requiring interaction from the user to be understood, executed, or experienced</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>gdmt:Model</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Model</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>An abstract, conceptual, graphical, mathematical or visualization model that represents empirical objects, phenomena, or physical processes.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>gdmt:PhysicalObject</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Physical Object</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>An inanimate, three-dimensional object or substance.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>gdmt:Service</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Service</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>An organized system of apparatus, appliances, staff, etc., for supplying some function(s) required by end users.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>gdmt:Software</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Software</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>A computer program in source code (text) or compiled form. Use this type for all software components supporting scholarly research.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>gdmt:Sound</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>A resource primarily intended to be heard.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>gdmt:ResourceTypeCategory</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AN30"/>
+  <dimension ref="A1:AO30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -474,6 +474,7 @@
       <c r="AL1" t="inlineStr"/>
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
+      <c r="AO1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -520,6 +521,7 @@
       <c r="AL2" t="inlineStr"/>
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -578,6 +580,7 @@
       <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -636,6 +639,7 @@
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -694,6 +698,7 @@
       <c r="AL5" t="inlineStr"/>
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -752,6 +757,7 @@
       <c r="AL6" t="inlineStr"/>
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -810,6 +816,7 @@
       <c r="AL7" t="inlineStr"/>
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -870,6 +877,7 @@
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -928,6 +936,7 @@
       <c r="AL9" t="inlineStr"/>
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -982,6 +991,7 @@
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
+      <c r="AO10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1040,6 +1050,7 @@
       <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
+      <c r="AO11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1098,6 +1109,7 @@
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1144,6 +1156,7 @@
       <c r="AL13" t="inlineStr"/>
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
+      <c r="AO13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1198,6 +1211,7 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
+      <c r="AO14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1252,6 +1266,7 @@
       <c r="AL15" t="inlineStr"/>
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
+      <c r="AO15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1306,6 +1321,7 @@
       <c r="AL16" t="inlineStr"/>
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
+      <c r="AO16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1360,6 +1376,7 @@
       <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
+      <c r="AO17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1414,6 +1431,7 @@
       <c r="AL18" t="inlineStr"/>
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
+      <c r="AO18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1468,6 +1486,7 @@
       <c r="AL19" t="inlineStr"/>
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
+      <c r="AO19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1522,6 +1541,7 @@
       <c r="AL20" t="inlineStr"/>
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1531,7 +1551,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T15:43:02+00:00</t>
+          <t>2023-09-13T15:57:50+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1576,6 +1596,7 @@
       <c r="AL21" t="inlineStr"/>
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1622,6 +1643,7 @@
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
+      <c r="AO22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1636,120 +1658,124 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>skos:broader(separator=",")</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
         <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
@@ -1764,6 +1790,7 @@
       <c r="AL23" t="inlineStr"/>
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
+      <c r="AO23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1814,6 +1841,7 @@
       <c r="AL24" t="inlineStr"/>
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
+      <c r="AO24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1827,7 +1855,11 @@
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>var</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr"/>
@@ -1864,6 +1896,7 @@
       <c r="AL25" t="inlineStr"/>
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
+      <c r="AO25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1914,6 +1947,7 @@
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
+      <c r="AO26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1928,13 +1962,17 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>new</t>
         </is>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1968,6 +2006,7 @@
       <c r="AL27" t="inlineStr"/>
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
+      <c r="AO27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1982,13 +2021,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>intermediate</t>
         </is>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -2022,6 +2065,7 @@
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
+      <c r="AO28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2034,15 +2078,15 @@
           <t>mature</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>vocab:1002</t>
-        </is>
-      </c>
+      <c r="C29" t="inlineStr"/>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -2076,6 +2120,7 @@
       <c r="AL29" t="inlineStr"/>
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
+      <c r="AO29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2089,11 +2134,7 @@
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr"/>
@@ -2111,7 +2152,11 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr"/>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>owl:ObjectProperty</t>
+        </is>
+      </c>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2130,6 +2175,7 @@
       <c r="AL30" t="inlineStr"/>
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
+      <c r="AO30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO30"/>
+  <dimension ref="A1:AO59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T15:57:50+00:00</t>
+          <t>2023-09-13T16:09:22+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1800,7 +1800,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>subject</t>
+          <t>analytical method</t>
         </is>
       </c>
       <c r="C24" t="inlineStr"/>
@@ -1851,18 +1851,18 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>identification method</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>var</t>
-        </is>
-      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1906,14 +1906,18 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>community maturity level</t>
+          <t>spectrometry</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1957,14 +1961,10 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>emerging</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
-      </c>
+          <t>mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
@@ -2016,20 +2016,16 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>developing</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>intermediate</t>
-        </is>
-      </c>
+          <t>inductively coupled plasma mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2075,7 +2071,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>mature</t>
+          <t>atmospheric presure chemical ionization high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C29" t="inlineStr"/>
@@ -2084,7 +2080,7 @@
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2130,14 +2126,18 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>hasMaturityLevel</t>
+          <t>high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -2177,6 +2177,1601 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
     </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>vocab:1007</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>electrothermal capture negative ion mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
+      <c r="AN31" t="inlineStr"/>
+      <c r="AO31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>vocab:1008</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr"/>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr"/>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr"/>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
+      <c r="AN32" t="inlineStr"/>
+      <c r="AO32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>vocab:1009</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>mass spectrometry with Negative chemical ionization</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr"/>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr"/>
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>vocab:1003</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
+      <c r="AN33" t="inlineStr"/>
+      <c r="AO33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>vocab:1010</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">other spectrometry </t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr"/>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr"/>
+      <c r="F34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr"/>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
+      <c r="AN34" t="inlineStr"/>
+      <c r="AO34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Flame Atomic Emission Spectrometry</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr"/>
+      <c r="D35" t="inlineStr"/>
+      <c r="E35" t="inlineStr"/>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr"/>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
+      <c r="AN35" t="inlineStr"/>
+      <c r="AO35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>vocab:1012</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>flame Atomic absorption Spectrometry</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr"/>
+      <c r="D36" t="inlineStr"/>
+      <c r="E36" t="inlineStr"/>
+      <c r="F36" t="inlineStr"/>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
+      <c r="AN36" t="inlineStr"/>
+      <c r="AO36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>vocab:1013</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>electrotermal atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr"/>
+      <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
+      <c r="AN37" t="inlineStr"/>
+      <c r="AO37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>vocab:1014</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
+      <c r="AN38" t="inlineStr"/>
+      <c r="AO38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>vocab:1015</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>inductively coupled plasma with optical emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr"/>
+      <c r="D39" t="inlineStr"/>
+      <c r="E39" t="inlineStr"/>
+      <c r="F39" t="inlineStr"/>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>vocab:1011</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
+      <c r="AN39" t="inlineStr"/>
+      <c r="AO39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>separation method</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
+      <c r="AN40" t="inlineStr"/>
+      <c r="AO40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>chromatography</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
+      <c r="E41" t="inlineStr"/>
+      <c r="F41" t="inlineStr"/>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>vocab:1016</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr"/>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
+      <c r="AN41" t="inlineStr"/>
+      <c r="AO41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>vocab:1018</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>gas chromatography</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
+      <c r="AN42" t="inlineStr"/>
+      <c r="AO42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>vocab:1019</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr"/>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>vocab:1017</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
+      <c r="AN43" t="inlineStr"/>
+      <c r="AO43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>combined method</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
+      <c r="E44" t="inlineStr"/>
+      <c r="F44" t="inlineStr"/>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
+      <c r="AN44" t="inlineStr"/>
+      <c r="AO44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>HPLC combination</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
+      <c r="E45" t="inlineStr"/>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr"/>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
+      <c r="AN45" t="inlineStr"/>
+      <c r="AO45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr"/>
+      <c r="D46" t="inlineStr"/>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
+      <c r="AN46" t="inlineStr"/>
+      <c r="AO46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>vocab:1023</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with diode array detector</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr"/>
+      <c r="D47" t="inlineStr"/>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr"/>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="inlineStr"/>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr"/>
+      <c r="R47" t="inlineStr"/>
+      <c r="S47" t="inlineStr"/>
+      <c r="T47" t="inlineStr"/>
+      <c r="U47" t="inlineStr"/>
+      <c r="V47" t="inlineStr"/>
+      <c r="W47" t="inlineStr"/>
+      <c r="X47" t="inlineStr"/>
+      <c r="Y47" t="inlineStr"/>
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="inlineStr"/>
+      <c r="AB47" t="inlineStr"/>
+      <c r="AC47" t="inlineStr"/>
+      <c r="AD47" t="inlineStr"/>
+      <c r="AE47" t="inlineStr"/>
+      <c r="AF47" t="inlineStr"/>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="inlineStr"/>
+      <c r="AI47" t="inlineStr"/>
+      <c r="AJ47" t="inlineStr"/>
+      <c r="AK47" t="inlineStr"/>
+      <c r="AL47" t="inlineStr"/>
+      <c r="AM47" t="inlineStr"/>
+      <c r="AN47" t="inlineStr"/>
+      <c r="AO47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>vocab:1024</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr"/>
+      <c r="D48" t="inlineStr"/>
+      <c r="E48" t="inlineStr"/>
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr"/>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
+      <c r="S48" t="inlineStr"/>
+      <c r="T48" t="inlineStr"/>
+      <c r="U48" t="inlineStr"/>
+      <c r="V48" t="inlineStr"/>
+      <c r="W48" t="inlineStr"/>
+      <c r="X48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr"/>
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="inlineStr"/>
+      <c r="AB48" t="inlineStr"/>
+      <c r="AC48" t="inlineStr"/>
+      <c r="AD48" t="inlineStr"/>
+      <c r="AE48" t="inlineStr"/>
+      <c r="AF48" t="inlineStr"/>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="inlineStr"/>
+      <c r="AI48" t="inlineStr"/>
+      <c r="AJ48" t="inlineStr"/>
+      <c r="AK48" t="inlineStr"/>
+      <c r="AL48" t="inlineStr"/>
+      <c r="AM48" t="inlineStr"/>
+      <c r="AN48" t="inlineStr"/>
+      <c r="AO48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>vocab:1025</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr"/>
+      <c r="D49" t="inlineStr"/>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>vocab:1021</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="inlineStr"/>
+      <c r="R49" t="inlineStr"/>
+      <c r="S49" t="inlineStr"/>
+      <c r="T49" t="inlineStr"/>
+      <c r="U49" t="inlineStr"/>
+      <c r="V49" t="inlineStr"/>
+      <c r="W49" t="inlineStr"/>
+      <c r="X49" t="inlineStr"/>
+      <c r="Y49" t="inlineStr"/>
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="inlineStr"/>
+      <c r="AB49" t="inlineStr"/>
+      <c r="AC49" t="inlineStr"/>
+      <c r="AD49" t="inlineStr"/>
+      <c r="AE49" t="inlineStr"/>
+      <c r="AF49" t="inlineStr"/>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="inlineStr"/>
+      <c r="AI49" t="inlineStr"/>
+      <c r="AJ49" t="inlineStr"/>
+      <c r="AK49" t="inlineStr"/>
+      <c r="AL49" t="inlineStr"/>
+      <c r="AM49" t="inlineStr"/>
+      <c r="AN49" t="inlineStr"/>
+      <c r="AO49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>vocab:1026</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>high performance liquid chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr"/>
+      <c r="D50" t="inlineStr"/>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>vocab:1022</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr"/>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+      <c r="O50" t="inlineStr"/>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="inlineStr"/>
+      <c r="R50" t="inlineStr"/>
+      <c r="S50" t="inlineStr"/>
+      <c r="T50" t="inlineStr"/>
+      <c r="U50" t="inlineStr"/>
+      <c r="V50" t="inlineStr"/>
+      <c r="W50" t="inlineStr"/>
+      <c r="X50" t="inlineStr"/>
+      <c r="Y50" t="inlineStr"/>
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="inlineStr"/>
+      <c r="AB50" t="inlineStr"/>
+      <c r="AC50" t="inlineStr"/>
+      <c r="AD50" t="inlineStr"/>
+      <c r="AE50" t="inlineStr"/>
+      <c r="AF50" t="inlineStr"/>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="inlineStr"/>
+      <c r="AI50" t="inlineStr"/>
+      <c r="AJ50" t="inlineStr"/>
+      <c r="AK50" t="inlineStr"/>
+      <c r="AL50" t="inlineStr"/>
+      <c r="AM50" t="inlineStr"/>
+      <c r="AN50" t="inlineStr"/>
+      <c r="AO50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>GC combination</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr"/>
+      <c r="D51" t="inlineStr"/>
+      <c r="E51" t="inlineStr"/>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>vocab:1020</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr"/>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+      <c r="O51" t="inlineStr"/>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="inlineStr"/>
+      <c r="R51" t="inlineStr"/>
+      <c r="S51" t="inlineStr"/>
+      <c r="T51" t="inlineStr"/>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
+      <c r="W51" t="inlineStr"/>
+      <c r="X51" t="inlineStr"/>
+      <c r="Y51" t="inlineStr"/>
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="inlineStr"/>
+      <c r="AB51" t="inlineStr"/>
+      <c r="AC51" t="inlineStr"/>
+      <c r="AD51" t="inlineStr"/>
+      <c r="AE51" t="inlineStr"/>
+      <c r="AF51" t="inlineStr"/>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="inlineStr"/>
+      <c r="AI51" t="inlineStr"/>
+      <c r="AJ51" t="inlineStr"/>
+      <c r="AK51" t="inlineStr"/>
+      <c r="AL51" t="inlineStr"/>
+      <c r="AM51" t="inlineStr"/>
+      <c r="AN51" t="inlineStr"/>
+      <c r="AO51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>gas chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr"/>
+      <c r="D52" t="inlineStr"/>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr"/>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="inlineStr"/>
+      <c r="R52" t="inlineStr"/>
+      <c r="S52" t="inlineStr"/>
+      <c r="T52" t="inlineStr"/>
+      <c r="U52" t="inlineStr"/>
+      <c r="V52" t="inlineStr"/>
+      <c r="W52" t="inlineStr"/>
+      <c r="X52" t="inlineStr"/>
+      <c r="Y52" t="inlineStr"/>
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="inlineStr"/>
+      <c r="AB52" t="inlineStr"/>
+      <c r="AC52" t="inlineStr"/>
+      <c r="AD52" t="inlineStr"/>
+      <c r="AE52" t="inlineStr"/>
+      <c r="AF52" t="inlineStr"/>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="inlineStr"/>
+      <c r="AI52" t="inlineStr"/>
+      <c r="AJ52" t="inlineStr"/>
+      <c r="AK52" t="inlineStr"/>
+      <c r="AL52" t="inlineStr"/>
+      <c r="AM52" t="inlineStr"/>
+      <c r="AN52" t="inlineStr"/>
+      <c r="AO52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>vocab:1029</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>gas chromatography with electron capture detector</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr"/>
+      <c r="D53" t="inlineStr"/>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr"/>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+      <c r="O53" t="inlineStr"/>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
+      <c r="T53" t="inlineStr"/>
+      <c r="U53" t="inlineStr"/>
+      <c r="V53" t="inlineStr"/>
+      <c r="W53" t="inlineStr"/>
+      <c r="X53" t="inlineStr"/>
+      <c r="Y53" t="inlineStr"/>
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="inlineStr"/>
+      <c r="AB53" t="inlineStr"/>
+      <c r="AC53" t="inlineStr"/>
+      <c r="AD53" t="inlineStr"/>
+      <c r="AE53" t="inlineStr"/>
+      <c r="AF53" t="inlineStr"/>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="inlineStr"/>
+      <c r="AI53" t="inlineStr"/>
+      <c r="AJ53" t="inlineStr"/>
+      <c r="AK53" t="inlineStr"/>
+      <c r="AL53" t="inlineStr"/>
+      <c r="AM53" t="inlineStr"/>
+      <c r="AN53" t="inlineStr"/>
+      <c r="AO53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>vocab:1030</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr"/>
+      <c r="F54" t="inlineStr"/>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+      <c r="O54" t="inlineStr"/>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr"/>
+      <c r="V54" t="inlineStr"/>
+      <c r="W54" t="inlineStr"/>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="inlineStr"/>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+      <c r="AF54" t="inlineStr"/>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="inlineStr"/>
+      <c r="AI54" t="inlineStr"/>
+      <c r="AJ54" t="inlineStr"/>
+      <c r="AK54" t="inlineStr"/>
+      <c r="AL54" t="inlineStr"/>
+      <c r="AM54" t="inlineStr"/>
+      <c r="AN54" t="inlineStr"/>
+      <c r="AO54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>vocab:1031</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>gas chromatography coupled to electron capture negative ion mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="inlineStr"/>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr"/>
+      <c r="R55" t="inlineStr"/>
+      <c r="S55" t="inlineStr"/>
+      <c r="T55" t="inlineStr"/>
+      <c r="U55" t="inlineStr"/>
+      <c r="V55" t="inlineStr"/>
+      <c r="W55" t="inlineStr"/>
+      <c r="X55" t="inlineStr"/>
+      <c r="Y55" t="inlineStr"/>
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="inlineStr"/>
+      <c r="AB55" t="inlineStr"/>
+      <c r="AC55" t="inlineStr"/>
+      <c r="AD55" t="inlineStr"/>
+      <c r="AE55" t="inlineStr"/>
+      <c r="AF55" t="inlineStr"/>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="inlineStr"/>
+      <c r="AI55" t="inlineStr"/>
+      <c r="AJ55" t="inlineStr"/>
+      <c r="AK55" t="inlineStr"/>
+      <c r="AL55" t="inlineStr"/>
+      <c r="AM55" t="inlineStr"/>
+      <c r="AN55" t="inlineStr"/>
+      <c r="AO55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>vocab:1032</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>gas chromatography with mass spectrometry with Negative chemical ionization</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr"/>
+      <c r="D56" t="inlineStr"/>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="inlineStr"/>
+      <c r="O56" t="inlineStr"/>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
+      <c r="T56" t="inlineStr"/>
+      <c r="U56" t="inlineStr"/>
+      <c r="V56" t="inlineStr"/>
+      <c r="W56" t="inlineStr"/>
+      <c r="X56" t="inlineStr"/>
+      <c r="Y56" t="inlineStr"/>
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="inlineStr"/>
+      <c r="AB56" t="inlineStr"/>
+      <c r="AC56" t="inlineStr"/>
+      <c r="AD56" t="inlineStr"/>
+      <c r="AE56" t="inlineStr"/>
+      <c r="AF56" t="inlineStr"/>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="inlineStr"/>
+      <c r="AI56" t="inlineStr"/>
+      <c r="AJ56" t="inlineStr"/>
+      <c r="AK56" t="inlineStr"/>
+      <c r="AL56" t="inlineStr"/>
+      <c r="AM56" t="inlineStr"/>
+      <c r="AN56" t="inlineStr"/>
+      <c r="AO56" t="inlineStr"/>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>vocab:1033</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>gas chromatography with high resolution mass spectrometry (HRMS)</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr"/>
+      <c r="D57" t="inlineStr"/>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr"/>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+      <c r="O57" t="inlineStr"/>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="inlineStr"/>
+      <c r="R57" t="inlineStr"/>
+      <c r="S57" t="inlineStr"/>
+      <c r="T57" t="inlineStr"/>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
+      <c r="W57" t="inlineStr"/>
+      <c r="X57" t="inlineStr"/>
+      <c r="Y57" t="inlineStr"/>
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="inlineStr"/>
+      <c r="AB57" t="inlineStr"/>
+      <c r="AC57" t="inlineStr"/>
+      <c r="AD57" t="inlineStr"/>
+      <c r="AE57" t="inlineStr"/>
+      <c r="AF57" t="inlineStr"/>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="inlineStr"/>
+      <c r="AI57" t="inlineStr"/>
+      <c r="AJ57" t="inlineStr"/>
+      <c r="AK57" t="inlineStr"/>
+      <c r="AL57" t="inlineStr"/>
+      <c r="AM57" t="inlineStr"/>
+      <c r="AN57" t="inlineStr"/>
+      <c r="AO57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>vocab:1034</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
+      <c r="D58" t="inlineStr"/>
+      <c r="E58" t="inlineStr"/>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+      <c r="O58" t="inlineStr"/>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="inlineStr"/>
+      <c r="R58" t="inlineStr"/>
+      <c r="S58" t="inlineStr"/>
+      <c r="T58" t="inlineStr"/>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
+      <c r="X58" t="inlineStr"/>
+      <c r="Y58" t="inlineStr"/>
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="inlineStr"/>
+      <c r="AB58" t="inlineStr"/>
+      <c r="AC58" t="inlineStr"/>
+      <c r="AD58" t="inlineStr"/>
+      <c r="AE58" t="inlineStr"/>
+      <c r="AF58" t="inlineStr"/>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="inlineStr"/>
+      <c r="AI58" t="inlineStr"/>
+      <c r="AJ58" t="inlineStr"/>
+      <c r="AK58" t="inlineStr"/>
+      <c r="AL58" t="inlineStr"/>
+      <c r="AM58" t="inlineStr"/>
+      <c r="AN58" t="inlineStr"/>
+      <c r="AO58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>vocab:1035</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>gas chromatography with electron capture detector</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr"/>
+      <c r="D59" t="inlineStr"/>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr"/>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>vocab:1027</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="inlineStr"/>
+      <c r="O59" t="inlineStr"/>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
+      <c r="S59" t="inlineStr"/>
+      <c r="T59" t="inlineStr"/>
+      <c r="U59" t="inlineStr"/>
+      <c r="V59" t="inlineStr"/>
+      <c r="W59" t="inlineStr"/>
+      <c r="X59" t="inlineStr"/>
+      <c r="Y59" t="inlineStr"/>
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="inlineStr"/>
+      <c r="AB59" t="inlineStr"/>
+      <c r="AC59" t="inlineStr"/>
+      <c r="AD59" t="inlineStr"/>
+      <c r="AE59" t="inlineStr"/>
+      <c r="AF59" t="inlineStr"/>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="inlineStr"/>
+      <c r="AI59" t="inlineStr"/>
+      <c r="AJ59" t="inlineStr"/>
+      <c r="AK59" t="inlineStr"/>
+      <c r="AL59" t="inlineStr"/>
+      <c r="AM59" t="inlineStr"/>
+      <c r="AN59" t="inlineStr"/>
+      <c r="AO59" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO59"/>
+  <dimension ref="A1:AP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,6 +475,7 @@
       <c r="AM1" t="inlineStr"/>
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
+      <c r="AP1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -522,6 +523,7 @@
       <c r="AM2" t="inlineStr"/>
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
+      <c r="AP2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -581,6 +583,7 @@
       <c r="AM3" t="inlineStr"/>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
+      <c r="AP3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -640,6 +643,7 @@
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
+      <c r="AP4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -699,6 +703,7 @@
       <c r="AM5" t="inlineStr"/>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -758,6 +763,7 @@
       <c r="AM6" t="inlineStr"/>
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
+      <c r="AP6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -817,6 +823,7 @@
       <c r="AM7" t="inlineStr"/>
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
+      <c r="AP7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -878,6 +885,7 @@
       <c r="AM8" t="inlineStr"/>
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
+      <c r="AP8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -937,6 +945,7 @@
       <c r="AM9" t="inlineStr"/>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
+      <c r="AP9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -992,6 +1001,7 @@
       <c r="AM10" t="inlineStr"/>
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
+      <c r="AP10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1051,6 +1061,7 @@
       <c r="AM11" t="inlineStr"/>
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
+      <c r="AP11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1110,6 +1121,7 @@
       <c r="AM12" t="inlineStr"/>
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1157,6 +1169,7 @@
       <c r="AM13" t="inlineStr"/>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
+      <c r="AP13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1212,6 +1225,7 @@
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
+      <c r="AP14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1267,6 +1281,7 @@
       <c r="AM15" t="inlineStr"/>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
+      <c r="AP15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1322,6 +1337,7 @@
       <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
+      <c r="AP16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1377,6 +1393,7 @@
       <c r="AM17" t="inlineStr"/>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
+      <c r="AP17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1432,6 +1449,7 @@
       <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
+      <c r="AP18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1487,6 +1505,7 @@
       <c r="AM19" t="inlineStr"/>
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
+      <c r="AP19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1542,6 +1561,7 @@
       <c r="AM20" t="inlineStr"/>
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
+      <c r="AP20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1551,7 +1571,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-13T16:09:22+00:00</t>
+          <t>2023-09-22T13:14:08+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1597,6 +1617,7 @@
       <c r="AM21" t="inlineStr"/>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
+      <c r="AP21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1644,6 +1665,7 @@
       <c r="AM22" t="inlineStr"/>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
+      <c r="AP22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1683,100 +1705,104 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
+          <t>owlsameAs</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
           <t>skos:exactMatch(separator=",")</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>skos:closeMatch(separator=",")</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>skos:broadMatch(separator=",")</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>iop:hasProperty</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>iop:hasObjectOfInterest</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>iop:hasMatrix</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>iop:hasContextObject(separator=",")</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>iop:hasConstraint(separator=",")</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>puv:statistic(separator=",")</t>
         </is>
       </c>
-      <c r="Q23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>puv:usesMethod(separator=",")</t>
         </is>
       </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>sosa:madeBySensor(separator=",")</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>puv:uom(separator=",")</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>owl:deprecated^^xsd:boolean</t>
         </is>
       </c>
-      <c r="U23" t="inlineStr">
+      <c r="V23" t="inlineStr">
         <is>
           <t>skos:editorialNote@en</t>
         </is>
       </c>
-      <c r="V23" t="inlineStr">
+      <c r="W23" t="inlineStr">
         <is>
           <t>rdf:type</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
+      <c r="X23" t="inlineStr">
         <is>
           <t>dct:modified^^xsd:date</t>
         </is>
       </c>
-      <c r="X23" t="inlineStr">
+      <c r="Y23" t="inlineStr">
         <is>
           <t>dct:created^^xsd:date</t>
         </is>
       </c>
-      <c r="Y23" t="inlineStr">
+      <c r="Z23" t="inlineStr">
         <is>
           <t>dct:creator(separator=",")</t>
         </is>
       </c>
-      <c r="Z23" t="inlineStr">
+      <c r="AA23" t="inlineStr">
         <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
-      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1791,6 +1817,7 @@
       <c r="AM23" t="inlineStr"/>
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
+      <c r="AP23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1808,7 +1835,11 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000070</t>
+        </is>
+      </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1842,6 +1873,7 @@
       <c r="AM24" t="inlineStr"/>
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
+      <c r="AP24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1851,19 +1883,19 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>identification method</t>
+          <t>preparation method</t>
         </is>
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr"/>
       <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000094</t>
+        </is>
+      </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1897,6 +1929,7 @@
       <c r="AM25" t="inlineStr"/>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
+      <c r="AP25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1906,19 +1939,19 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>spectrometry</t>
+          <t>sampling method</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>vocab:1001</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000659</t>
+        </is>
+      </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
@@ -1952,6 +1985,7 @@
       <c r="AM26" t="inlineStr"/>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
+      <c r="AP26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1961,16 +1995,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
+          <t>Advanced mercury analyzer</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H27" t="inlineStr"/>
@@ -2007,6 +2049,7 @@
       <c r="AM27" t="inlineStr"/>
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
+      <c r="AP27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2016,16 +2059,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>inductively coupled plasma mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
+          <t>Capillary electrophoresis with diode array detection</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CE-DAD</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CE-DAD</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H28" t="inlineStr"/>
@@ -2062,6 +2113,7 @@
       <c r="AM28" t="inlineStr"/>
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
+      <c r="AP28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2071,16 +2123,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>atmospheric presure chemical ionization high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
+          <t>Capillary electrophoresis with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CE-FLD</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CE-FLD</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr"/>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H29" t="inlineStr"/>
@@ -2117,6 +2177,7 @@
       <c r="AM29" t="inlineStr"/>
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
+      <c r="AP29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2126,16 +2187,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr"/>
+          <t>Capillary electrophoresis with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CE-MS</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CE-MS</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr"/>
       <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H30" t="inlineStr"/>
@@ -2152,11 +2221,7 @@
       <c r="S30" t="inlineStr"/>
       <c r="T30" t="inlineStr"/>
       <c r="U30" t="inlineStr"/>
-      <c r="V30" t="inlineStr">
-        <is>
-          <t>owl:ObjectProperty</t>
-        </is>
-      </c>
+      <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
@@ -2176,6 +2241,7 @@
       <c r="AM30" t="inlineStr"/>
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
+      <c r="AP30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2185,16 +2251,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>electrothermal capture negative ion mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr"/>
+          <t>Capillary electrophoresis with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CE-MS/MS</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CE-MS_MS</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr"/>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H31" t="inlineStr"/>
@@ -2231,6 +2305,7 @@
       <c r="AM31" t="inlineStr"/>
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
+      <c r="AP31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2240,16 +2315,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>Capillary electrophoresis with multiple wavelength detection</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CE-MWD</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CE-MWD</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H32" t="inlineStr"/>
@@ -2286,6 +2369,7 @@
       <c r="AM32" t="inlineStr"/>
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
+      <c r="AP32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2295,16 +2379,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>mass spectrometry with Negative chemical ionization</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>Capillary electrophoresis with ultraviolet detection</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CE-UV</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CE-UV</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr"/>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H33" t="inlineStr"/>
@@ -2341,6 +2433,7 @@
       <c r="AM33" t="inlineStr"/>
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
+      <c r="AP33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2350,16 +2443,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">other spectrometry </t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr"/>
+          <t>Electrothermal atomisation with atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>EA-AAS</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>EA-AAS</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr"/>
       <c r="F34" t="inlineStr"/>
       <c r="G34" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H34" t="inlineStr"/>
@@ -2396,6 +2497,7 @@
       <c r="AM34" t="inlineStr"/>
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
+      <c r="AP34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2405,16 +2507,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Flame Atomic Emission Spectrometry</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
-      <c r="D35" t="inlineStr"/>
+          <t>Electrothermal atomisation with optical emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>EA-OES</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>EA-OES</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H35" t="inlineStr"/>
@@ -2451,6 +2561,7 @@
       <c r="AM35" t="inlineStr"/>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
+      <c r="AP35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2460,16 +2571,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>flame Atomic absorption Spectrometry</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr"/>
-      <c r="D36" t="inlineStr"/>
+          <t>Atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>AAS</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>AAS</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H36" t="inlineStr"/>
@@ -2506,6 +2625,7 @@
       <c r="AM36" t="inlineStr"/>
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
+      <c r="AP36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2515,16 +2635,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>electrotermal atomic absorption spectrometry</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-      <c r="D37" t="inlineStr"/>
+          <t>Flame atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Flame AAS</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>FLAME_AAS</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr"/>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H37" t="inlineStr"/>
@@ -2561,6 +2689,7 @@
       <c r="AM37" t="inlineStr"/>
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
+      <c r="AP37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2570,16 +2699,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>atomic absorption spectrometry</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-      <c r="D38" t="inlineStr"/>
+          <t>Flame optical emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Flame OES</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>FLAME_OES</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr"/>
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H38" t="inlineStr"/>
@@ -2616,6 +2753,7 @@
       <c r="AM38" t="inlineStr"/>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
+      <c r="AP38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2625,16 +2763,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>inductively coupled plasma with optical emission spectrometry</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr"/>
-      <c r="D39" t="inlineStr"/>
+          <t>Gass chromatography with electron capture detection</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>GC-ECD</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>GC-ECD</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr"/>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H39" t="inlineStr"/>
@@ -2671,6 +2817,7 @@
       <c r="AM39" t="inlineStr"/>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
+      <c r="AP39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2680,11 +2827,19 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>separation method</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
+          <t>Gass chromatography with flame ionization detection</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>GC-FID</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>GC-FID</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr"/>
       <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr">
@@ -2726,6 +2881,7 @@
       <c r="AM40" t="inlineStr"/>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
+      <c r="AP40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2735,16 +2891,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>chromatography</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+          <t>Gass chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>GC-HRMS</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GC-HRMS</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr"/>
       <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr">
         <is>
-          <t>vocab:1016</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H41" t="inlineStr"/>
@@ -2781,6 +2945,7 @@
       <c r="AM41" t="inlineStr"/>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
+      <c r="AP41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2790,16 +2955,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>gas chromatography</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+          <t>Gass chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>GC-MS</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GC-MS</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
-          <t>vocab:1017</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H42" t="inlineStr"/>
@@ -2836,6 +3009,7 @@
       <c r="AM42" t="inlineStr"/>
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
+      <c r="AP42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2845,16 +3019,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
+          <t>Gass chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>GC-MS/MS</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>GC-MS_MS</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr"/>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>vocab:1017</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
@@ -2891,6 +3073,7 @@
       <c r="AM43" t="inlineStr"/>
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
+      <c r="AP43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -2900,11 +3083,19 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>combined method</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
+          <t>Gass chromatography with Nitrogen Phosphorous detection</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>GC-NPD</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>GC-NPD</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
@@ -2946,6 +3137,7 @@
       <c r="AM44" t="inlineStr"/>
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
+      <c r="AP44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -2955,16 +3147,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>HPLC combination</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+          <t>Gass chromatography with photoionization detection</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>GC-PID</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GC-PID</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
@@ -3001,6 +3201,7 @@
       <c r="AM45" t="inlineStr"/>
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
+      <c r="AP45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3010,16 +3211,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography with mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-      <c r="D46" t="inlineStr"/>
+          <t>Hydride generation atomic absorption spectroscopy</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>HG-AAS</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>HG-AAS</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr">
         <is>
-          <t>vocab:1021</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H46" t="inlineStr"/>
@@ -3056,6 +3265,7 @@
       <c r="AM46" t="inlineStr"/>
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
+      <c r="AP46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3065,16 +3275,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography with diode array detector</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr"/>
-      <c r="D47" t="inlineStr"/>
+          <t>Liquid chromatography with diode array detection</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>LC-DAD</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>LC-DAD</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
-          <t>vocab:1021</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
@@ -3111,6 +3329,7 @@
       <c r="AM47" t="inlineStr"/>
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
+      <c r="AP47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3120,16 +3339,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography with high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr"/>
-      <c r="D48" t="inlineStr"/>
+          <t>Liquid chromatography with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>LC-FLD</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>LC-FLD</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>vocab:1022</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3166,6 +3393,7 @@
       <c r="AM48" t="inlineStr"/>
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
+      <c r="AP48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3175,16 +3403,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography with fluorescence detection</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="inlineStr"/>
+          <t>Liquid chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>LC-MS</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>LC-MS</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
-          <t>vocab:1021</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
@@ -3221,6 +3457,7 @@
       <c r="AM49" t="inlineStr"/>
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
+      <c r="AP49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3230,16 +3467,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>high performance liquid chromatography with tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr"/>
-      <c r="D50" t="inlineStr"/>
+          <t>Liquid chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>LC-MS/MS</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>LC-MS_MS</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
-          <t>vocab:1022</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H50" t="inlineStr"/>
@@ -3276,6 +3521,7 @@
       <c r="AM50" t="inlineStr"/>
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
+      <c r="AP50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3285,16 +3531,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>GC combination</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr"/>
-      <c r="D51" t="inlineStr"/>
+          <t>Liquid chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>LC-HR-MS</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>LC-HR-MS</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
@@ -3331,6 +3585,7 @@
       <c r="AM51" t="inlineStr"/>
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
+      <c r="AP51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3340,16 +3595,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>gas chromatography with mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr"/>
-      <c r="D52" t="inlineStr"/>
+          <t>Liquid chromatography with multiple wavelength detection</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>LC-MWD</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>LC-MWD</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr"/>
       <c r="G52" t="inlineStr">
         <is>
-          <t>vocab:1027</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H52" t="inlineStr"/>
@@ -3386,6 +3649,7 @@
       <c r="AM52" t="inlineStr"/>
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
+      <c r="AP52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3395,16 +3659,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>gas chromatography with electron capture detector</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="inlineStr"/>
+          <t>Liquid chromatography with UV visible detection</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>LC-UV/VIS</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>LC-UV_VIS</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr"/>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
@@ -3441,6 +3713,7 @@
       <c r="AM53" t="inlineStr"/>
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
+      <c r="AP53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3450,16 +3723,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr"/>
-      <c r="D54" t="inlineStr"/>
+          <t>Inductively coupled plasma mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ICP-MS</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>ICP-MS</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr"/>
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
@@ -3496,6 +3777,7 @@
       <c r="AM54" t="inlineStr"/>
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
+      <c r="AP54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3505,16 +3787,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>gas chromatography coupled to electron capture negative ion mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr"/>
-      <c r="D55" t="inlineStr"/>
+          <t>Inductively coupled plasma with optical emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>ICP-OES</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>ICP-OES</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
@@ -3551,6 +3841,7 @@
       <c r="AM55" t="inlineStr"/>
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
+      <c r="AP55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3560,16 +3851,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>gas chromatography with mass spectrometry with Negative chemical ionization</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>Spectrophotometry</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Spectrophotometry</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>SPECTROPHOTOMETRY</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr"/>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H56" t="inlineStr"/>
@@ -3606,6 +3905,7 @@
       <c r="AM56" t="inlineStr"/>
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
+      <c r="AP56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3615,16 +3915,24 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>gas chromatography with high resolution mass spectrometry (HRMS)</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
-      <c r="D57" t="inlineStr"/>
+          <t>Continuous gas-analysers</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Continuous gas-analysers</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CONTINUOUS_GAS-ANALYZERS</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr"/>
       <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H57" t="inlineStr"/>
@@ -3661,6 +3969,7 @@
       <c r="AM57" t="inlineStr"/>
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
+      <c r="AP57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3670,16 +3979,24 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr"/>
-      <c r="D58" t="inlineStr"/>
+          <t>Limulus ameobocyte assay</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>LAL</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr"/>
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H58" t="inlineStr"/>
@@ -3716,6 +4033,7 @@
       <c r="AM58" t="inlineStr"/>
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
+      <c r="AP58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3725,16 +4043,24 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>gas chromatography with electron capture detector</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr"/>
-      <c r="D59" t="inlineStr"/>
+          <t>Quantitative polymerase chain reaction</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>qPCR</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>qPCR</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr"/>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
-          <t>vocab:1027</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H59" t="inlineStr"/>
@@ -3771,6 +4097,1671 @@
       <c r="AM59" t="inlineStr"/>
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
+      <c r="AP59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>vocab:1036</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Enzyme-linked immuno sorbent assay</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>ELISA</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>ELISA</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+      <c r="O60" t="inlineStr"/>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="inlineStr"/>
+      <c r="R60" t="inlineStr"/>
+      <c r="S60" t="inlineStr"/>
+      <c r="T60" t="inlineStr"/>
+      <c r="U60" t="inlineStr"/>
+      <c r="V60" t="inlineStr"/>
+      <c r="W60" t="inlineStr"/>
+      <c r="X60" t="inlineStr"/>
+      <c r="Y60" t="inlineStr"/>
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="inlineStr"/>
+      <c r="AB60" t="inlineStr"/>
+      <c r="AC60" t="inlineStr"/>
+      <c r="AD60" t="inlineStr"/>
+      <c r="AE60" t="inlineStr"/>
+      <c r="AF60" t="inlineStr"/>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="inlineStr"/>
+      <c r="AI60" t="inlineStr"/>
+      <c r="AJ60" t="inlineStr"/>
+      <c r="AK60" t="inlineStr"/>
+      <c r="AL60" t="inlineStr"/>
+      <c r="AM60" t="inlineStr"/>
+      <c r="AN60" t="inlineStr"/>
+      <c r="AO60" t="inlineStr"/>
+      <c r="AP60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>vocab:1037</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>High performance liquid chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>HPLC-MS</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>HPLC-MS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr"/>
+      <c r="F61" t="inlineStr"/>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="inlineStr"/>
+      <c r="O61" t="inlineStr"/>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr"/>
+      <c r="R61" t="inlineStr"/>
+      <c r="S61" t="inlineStr"/>
+      <c r="T61" t="inlineStr"/>
+      <c r="U61" t="inlineStr"/>
+      <c r="V61" t="inlineStr"/>
+      <c r="W61" t="inlineStr"/>
+      <c r="X61" t="inlineStr"/>
+      <c r="Y61" t="inlineStr"/>
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="inlineStr"/>
+      <c r="AB61" t="inlineStr"/>
+      <c r="AC61" t="inlineStr"/>
+      <c r="AD61" t="inlineStr"/>
+      <c r="AE61" t="inlineStr"/>
+      <c r="AF61" t="inlineStr"/>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="inlineStr"/>
+      <c r="AI61" t="inlineStr"/>
+      <c r="AJ61" t="inlineStr"/>
+      <c r="AK61" t="inlineStr"/>
+      <c r="AL61" t="inlineStr"/>
+      <c r="AM61" t="inlineStr"/>
+      <c r="AN61" t="inlineStr"/>
+      <c r="AO61" t="inlineStr"/>
+      <c r="AP61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>vocab:1038</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Ultra performance liquid chromatography with mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>UPLC-MS</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UPLC-MS</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+      <c r="O62" t="inlineStr"/>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
+      <c r="T62" t="inlineStr"/>
+      <c r="U62" t="inlineStr"/>
+      <c r="V62" t="inlineStr"/>
+      <c r="W62" t="inlineStr"/>
+      <c r="X62" t="inlineStr"/>
+      <c r="Y62" t="inlineStr"/>
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="inlineStr"/>
+      <c r="AB62" t="inlineStr"/>
+      <c r="AC62" t="inlineStr"/>
+      <c r="AD62" t="inlineStr"/>
+      <c r="AE62" t="inlineStr"/>
+      <c r="AF62" t="inlineStr"/>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="inlineStr"/>
+      <c r="AI62" t="inlineStr"/>
+      <c r="AJ62" t="inlineStr"/>
+      <c r="AK62" t="inlineStr"/>
+      <c r="AL62" t="inlineStr"/>
+      <c r="AM62" t="inlineStr"/>
+      <c r="AN62" t="inlineStr"/>
+      <c r="AO62" t="inlineStr"/>
+      <c r="AP62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>vocab:1039</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>High performance liquid chromatography with diode array detection</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>HPLC-DAD</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>HPLC-DAD</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr"/>
+      <c r="F63" t="inlineStr"/>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr"/>
+      <c r="R63" t="inlineStr"/>
+      <c r="S63" t="inlineStr"/>
+      <c r="T63" t="inlineStr"/>
+      <c r="U63" t="inlineStr"/>
+      <c r="V63" t="inlineStr"/>
+      <c r="W63" t="inlineStr"/>
+      <c r="X63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr"/>
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="inlineStr"/>
+      <c r="AB63" t="inlineStr"/>
+      <c r="AC63" t="inlineStr"/>
+      <c r="AD63" t="inlineStr"/>
+      <c r="AE63" t="inlineStr"/>
+      <c r="AF63" t="inlineStr"/>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="inlineStr"/>
+      <c r="AI63" t="inlineStr"/>
+      <c r="AJ63" t="inlineStr"/>
+      <c r="AK63" t="inlineStr"/>
+      <c r="AL63" t="inlineStr"/>
+      <c r="AM63" t="inlineStr"/>
+      <c r="AN63" t="inlineStr"/>
+      <c r="AO63" t="inlineStr"/>
+      <c r="AP63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>vocab:1040</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Ultra performance liquid chromatography with diode array detection</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>UPLC-DAD</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UPLC-DAD</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr"/>
+      <c r="F64" t="inlineStr"/>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="inlineStr"/>
+      <c r="O64" t="inlineStr"/>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="inlineStr"/>
+      <c r="R64" t="inlineStr"/>
+      <c r="S64" t="inlineStr"/>
+      <c r="T64" t="inlineStr"/>
+      <c r="U64" t="inlineStr"/>
+      <c r="V64" t="inlineStr"/>
+      <c r="W64" t="inlineStr"/>
+      <c r="X64" t="inlineStr"/>
+      <c r="Y64" t="inlineStr"/>
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="inlineStr"/>
+      <c r="AB64" t="inlineStr"/>
+      <c r="AC64" t="inlineStr"/>
+      <c r="AD64" t="inlineStr"/>
+      <c r="AE64" t="inlineStr"/>
+      <c r="AF64" t="inlineStr"/>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="inlineStr"/>
+      <c r="AI64" t="inlineStr"/>
+      <c r="AJ64" t="inlineStr"/>
+      <c r="AK64" t="inlineStr"/>
+      <c r="AL64" t="inlineStr"/>
+      <c r="AM64" t="inlineStr"/>
+      <c r="AN64" t="inlineStr"/>
+      <c r="AO64" t="inlineStr"/>
+      <c r="AP64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>vocab:1041</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>GC-APCI-HRMS</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>GC-APCI-HRMS</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="inlineStr"/>
+      <c r="R65" t="inlineStr"/>
+      <c r="S65" t="inlineStr"/>
+      <c r="T65" t="inlineStr"/>
+      <c r="U65" t="inlineStr"/>
+      <c r="V65" t="inlineStr"/>
+      <c r="W65" t="inlineStr"/>
+      <c r="X65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr"/>
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="inlineStr"/>
+      <c r="AB65" t="inlineStr"/>
+      <c r="AC65" t="inlineStr"/>
+      <c r="AD65" t="inlineStr"/>
+      <c r="AE65" t="inlineStr"/>
+      <c r="AF65" t="inlineStr"/>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="inlineStr"/>
+      <c r="AI65" t="inlineStr"/>
+      <c r="AJ65" t="inlineStr"/>
+      <c r="AK65" t="inlineStr"/>
+      <c r="AL65" t="inlineStr"/>
+      <c r="AM65" t="inlineStr"/>
+      <c r="AN65" t="inlineStr"/>
+      <c r="AO65" t="inlineStr"/>
+      <c r="AP65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>vocab:1042</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>High performance liquid chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>HPLC-HRMS</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>HPLC-HRMS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr"/>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+      <c r="O66" t="inlineStr"/>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
+      <c r="T66" t="inlineStr"/>
+      <c r="U66" t="inlineStr"/>
+      <c r="V66" t="inlineStr"/>
+      <c r="W66" t="inlineStr"/>
+      <c r="X66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr"/>
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="inlineStr"/>
+      <c r="AB66" t="inlineStr"/>
+      <c r="AC66" t="inlineStr"/>
+      <c r="AD66" t="inlineStr"/>
+      <c r="AE66" t="inlineStr"/>
+      <c r="AF66" t="inlineStr"/>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="inlineStr"/>
+      <c r="AI66" t="inlineStr"/>
+      <c r="AJ66" t="inlineStr"/>
+      <c r="AK66" t="inlineStr"/>
+      <c r="AL66" t="inlineStr"/>
+      <c r="AM66" t="inlineStr"/>
+      <c r="AN66" t="inlineStr"/>
+      <c r="AO66" t="inlineStr"/>
+      <c r="AP66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>vocab:1043</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Ultra performance liquid chromatography with high resolution mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>UPLC-HRMS</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UPLC-HRMS</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr"/>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
+      <c r="T67" t="inlineStr"/>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
+      <c r="X67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr"/>
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="inlineStr"/>
+      <c r="AB67" t="inlineStr"/>
+      <c r="AC67" t="inlineStr"/>
+      <c r="AD67" t="inlineStr"/>
+      <c r="AE67" t="inlineStr"/>
+      <c r="AF67" t="inlineStr"/>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="inlineStr"/>
+      <c r="AI67" t="inlineStr"/>
+      <c r="AJ67" t="inlineStr"/>
+      <c r="AK67" t="inlineStr"/>
+      <c r="AL67" t="inlineStr"/>
+      <c r="AM67" t="inlineStr"/>
+      <c r="AN67" t="inlineStr"/>
+      <c r="AO67" t="inlineStr"/>
+      <c r="AP67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>vocab:1044</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Electrotermal atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>AAS-ETA</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>AAS-ETA</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr"/>
+      <c r="F68" t="inlineStr"/>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+      <c r="O68" t="inlineStr"/>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="inlineStr"/>
+      <c r="R68" t="inlineStr"/>
+      <c r="S68" t="inlineStr"/>
+      <c r="T68" t="inlineStr"/>
+      <c r="U68" t="inlineStr"/>
+      <c r="V68" t="inlineStr"/>
+      <c r="W68" t="inlineStr"/>
+      <c r="X68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr"/>
+      <c r="Z68" t="inlineStr"/>
+      <c r="AA68" t="inlineStr"/>
+      <c r="AB68" t="inlineStr"/>
+      <c r="AC68" t="inlineStr"/>
+      <c r="AD68" t="inlineStr"/>
+      <c r="AE68" t="inlineStr"/>
+      <c r="AF68" t="inlineStr"/>
+      <c r="AG68" t="inlineStr"/>
+      <c r="AH68" t="inlineStr"/>
+      <c r="AI68" t="inlineStr"/>
+      <c r="AJ68" t="inlineStr"/>
+      <c r="AK68" t="inlineStr"/>
+      <c r="AL68" t="inlineStr"/>
+      <c r="AM68" t="inlineStr"/>
+      <c r="AN68" t="inlineStr"/>
+      <c r="AO68" t="inlineStr"/>
+      <c r="AP68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>vocab:1045</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Advanced mercury analyser</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>AMA</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr"/>
+      <c r="F69" t="inlineStr"/>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+      <c r="O69" t="inlineStr"/>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="inlineStr"/>
+      <c r="R69" t="inlineStr"/>
+      <c r="S69" t="inlineStr"/>
+      <c r="T69" t="inlineStr"/>
+      <c r="U69" t="inlineStr"/>
+      <c r="V69" t="inlineStr"/>
+      <c r="W69" t="inlineStr"/>
+      <c r="X69" t="inlineStr"/>
+      <c r="Y69" t="inlineStr"/>
+      <c r="Z69" t="inlineStr"/>
+      <c r="AA69" t="inlineStr"/>
+      <c r="AB69" t="inlineStr"/>
+      <c r="AC69" t="inlineStr"/>
+      <c r="AD69" t="inlineStr"/>
+      <c r="AE69" t="inlineStr"/>
+      <c r="AF69" t="inlineStr"/>
+      <c r="AG69" t="inlineStr"/>
+      <c r="AH69" t="inlineStr"/>
+      <c r="AI69" t="inlineStr"/>
+      <c r="AJ69" t="inlineStr"/>
+      <c r="AK69" t="inlineStr"/>
+      <c r="AL69" t="inlineStr"/>
+      <c r="AM69" t="inlineStr"/>
+      <c r="AN69" t="inlineStr"/>
+      <c r="AO69" t="inlineStr"/>
+      <c r="AP69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>vocab:1046</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Flame atomic emission spectrometry</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>FAES</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>FAES</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr"/>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+      <c r="O70" t="inlineStr"/>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="inlineStr"/>
+      <c r="R70" t="inlineStr"/>
+      <c r="S70" t="inlineStr"/>
+      <c r="T70" t="inlineStr"/>
+      <c r="U70" t="inlineStr"/>
+      <c r="V70" t="inlineStr"/>
+      <c r="W70" t="inlineStr"/>
+      <c r="X70" t="inlineStr"/>
+      <c r="Y70" t="inlineStr"/>
+      <c r="Z70" t="inlineStr"/>
+      <c r="AA70" t="inlineStr"/>
+      <c r="AB70" t="inlineStr"/>
+      <c r="AC70" t="inlineStr"/>
+      <c r="AD70" t="inlineStr"/>
+      <c r="AE70" t="inlineStr"/>
+      <c r="AF70" t="inlineStr"/>
+      <c r="AG70" t="inlineStr"/>
+      <c r="AH70" t="inlineStr"/>
+      <c r="AI70" t="inlineStr"/>
+      <c r="AJ70" t="inlineStr"/>
+      <c r="AK70" t="inlineStr"/>
+      <c r="AL70" t="inlineStr"/>
+      <c r="AM70" t="inlineStr"/>
+      <c r="AN70" t="inlineStr"/>
+      <c r="AO70" t="inlineStr"/>
+      <c r="AP70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>vocab:1047</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Gas chromatography coupled to electron capture negative ion mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>GC-ECNI-MS (IT)</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>GC-ECNI-MS_IT</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="inlineStr"/>
+      <c r="R71" t="inlineStr"/>
+      <c r="S71" t="inlineStr"/>
+      <c r="T71" t="inlineStr"/>
+      <c r="U71" t="inlineStr"/>
+      <c r="V71" t="inlineStr"/>
+      <c r="W71" t="inlineStr"/>
+      <c r="X71" t="inlineStr"/>
+      <c r="Y71" t="inlineStr"/>
+      <c r="Z71" t="inlineStr"/>
+      <c r="AA71" t="inlineStr"/>
+      <c r="AB71" t="inlineStr"/>
+      <c r="AC71" t="inlineStr"/>
+      <c r="AD71" t="inlineStr"/>
+      <c r="AE71" t="inlineStr"/>
+      <c r="AF71" t="inlineStr"/>
+      <c r="AG71" t="inlineStr"/>
+      <c r="AH71" t="inlineStr"/>
+      <c r="AI71" t="inlineStr"/>
+      <c r="AJ71" t="inlineStr"/>
+      <c r="AK71" t="inlineStr"/>
+      <c r="AL71" t="inlineStr"/>
+      <c r="AM71" t="inlineStr"/>
+      <c r="AN71" t="inlineStr"/>
+      <c r="AO71" t="inlineStr"/>
+      <c r="AP71" t="inlineStr"/>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>vocab:1048</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Glass ion selective electrode</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>glass ion selective electrode</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>GLASS-ION-SELECTIVE-ELECTRODE</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr"/>
+      <c r="F72" t="inlineStr"/>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="inlineStr"/>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr"/>
+      <c r="R72" t="inlineStr"/>
+      <c r="S72" t="inlineStr"/>
+      <c r="T72" t="inlineStr"/>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
+      <c r="X72" t="inlineStr"/>
+      <c r="Y72" t="inlineStr"/>
+      <c r="Z72" t="inlineStr"/>
+      <c r="AA72" t="inlineStr"/>
+      <c r="AB72" t="inlineStr"/>
+      <c r="AC72" t="inlineStr"/>
+      <c r="AD72" t="inlineStr"/>
+      <c r="AE72" t="inlineStr"/>
+      <c r="AF72" t="inlineStr"/>
+      <c r="AG72" t="inlineStr"/>
+      <c r="AH72" t="inlineStr"/>
+      <c r="AI72" t="inlineStr"/>
+      <c r="AJ72" t="inlineStr"/>
+      <c r="AK72" t="inlineStr"/>
+      <c r="AL72" t="inlineStr"/>
+      <c r="AM72" t="inlineStr"/>
+      <c r="AN72" t="inlineStr"/>
+      <c r="AO72" t="inlineStr"/>
+      <c r="AP72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>vocab:1049</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>High performance liquid chromatography with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>HPLC-FLU</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>HPLC-FLU</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr"/>
+      <c r="F73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+      <c r="O73" t="inlineStr"/>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="inlineStr"/>
+      <c r="R73" t="inlineStr"/>
+      <c r="S73" t="inlineStr"/>
+      <c r="T73" t="inlineStr"/>
+      <c r="U73" t="inlineStr"/>
+      <c r="V73" t="inlineStr"/>
+      <c r="W73" t="inlineStr"/>
+      <c r="X73" t="inlineStr"/>
+      <c r="Y73" t="inlineStr"/>
+      <c r="Z73" t="inlineStr"/>
+      <c r="AA73" t="inlineStr"/>
+      <c r="AB73" t="inlineStr"/>
+      <c r="AC73" t="inlineStr"/>
+      <c r="AD73" t="inlineStr"/>
+      <c r="AE73" t="inlineStr"/>
+      <c r="AF73" t="inlineStr"/>
+      <c r="AG73" t="inlineStr"/>
+      <c r="AH73" t="inlineStr"/>
+      <c r="AI73" t="inlineStr"/>
+      <c r="AJ73" t="inlineStr"/>
+      <c r="AK73" t="inlineStr"/>
+      <c r="AL73" t="inlineStr"/>
+      <c r="AM73" t="inlineStr"/>
+      <c r="AN73" t="inlineStr"/>
+      <c r="AO73" t="inlineStr"/>
+      <c r="AP73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>vocab:1050</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>High performance liquid chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>HPLC-MS/MS</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>HPLC-MS_MS</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr"/>
+      <c r="F74" t="inlineStr"/>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+      <c r="O74" t="inlineStr"/>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="inlineStr"/>
+      <c r="R74" t="inlineStr"/>
+      <c r="S74" t="inlineStr"/>
+      <c r="T74" t="inlineStr"/>
+      <c r="U74" t="inlineStr"/>
+      <c r="V74" t="inlineStr"/>
+      <c r="W74" t="inlineStr"/>
+      <c r="X74" t="inlineStr"/>
+      <c r="Y74" t="inlineStr"/>
+      <c r="Z74" t="inlineStr"/>
+      <c r="AA74" t="inlineStr"/>
+      <c r="AB74" t="inlineStr"/>
+      <c r="AC74" t="inlineStr"/>
+      <c r="AD74" t="inlineStr"/>
+      <c r="AE74" t="inlineStr"/>
+      <c r="AF74" t="inlineStr"/>
+      <c r="AG74" t="inlineStr"/>
+      <c r="AH74" t="inlineStr"/>
+      <c r="AI74" t="inlineStr"/>
+      <c r="AJ74" t="inlineStr"/>
+      <c r="AK74" t="inlineStr"/>
+      <c r="AL74" t="inlineStr"/>
+      <c r="AM74" t="inlineStr"/>
+      <c r="AN74" t="inlineStr"/>
+      <c r="AO74" t="inlineStr"/>
+      <c r="AP74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>vocab:1051</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Ultra performance liquid chromatography with fluorescence detection</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>UPLC-FLU</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UPLC-FLU</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr"/>
+      <c r="F75" t="inlineStr"/>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="inlineStr"/>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr"/>
+      <c r="R75" t="inlineStr"/>
+      <c r="S75" t="inlineStr"/>
+      <c r="T75" t="inlineStr"/>
+      <c r="U75" t="inlineStr"/>
+      <c r="V75" t="inlineStr"/>
+      <c r="W75" t="inlineStr"/>
+      <c r="X75" t="inlineStr"/>
+      <c r="Y75" t="inlineStr"/>
+      <c r="Z75" t="inlineStr"/>
+      <c r="AA75" t="inlineStr"/>
+      <c r="AB75" t="inlineStr"/>
+      <c r="AC75" t="inlineStr"/>
+      <c r="AD75" t="inlineStr"/>
+      <c r="AE75" t="inlineStr"/>
+      <c r="AF75" t="inlineStr"/>
+      <c r="AG75" t="inlineStr"/>
+      <c r="AH75" t="inlineStr"/>
+      <c r="AI75" t="inlineStr"/>
+      <c r="AJ75" t="inlineStr"/>
+      <c r="AK75" t="inlineStr"/>
+      <c r="AL75" t="inlineStr"/>
+      <c r="AM75" t="inlineStr"/>
+      <c r="AN75" t="inlineStr"/>
+      <c r="AO75" t="inlineStr"/>
+      <c r="AP75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>vocab:1052</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Ultra performance liquid chromatography with tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>UPLC-MS/MS</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>UPLC-MS_MS</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+      <c r="O76" t="inlineStr"/>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="inlineStr"/>
+      <c r="R76" t="inlineStr"/>
+      <c r="S76" t="inlineStr"/>
+      <c r="T76" t="inlineStr"/>
+      <c r="U76" t="inlineStr"/>
+      <c r="V76" t="inlineStr"/>
+      <c r="W76" t="inlineStr"/>
+      <c r="X76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr"/>
+      <c r="Z76" t="inlineStr"/>
+      <c r="AA76" t="inlineStr"/>
+      <c r="AB76" t="inlineStr"/>
+      <c r="AC76" t="inlineStr"/>
+      <c r="AD76" t="inlineStr"/>
+      <c r="AE76" t="inlineStr"/>
+      <c r="AF76" t="inlineStr"/>
+      <c r="AG76" t="inlineStr"/>
+      <c r="AH76" t="inlineStr"/>
+      <c r="AI76" t="inlineStr"/>
+      <c r="AJ76" t="inlineStr"/>
+      <c r="AK76" t="inlineStr"/>
+      <c r="AL76" t="inlineStr"/>
+      <c r="AM76" t="inlineStr"/>
+      <c r="AN76" t="inlineStr"/>
+      <c r="AO76" t="inlineStr"/>
+      <c r="AP76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>vocab:1053</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Kjeldahl method (nitrogen determination)</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Kjeldahl</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>KJELDAHL</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="inlineStr"/>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+      <c r="Z77" t="inlineStr"/>
+      <c r="AA77" t="inlineStr"/>
+      <c r="AB77" t="inlineStr"/>
+      <c r="AC77" t="inlineStr"/>
+      <c r="AD77" t="inlineStr"/>
+      <c r="AE77" t="inlineStr"/>
+      <c r="AF77" t="inlineStr"/>
+      <c r="AG77" t="inlineStr"/>
+      <c r="AH77" t="inlineStr"/>
+      <c r="AI77" t="inlineStr"/>
+      <c r="AJ77" t="inlineStr"/>
+      <c r="AK77" t="inlineStr"/>
+      <c r="AL77" t="inlineStr"/>
+      <c r="AM77" t="inlineStr"/>
+      <c r="AN77" t="inlineStr"/>
+      <c r="AO77" t="inlineStr"/>
+      <c r="AP77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>vocab:1054</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Total organic carbon (liquid samples)</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>LiquiTOC II</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>LIQUITOC_II</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr"/>
+      <c r="F78" t="inlineStr"/>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="inlineStr"/>
+      <c r="O78" t="inlineStr"/>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="inlineStr"/>
+      <c r="R78" t="inlineStr"/>
+      <c r="S78" t="inlineStr"/>
+      <c r="T78" t="inlineStr"/>
+      <c r="U78" t="inlineStr"/>
+      <c r="V78" t="inlineStr"/>
+      <c r="W78" t="inlineStr"/>
+      <c r="X78" t="inlineStr"/>
+      <c r="Y78" t="inlineStr"/>
+      <c r="Z78" t="inlineStr"/>
+      <c r="AA78" t="inlineStr"/>
+      <c r="AB78" t="inlineStr"/>
+      <c r="AC78" t="inlineStr"/>
+      <c r="AD78" t="inlineStr"/>
+      <c r="AE78" t="inlineStr"/>
+      <c r="AF78" t="inlineStr"/>
+      <c r="AG78" t="inlineStr"/>
+      <c r="AH78" t="inlineStr"/>
+      <c r="AI78" t="inlineStr"/>
+      <c r="AJ78" t="inlineStr"/>
+      <c r="AK78" t="inlineStr"/>
+      <c r="AL78" t="inlineStr"/>
+      <c r="AM78" t="inlineStr"/>
+      <c r="AN78" t="inlineStr"/>
+      <c r="AO78" t="inlineStr"/>
+      <c r="AP78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>vocab:1055</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Spectrophotometry</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Spectrophotometry</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>SPECTROPHOTOMETRY</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr"/>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+      <c r="O79" t="inlineStr"/>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
+      <c r="S79" t="inlineStr"/>
+      <c r="T79" t="inlineStr"/>
+      <c r="U79" t="inlineStr"/>
+      <c r="V79" t="inlineStr"/>
+      <c r="W79" t="inlineStr"/>
+      <c r="X79" t="inlineStr"/>
+      <c r="Y79" t="inlineStr"/>
+      <c r="Z79" t="inlineStr"/>
+      <c r="AA79" t="inlineStr"/>
+      <c r="AB79" t="inlineStr"/>
+      <c r="AC79" t="inlineStr"/>
+      <c r="AD79" t="inlineStr"/>
+      <c r="AE79" t="inlineStr"/>
+      <c r="AF79" t="inlineStr"/>
+      <c r="AG79" t="inlineStr"/>
+      <c r="AH79" t="inlineStr"/>
+      <c r="AI79" t="inlineStr"/>
+      <c r="AJ79" t="inlineStr"/>
+      <c r="AK79" t="inlineStr"/>
+      <c r="AL79" t="inlineStr"/>
+      <c r="AM79" t="inlineStr"/>
+      <c r="AN79" t="inlineStr"/>
+      <c r="AO79" t="inlineStr"/>
+      <c r="AP79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>vocab:1056</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Total organic carbon (solid samples)</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Carbon analyzator</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>CARBON_ANALYZATOR</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr"/>
+      <c r="F80" t="inlineStr"/>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="inlineStr"/>
+      <c r="O80" t="inlineStr"/>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="inlineStr"/>
+      <c r="R80" t="inlineStr"/>
+      <c r="S80" t="inlineStr"/>
+      <c r="T80" t="inlineStr"/>
+      <c r="U80" t="inlineStr"/>
+      <c r="V80" t="inlineStr"/>
+      <c r="W80" t="inlineStr"/>
+      <c r="X80" t="inlineStr"/>
+      <c r="Y80" t="inlineStr"/>
+      <c r="Z80" t="inlineStr"/>
+      <c r="AA80" t="inlineStr"/>
+      <c r="AB80" t="inlineStr"/>
+      <c r="AC80" t="inlineStr"/>
+      <c r="AD80" t="inlineStr"/>
+      <c r="AE80" t="inlineStr"/>
+      <c r="AF80" t="inlineStr"/>
+      <c r="AG80" t="inlineStr"/>
+      <c r="AH80" t="inlineStr"/>
+      <c r="AI80" t="inlineStr"/>
+      <c r="AJ80" t="inlineStr"/>
+      <c r="AK80" t="inlineStr"/>
+      <c r="AL80" t="inlineStr"/>
+      <c r="AM80" t="inlineStr"/>
+      <c r="AN80" t="inlineStr"/>
+      <c r="AO80" t="inlineStr"/>
+      <c r="AP80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>vocab:1057</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>X-ray fluorescence</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>X-ray fluorescence</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>X-RAY_FLUORESCENCE</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr"/>
+      <c r="F81" t="inlineStr"/>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+      <c r="O81" t="inlineStr"/>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="inlineStr"/>
+      <c r="R81" t="inlineStr"/>
+      <c r="S81" t="inlineStr"/>
+      <c r="T81" t="inlineStr"/>
+      <c r="U81" t="inlineStr"/>
+      <c r="V81" t="inlineStr"/>
+      <c r="W81" t="inlineStr"/>
+      <c r="X81" t="inlineStr"/>
+      <c r="Y81" t="inlineStr"/>
+      <c r="Z81" t="inlineStr"/>
+      <c r="AA81" t="inlineStr"/>
+      <c r="AB81" t="inlineStr"/>
+      <c r="AC81" t="inlineStr"/>
+      <c r="AD81" t="inlineStr"/>
+      <c r="AE81" t="inlineStr"/>
+      <c r="AF81" t="inlineStr"/>
+      <c r="AG81" t="inlineStr"/>
+      <c r="AH81" t="inlineStr"/>
+      <c r="AI81" t="inlineStr"/>
+      <c r="AJ81" t="inlineStr"/>
+      <c r="AK81" t="inlineStr"/>
+      <c r="AL81" t="inlineStr"/>
+      <c r="AM81" t="inlineStr"/>
+      <c r="AN81" t="inlineStr"/>
+      <c r="AO81" t="inlineStr"/>
+      <c r="AP81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>vocab:1058</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Gas chromatography with mass spectrometry with Positive chemical ionization</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>GC-MS-PCI</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>GC-MS-PCI</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr"/>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+      <c r="O82" t="inlineStr"/>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="inlineStr"/>
+      <c r="R82" t="inlineStr"/>
+      <c r="S82" t="inlineStr"/>
+      <c r="T82" t="inlineStr"/>
+      <c r="U82" t="inlineStr"/>
+      <c r="V82" t="inlineStr"/>
+      <c r="W82" t="inlineStr"/>
+      <c r="X82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr"/>
+      <c r="Z82" t="inlineStr"/>
+      <c r="AA82" t="inlineStr"/>
+      <c r="AB82" t="inlineStr"/>
+      <c r="AC82" t="inlineStr"/>
+      <c r="AD82" t="inlineStr"/>
+      <c r="AE82" t="inlineStr"/>
+      <c r="AF82" t="inlineStr"/>
+      <c r="AG82" t="inlineStr"/>
+      <c r="AH82" t="inlineStr"/>
+      <c r="AI82" t="inlineStr"/>
+      <c r="AJ82" t="inlineStr"/>
+      <c r="AK82" t="inlineStr"/>
+      <c r="AL82" t="inlineStr"/>
+      <c r="AM82" t="inlineStr"/>
+      <c r="AN82" t="inlineStr"/>
+      <c r="AO82" t="inlineStr"/>
+      <c r="AP82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>vocab:1059</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Gas chromatography with mass spectrometry with Negative chemical ionization</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>GC-MS-NCI</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>GC-MS-NCI</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr"/>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+      <c r="O83" t="inlineStr"/>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="inlineStr"/>
+      <c r="R83" t="inlineStr"/>
+      <c r="S83" t="inlineStr"/>
+      <c r="T83" t="inlineStr"/>
+      <c r="U83" t="inlineStr"/>
+      <c r="V83" t="inlineStr"/>
+      <c r="W83" t="inlineStr"/>
+      <c r="X83" t="inlineStr"/>
+      <c r="Y83" t="inlineStr"/>
+      <c r="Z83" t="inlineStr"/>
+      <c r="AA83" t="inlineStr"/>
+      <c r="AB83" t="inlineStr"/>
+      <c r="AC83" t="inlineStr"/>
+      <c r="AD83" t="inlineStr"/>
+      <c r="AE83" t="inlineStr"/>
+      <c r="AF83" t="inlineStr"/>
+      <c r="AG83" t="inlineStr"/>
+      <c r="AH83" t="inlineStr"/>
+      <c r="AI83" t="inlineStr"/>
+      <c r="AJ83" t="inlineStr"/>
+      <c r="AK83" t="inlineStr"/>
+      <c r="AL83" t="inlineStr"/>
+      <c r="AM83" t="inlineStr"/>
+      <c r="AN83" t="inlineStr"/>
+      <c r="AO83" t="inlineStr"/>
+      <c r="AP83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>vocab:1060</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Flame atomic absorption spectrometry</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>FAAS</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>FAAS</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr"/>
+      <c r="F84" t="inlineStr"/>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="inlineStr"/>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr"/>
+      <c r="R84" t="inlineStr"/>
+      <c r="S84" t="inlineStr"/>
+      <c r="T84" t="inlineStr"/>
+      <c r="U84" t="inlineStr"/>
+      <c r="V84" t="inlineStr"/>
+      <c r="W84" t="inlineStr"/>
+      <c r="X84" t="inlineStr"/>
+      <c r="Y84" t="inlineStr"/>
+      <c r="Z84" t="inlineStr"/>
+      <c r="AA84" t="inlineStr"/>
+      <c r="AB84" t="inlineStr"/>
+      <c r="AC84" t="inlineStr"/>
+      <c r="AD84" t="inlineStr"/>
+      <c r="AE84" t="inlineStr"/>
+      <c r="AF84" t="inlineStr"/>
+      <c r="AG84" t="inlineStr"/>
+      <c r="AH84" t="inlineStr"/>
+      <c r="AI84" t="inlineStr"/>
+      <c r="AJ84" t="inlineStr"/>
+      <c r="AK84" t="inlineStr"/>
+      <c r="AL84" t="inlineStr"/>
+      <c r="AM84" t="inlineStr"/>
+      <c r="AN84" t="inlineStr"/>
+      <c r="AO84" t="inlineStr"/>
+      <c r="AP84" t="inlineStr"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>vocab:1061</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>GC-APCI-MS-MS</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GC-APCI-MS-MS</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr"/>
+      <c r="F85" t="inlineStr"/>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>vocab:1000</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr"/>
+      <c r="R85" t="inlineStr"/>
+      <c r="S85" t="inlineStr"/>
+      <c r="T85" t="inlineStr"/>
+      <c r="U85" t="inlineStr"/>
+      <c r="V85" t="inlineStr"/>
+      <c r="W85" t="inlineStr"/>
+      <c r="X85" t="inlineStr"/>
+      <c r="Y85" t="inlineStr"/>
+      <c r="Z85" t="inlineStr"/>
+      <c r="AA85" t="inlineStr"/>
+      <c r="AB85" t="inlineStr"/>
+      <c r="AC85" t="inlineStr"/>
+      <c r="AD85" t="inlineStr"/>
+      <c r="AE85" t="inlineStr"/>
+      <c r="AF85" t="inlineStr"/>
+      <c r="AG85" t="inlineStr"/>
+      <c r="AH85" t="inlineStr"/>
+      <c r="AI85" t="inlineStr"/>
+      <c r="AJ85" t="inlineStr"/>
+      <c r="AK85" t="inlineStr"/>
+      <c r="AL85" t="inlineStr"/>
+      <c r="AM85" t="inlineStr"/>
+      <c r="AN85" t="inlineStr"/>
+      <c r="AO85" t="inlineStr"/>
+      <c r="AP85" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP85"/>
+  <dimension ref="A1:AP174"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-22T13:14:08+00:00</t>
+          <t>2023-09-22T14:22:48+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -5763,6 +5763,5266 @@
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
     </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>vocab:1062</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Accelerated solvent extraction</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>ASE</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr"/>
+      <c r="F86" t="inlineStr"/>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr"/>
+      <c r="R86" t="inlineStr"/>
+      <c r="S86" t="inlineStr"/>
+      <c r="T86" t="inlineStr"/>
+      <c r="U86" t="inlineStr"/>
+      <c r="V86" t="inlineStr"/>
+      <c r="W86" t="inlineStr"/>
+      <c r="X86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr"/>
+      <c r="Z86" t="inlineStr"/>
+      <c r="AA86" t="inlineStr"/>
+      <c r="AB86" t="inlineStr"/>
+      <c r="AC86" t="inlineStr"/>
+      <c r="AD86" t="inlineStr"/>
+      <c r="AE86" t="inlineStr"/>
+      <c r="AF86" t="inlineStr"/>
+      <c r="AG86" t="inlineStr"/>
+      <c r="AH86" t="inlineStr"/>
+      <c r="AI86" t="inlineStr"/>
+      <c r="AJ86" t="inlineStr"/>
+      <c r="AK86" t="inlineStr"/>
+      <c r="AL86" t="inlineStr"/>
+      <c r="AM86" t="inlineStr"/>
+      <c r="AN86" t="inlineStr"/>
+      <c r="AO86" t="inlineStr"/>
+      <c r="AP86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>vocab:1063</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Digestion</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Digestion</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>DIGESTION</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="inlineStr"/>
+      <c r="O87" t="inlineStr"/>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="inlineStr"/>
+      <c r="R87" t="inlineStr"/>
+      <c r="S87" t="inlineStr"/>
+      <c r="T87" t="inlineStr"/>
+      <c r="U87" t="inlineStr"/>
+      <c r="V87" t="inlineStr"/>
+      <c r="W87" t="inlineStr"/>
+      <c r="X87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr"/>
+      <c r="Z87" t="inlineStr"/>
+      <c r="AA87" t="inlineStr"/>
+      <c r="AB87" t="inlineStr"/>
+      <c r="AC87" t="inlineStr"/>
+      <c r="AD87" t="inlineStr"/>
+      <c r="AE87" t="inlineStr"/>
+      <c r="AF87" t="inlineStr"/>
+      <c r="AG87" t="inlineStr"/>
+      <c r="AH87" t="inlineStr"/>
+      <c r="AI87" t="inlineStr"/>
+      <c r="AJ87" t="inlineStr"/>
+      <c r="AK87" t="inlineStr"/>
+      <c r="AL87" t="inlineStr"/>
+      <c r="AM87" t="inlineStr"/>
+      <c r="AN87" t="inlineStr"/>
+      <c r="AO87" t="inlineStr"/>
+      <c r="AP87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>vocab:1064</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Dynamic headspace</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>DHS</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr"/>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="inlineStr"/>
+      <c r="O88" t="inlineStr"/>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="inlineStr"/>
+      <c r="R88" t="inlineStr"/>
+      <c r="S88" t="inlineStr"/>
+      <c r="T88" t="inlineStr"/>
+      <c r="U88" t="inlineStr"/>
+      <c r="V88" t="inlineStr"/>
+      <c r="W88" t="inlineStr"/>
+      <c r="X88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr"/>
+      <c r="Z88" t="inlineStr"/>
+      <c r="AA88" t="inlineStr"/>
+      <c r="AB88" t="inlineStr"/>
+      <c r="AC88" t="inlineStr"/>
+      <c r="AD88" t="inlineStr"/>
+      <c r="AE88" t="inlineStr"/>
+      <c r="AF88" t="inlineStr"/>
+      <c r="AG88" t="inlineStr"/>
+      <c r="AH88" t="inlineStr"/>
+      <c r="AI88" t="inlineStr"/>
+      <c r="AJ88" t="inlineStr"/>
+      <c r="AK88" t="inlineStr"/>
+      <c r="AL88" t="inlineStr"/>
+      <c r="AM88" t="inlineStr"/>
+      <c r="AN88" t="inlineStr"/>
+      <c r="AO88" t="inlineStr"/>
+      <c r="AP88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>vocab:1065</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Large volume Solid-phase extraction</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>LVSPE</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>LVSPE</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr"/>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="inlineStr"/>
+      <c r="O89" t="inlineStr"/>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="inlineStr"/>
+      <c r="R89" t="inlineStr"/>
+      <c r="S89" t="inlineStr"/>
+      <c r="T89" t="inlineStr"/>
+      <c r="U89" t="inlineStr"/>
+      <c r="V89" t="inlineStr"/>
+      <c r="W89" t="inlineStr"/>
+      <c r="X89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr"/>
+      <c r="Z89" t="inlineStr"/>
+      <c r="AA89" t="inlineStr"/>
+      <c r="AB89" t="inlineStr"/>
+      <c r="AC89" t="inlineStr"/>
+      <c r="AD89" t="inlineStr"/>
+      <c r="AE89" t="inlineStr"/>
+      <c r="AF89" t="inlineStr"/>
+      <c r="AG89" t="inlineStr"/>
+      <c r="AH89" t="inlineStr"/>
+      <c r="AI89" t="inlineStr"/>
+      <c r="AJ89" t="inlineStr"/>
+      <c r="AK89" t="inlineStr"/>
+      <c r="AL89" t="inlineStr"/>
+      <c r="AM89" t="inlineStr"/>
+      <c r="AN89" t="inlineStr"/>
+      <c r="AO89" t="inlineStr"/>
+      <c r="AP89" t="inlineStr"/>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>vocab:1066</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Liquid desorption</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Liquid desorption</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>LIQUID_DESORPTION</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr"/>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="inlineStr"/>
+      <c r="O90" t="inlineStr"/>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="inlineStr"/>
+      <c r="R90" t="inlineStr"/>
+      <c r="S90" t="inlineStr"/>
+      <c r="T90" t="inlineStr"/>
+      <c r="U90" t="inlineStr"/>
+      <c r="V90" t="inlineStr"/>
+      <c r="W90" t="inlineStr"/>
+      <c r="X90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr"/>
+      <c r="Z90" t="inlineStr"/>
+      <c r="AA90" t="inlineStr"/>
+      <c r="AB90" t="inlineStr"/>
+      <c r="AC90" t="inlineStr"/>
+      <c r="AD90" t="inlineStr"/>
+      <c r="AE90" t="inlineStr"/>
+      <c r="AF90" t="inlineStr"/>
+      <c r="AG90" t="inlineStr"/>
+      <c r="AH90" t="inlineStr"/>
+      <c r="AI90" t="inlineStr"/>
+      <c r="AJ90" t="inlineStr"/>
+      <c r="AK90" t="inlineStr"/>
+      <c r="AL90" t="inlineStr"/>
+      <c r="AM90" t="inlineStr"/>
+      <c r="AN90" t="inlineStr"/>
+      <c r="AO90" t="inlineStr"/>
+      <c r="AP90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>vocab:1067</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Liquid x liquid extraction</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>LLE</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>LLE</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="inlineStr"/>
+      <c r="O91" t="inlineStr"/>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="inlineStr"/>
+      <c r="R91" t="inlineStr"/>
+      <c r="S91" t="inlineStr"/>
+      <c r="T91" t="inlineStr"/>
+      <c r="U91" t="inlineStr"/>
+      <c r="V91" t="inlineStr"/>
+      <c r="W91" t="inlineStr"/>
+      <c r="X91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr"/>
+      <c r="Z91" t="inlineStr"/>
+      <c r="AA91" t="inlineStr"/>
+      <c r="AB91" t="inlineStr"/>
+      <c r="AC91" t="inlineStr"/>
+      <c r="AD91" t="inlineStr"/>
+      <c r="AE91" t="inlineStr"/>
+      <c r="AF91" t="inlineStr"/>
+      <c r="AG91" t="inlineStr"/>
+      <c r="AH91" t="inlineStr"/>
+      <c r="AI91" t="inlineStr"/>
+      <c r="AJ91" t="inlineStr"/>
+      <c r="AK91" t="inlineStr"/>
+      <c r="AL91" t="inlineStr"/>
+      <c r="AM91" t="inlineStr"/>
+      <c r="AN91" t="inlineStr"/>
+      <c r="AO91" t="inlineStr"/>
+      <c r="AP91" t="inlineStr"/>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>vocab:1068</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Microwave assisted digestion</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Microwave assissted digestion</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>MICROWAVE_ASSISTED_DIGESTION</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr"/>
+      <c r="F92" t="inlineStr"/>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="inlineStr"/>
+      <c r="O92" t="inlineStr"/>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="inlineStr"/>
+      <c r="R92" t="inlineStr"/>
+      <c r="S92" t="inlineStr"/>
+      <c r="T92" t="inlineStr"/>
+      <c r="U92" t="inlineStr"/>
+      <c r="V92" t="inlineStr"/>
+      <c r="W92" t="inlineStr"/>
+      <c r="X92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr"/>
+      <c r="Z92" t="inlineStr"/>
+      <c r="AA92" t="inlineStr"/>
+      <c r="AB92" t="inlineStr"/>
+      <c r="AC92" t="inlineStr"/>
+      <c r="AD92" t="inlineStr"/>
+      <c r="AE92" t="inlineStr"/>
+      <c r="AF92" t="inlineStr"/>
+      <c r="AG92" t="inlineStr"/>
+      <c r="AH92" t="inlineStr"/>
+      <c r="AI92" t="inlineStr"/>
+      <c r="AJ92" t="inlineStr"/>
+      <c r="AK92" t="inlineStr"/>
+      <c r="AL92" t="inlineStr"/>
+      <c r="AM92" t="inlineStr"/>
+      <c r="AN92" t="inlineStr"/>
+      <c r="AO92" t="inlineStr"/>
+      <c r="AP92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>vocab:1069</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Microwave assisted extraction</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr"/>
+      <c r="F93" t="inlineStr"/>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr"/>
+      <c r="R93" t="inlineStr"/>
+      <c r="S93" t="inlineStr"/>
+      <c r="T93" t="inlineStr"/>
+      <c r="U93" t="inlineStr"/>
+      <c r="V93" t="inlineStr"/>
+      <c r="W93" t="inlineStr"/>
+      <c r="X93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr"/>
+      <c r="Z93" t="inlineStr"/>
+      <c r="AA93" t="inlineStr"/>
+      <c r="AB93" t="inlineStr"/>
+      <c r="AC93" t="inlineStr"/>
+      <c r="AD93" t="inlineStr"/>
+      <c r="AE93" t="inlineStr"/>
+      <c r="AF93" t="inlineStr"/>
+      <c r="AG93" t="inlineStr"/>
+      <c r="AH93" t="inlineStr"/>
+      <c r="AI93" t="inlineStr"/>
+      <c r="AJ93" t="inlineStr"/>
+      <c r="AK93" t="inlineStr"/>
+      <c r="AL93" t="inlineStr"/>
+      <c r="AM93" t="inlineStr"/>
+      <c r="AN93" t="inlineStr"/>
+      <c r="AO93" t="inlineStr"/>
+      <c r="AP93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>vocab:1070</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Pressurised liquid extraction</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>PLE</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>PLE</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr"/>
+      <c r="F94" t="inlineStr"/>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr"/>
+      <c r="R94" t="inlineStr"/>
+      <c r="S94" t="inlineStr"/>
+      <c r="T94" t="inlineStr"/>
+      <c r="U94" t="inlineStr"/>
+      <c r="V94" t="inlineStr"/>
+      <c r="W94" t="inlineStr"/>
+      <c r="X94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr"/>
+      <c r="Z94" t="inlineStr"/>
+      <c r="AA94" t="inlineStr"/>
+      <c r="AB94" t="inlineStr"/>
+      <c r="AC94" t="inlineStr"/>
+      <c r="AD94" t="inlineStr"/>
+      <c r="AE94" t="inlineStr"/>
+      <c r="AF94" t="inlineStr"/>
+      <c r="AG94" t="inlineStr"/>
+      <c r="AH94" t="inlineStr"/>
+      <c r="AI94" t="inlineStr"/>
+      <c r="AJ94" t="inlineStr"/>
+      <c r="AK94" t="inlineStr"/>
+      <c r="AL94" t="inlineStr"/>
+      <c r="AM94" t="inlineStr"/>
+      <c r="AN94" t="inlineStr"/>
+      <c r="AO94" t="inlineStr"/>
+      <c r="AP94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>vocab:1071</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Solid phase extraction</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>SPE</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr"/>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="inlineStr"/>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr"/>
+      <c r="R95" t="inlineStr"/>
+      <c r="S95" t="inlineStr"/>
+      <c r="T95" t="inlineStr"/>
+      <c r="U95" t="inlineStr"/>
+      <c r="V95" t="inlineStr"/>
+      <c r="W95" t="inlineStr"/>
+      <c r="X95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr"/>
+      <c r="Z95" t="inlineStr"/>
+      <c r="AA95" t="inlineStr"/>
+      <c r="AB95" t="inlineStr"/>
+      <c r="AC95" t="inlineStr"/>
+      <c r="AD95" t="inlineStr"/>
+      <c r="AE95" t="inlineStr"/>
+      <c r="AF95" t="inlineStr"/>
+      <c r="AG95" t="inlineStr"/>
+      <c r="AH95" t="inlineStr"/>
+      <c r="AI95" t="inlineStr"/>
+      <c r="AJ95" t="inlineStr"/>
+      <c r="AK95" t="inlineStr"/>
+      <c r="AL95" t="inlineStr"/>
+      <c r="AM95" t="inlineStr"/>
+      <c r="AN95" t="inlineStr"/>
+      <c r="AO95" t="inlineStr"/>
+      <c r="AP95" t="inlineStr"/>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>vocab:1072</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Solid phase extraction using membrane extraction disks</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>SPE using membrane extraction disks</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>SPE_MEMBRANE_EXTRACTION_DISKS</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr"/>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+      <c r="O96" t="inlineStr"/>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="inlineStr"/>
+      <c r="R96" t="inlineStr"/>
+      <c r="S96" t="inlineStr"/>
+      <c r="T96" t="inlineStr"/>
+      <c r="U96" t="inlineStr"/>
+      <c r="V96" t="inlineStr"/>
+      <c r="W96" t="inlineStr"/>
+      <c r="X96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr"/>
+      <c r="Z96" t="inlineStr"/>
+      <c r="AA96" t="inlineStr"/>
+      <c r="AB96" t="inlineStr"/>
+      <c r="AC96" t="inlineStr"/>
+      <c r="AD96" t="inlineStr"/>
+      <c r="AE96" t="inlineStr"/>
+      <c r="AF96" t="inlineStr"/>
+      <c r="AG96" t="inlineStr"/>
+      <c r="AH96" t="inlineStr"/>
+      <c r="AI96" t="inlineStr"/>
+      <c r="AJ96" t="inlineStr"/>
+      <c r="AK96" t="inlineStr"/>
+      <c r="AL96" t="inlineStr"/>
+      <c r="AM96" t="inlineStr"/>
+      <c r="AN96" t="inlineStr"/>
+      <c r="AO96" t="inlineStr"/>
+      <c r="AP96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>vocab:1073</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Solid-phase extraction using columns</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>SPE using columns</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>SPE_COLUMNS</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr"/>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+      <c r="O97" t="inlineStr"/>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="inlineStr"/>
+      <c r="R97" t="inlineStr"/>
+      <c r="S97" t="inlineStr"/>
+      <c r="T97" t="inlineStr"/>
+      <c r="U97" t="inlineStr"/>
+      <c r="V97" t="inlineStr"/>
+      <c r="W97" t="inlineStr"/>
+      <c r="X97" t="inlineStr"/>
+      <c r="Y97" t="inlineStr"/>
+      <c r="Z97" t="inlineStr"/>
+      <c r="AA97" t="inlineStr"/>
+      <c r="AB97" t="inlineStr"/>
+      <c r="AC97" t="inlineStr"/>
+      <c r="AD97" t="inlineStr"/>
+      <c r="AE97" t="inlineStr"/>
+      <c r="AF97" t="inlineStr"/>
+      <c r="AG97" t="inlineStr"/>
+      <c r="AH97" t="inlineStr"/>
+      <c r="AI97" t="inlineStr"/>
+      <c r="AJ97" t="inlineStr"/>
+      <c r="AK97" t="inlineStr"/>
+      <c r="AL97" t="inlineStr"/>
+      <c r="AM97" t="inlineStr"/>
+      <c r="AN97" t="inlineStr"/>
+      <c r="AO97" t="inlineStr"/>
+      <c r="AP97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>vocab:1074</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Soxhlet extraction</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Soxhlet extraction</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>SOXHLET</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr"/>
+      <c r="F98" t="inlineStr"/>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+      <c r="O98" t="inlineStr"/>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="inlineStr"/>
+      <c r="R98" t="inlineStr"/>
+      <c r="S98" t="inlineStr"/>
+      <c r="T98" t="inlineStr"/>
+      <c r="U98" t="inlineStr"/>
+      <c r="V98" t="inlineStr"/>
+      <c r="W98" t="inlineStr"/>
+      <c r="X98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr"/>
+      <c r="Z98" t="inlineStr"/>
+      <c r="AA98" t="inlineStr"/>
+      <c r="AB98" t="inlineStr"/>
+      <c r="AC98" t="inlineStr"/>
+      <c r="AD98" t="inlineStr"/>
+      <c r="AE98" t="inlineStr"/>
+      <c r="AF98" t="inlineStr"/>
+      <c r="AG98" t="inlineStr"/>
+      <c r="AH98" t="inlineStr"/>
+      <c r="AI98" t="inlineStr"/>
+      <c r="AJ98" t="inlineStr"/>
+      <c r="AK98" t="inlineStr"/>
+      <c r="AL98" t="inlineStr"/>
+      <c r="AM98" t="inlineStr"/>
+      <c r="AN98" t="inlineStr"/>
+      <c r="AO98" t="inlineStr"/>
+      <c r="AP98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>vocab:1075</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Static headspace</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>SHS</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>SHS</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr"/>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="inlineStr"/>
+      <c r="O99" t="inlineStr"/>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="inlineStr"/>
+      <c r="R99" t="inlineStr"/>
+      <c r="S99" t="inlineStr"/>
+      <c r="T99" t="inlineStr"/>
+      <c r="U99" t="inlineStr"/>
+      <c r="V99" t="inlineStr"/>
+      <c r="W99" t="inlineStr"/>
+      <c r="X99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr"/>
+      <c r="Z99" t="inlineStr"/>
+      <c r="AA99" t="inlineStr"/>
+      <c r="AB99" t="inlineStr"/>
+      <c r="AC99" t="inlineStr"/>
+      <c r="AD99" t="inlineStr"/>
+      <c r="AE99" t="inlineStr"/>
+      <c r="AF99" t="inlineStr"/>
+      <c r="AG99" t="inlineStr"/>
+      <c r="AH99" t="inlineStr"/>
+      <c r="AI99" t="inlineStr"/>
+      <c r="AJ99" t="inlineStr"/>
+      <c r="AK99" t="inlineStr"/>
+      <c r="AL99" t="inlineStr"/>
+      <c r="AM99" t="inlineStr"/>
+      <c r="AN99" t="inlineStr"/>
+      <c r="AO99" t="inlineStr"/>
+      <c r="AP99" t="inlineStr"/>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>vocab:1076</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Supercritical fluid extraction</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>SFE</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr"/>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+      <c r="O100" t="inlineStr"/>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="inlineStr"/>
+      <c r="R100" t="inlineStr"/>
+      <c r="S100" t="inlineStr"/>
+      <c r="T100" t="inlineStr"/>
+      <c r="U100" t="inlineStr"/>
+      <c r="V100" t="inlineStr"/>
+      <c r="W100" t="inlineStr"/>
+      <c r="X100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr"/>
+      <c r="Z100" t="inlineStr"/>
+      <c r="AA100" t="inlineStr"/>
+      <c r="AB100" t="inlineStr"/>
+      <c r="AC100" t="inlineStr"/>
+      <c r="AD100" t="inlineStr"/>
+      <c r="AE100" t="inlineStr"/>
+      <c r="AF100" t="inlineStr"/>
+      <c r="AG100" t="inlineStr"/>
+      <c r="AH100" t="inlineStr"/>
+      <c r="AI100" t="inlineStr"/>
+      <c r="AJ100" t="inlineStr"/>
+      <c r="AK100" t="inlineStr"/>
+      <c r="AL100" t="inlineStr"/>
+      <c r="AM100" t="inlineStr"/>
+      <c r="AN100" t="inlineStr"/>
+      <c r="AO100" t="inlineStr"/>
+      <c r="AP100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>vocab:1077</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Thermal desorption</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Thermal desorption</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>THERMAL_DESORPTION</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr"/>
+      <c r="F101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="inlineStr"/>
+      <c r="O101" t="inlineStr"/>
+      <c r="P101" t="inlineStr"/>
+      <c r="Q101" t="inlineStr"/>
+      <c r="R101" t="inlineStr"/>
+      <c r="S101" t="inlineStr"/>
+      <c r="T101" t="inlineStr"/>
+      <c r="U101" t="inlineStr"/>
+      <c r="V101" t="inlineStr"/>
+      <c r="W101" t="inlineStr"/>
+      <c r="X101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr"/>
+      <c r="Z101" t="inlineStr"/>
+      <c r="AA101" t="inlineStr"/>
+      <c r="AB101" t="inlineStr"/>
+      <c r="AC101" t="inlineStr"/>
+      <c r="AD101" t="inlineStr"/>
+      <c r="AE101" t="inlineStr"/>
+      <c r="AF101" t="inlineStr"/>
+      <c r="AG101" t="inlineStr"/>
+      <c r="AH101" t="inlineStr"/>
+      <c r="AI101" t="inlineStr"/>
+      <c r="AJ101" t="inlineStr"/>
+      <c r="AK101" t="inlineStr"/>
+      <c r="AL101" t="inlineStr"/>
+      <c r="AM101" t="inlineStr"/>
+      <c r="AN101" t="inlineStr"/>
+      <c r="AO101" t="inlineStr"/>
+      <c r="AP101" t="inlineStr"/>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>vocab:1078</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Ultrasonic desorption</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Ultrasonic desorption</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>ULTRASONIC_DESORPTION</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr"/>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+      <c r="O102" t="inlineStr"/>
+      <c r="P102" t="inlineStr"/>
+      <c r="Q102" t="inlineStr"/>
+      <c r="R102" t="inlineStr"/>
+      <c r="S102" t="inlineStr"/>
+      <c r="T102" t="inlineStr"/>
+      <c r="U102" t="inlineStr"/>
+      <c r="V102" t="inlineStr"/>
+      <c r="W102" t="inlineStr"/>
+      <c r="X102" t="inlineStr"/>
+      <c r="Y102" t="inlineStr"/>
+      <c r="Z102" t="inlineStr"/>
+      <c r="AA102" t="inlineStr"/>
+      <c r="AB102" t="inlineStr"/>
+      <c r="AC102" t="inlineStr"/>
+      <c r="AD102" t="inlineStr"/>
+      <c r="AE102" t="inlineStr"/>
+      <c r="AF102" t="inlineStr"/>
+      <c r="AG102" t="inlineStr"/>
+      <c r="AH102" t="inlineStr"/>
+      <c r="AI102" t="inlineStr"/>
+      <c r="AJ102" t="inlineStr"/>
+      <c r="AK102" t="inlineStr"/>
+      <c r="AL102" t="inlineStr"/>
+      <c r="AM102" t="inlineStr"/>
+      <c r="AN102" t="inlineStr"/>
+      <c r="AO102" t="inlineStr"/>
+      <c r="AP102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>vocab:1079</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Ultrasonic extraction</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>USE</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>USE</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr"/>
+      <c r="F103" t="inlineStr"/>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>vocab:1001</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+      <c r="O103" t="inlineStr"/>
+      <c r="P103" t="inlineStr"/>
+      <c r="Q103" t="inlineStr"/>
+      <c r="R103" t="inlineStr"/>
+      <c r="S103" t="inlineStr"/>
+      <c r="T103" t="inlineStr"/>
+      <c r="U103" t="inlineStr"/>
+      <c r="V103" t="inlineStr"/>
+      <c r="W103" t="inlineStr"/>
+      <c r="X103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr"/>
+      <c r="Z103" t="inlineStr"/>
+      <c r="AA103" t="inlineStr"/>
+      <c r="AB103" t="inlineStr"/>
+      <c r="AC103" t="inlineStr"/>
+      <c r="AD103" t="inlineStr"/>
+      <c r="AE103" t="inlineStr"/>
+      <c r="AF103" t="inlineStr"/>
+      <c r="AG103" t="inlineStr"/>
+      <c r="AH103" t="inlineStr"/>
+      <c r="AI103" t="inlineStr"/>
+      <c r="AJ103" t="inlineStr"/>
+      <c r="AK103" t="inlineStr"/>
+      <c r="AL103" t="inlineStr"/>
+      <c r="AM103" t="inlineStr"/>
+      <c r="AN103" t="inlineStr"/>
+      <c r="AO103" t="inlineStr"/>
+      <c r="AP103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>vocab:1080</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>active sampling with high-volume sampling</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>HIG-VOL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>HIG-VOL</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr"/>
+      <c r="F104" t="inlineStr"/>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+      <c r="O104" t="inlineStr"/>
+      <c r="P104" t="inlineStr"/>
+      <c r="Q104" t="inlineStr"/>
+      <c r="R104" t="inlineStr"/>
+      <c r="S104" t="inlineStr"/>
+      <c r="T104" t="inlineStr"/>
+      <c r="U104" t="inlineStr"/>
+      <c r="V104" t="inlineStr"/>
+      <c r="W104" t="inlineStr"/>
+      <c r="X104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr"/>
+      <c r="Z104" t="inlineStr"/>
+      <c r="AA104" t="inlineStr"/>
+      <c r="AB104" t="inlineStr"/>
+      <c r="AC104" t="inlineStr"/>
+      <c r="AD104" t="inlineStr"/>
+      <c r="AE104" t="inlineStr"/>
+      <c r="AF104" t="inlineStr"/>
+      <c r="AG104" t="inlineStr"/>
+      <c r="AH104" t="inlineStr"/>
+      <c r="AI104" t="inlineStr"/>
+      <c r="AJ104" t="inlineStr"/>
+      <c r="AK104" t="inlineStr"/>
+      <c r="AL104" t="inlineStr"/>
+      <c r="AM104" t="inlineStr"/>
+      <c r="AN104" t="inlineStr"/>
+      <c r="AO104" t="inlineStr"/>
+      <c r="AP104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>vocab:1081</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>active sampling wtih low-volume sampling</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>LOW-VOL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>LOW-VOL</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr"/>
+      <c r="F105" t="inlineStr"/>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+      <c r="O105" t="inlineStr"/>
+      <c r="P105" t="inlineStr"/>
+      <c r="Q105" t="inlineStr"/>
+      <c r="R105" t="inlineStr"/>
+      <c r="S105" t="inlineStr"/>
+      <c r="T105" t="inlineStr"/>
+      <c r="U105" t="inlineStr"/>
+      <c r="V105" t="inlineStr"/>
+      <c r="W105" t="inlineStr"/>
+      <c r="X105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr"/>
+      <c r="Z105" t="inlineStr"/>
+      <c r="AA105" t="inlineStr"/>
+      <c r="AB105" t="inlineStr"/>
+      <c r="AC105" t="inlineStr"/>
+      <c r="AD105" t="inlineStr"/>
+      <c r="AE105" t="inlineStr"/>
+      <c r="AF105" t="inlineStr"/>
+      <c r="AG105" t="inlineStr"/>
+      <c r="AH105" t="inlineStr"/>
+      <c r="AI105" t="inlineStr"/>
+      <c r="AJ105" t="inlineStr"/>
+      <c r="AK105" t="inlineStr"/>
+      <c r="AL105" t="inlineStr"/>
+      <c r="AM105" t="inlineStr"/>
+      <c r="AN105" t="inlineStr"/>
+      <c r="AO105" t="inlineStr"/>
+      <c r="AP105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>vocab:1082</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>passive sampling with polyurethane foam</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>PAS-PUF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>PAS-PUF</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr"/>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="inlineStr"/>
+      <c r="O106" t="inlineStr"/>
+      <c r="P106" t="inlineStr"/>
+      <c r="Q106" t="inlineStr"/>
+      <c r="R106" t="inlineStr"/>
+      <c r="S106" t="inlineStr"/>
+      <c r="T106" t="inlineStr"/>
+      <c r="U106" t="inlineStr"/>
+      <c r="V106" t="inlineStr"/>
+      <c r="W106" t="inlineStr"/>
+      <c r="X106" t="inlineStr"/>
+      <c r="Y106" t="inlineStr"/>
+      <c r="Z106" t="inlineStr"/>
+      <c r="AA106" t="inlineStr"/>
+      <c r="AB106" t="inlineStr"/>
+      <c r="AC106" t="inlineStr"/>
+      <c r="AD106" t="inlineStr"/>
+      <c r="AE106" t="inlineStr"/>
+      <c r="AF106" t="inlineStr"/>
+      <c r="AG106" t="inlineStr"/>
+      <c r="AH106" t="inlineStr"/>
+      <c r="AI106" t="inlineStr"/>
+      <c r="AJ106" t="inlineStr"/>
+      <c r="AK106" t="inlineStr"/>
+      <c r="AL106" t="inlineStr"/>
+      <c r="AM106" t="inlineStr"/>
+      <c r="AN106" t="inlineStr"/>
+      <c r="AO106" t="inlineStr"/>
+      <c r="AP106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>vocab:1083</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>passive sampling with sorbent integrated polyurethane foam disk</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>PAS-SIP</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>PAS-SIP</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr"/>
+      <c r="F107" t="inlineStr"/>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+      <c r="O107" t="inlineStr"/>
+      <c r="P107" t="inlineStr"/>
+      <c r="Q107" t="inlineStr"/>
+      <c r="R107" t="inlineStr"/>
+      <c r="S107" t="inlineStr"/>
+      <c r="T107" t="inlineStr"/>
+      <c r="U107" t="inlineStr"/>
+      <c r="V107" t="inlineStr"/>
+      <c r="W107" t="inlineStr"/>
+      <c r="X107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr"/>
+      <c r="Z107" t="inlineStr"/>
+      <c r="AA107" t="inlineStr"/>
+      <c r="AB107" t="inlineStr"/>
+      <c r="AC107" t="inlineStr"/>
+      <c r="AD107" t="inlineStr"/>
+      <c r="AE107" t="inlineStr"/>
+      <c r="AF107" t="inlineStr"/>
+      <c r="AG107" t="inlineStr"/>
+      <c r="AH107" t="inlineStr"/>
+      <c r="AI107" t="inlineStr"/>
+      <c r="AJ107" t="inlineStr"/>
+      <c r="AK107" t="inlineStr"/>
+      <c r="AL107" t="inlineStr"/>
+      <c r="AM107" t="inlineStr"/>
+      <c r="AN107" t="inlineStr"/>
+      <c r="AO107" t="inlineStr"/>
+      <c r="AP107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>vocab:1084</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>passive sampling with XAD resin</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr"/>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="inlineStr"/>
+      <c r="O108" t="inlineStr"/>
+      <c r="P108" t="inlineStr"/>
+      <c r="Q108" t="inlineStr"/>
+      <c r="R108" t="inlineStr"/>
+      <c r="S108" t="inlineStr"/>
+      <c r="T108" t="inlineStr"/>
+      <c r="U108" t="inlineStr"/>
+      <c r="V108" t="inlineStr"/>
+      <c r="W108" t="inlineStr"/>
+      <c r="X108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr"/>
+      <c r="Z108" t="inlineStr"/>
+      <c r="AA108" t="inlineStr"/>
+      <c r="AB108" t="inlineStr"/>
+      <c r="AC108" t="inlineStr"/>
+      <c r="AD108" t="inlineStr"/>
+      <c r="AE108" t="inlineStr"/>
+      <c r="AF108" t="inlineStr"/>
+      <c r="AG108" t="inlineStr"/>
+      <c r="AH108" t="inlineStr"/>
+      <c r="AI108" t="inlineStr"/>
+      <c r="AJ108" t="inlineStr"/>
+      <c r="AK108" t="inlineStr"/>
+      <c r="AL108" t="inlineStr"/>
+      <c r="AM108" t="inlineStr"/>
+      <c r="AN108" t="inlineStr"/>
+      <c r="AO108" t="inlineStr"/>
+      <c r="AP108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>vocab:1085</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>active sampling by hand</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>BY_HAND</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>BY_HAND</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr"/>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="inlineStr"/>
+      <c r="O109" t="inlineStr"/>
+      <c r="P109" t="inlineStr"/>
+      <c r="Q109" t="inlineStr"/>
+      <c r="R109" t="inlineStr"/>
+      <c r="S109" t="inlineStr"/>
+      <c r="T109" t="inlineStr"/>
+      <c r="U109" t="inlineStr"/>
+      <c r="V109" t="inlineStr"/>
+      <c r="W109" t="inlineStr"/>
+      <c r="X109" t="inlineStr"/>
+      <c r="Y109" t="inlineStr"/>
+      <c r="Z109" t="inlineStr"/>
+      <c r="AA109" t="inlineStr"/>
+      <c r="AB109" t="inlineStr"/>
+      <c r="AC109" t="inlineStr"/>
+      <c r="AD109" t="inlineStr"/>
+      <c r="AE109" t="inlineStr"/>
+      <c r="AF109" t="inlineStr"/>
+      <c r="AG109" t="inlineStr"/>
+      <c r="AH109" t="inlineStr"/>
+      <c r="AI109" t="inlineStr"/>
+      <c r="AJ109" t="inlineStr"/>
+      <c r="AK109" t="inlineStr"/>
+      <c r="AL109" t="inlineStr"/>
+      <c r="AM109" t="inlineStr"/>
+      <c r="AN109" t="inlineStr"/>
+      <c r="AO109" t="inlineStr"/>
+      <c r="AP109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>vocab:1086</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>sediment trap</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>SEDIMENT_TRAP</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>SEDIMENT_TRAP</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+      <c r="O110" t="inlineStr"/>
+      <c r="P110" t="inlineStr"/>
+      <c r="Q110" t="inlineStr"/>
+      <c r="R110" t="inlineStr"/>
+      <c r="S110" t="inlineStr"/>
+      <c r="T110" t="inlineStr"/>
+      <c r="U110" t="inlineStr"/>
+      <c r="V110" t="inlineStr"/>
+      <c r="W110" t="inlineStr"/>
+      <c r="X110" t="inlineStr"/>
+      <c r="Y110" t="inlineStr"/>
+      <c r="Z110" t="inlineStr"/>
+      <c r="AA110" t="inlineStr"/>
+      <c r="AB110" t="inlineStr"/>
+      <c r="AC110" t="inlineStr"/>
+      <c r="AD110" t="inlineStr"/>
+      <c r="AE110" t="inlineStr"/>
+      <c r="AF110" t="inlineStr"/>
+      <c r="AG110" t="inlineStr"/>
+      <c r="AH110" t="inlineStr"/>
+      <c r="AI110" t="inlineStr"/>
+      <c r="AJ110" t="inlineStr"/>
+      <c r="AK110" t="inlineStr"/>
+      <c r="AL110" t="inlineStr"/>
+      <c r="AM110" t="inlineStr"/>
+      <c r="AN110" t="inlineStr"/>
+      <c r="AO110" t="inlineStr"/>
+      <c r="AP110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>vocab:1087</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>active sampling by hand</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>BY_HAND</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>BY_HAND</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr"/>
+      <c r="F111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+      <c r="O111" t="inlineStr"/>
+      <c r="P111" t="inlineStr"/>
+      <c r="Q111" t="inlineStr"/>
+      <c r="R111" t="inlineStr"/>
+      <c r="S111" t="inlineStr"/>
+      <c r="T111" t="inlineStr"/>
+      <c r="U111" t="inlineStr"/>
+      <c r="V111" t="inlineStr"/>
+      <c r="W111" t="inlineStr"/>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr"/>
+      <c r="AA111" t="inlineStr"/>
+      <c r="AB111" t="inlineStr"/>
+      <c r="AC111" t="inlineStr"/>
+      <c r="AD111" t="inlineStr"/>
+      <c r="AE111" t="inlineStr"/>
+      <c r="AF111" t="inlineStr"/>
+      <c r="AG111" t="inlineStr"/>
+      <c r="AH111" t="inlineStr"/>
+      <c r="AI111" t="inlineStr"/>
+      <c r="AJ111" t="inlineStr"/>
+      <c r="AK111" t="inlineStr"/>
+      <c r="AL111" t="inlineStr"/>
+      <c r="AM111" t="inlineStr"/>
+      <c r="AN111" t="inlineStr"/>
+      <c r="AO111" t="inlineStr"/>
+      <c r="AP111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>vocab:1088</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>bulk water</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BULK_WATER</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>BULK_WATER</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="inlineStr"/>
+      <c r="O112" t="inlineStr"/>
+      <c r="P112" t="inlineStr"/>
+      <c r="Q112" t="inlineStr"/>
+      <c r="R112" t="inlineStr"/>
+      <c r="S112" t="inlineStr"/>
+      <c r="T112" t="inlineStr"/>
+      <c r="U112" t="inlineStr"/>
+      <c r="V112" t="inlineStr"/>
+      <c r="W112" t="inlineStr"/>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr"/>
+      <c r="AA112" t="inlineStr"/>
+      <c r="AB112" t="inlineStr"/>
+      <c r="AC112" t="inlineStr"/>
+      <c r="AD112" t="inlineStr"/>
+      <c r="AE112" t="inlineStr"/>
+      <c r="AF112" t="inlineStr"/>
+      <c r="AG112" t="inlineStr"/>
+      <c r="AH112" t="inlineStr"/>
+      <c r="AI112" t="inlineStr"/>
+      <c r="AJ112" t="inlineStr"/>
+      <c r="AK112" t="inlineStr"/>
+      <c r="AL112" t="inlineStr"/>
+      <c r="AM112" t="inlineStr"/>
+      <c r="AN112" t="inlineStr"/>
+      <c r="AO112" t="inlineStr"/>
+      <c r="AP112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>vocab:1089</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>passive sampling with polyurethane foam</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>PAS-PUF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>PAS-PUF</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="inlineStr"/>
+      <c r="O113" t="inlineStr"/>
+      <c r="P113" t="inlineStr"/>
+      <c r="Q113" t="inlineStr"/>
+      <c r="R113" t="inlineStr"/>
+      <c r="S113" t="inlineStr"/>
+      <c r="T113" t="inlineStr"/>
+      <c r="U113" t="inlineStr"/>
+      <c r="V113" t="inlineStr"/>
+      <c r="W113" t="inlineStr"/>
+      <c r="X113" t="inlineStr"/>
+      <c r="Y113" t="inlineStr"/>
+      <c r="Z113" t="inlineStr"/>
+      <c r="AA113" t="inlineStr"/>
+      <c r="AB113" t="inlineStr"/>
+      <c r="AC113" t="inlineStr"/>
+      <c r="AD113" t="inlineStr"/>
+      <c r="AE113" t="inlineStr"/>
+      <c r="AF113" t="inlineStr"/>
+      <c r="AG113" t="inlineStr"/>
+      <c r="AH113" t="inlineStr"/>
+      <c r="AI113" t="inlineStr"/>
+      <c r="AJ113" t="inlineStr"/>
+      <c r="AK113" t="inlineStr"/>
+      <c r="AL113" t="inlineStr"/>
+      <c r="AM113" t="inlineStr"/>
+      <c r="AN113" t="inlineStr"/>
+      <c r="AO113" t="inlineStr"/>
+      <c r="AP113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>vocab:1090</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>passive sampling with Polar Organic Chemical Integrative Sampler</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>PAS-POCIS</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>PAS-POCIS</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr"/>
+      <c r="F114" t="inlineStr"/>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="inlineStr"/>
+      <c r="O114" t="inlineStr"/>
+      <c r="P114" t="inlineStr"/>
+      <c r="Q114" t="inlineStr"/>
+      <c r="R114" t="inlineStr"/>
+      <c r="S114" t="inlineStr"/>
+      <c r="T114" t="inlineStr"/>
+      <c r="U114" t="inlineStr"/>
+      <c r="V114" t="inlineStr"/>
+      <c r="W114" t="inlineStr"/>
+      <c r="X114" t="inlineStr"/>
+      <c r="Y114" t="inlineStr"/>
+      <c r="Z114" t="inlineStr"/>
+      <c r="AA114" t="inlineStr"/>
+      <c r="AB114" t="inlineStr"/>
+      <c r="AC114" t="inlineStr"/>
+      <c r="AD114" t="inlineStr"/>
+      <c r="AE114" t="inlineStr"/>
+      <c r="AF114" t="inlineStr"/>
+      <c r="AG114" t="inlineStr"/>
+      <c r="AH114" t="inlineStr"/>
+      <c r="AI114" t="inlineStr"/>
+      <c r="AJ114" t="inlineStr"/>
+      <c r="AK114" t="inlineStr"/>
+      <c r="AL114" t="inlineStr"/>
+      <c r="AM114" t="inlineStr"/>
+      <c r="AN114" t="inlineStr"/>
+      <c r="AO114" t="inlineStr"/>
+      <c r="AP114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>vocab:1091</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>passive sampling with silicone rubber</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>PAS-SILICONE</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>PAS-SILICONE</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr"/>
+      <c r="F115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="inlineStr"/>
+      <c r="O115" t="inlineStr"/>
+      <c r="P115" t="inlineStr"/>
+      <c r="Q115" t="inlineStr"/>
+      <c r="R115" t="inlineStr"/>
+      <c r="S115" t="inlineStr"/>
+      <c r="T115" t="inlineStr"/>
+      <c r="U115" t="inlineStr"/>
+      <c r="V115" t="inlineStr"/>
+      <c r="W115" t="inlineStr"/>
+      <c r="X115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr"/>
+      <c r="Z115" t="inlineStr"/>
+      <c r="AA115" t="inlineStr"/>
+      <c r="AB115" t="inlineStr"/>
+      <c r="AC115" t="inlineStr"/>
+      <c r="AD115" t="inlineStr"/>
+      <c r="AE115" t="inlineStr"/>
+      <c r="AF115" t="inlineStr"/>
+      <c r="AG115" t="inlineStr"/>
+      <c r="AH115" t="inlineStr"/>
+      <c r="AI115" t="inlineStr"/>
+      <c r="AJ115" t="inlineStr"/>
+      <c r="AK115" t="inlineStr"/>
+      <c r="AL115" t="inlineStr"/>
+      <c r="AM115" t="inlineStr"/>
+      <c r="AN115" t="inlineStr"/>
+      <c r="AO115" t="inlineStr"/>
+      <c r="AP115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>vocab:1092</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>passive sampling with Empore™ Solid Phase Extraction Disks</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>PAS-EMPORE</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>PAS-EMPORE</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="inlineStr"/>
+      <c r="O116" t="inlineStr"/>
+      <c r="P116" t="inlineStr"/>
+      <c r="Q116" t="inlineStr"/>
+      <c r="R116" t="inlineStr"/>
+      <c r="S116" t="inlineStr"/>
+      <c r="T116" t="inlineStr"/>
+      <c r="U116" t="inlineStr"/>
+      <c r="V116" t="inlineStr"/>
+      <c r="W116" t="inlineStr"/>
+      <c r="X116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr"/>
+      <c r="Z116" t="inlineStr"/>
+      <c r="AA116" t="inlineStr"/>
+      <c r="AB116" t="inlineStr"/>
+      <c r="AC116" t="inlineStr"/>
+      <c r="AD116" t="inlineStr"/>
+      <c r="AE116" t="inlineStr"/>
+      <c r="AF116" t="inlineStr"/>
+      <c r="AG116" t="inlineStr"/>
+      <c r="AH116" t="inlineStr"/>
+      <c r="AI116" t="inlineStr"/>
+      <c r="AJ116" t="inlineStr"/>
+      <c r="AK116" t="inlineStr"/>
+      <c r="AL116" t="inlineStr"/>
+      <c r="AM116" t="inlineStr"/>
+      <c r="AN116" t="inlineStr"/>
+      <c r="AO116" t="inlineStr"/>
+      <c r="AP116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>vocab:1093</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>passive sampling with gel</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>PAS-GEL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>PAS-GEL</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr"/>
+      <c r="F117" t="inlineStr"/>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="inlineStr"/>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="inlineStr"/>
+      <c r="O117" t="inlineStr"/>
+      <c r="P117" t="inlineStr"/>
+      <c r="Q117" t="inlineStr"/>
+      <c r="R117" t="inlineStr"/>
+      <c r="S117" t="inlineStr"/>
+      <c r="T117" t="inlineStr"/>
+      <c r="U117" t="inlineStr"/>
+      <c r="V117" t="inlineStr"/>
+      <c r="W117" t="inlineStr"/>
+      <c r="X117" t="inlineStr"/>
+      <c r="Y117" t="inlineStr"/>
+      <c r="Z117" t="inlineStr"/>
+      <c r="AA117" t="inlineStr"/>
+      <c r="AB117" t="inlineStr"/>
+      <c r="AC117" t="inlineStr"/>
+      <c r="AD117" t="inlineStr"/>
+      <c r="AE117" t="inlineStr"/>
+      <c r="AF117" t="inlineStr"/>
+      <c r="AG117" t="inlineStr"/>
+      <c r="AH117" t="inlineStr"/>
+      <c r="AI117" t="inlineStr"/>
+      <c r="AJ117" t="inlineStr"/>
+      <c r="AK117" t="inlineStr"/>
+      <c r="AL117" t="inlineStr"/>
+      <c r="AM117" t="inlineStr"/>
+      <c r="AN117" t="inlineStr"/>
+      <c r="AO117" t="inlineStr"/>
+      <c r="AP117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>vocab:1094</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>passive with low density polyethylene</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>PAS-LDPE</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>PAS-LDPE</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr"/>
+      <c r="F118" t="inlineStr"/>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="inlineStr"/>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="inlineStr"/>
+      <c r="O118" t="inlineStr"/>
+      <c r="P118" t="inlineStr"/>
+      <c r="Q118" t="inlineStr"/>
+      <c r="R118" t="inlineStr"/>
+      <c r="S118" t="inlineStr"/>
+      <c r="T118" t="inlineStr"/>
+      <c r="U118" t="inlineStr"/>
+      <c r="V118" t="inlineStr"/>
+      <c r="W118" t="inlineStr"/>
+      <c r="X118" t="inlineStr"/>
+      <c r="Y118" t="inlineStr"/>
+      <c r="Z118" t="inlineStr"/>
+      <c r="AA118" t="inlineStr"/>
+      <c r="AB118" t="inlineStr"/>
+      <c r="AC118" t="inlineStr"/>
+      <c r="AD118" t="inlineStr"/>
+      <c r="AE118" t="inlineStr"/>
+      <c r="AF118" t="inlineStr"/>
+      <c r="AG118" t="inlineStr"/>
+      <c r="AH118" t="inlineStr"/>
+      <c r="AI118" t="inlineStr"/>
+      <c r="AJ118" t="inlineStr"/>
+      <c r="AK118" t="inlineStr"/>
+      <c r="AL118" t="inlineStr"/>
+      <c r="AM118" t="inlineStr"/>
+      <c r="AN118" t="inlineStr"/>
+      <c r="AO118" t="inlineStr"/>
+      <c r="AP118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>vocab:1095</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>passive withsemipermeable membrane device</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>PAS-SPMD</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>PAS-SPMD</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr"/>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
+      <c r="AO119" t="inlineStr"/>
+      <c r="AP119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>vocab:1096</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>passive with XAD resin</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
+      <c r="AO120" t="inlineStr"/>
+      <c r="AP120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>matrix</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr"/>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
+      <c r="AO121" t="inlineStr"/>
+      <c r="AP121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>air matrix</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
+      <c r="AO122" t="inlineStr"/>
+      <c r="AP122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>sediment matrix</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
+      <c r="AO123" t="inlineStr"/>
+      <c r="AP123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>soil matrix</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
+      <c r="AO124" t="inlineStr"/>
+      <c r="AP124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>water matrix</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
+      <c r="AO125" t="inlineStr"/>
+      <c r="AP125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>biota matrix</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
+      <c r="AO126" t="inlineStr"/>
+      <c r="AP126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>deposition matrix</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
+      <c r="AO127" t="inlineStr"/>
+      <c r="AP127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>vocab:1104</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>wohle air matrix</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
+      <c r="AO128" t="inlineStr"/>
+      <c r="AP128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>vocab:1105</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>gas phase matrix</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
+      <c r="AO129" t="inlineStr"/>
+      <c r="AP129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>vocab:1106</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>TSP matrix</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
+      <c r="AO130" t="inlineStr"/>
+      <c r="AP130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>PM 10 matrix</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
+      <c r="AO131" t="inlineStr"/>
+      <c r="AP131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>vocab:1108</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PM 2.5 matrix</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
+      <c r="AO132" t="inlineStr"/>
+      <c r="AP132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>vocab:1109</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>PM 5 matrix</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
+      <c r="AO133" t="inlineStr"/>
+      <c r="AP133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>vocab:1110</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>surface matrix</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
+      <c r="AO134" t="inlineStr"/>
+      <c r="AP134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>vocab:1111</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>sewage sludge matrix</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
+      <c r="AO135" t="inlineStr"/>
+      <c r="AP135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>vocab:1112</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>stratified matrix</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
+      <c r="AO136" t="inlineStr"/>
+      <c r="AP136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>vocab:1113</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>surface matrix</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
+      <c r="AO137" t="inlineStr"/>
+      <c r="AP137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>vocab:1114</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>topsoil matrix</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
+      <c r="AO138" t="inlineStr"/>
+      <c r="AP138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>vocab:1115</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>subsoil A matrix</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
+      <c r="AO139" t="inlineStr"/>
+      <c r="AP139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>vocab:1116</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>subsoil B matrix</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
+      <c r="AO140" t="inlineStr"/>
+      <c r="AP140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>vocab:1117</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>horizon A matrix</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
+      <c r="AO141" t="inlineStr"/>
+      <c r="AP141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>vocab:1118</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>horizon B matrix</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
+      <c r="AO142" t="inlineStr"/>
+      <c r="AP142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>horizon C matrix</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
+      <c r="AO143" t="inlineStr"/>
+      <c r="AP143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>vocab:1120</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>horizon E matrix</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
+      <c r="AO144" t="inlineStr"/>
+      <c r="AP144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>vocab:1121</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>horizon G matrix</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="inlineStr"/>
+      <c r="AP145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>vocab:1122</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>horizon M matrix</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
+      <c r="AO146" t="inlineStr"/>
+      <c r="AP146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>vocab:1123</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>horizon O matrix</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
+      <c r="AO147" t="inlineStr"/>
+      <c r="AP147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>vocab:1124</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>coastal matrix</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
+      <c r="AO148" t="inlineStr"/>
+      <c r="AP148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>vocab:1125</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>brackish matrix</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
+      <c r="AO149" t="inlineStr"/>
+      <c r="AP149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>vocab:1126</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>ocean matrix</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
+      <c r="AO150" t="inlineStr"/>
+      <c r="AP150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>vocab:1127</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>surface freshwater matrix</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
+      <c r="AO151" t="inlineStr"/>
+      <c r="AP151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>vocab:1128</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>surface freshwater - reservoir matrix</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
+      <c r="AO152" t="inlineStr"/>
+      <c r="AP152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>vocab:1129</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>surface freshwater - river matrix</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
+      <c r="AO153" t="inlineStr"/>
+      <c r="AP153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>vocab:1130</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>ground water matrix</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>vocab.1101</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
+      <c r="AO154" t="inlineStr"/>
+      <c r="AP154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>fish matrix</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
+      <c r="AO155" t="inlineStr"/>
+      <c r="AP155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>vocab:1132</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>barley matrix</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
+      <c r="AO156" t="inlineStr"/>
+      <c r="AP156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>vocab:1133</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>grass matrix</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
+      <c r="AO157" t="inlineStr"/>
+      <c r="AP157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>vocab:1134</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>hop matrix</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
+      <c r="AO158" t="inlineStr"/>
+      <c r="AP158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>vocab:1135</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>moss matrix</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
+      <c r="AO159" t="inlineStr"/>
+      <c r="AP159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>vocab:1136</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>mustard matrix</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
+      <c r="AO160" t="inlineStr"/>
+      <c r="AP160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>vocab:1137</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>maize matrix</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
+      <c r="AO161" t="inlineStr"/>
+      <c r="AP161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>oat matrix</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
+      <c r="AO162" t="inlineStr"/>
+      <c r="AP162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>vocab:1139</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>peat moss matrix</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
+      <c r="AO163" t="inlineStr"/>
+      <c r="AP163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>vocab:1140</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>pine matrix</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
+      <c r="AO164" t="inlineStr"/>
+      <c r="AP164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>vocab:1141</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>potato matrix</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
+      <c r="AO165" t="inlineStr"/>
+      <c r="AP165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>vocab:1142</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>rape matrix</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
+      <c r="AO166" t="inlineStr"/>
+      <c r="AP166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>vocab:1143</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>soya matrix</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
+      <c r="AO167" t="inlineStr"/>
+      <c r="AP167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>vocab:1144</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>sunflover matrix</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
+      <c r="AO168" t="inlineStr"/>
+      <c r="AP168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>vocab:1145</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>spruce matrix</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
+      <c r="AO169" t="inlineStr"/>
+      <c r="AP169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>vocab:1146</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>triticale matrix</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
+      <c r="AO170" t="inlineStr"/>
+      <c r="AP170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>vocab:1147</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>wheat matrix</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
+      <c r="AO171" t="inlineStr"/>
+      <c r="AP171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>dry matrix</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
+      <c r="AO172" t="inlineStr"/>
+      <c r="AP172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>vocab:1149</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>mixed matrix</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
+      <c r="AO173" t="inlineStr"/>
+      <c r="AP173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>vocab:1150</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>wet matrix</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+      <c r="AI174" t="inlineStr"/>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
+      <c r="AO174" t="inlineStr"/>
+      <c r="AP174" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP174"/>
+  <dimension ref="A1:AP196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-22T14:22:48+00:00</t>
+          <t>2023-09-22T14:37:15+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -8399,7 +8399,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>wohle air matrix</t>
+          <t>whole air matrix</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -8408,7 +8408,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -9528,7 +9528,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -9584,7 +9584,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -9640,7 +9640,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -9696,7 +9696,7 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -9752,7 +9752,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -9808,7 +9808,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -9864,7 +9864,7 @@
       <c r="F154" t="inlineStr"/>
       <c r="G154" t="inlineStr">
         <is>
-          <t>vocab.1101</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H154" t="inlineStr"/>
@@ -11023,6 +11023,1402 @@
       <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr"/>
     </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>vocab:1151</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>blood-whole blood matrix</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>BWB</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Blood-whole blood</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="inlineStr"/>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
+      <c r="AO175" t="inlineStr"/>
+      <c r="AP175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>blood -plasma matrix</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Blood -plasma</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
+      <c r="AO176" t="inlineStr"/>
+      <c r="AP176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>vocab:1153</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>blood -serum matrix</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Blood -serum</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+      <c r="AI177" t="inlineStr"/>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
+      <c r="AO177" t="inlineStr"/>
+      <c r="AP177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>vocab:1154</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>cord blood-whole blood matrix</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CBWB</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cord blood-whole blood</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+      <c r="AI178" t="inlineStr"/>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
+      <c r="AO178" t="inlineStr"/>
+      <c r="AP178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>vocab:1155</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>cord blood-plasma matrix</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CBP</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Cord blood-plasma</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr"/>
+      <c r="AP179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>vocab:1156</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>cord blood-serum matrix</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>CBS</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Cord blood-serum</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
+      <c r="AO180" t="inlineStr"/>
+      <c r="AP180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>vocab:1157</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>urine-spot matrix</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Urine-spot</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
+      <c r="AO181" t="inlineStr"/>
+      <c r="AP181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>vocab:1158</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>urine-24h matrix</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Urine-24h</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
+      <c r="AO182" t="inlineStr"/>
+      <c r="AP182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>vocab:1159</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>urine-morning urine matrix</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Urine-morning urine</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
+      <c r="AO183" t="inlineStr"/>
+      <c r="AP183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>vocab:1160</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>saliva and/or sputum matrix</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Saliva and or sputum</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
+      <c r="AO184" t="inlineStr"/>
+      <c r="AP184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>vocab:1161</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>semen matrix</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Semen</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
+      <c r="AO185" t="inlineStr"/>
+      <c r="AP185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>vocab:1162</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>hair matrix</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Hair</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
+      <c r="AO186" t="inlineStr"/>
+      <c r="AP186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>vocab:1163</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>exhaled breath condensate matrix</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>EBC</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Exhaled breath condensate</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr"/>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
+      <c r="AO187" t="inlineStr"/>
+      <c r="AP187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>vocab:1164</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>red blood cells matrix</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Red blood cells</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
+      <c r="AO188" t="inlineStr"/>
+      <c r="AP188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>vocab:1165</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>breast milk matrix</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>BM</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Breast milk</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
+      <c r="AO189" t="inlineStr"/>
+      <c r="AP189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>adipose tissue/fat matrix</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Adipose tissue/fat</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr"/>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
+      <c r="AO190" t="inlineStr"/>
+      <c r="AP190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>vocab:1167</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>all toe nails matrix</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>ATN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>All toe nails</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
+      <c r="AO191" t="inlineStr"/>
+      <c r="AP191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>vocab:1168</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>big toe nails matrix</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Big toe nails</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr"/>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
+      <c r="AO192" t="inlineStr"/>
+      <c r="AP192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>vocab:1169</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>dermal wipes matrix</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>DW</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Dermal wipes</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
+      <c r="AO193" t="inlineStr"/>
+      <c r="AP193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>vocab:1170</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>amniotic fluid matrix</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Amniotic fluid</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr"/>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
+      <c r="AO194" t="inlineStr"/>
+      <c r="AP194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>vocab:1171</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>placenta tissue matrix</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>PLT</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Placenta tissue</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
+      <c r="AO195" t="inlineStr"/>
+      <c r="AP195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>human matrix</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr"/>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
+      <c r="AO196" t="inlineStr"/>
+      <c r="AP196" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-22T14:37:15+00:00</t>
+          <t>2023-09-22T14:41:19+00:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -12382,7 +12382,11 @@
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
       <c r="H196" t="inlineStr"/>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP196"/>
+  <dimension ref="A1:AQ234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,6 +476,7 @@
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
       <c r="AP1" t="inlineStr"/>
+      <c r="AQ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -506,7 +507,11 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -524,6 +529,7 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
+      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -584,6 +590,7 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
+      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -644,6 +651,7 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
+      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +712,7 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -764,6 +773,7 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
+      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -824,6 +834,7 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
+      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -886,6 +897,7 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
+      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -946,6 +958,7 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
+      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1002,6 +1015,7 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
+      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1011,20 +1025,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>qudt</t>
+          <t>rdf</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>http://qudt.org/schema/qudt/</t>
+          <t>http://www.w3.org/1999/02/22-rdf-syntax-ns#</t>
         </is>
       </c>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
-        </is>
-      </c>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
       <c r="H11" t="inlineStr"/>
@@ -1062,6 +1072,7 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
+      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1071,20 +1082,16 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>unit</t>
+          <t>rdfs</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/unit/</t>
+          <t>http://www.w3.org/2000/01/rdf-schema#</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
-        </is>
-      </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr"/>
       <c r="G12" t="inlineStr"/>
       <c r="H12" t="inlineStr"/>
@@ -1122,17 +1129,30 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Metadata about vocabulary</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
+          <t>PREFIX</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>qudt</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>http://qudt.org/schema/qudt/</t>
+        </is>
+      </c>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Prefix for "Quantity, Unit, Dimension and Type" schema that is used to model physical units.</t>
+        </is>
+      </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
       <c r="H13" t="inlineStr"/>
@@ -1170,25 +1190,30 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
+      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>dct:title</t>
+          <t>PREFIX</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Demo M4M Vocabulary</t>
+          <t>unit</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Title of the vocabulary</t>
+          <t>http://qudt.org/vocab/unit/</t>
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prefix for QUDT Vocabulary of Units which terms we will use to semantically define units of measurements for terms (i.e., variables) we are defining </t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr"/>
       <c r="H14" t="inlineStr"/>
@@ -1226,23 +1251,16 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
+      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>dct:description</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>This vocabulary is used in DEMO M4M workshop</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Description of the controlled vocabulary</t>
-        </is>
-      </c>
+          <t>Metadata about vocabulary</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
@@ -1264,7 +1282,11 @@
       <c r="V15" t="inlineStr"/>
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
-      <c r="Y15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
       <c r="Z15" t="inlineStr"/>
       <c r="AA15" t="inlineStr"/>
       <c r="AB15" t="inlineStr"/>
@@ -1282,21 +1304,22 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
+      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>foaf:homepage</t>
+          <t>dct:title</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
+          <t>Demo M4M Vocabulary</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Home page of community creating vocabulary</t>
+          <t>Title of the vocabulary</t>
         </is>
       </c>
       <c r="D16" t="inlineStr"/>
@@ -1338,21 +1361,22 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
+      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>dct:creator</t>
+          <t>dct:description</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0000-0002-1665-678X</t>
+          <t>This vocabulary is used in DEMO M4M workshop</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>An ORCID ID of the vocabulary creator</t>
+          <t>Description of the controlled vocabulary</t>
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
@@ -1394,21 +1418,22 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
+      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>dct:rights</t>
+          <t>foaf:homepage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>https://spdx.org/licenses/CC0-1.0</t>
+          <t>https://github.com/gofair-foundation/m4m-vocabulary</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>License under which the vocabulary is provided</t>
+          <t>Home page of community creating vocabulary</t>
         </is>
       </c>
       <c r="D18" t="inlineStr"/>
@@ -1450,21 +1475,22 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
+      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>dct:hasVersion^^xsd:string</t>
+          <t>dct:creator</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0000-0002-1665-678X</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Vocabulary version</t>
+          <t>An ORCID ID of the vocabulary creator</t>
         </is>
       </c>
       <c r="D19" t="inlineStr"/>
@@ -1506,21 +1532,22 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
+      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:datetime</t>
+          <t>dct:rights</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2022-06-01T00:00:00+00:00</t>
+          <t>https://spdx.org/licenses/CC0-1.0</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Date when vocabulary was initially created</t>
+          <t>License under which the vocabulary is provided</t>
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
@@ -1562,21 +1589,22 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
+      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:datetime</t>
+          <t>dct:hasVersion^^xsd:string</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2023-09-22T14:41:19+00:00</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Automatic update when vocabulary is updated</t>
+          <t>Vocabulary version</t>
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
@@ -1618,15 +1646,24 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
+      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Definition of terms</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="inlineStr"/>
+          <t>dct:created^^xsd:datetime</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2022-06-01T00:00:00+00:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Date when vocabulary was initially created</t>
+        </is>
+      </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
@@ -1666,143 +1703,48 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
+      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>dct:modified^^xsd:datetime</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>skos:prefLabel@en(id="label")</t>
+          <t>2023-10-18T10:58:03+00:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>skos:altLabel(separator=",")</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>skos:notation</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>skos:definition@en</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>dct:source(separator=",")</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>skos:broader(separator=",")</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>owlsameAs</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>skos:exactMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>skos:closeMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>skos:broadMatch(separator=",")</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>iop:hasProperty</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>iop:hasObjectOfInterest</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>iop:hasMatrix</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>iop:hasContextObject(separator=",")</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>iop:hasConstraint(separator=",")</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>puv:statistic(separator=",")</t>
-        </is>
-      </c>
-      <c r="R23" t="inlineStr">
-        <is>
-          <t>puv:usesMethod(separator=",")</t>
-        </is>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>sosa:madeBySensor(separator=",")</t>
-        </is>
-      </c>
-      <c r="T23" t="inlineStr">
-        <is>
-          <t>puv:uom(separator=",")</t>
-        </is>
-      </c>
-      <c r="U23" t="inlineStr">
-        <is>
-          <t>owl:deprecated^^xsd:boolean</t>
-        </is>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>skos:editorialNote@en</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>rdf:type</t>
-        </is>
-      </c>
-      <c r="X23" t="inlineStr">
-        <is>
-          <t>dct:modified^^xsd:date</t>
-        </is>
-      </c>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>dct:created^^xsd:date</t>
-        </is>
-      </c>
-      <c r="Z23" t="inlineStr">
-        <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="AA23" t="inlineStr">
-        <is>
-          <t>dct:contributor(separator=",")</t>
-        </is>
-      </c>
+          <t>Automatic update when vocabulary is updated</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr"/>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
       <c r="AC23" t="inlineStr"/>
       <c r="AD23" t="inlineStr"/>
@@ -1818,28 +1760,21 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
+      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>analytical method</t>
-        </is>
-      </c>
+          <t>Definition of terms</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000070</t>
-        </is>
-      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1874,48 +1809,149 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
+      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>preparation method</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
-      <c r="F25" t="inlineStr"/>
-      <c r="G25" t="inlineStr"/>
+          <t>skos:prefLabel@en(id="label")</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>skos:altLabel(separator=",")</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>skos:notation</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>skos:definition@en</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>dct:source(separator=",")</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>skos:broader(separator=",")</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000094</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="inlineStr"/>
-      <c r="T25" t="inlineStr"/>
-      <c r="U25" t="inlineStr"/>
-      <c r="V25" t="inlineStr"/>
-      <c r="W25" t="inlineStr"/>
-      <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr"/>
-      <c r="Z25" t="inlineStr"/>
-      <c r="AA25" t="inlineStr"/>
-      <c r="AB25" t="inlineStr"/>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>owlsameAs</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>skos:exactMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>skos:closeMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>skos:broadMatch(separator=",")</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>iop:hasProperty</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>iop:hasObjectOfInterest</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>iop:hasMatrix</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>iop:hasContextObject(separator=",")</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>iop:hasConstraint(separator=",")</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>puv:statistic(separator=",")</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>puv:usesMethod(separator=",")</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>sosa:madeBySensor(separator=",")</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>puv:uom(separator=",")</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>owl:deprecated^^xsd:boolean</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>skos:editorialNote@en</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>rdf:type</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>dct:created^^xsd:date</t>
+        </is>
+      </c>
+      <c r="Z25" t="inlineStr">
+        <is>
+          <t>dct:modified^^xsd:date</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>dct:creator(separator=",")</t>
+        </is>
+      </c>
+      <c r="AB25" t="inlineStr">
+        <is>
+          <t>dct:contributor(separator=",")</t>
+        </is>
+      </c>
       <c r="AC25" t="inlineStr"/>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="inlineStr"/>
@@ -1930,16 +1966,17 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
+      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>sampling method</t>
+          <t>analytical method</t>
         </is>
       </c>
       <c r="C26" t="inlineStr"/>
@@ -1947,12 +1984,12 @@
       <c r="E26" t="inlineStr"/>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr"/>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/OBI_0000659</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr"/>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000070</t>
+        </is>
+      </c>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
@@ -1986,37 +2023,30 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
+      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>vocab:1003</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Advanced mercury analyzer</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>AMA</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>AMA</t>
-        </is>
-      </c>
+          <t>preparation method</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="G27" t="inlineStr"/>
       <c r="H27" t="inlineStr"/>
-      <c r="I27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000094</t>
+        </is>
+      </c>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
@@ -2050,37 +2080,30 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
+      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with diode array detection</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>CE-DAD</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>CE-DAD</t>
-        </is>
-      </c>
+          <t>sampling method</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr"/>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>vocab:1000</t>
-        </is>
-      </c>
+      <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/OBI_0000659</t>
+        </is>
+      </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
@@ -2114,26 +2137,27 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
+      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>vocab:1005</t>
+          <t>vocab:1003</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with fluorescence detection</t>
+          <t>Advanced mercury analyzer</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>CE-FLD</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>CE-FLD</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="E29" t="inlineStr"/>
@@ -2178,26 +2202,27 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
+      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>vocab:1006</t>
+          <t>vocab:1004</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with mass spectrometry</t>
+          <t>Capillary electrophoresis with diode array detection</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>CE-MS</t>
+          <t>CE-DAD</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>CE-MS</t>
+          <t>CE-DAD</t>
         </is>
       </c>
       <c r="E30" t="inlineStr"/>
@@ -2242,26 +2267,27 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
+      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>vocab:1007</t>
+          <t>vocab:1005</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with tandem mass spectrometry</t>
+          <t>Capillary electrophoresis with fluorescence detection</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>CE-MS/MS</t>
+          <t>CE-FLD</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>CE-MS_MS</t>
+          <t>CE-FLD</t>
         </is>
       </c>
       <c r="E31" t="inlineStr"/>
@@ -2306,26 +2332,27 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
+      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>vocab:1008</t>
+          <t>vocab:1006</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with multiple wavelength detection</t>
+          <t>Capillary electrophoresis with mass spectrometry</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>CE-MWD</t>
+          <t>CE-MS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>CE-MWD</t>
+          <t>CE-MS</t>
         </is>
       </c>
       <c r="E32" t="inlineStr"/>
@@ -2370,26 +2397,27 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
+      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>vocab:1009</t>
+          <t>vocab:1007</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Capillary electrophoresis with ultraviolet detection</t>
+          <t>Capillary electrophoresis with tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>CE-UV</t>
+          <t>CE-MS/MS</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>CE-UV</t>
+          <t>CE-MS_MS</t>
         </is>
       </c>
       <c r="E33" t="inlineStr"/>
@@ -2434,26 +2462,27 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
+      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>vocab:1010</t>
+          <t>vocab:1008</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Electrothermal atomisation with atomic absorption spectrometry</t>
+          <t>Capillary electrophoresis with multiple wavelength detection</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EA-AAS</t>
+          <t>CE-MWD</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>EA-AAS</t>
+          <t>CE-MWD</t>
         </is>
       </c>
       <c r="E34" t="inlineStr"/>
@@ -2498,26 +2527,27 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
+      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>vocab:1011</t>
+          <t>vocab:1009</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Electrothermal atomisation with optical emission spectrometry</t>
+          <t>Capillary electrophoresis with ultraviolet detection</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>EA-OES</t>
+          <t>CE-UV</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>EA-OES</t>
+          <t>CE-UV</t>
         </is>
       </c>
       <c r="E35" t="inlineStr"/>
@@ -2562,26 +2592,27 @@
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>vocab:1012</t>
+          <t>vocab:1010</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Atomic absorption spectrometry</t>
+          <t>Electrothermal atomisation with atomic absorption spectrometry</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>EA-AAS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>AAS</t>
+          <t>EA-AAS</t>
         </is>
       </c>
       <c r="E36" t="inlineStr"/>
@@ -2626,26 +2657,27 @@
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>vocab:1013</t>
+          <t>vocab:1011</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Flame atomic absorption spectrometry</t>
+          <t>Electrothermal atomisation with optical emission spectrometry</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Flame AAS</t>
+          <t>EA-OES</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>FLAME_AAS</t>
+          <t>EA-OES</t>
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
@@ -2690,26 +2722,27 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>vocab:1014</t>
+          <t>vocab:1012</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Flame optical emission spectrometry</t>
+          <t>Atomic absorption spectrometry</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Flame OES</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>FLAME_OES</t>
+          <t>AAS</t>
         </is>
       </c>
       <c r="E38" t="inlineStr"/>
@@ -2754,26 +2787,27 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
+      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>vocab:1015</t>
+          <t>vocab:1013</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Gass chromatography with electron capture detection</t>
+          <t>Flame atomic absorption spectrometry</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>GC-ECD</t>
+          <t>Flame AAS</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>GC-ECD</t>
+          <t>FLAME_AAS</t>
         </is>
       </c>
       <c r="E39" t="inlineStr"/>
@@ -2818,26 +2852,27 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
+      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vocab:1016</t>
+          <t>vocab:1014</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Gass chromatography with flame ionization detection</t>
+          <t>Flame optical emission spectrometry</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>GC-FID</t>
+          <t>Flame OES</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>GC-FID</t>
+          <t>FLAME_OES</t>
         </is>
       </c>
       <c r="E40" t="inlineStr"/>
@@ -2882,26 +2917,27 @@
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
+      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>vocab:1017</t>
+          <t>vocab:1015</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Gass chromatography with high resolution mass spectrometry</t>
+          <t>Gass chromatography with electron capture detection</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>GC-HRMS</t>
+          <t>GC-ECD</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>GC-HRMS</t>
+          <t>GC-ECD</t>
         </is>
       </c>
       <c r="E41" t="inlineStr"/>
@@ -2946,26 +2982,27 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
+      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>vocab:1018</t>
+          <t>vocab:1016</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Gass chromatography with mass spectrometry</t>
+          <t>Gass chromatography with flame ionization detection</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>GC-MS</t>
+          <t>GC-FID</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>GC-MS</t>
+          <t>GC-FID</t>
         </is>
       </c>
       <c r="E42" t="inlineStr"/>
@@ -3010,26 +3047,27 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
+      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>vocab:1019</t>
+          <t>vocab:1017</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Gass chromatography with tandem mass spectrometry</t>
+          <t>Gass chromatography with high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>GC-MS/MS</t>
+          <t>GC-HRMS</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>GC-MS_MS</t>
+          <t>GC-HRMS</t>
         </is>
       </c>
       <c r="E43" t="inlineStr"/>
@@ -3074,26 +3112,27 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
+      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1018</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Gass chromatography with Nitrogen Phosphorous detection</t>
+          <t>Gass chromatography with mass spectrometry</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>GC-NPD</t>
+          <t>GC-MS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>GC-NPD</t>
+          <t>GC-MS</t>
         </is>
       </c>
       <c r="E44" t="inlineStr"/>
@@ -3138,26 +3177,27 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
+      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>vocab:1021</t>
+          <t>vocab:1019</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Gass chromatography with photoionization detection</t>
+          <t>Gass chromatography with tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>GC-PID</t>
+          <t>GC-MS/MS</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>GC-PID</t>
+          <t>GC-MS_MS</t>
         </is>
       </c>
       <c r="E45" t="inlineStr"/>
@@ -3202,26 +3242,27 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
+      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>vocab:1022</t>
+          <t>vocab:1020</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Hydride generation atomic absorption spectroscopy</t>
+          <t>Gass chromatography with Nitrogen Phosphorous detection</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>HG-AAS</t>
+          <t>GC-NPD</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>HG-AAS</t>
+          <t>GC-NPD</t>
         </is>
       </c>
       <c r="E46" t="inlineStr"/>
@@ -3266,26 +3307,27 @@
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
+      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>vocab:1023</t>
+          <t>vocab:1021</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Liquid chromatography with diode array detection</t>
+          <t>Gass chromatography with photoionization detection</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>LC-DAD</t>
+          <t>GC-PID</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>LC-DAD</t>
+          <t>GC-PID</t>
         </is>
       </c>
       <c r="E47" t="inlineStr"/>
@@ -3330,26 +3372,27 @@
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
+      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>vocab:1024</t>
+          <t>vocab:1022</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Liquid chromatography with fluorescence detection</t>
+          <t>Hydride generation atomic absorption spectroscopy</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>LC-FLD</t>
+          <t>HG-AAS</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>LC-FLD</t>
+          <t>HG-AAS</t>
         </is>
       </c>
       <c r="E48" t="inlineStr"/>
@@ -3394,26 +3437,27 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
+      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>vocab:1025</t>
+          <t>vocab:1023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Liquid chromatography with mass spectrometry</t>
+          <t>Liquid chromatography with diode array detection</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>LC-MS</t>
+          <t>LC-DAD</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>LC-MS</t>
+          <t>LC-DAD</t>
         </is>
       </c>
       <c r="E49" t="inlineStr"/>
@@ -3458,26 +3502,27 @@
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
+      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>vocab:1026</t>
+          <t>vocab:1024</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Liquid chromatography with tandem mass spectrometry</t>
+          <t>Liquid chromatography with fluorescence detection</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>LC-MS/MS</t>
+          <t>LC-FLD</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>LC-MS_MS</t>
+          <t>LC-FLD</t>
         </is>
       </c>
       <c r="E50" t="inlineStr"/>
@@ -3522,26 +3567,27 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
+      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>vocab:1027</t>
+          <t>vocab:1025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Liquid chromatography with high resolution mass spectrometry</t>
+          <t>Liquid chromatography with mass spectrometry</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>LC-HR-MS</t>
+          <t>LC-MS</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>LC-HR-MS</t>
+          <t>LC-MS</t>
         </is>
       </c>
       <c r="E51" t="inlineStr"/>
@@ -3586,26 +3632,27 @@
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
+      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1026</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Liquid chromatography with multiple wavelength detection</t>
+          <t>Liquid chromatography with tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>LC-MWD</t>
+          <t>LC-MS/MS</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>LC-MWD</t>
+          <t>LC-MS_MS</t>
         </is>
       </c>
       <c r="E52" t="inlineStr"/>
@@ -3650,26 +3697,27 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
+      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>vocab:1029</t>
+          <t>vocab:1027</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Liquid chromatography with UV visible detection</t>
+          <t>Liquid chromatography with high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>LC-UV/VIS</t>
+          <t>LC-HR-MS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>LC-UV_VIS</t>
+          <t>LC-HR-MS</t>
         </is>
       </c>
       <c r="E53" t="inlineStr"/>
@@ -3714,26 +3762,27 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
+      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>vocab:1030</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Inductively coupled plasma mass spectrometry</t>
+          <t>Liquid chromatography with multiple wavelength detection</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ICP-MS</t>
+          <t>LC-MWD</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>ICP-MS</t>
+          <t>LC-MWD</t>
         </is>
       </c>
       <c r="E54" t="inlineStr"/>
@@ -3778,26 +3827,27 @@
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
+      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>vocab:1031</t>
+          <t>vocab:1029</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Inductively coupled plasma with optical emission spectrometry</t>
+          <t>Liquid chromatography with UV visible detection</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>ICP-OES</t>
+          <t>LC-UV/VIS</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>ICP-OES</t>
+          <t>LC-UV_VIS</t>
         </is>
       </c>
       <c r="E55" t="inlineStr"/>
@@ -3842,26 +3892,27 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
+      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>vocab:1032</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Spectrophotometry</t>
+          <t>Inductively coupled plasma mass spectrometry</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Spectrophotometry</t>
+          <t>ICP-MS</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>SPECTROPHOTOMETRY</t>
+          <t>ICP-MS</t>
         </is>
       </c>
       <c r="E56" t="inlineStr"/>
@@ -3906,26 +3957,27 @@
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
+      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>vocab:1033</t>
+          <t>vocab:1031</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Continuous gas-analysers</t>
+          <t>Inductively coupled plasma with optical emission spectrometry</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Continuous gas-analysers</t>
+          <t>ICP-OES</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>CONTINUOUS_GAS-ANALYZERS</t>
+          <t>ICP-OES</t>
         </is>
       </c>
       <c r="E57" t="inlineStr"/>
@@ -3970,26 +4022,27 @@
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
+      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1032</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Limulus ameobocyte assay</t>
+          <t>Spectrophotometry</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>Spectrophotometry</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>LAL</t>
+          <t>SPECTROPHOTOMETRY</t>
         </is>
       </c>
       <c r="E58" t="inlineStr"/>
@@ -4034,26 +4087,27 @@
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
+      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>vocab:1035</t>
+          <t>vocab:1033</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Quantitative polymerase chain reaction</t>
+          <t>Continuous gas-analysers</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>qPCR</t>
+          <t>Continuous gas-analysers</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>qPCR</t>
+          <t>CONTINUOUS_GAS-ANALYZERS</t>
         </is>
       </c>
       <c r="E59" t="inlineStr"/>
@@ -4098,26 +4152,27 @@
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
+      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>vocab:1036</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Enzyme-linked immuno sorbent assay</t>
+          <t>Limulus ameobocyte assay</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ELISA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>ELISA</t>
+          <t>LAL</t>
         </is>
       </c>
       <c r="E60" t="inlineStr"/>
@@ -4162,26 +4217,27 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
+      <c r="AQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>vocab:1037</t>
+          <t>vocab:1035</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>High performance liquid chromatography with mass spectrometry</t>
+          <t>Quantitative polymerase chain reaction</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>HPLC-MS</t>
+          <t>qPCR</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>HPLC-MS</t>
+          <t>qPCR</t>
         </is>
       </c>
       <c r="E61" t="inlineStr"/>
@@ -4226,26 +4282,27 @@
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
+      <c r="AQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1036</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ultra performance liquid chromatography with mass spectrometry</t>
+          <t>Enzyme-linked immuno sorbent assay</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>UPLC-MS</t>
+          <t>ELISA</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>UPLC-MS</t>
+          <t>ELISA</t>
         </is>
       </c>
       <c r="E62" t="inlineStr"/>
@@ -4290,26 +4347,27 @@
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
+      <c r="AQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>vocab:1039</t>
+          <t>vocab:1037</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>High performance liquid chromatography with diode array detection</t>
+          <t>High performance liquid chromatography with mass spectrometry</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>HPLC-DAD</t>
+          <t>HPLC-MS</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>HPLC-DAD</t>
+          <t>HPLC-MS</t>
         </is>
       </c>
       <c r="E63" t="inlineStr"/>
@@ -4354,26 +4412,27 @@
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
+      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>vocab:1040</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Ultra performance liquid chromatography with diode array detection</t>
+          <t>Ultra performance liquid chromatography with mass spectrometry</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>UPLC-DAD</t>
+          <t>UPLC-MS</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>UPLC-DAD</t>
+          <t>UPLC-MS</t>
         </is>
       </c>
       <c r="E64" t="inlineStr"/>
@@ -4418,26 +4477,27 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
+      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>vocab:1041</t>
+          <t>vocab:1039</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
+          <t>High performance liquid chromatography with diode array detection</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>GC-APCI-HRMS</t>
+          <t>HPLC-DAD</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>GC-APCI-HRMS</t>
+          <t>HPLC-DAD</t>
         </is>
       </c>
       <c r="E65" t="inlineStr"/>
@@ -4482,26 +4542,27 @@
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
+      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1040</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>High performance liquid chromatography with high resolution mass spectrometry</t>
+          <t>Ultra performance liquid chromatography with diode array detection</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>HPLC-HRMS</t>
+          <t>UPLC-DAD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>HPLC-HRMS</t>
+          <t>UPLC-DAD</t>
         </is>
       </c>
       <c r="E66" t="inlineStr"/>
@@ -4546,26 +4607,27 @@
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
+      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>vocab:1043</t>
+          <t>vocab:1041</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Ultra performance liquid chromatography with high resolution mass spectrometry</t>
+          <t>Gas chromatography with atmospheric presure chemical ionization high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>UPLC-HRMS</t>
+          <t>GC-APCI-HRMS</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>UPLC-HRMS</t>
+          <t>GC-APCI-HRMS</t>
         </is>
       </c>
       <c r="E67" t="inlineStr"/>
@@ -4610,26 +4672,27 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
+      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>vocab:1044</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Electrotermal atomic absorption spectrometry</t>
+          <t>High performance liquid chromatography with high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>AAS-ETA</t>
+          <t>HPLC-HRMS</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>AAS-ETA</t>
+          <t>HPLC-HRMS</t>
         </is>
       </c>
       <c r="E68" t="inlineStr"/>
@@ -4674,26 +4737,27 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
+      <c r="AQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>vocab:1045</t>
+          <t>vocab:1043</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Advanced mercury analyser</t>
+          <t>Ultra performance liquid chromatography with high resolution mass spectrometry</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>UPLC-HRMS</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>AMA</t>
+          <t>UPLC-HRMS</t>
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
@@ -4738,26 +4802,27 @@
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
+      <c r="AQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1044</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Flame atomic emission spectrometry</t>
+          <t>Electrotermal atomic absorption spectrometry</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FAES</t>
+          <t>AAS-ETA</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>FAES</t>
+          <t>AAS-ETA</t>
         </is>
       </c>
       <c r="E70" t="inlineStr"/>
@@ -4802,26 +4867,27 @@
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
+      <c r="AQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>vocab:1047</t>
+          <t>vocab:1045</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Gas chromatography coupled to electron capture negative ion mass spectrometry</t>
+          <t>Advanced mercury analyser</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GC-ECNI-MS (IT)</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>GC-ECNI-MS_IT</t>
+          <t>AMA</t>
         </is>
       </c>
       <c r="E71" t="inlineStr"/>
@@ -4866,26 +4932,27 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
+      <c r="AQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>vocab:1048</t>
+          <t>vocab:1046</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Glass ion selective electrode</t>
+          <t>Flame atomic emission spectrometry</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>glass ion selective electrode</t>
+          <t>FAES</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>GLASS-ION-SELECTIVE-ELECTRODE</t>
+          <t>FAES</t>
         </is>
       </c>
       <c r="E72" t="inlineStr"/>
@@ -4930,26 +4997,27 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
+      <c r="AQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>vocab:1049</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>High performance liquid chromatography with fluorescence detection</t>
+          <t>Gas chromatography coupled to electron capture negative ion mass spectrometry</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>HPLC-FLU</t>
+          <t>GC-ECNI-MS (IT)</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>HPLC-FLU</t>
+          <t>GC-ECNI-MS_IT</t>
         </is>
       </c>
       <c r="E73" t="inlineStr"/>
@@ -4994,26 +5062,27 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
+      <c r="AQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>vocab:1050</t>
+          <t>vocab:1048</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>High performance liquid chromatography with tandem mass spectrometry</t>
+          <t>Glass ion selective electrode</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>HPLC-MS/MS</t>
+          <t>glass ion selective electrode</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>HPLC-MS_MS</t>
+          <t>GLASS-ION-SELECTIVE-ELECTRODE</t>
         </is>
       </c>
       <c r="E74" t="inlineStr"/>
@@ -5058,26 +5127,27 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
+      <c r="AQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1049</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Ultra performance liquid chromatography with fluorescence detection</t>
+          <t>High performance liquid chromatography with fluorescence detection</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>UPLC-FLU</t>
+          <t>HPLC-FLU</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>UPLC-FLU</t>
+          <t>HPLC-FLU</t>
         </is>
       </c>
       <c r="E75" t="inlineStr"/>
@@ -5122,26 +5192,27 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
+      <c r="AQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>vocab:1052</t>
+          <t>vocab:1050</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ultra performance liquid chromatography with tandem mass spectrometry</t>
+          <t>High performance liquid chromatography with tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>UPLC-MS/MS</t>
+          <t>HPLC-MS/MS</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>UPLC-MS_MS</t>
+          <t>HPLC-MS_MS</t>
         </is>
       </c>
       <c r="E76" t="inlineStr"/>
@@ -5186,26 +5257,27 @@
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
+      <c r="AQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>vocab:1053</t>
+          <t>vocab:1051</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Kjeldahl method (nitrogen determination)</t>
+          <t>Ultra performance liquid chromatography with fluorescence detection</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Kjeldahl</t>
+          <t>UPLC-FLU</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>KJELDAHL</t>
+          <t>UPLC-FLU</t>
         </is>
       </c>
       <c r="E77" t="inlineStr"/>
@@ -5250,26 +5322,27 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
+      <c r="AQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>vocab:1054</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Total organic carbon (liquid samples)</t>
+          <t>Ultra performance liquid chromatography with tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>LiquiTOC II</t>
+          <t>UPLC-MS/MS</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>LIQUITOC_II</t>
+          <t>UPLC-MS_MS</t>
         </is>
       </c>
       <c r="E78" t="inlineStr"/>
@@ -5314,26 +5387,27 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
+      <c r="AQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>vocab:1055</t>
+          <t>vocab:1053</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Spectrophotometry</t>
+          <t>Kjeldahl method (nitrogen determination)</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Spectrophotometry</t>
+          <t>Kjeldahl</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>SPECTROPHOTOMETRY</t>
+          <t>KJELDAHL</t>
         </is>
       </c>
       <c r="E79" t="inlineStr"/>
@@ -5378,26 +5452,27 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
+      <c r="AQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1054</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Total organic carbon (solid samples)</t>
+          <t>Total organic carbon (liquid samples)</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Carbon analyzator</t>
+          <t>LiquiTOC II</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>CARBON_ANALYZATOR</t>
+          <t>LIQUITOC_II</t>
         </is>
       </c>
       <c r="E80" t="inlineStr"/>
@@ -5442,26 +5517,27 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
+      <c r="AQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>vocab:1057</t>
+          <t>vocab:1055</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>X-ray fluorescence</t>
+          <t>Spectrophotometry</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>X-ray fluorescence</t>
+          <t>Spectrophotometry</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>X-RAY_FLUORESCENCE</t>
+          <t>SPECTROPHOTOMETRY</t>
         </is>
       </c>
       <c r="E81" t="inlineStr"/>
@@ -5506,26 +5582,27 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
+      <c r="AQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>vocab:1058</t>
+          <t>vocab:1056</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Gas chromatography with mass spectrometry with Positive chemical ionization</t>
+          <t>Total organic carbon (solid samples)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>GC-MS-PCI</t>
+          <t>Carbon analyzator</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>GC-MS-PCI</t>
+          <t>CARBON_ANALYZATOR</t>
         </is>
       </c>
       <c r="E82" t="inlineStr"/>
@@ -5570,26 +5647,27 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
+      <c r="AQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>vocab:1059</t>
+          <t>vocab:1057</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Gas chromatography with mass spectrometry with Negative chemical ionization</t>
+          <t>X-ray fluorescence</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>GC-MS-NCI</t>
+          <t>X-ray fluorescence</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>GC-MS-NCI</t>
+          <t>X-RAY_FLUORESCENCE</t>
         </is>
       </c>
       <c r="E83" t="inlineStr"/>
@@ -5634,26 +5712,27 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
+      <c r="AQ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>vocab:1060</t>
+          <t>vocab:1058</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Flame atomic absorption spectrometry</t>
+          <t>Gas chromatography with mass spectrometry with Positive chemical ionization</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>FAAS</t>
+          <t>GC-MS-PCI</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>FAAS</t>
+          <t>GC-MS-PCI</t>
         </is>
       </c>
       <c r="E84" t="inlineStr"/>
@@ -5698,26 +5777,27 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
+      <c r="AQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1059</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
+          <t>Gas chromatography with mass spectrometry with Negative chemical ionization</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>GC-APCI-MS-MS</t>
+          <t>GC-MS-NCI</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>GC-APCI-MS-MS</t>
+          <t>GC-MS-NCI</t>
         </is>
       </c>
       <c r="E85" t="inlineStr"/>
@@ -5762,33 +5842,34 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
+      <c r="AQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>vocab:1062</t>
+          <t>vocab:1060</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Accelerated solvent extraction</t>
+          <t>Flame atomic absorption spectrometry</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>ASE</t>
+          <t>FAAS</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>ASE</t>
+          <t>FAAS</t>
         </is>
       </c>
       <c r="E86" t="inlineStr"/>
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5826,33 +5907,34 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
+      <c r="AQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>vocab:1063</t>
+          <t>vocab:1061</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Digestion</t>
+          <t>Gas chromatography with atmospheric presure chemical ionization tandem mass spectrometry</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Digestion</t>
+          <t>GC-APCI-MS-MS</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>DIGESTION</t>
+          <t>GC-APCI-MS-MS</t>
         </is>
       </c>
       <c r="E87" t="inlineStr"/>
       <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr">
         <is>
-          <t>vocab:1001</t>
+          <t>vocab:1000</t>
         </is>
       </c>
       <c r="H87" t="inlineStr"/>
@@ -5890,26 +5972,27 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
+      <c r="AQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Dynamic headspace</t>
+          <t>Accelerated solvent extraction</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>DHS</t>
+          <t>ASE</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>DHS</t>
+          <t>ASE</t>
         </is>
       </c>
       <c r="E88" t="inlineStr"/>
@@ -5954,26 +6037,27 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
+      <c r="AQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>vocab:1065</t>
+          <t>vocab:1063</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Large volume Solid-phase extraction</t>
+          <t>Digestion</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>LVSPE</t>
+          <t>Digestion</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>LVSPE</t>
+          <t>DIGESTION</t>
         </is>
       </c>
       <c r="E89" t="inlineStr"/>
@@ -6018,26 +6102,27 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
+      <c r="AQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1064</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Liquid desorption</t>
+          <t>Dynamic headspace</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Liquid desorption</t>
+          <t>DHS</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>LIQUID_DESORPTION</t>
+          <t>DHS</t>
         </is>
       </c>
       <c r="E90" t="inlineStr"/>
@@ -6082,26 +6167,27 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
+      <c r="AQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>vocab:1067</t>
+          <t>vocab:1065</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Liquid x liquid extraction</t>
+          <t>Large volume Solid-phase extraction</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>LLE</t>
+          <t>LVSPE</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>LLE</t>
+          <t>LVSPE</t>
         </is>
       </c>
       <c r="E91" t="inlineStr"/>
@@ -6146,26 +6232,27 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
+      <c r="AQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>vocab:1068</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Microwave assisted digestion</t>
+          <t>Liquid desorption</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Microwave assissted digestion</t>
+          <t>Liquid desorption</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>MICROWAVE_ASSISTED_DIGESTION</t>
+          <t>LIQUID_DESORPTION</t>
         </is>
       </c>
       <c r="E92" t="inlineStr"/>
@@ -6210,26 +6297,27 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
+      <c r="AQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>vocab:1069</t>
+          <t>vocab:1067</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Microwave assisted extraction</t>
+          <t>Liquid x liquid extraction</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>LLE</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>MAE</t>
+          <t>LLE</t>
         </is>
       </c>
       <c r="E93" t="inlineStr"/>
@@ -6274,26 +6362,27 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
+      <c r="AQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>vocab:1070</t>
+          <t>vocab:1068</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Pressurised liquid extraction</t>
+          <t>Microwave assisted digestion</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>PLE</t>
+          <t>Microwave assissted digestion</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>PLE</t>
+          <t>MICROWAVE_ASSISTED_DIGESTION</t>
         </is>
       </c>
       <c r="E94" t="inlineStr"/>
@@ -6338,26 +6427,27 @@
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
+      <c r="AQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>vocab:1071</t>
+          <t>vocab:1069</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Solid phase extraction</t>
+          <t>Microwave assisted extraction</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>SPE</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>SPE</t>
+          <t>MAE</t>
         </is>
       </c>
       <c r="E95" t="inlineStr"/>
@@ -6402,26 +6492,27 @@
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
+      <c r="AQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>vocab:1072</t>
+          <t>vocab:1070</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Solid phase extraction using membrane extraction disks</t>
+          <t>Pressurised liquid extraction</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>SPE using membrane extraction disks</t>
+          <t>PLE</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>SPE_MEMBRANE_EXTRACTION_DISKS</t>
+          <t>PLE</t>
         </is>
       </c>
       <c r="E96" t="inlineStr"/>
@@ -6466,26 +6557,27 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
+      <c r="AQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1071</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Solid-phase extraction using columns</t>
+          <t>Solid phase extraction</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>SPE using columns</t>
+          <t>SPE</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>SPE_COLUMNS</t>
+          <t>SPE</t>
         </is>
       </c>
       <c r="E97" t="inlineStr"/>
@@ -6530,26 +6622,27 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
+      <c r="AQ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>vocab:1074</t>
+          <t>vocab:1072</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Soxhlet extraction</t>
+          <t>Solid phase extraction using membrane extraction disks</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Soxhlet extraction</t>
+          <t>SPE using membrane extraction disks</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>SOXHLET</t>
+          <t>SPE_MEMBRANE_EXTRACTION_DISKS</t>
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
@@ -6594,26 +6687,27 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
+      <c r="AQ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>vocab:1075</t>
+          <t>vocab:1073</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Static headspace</t>
+          <t>Solid-phase extraction using columns</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>SPE using columns</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>SHS</t>
+          <t>SPE_COLUMNS</t>
         </is>
       </c>
       <c r="E99" t="inlineStr"/>
@@ -6658,26 +6752,27 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
+      <c r="AQ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>vocab:1076</t>
+          <t>vocab:1074</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Supercritical fluid extraction</t>
+          <t>Soxhlet extraction</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>SFE</t>
+          <t>Soxhlet extraction</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>SFE</t>
+          <t>SOXHLET</t>
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
@@ -6722,26 +6817,27 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
+      <c r="AQ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>vocab:1077</t>
+          <t>vocab:1075</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Thermal desorption</t>
+          <t>Static headspace</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Thermal desorption</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>THERMAL_DESORPTION</t>
+          <t>SHS</t>
         </is>
       </c>
       <c r="E101" t="inlineStr"/>
@@ -6786,26 +6882,27 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
+      <c r="AQ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>vocab:1078</t>
+          <t>vocab:1076</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Ultrasonic desorption</t>
+          <t>Supercritical fluid extraction</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Ultrasonic desorption</t>
+          <t>SFE</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>ULTRASONIC_DESORPTION</t>
+          <t>SFE</t>
         </is>
       </c>
       <c r="E102" t="inlineStr"/>
@@ -6850,26 +6947,27 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
+      <c r="AQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>vocab:1079</t>
+          <t>vocab:1077</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Ultrasonic extraction</t>
+          <t>Thermal desorption</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>USE</t>
+          <t>Thermal desorption</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>USE</t>
+          <t>THERMAL_DESORPTION</t>
         </is>
       </c>
       <c r="E103" t="inlineStr"/>
@@ -6914,33 +7012,34 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
+      <c r="AQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>vocab:1080</t>
+          <t>vocab:1078</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>active sampling with high-volume sampling</t>
+          <t>Ultrasonic desorption</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>HIG-VOL</t>
+          <t>Ultrasonic desorption</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>HIG-VOL</t>
+          <t>ULTRASONIC_DESORPTION</t>
         </is>
       </c>
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -6978,33 +7077,34 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
+      <c r="AQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>vocab:1081</t>
+          <t>vocab:1079</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>active sampling wtih low-volume sampling</t>
+          <t>Ultrasonic extraction</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>LOW-VOL</t>
+          <t>USE</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>LOW-VOL</t>
+          <t>USE</t>
         </is>
       </c>
       <c r="E105" t="inlineStr"/>
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>vocab:1002</t>
+          <t>vocab:1001</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -7042,26 +7142,27 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
+      <c r="AQ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>vocab:1082</t>
+          <t>vocab:1080</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>passive sampling with polyurethane foam</t>
+          <t>active sampling with high-volume sampling</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>PAS-PUF</t>
+          <t>HIG-VOL</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>PAS-PUF</t>
+          <t>HIG-VOL</t>
         </is>
       </c>
       <c r="E106" t="inlineStr"/>
@@ -7106,26 +7207,27 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
+      <c r="AQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>vocab:1083</t>
+          <t>vocab:1081</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>passive sampling with sorbent integrated polyurethane foam disk</t>
+          <t>active sampling wtih low-volume sampling</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>PAS-SIP</t>
+          <t>LOW-VOL</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>PAS-SIP</t>
+          <t>LOW-VOL</t>
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
@@ -7170,26 +7272,27 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
+      <c r="AQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>vocab:1084</t>
+          <t>vocab:1082</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>passive sampling with XAD resin</t>
+          <t>passive sampling with polyurethane foam</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>PAS-XAD</t>
+          <t>PAS-PUF</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>PAS-XAD</t>
+          <t>PAS-PUF</t>
         </is>
       </c>
       <c r="E108" t="inlineStr"/>
@@ -7234,26 +7337,27 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
+      <c r="AQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>vocab:1085</t>
+          <t>vocab:1083</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>active sampling by hand</t>
+          <t>passive sampling with sorbent integrated polyurethane foam disk</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>BY_HAND</t>
+          <t>PAS-SIP</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>BY_HAND</t>
+          <t>PAS-SIP</t>
         </is>
       </c>
       <c r="E109" t="inlineStr"/>
@@ -7298,26 +7402,27 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
+      <c r="AQ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>vocab:1086</t>
+          <t>vocab:1084</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>sediment trap</t>
+          <t>passive sampling with XAD resin</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>SEDIMENT_TRAP</t>
+          <t>PAS-XAD</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>SEDIMENT_TRAP</t>
+          <t>PAS-XAD</t>
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
@@ -7362,11 +7467,12 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr"/>
+      <c r="AQ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>vocab:1087</t>
+          <t>vocab:1085</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -7426,26 +7532,27 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr"/>
+      <c r="AQ111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>vocab:1088</t>
+          <t>vocab:1086</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>bulk water</t>
+          <t>sediment trap</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BULK_WATER</t>
+          <t>SEDIMENT_TRAP</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>BULK_WATER</t>
+          <t>SEDIMENT_TRAP</t>
         </is>
       </c>
       <c r="E112" t="inlineStr"/>
@@ -7490,26 +7597,27 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
+      <c r="AQ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>vocab:1089</t>
+          <t>vocab:1087</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>passive sampling with polyurethane foam</t>
+          <t>active sampling by hand</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>PAS-PUF</t>
+          <t>BY_HAND</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>PAS-PUF</t>
+          <t>BY_HAND</t>
         </is>
       </c>
       <c r="E113" t="inlineStr"/>
@@ -7554,26 +7662,27 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr"/>
+      <c r="AQ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>vocab:1090</t>
+          <t>vocab:1088</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>passive sampling with Polar Organic Chemical Integrative Sampler</t>
+          <t>bulk water</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>PAS-POCIS</t>
+          <t>BULK_WATER</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>PAS-POCIS</t>
+          <t>BULK_WATER</t>
         </is>
       </c>
       <c r="E114" t="inlineStr"/>
@@ -7618,26 +7727,27 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr"/>
+      <c r="AQ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>vocab:1091</t>
+          <t>vocab:1089</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>passive sampling with silicone rubber</t>
+          <t>passive sampling with polyurethane foam</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>PAS-SILICONE</t>
+          <t>PAS-PUF</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>PAS-SILICONE</t>
+          <t>PAS-PUF</t>
         </is>
       </c>
       <c r="E115" t="inlineStr"/>
@@ -7682,26 +7792,27 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr"/>
+      <c r="AQ115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>vocab:1092</t>
+          <t>vocab:1090</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>passive sampling with Empore™ Solid Phase Extraction Disks</t>
+          <t>passive sampling with Polar Organic Chemical Integrative Sampler</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>PAS-EMPORE</t>
+          <t>PAS-POCIS</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>PAS-EMPORE</t>
+          <t>PAS-POCIS</t>
         </is>
       </c>
       <c r="E116" t="inlineStr"/>
@@ -7746,26 +7857,27 @@
       <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr"/>
+      <c r="AQ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vocab:1093</t>
+          <t>vocab:1091</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>passive sampling with gel</t>
+          <t>passive sampling with silicone rubber</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>PAS-GEL</t>
+          <t>PAS-SILICONE</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>PAS-GEL</t>
+          <t>PAS-SILICONE</t>
         </is>
       </c>
       <c r="E117" t="inlineStr"/>
@@ -7810,26 +7922,27 @@
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr"/>
+      <c r="AQ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vocab:1094</t>
+          <t>vocab:1092</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>passive with low density polyethylene</t>
+          <t>passive sampling with Empore™ Solid Phase Extraction Disks</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>PAS-LDPE</t>
+          <t>PAS-EMPORE</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>PAS-LDPE</t>
+          <t>PAS-EMPORE</t>
         </is>
       </c>
       <c r="E118" t="inlineStr"/>
@@ -7874,26 +7987,27 @@
       <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr"/>
+      <c r="AQ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vocab:1095</t>
+          <t>vocab:1093</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>passive withsemipermeable membrane device</t>
+          <t>passive sampling with gel</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>PAS-SPMD</t>
+          <t>PAS-GEL</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>PAS-SPMD</t>
+          <t>PAS-GEL</t>
         </is>
       </c>
       <c r="E119" t="inlineStr"/>
@@ -7938,26 +8052,27 @@
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr"/>
+      <c r="AQ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vocab:1096</t>
+          <t>vocab:1094</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>passive with XAD resin</t>
+          <t>passive with low density polyethylene</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>PAS-XAD</t>
+          <t>PAS-LDPE</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>PAS-XAD</t>
+          <t>PAS-LDPE</t>
         </is>
       </c>
       <c r="E120" t="inlineStr"/>
@@ -8002,23 +8117,36 @@
       <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr"/>
+      <c r="AQ120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1095</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>matrix</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
+          <t>passive withsemipermeable membrane device</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>PAS-SPMD</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>PAS-SPMD</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr"/>
       <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>vocab:1002</t>
+        </is>
+      </c>
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -8054,25 +8182,34 @@
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr"/>
+      <c r="AQ121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1096</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>air matrix</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+          <t>passive with XAD resin</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>PAS-XAD</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr"/>
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1002</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -8110,27 +8247,24 @@
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr"/>
+      <c r="AQ122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>sediment matrix</t>
+          <t>matrix</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
       <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr"/>
       <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>vocab:1097</t>
-        </is>
-      </c>
+      <c r="G123" t="inlineStr"/>
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -8166,16 +8300,17 @@
       <c r="AN123" t="inlineStr"/>
       <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr"/>
+      <c r="AQ123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>soil matrix</t>
+          <t>air matrix</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -8222,16 +8357,17 @@
       <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr"/>
+      <c r="AQ124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>water matrix</t>
+          <t>sediment matrix</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -8278,16 +8414,17 @@
       <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr"/>
+      <c r="AQ125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>biota matrix</t>
+          <t>soil matrix</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -8334,16 +8471,17 @@
       <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr"/>
+      <c r="AQ126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>deposition matrix</t>
+          <t>water matrix</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -8390,16 +8528,17 @@
       <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr"/>
+      <c r="AQ127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vocab:1104</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>whole air matrix</t>
+          <t>biota matrix</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -8408,7 +8547,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -8446,16 +8585,17 @@
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr"/>
+      <c r="AQ128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>vocab:1105</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>gas phase matrix</t>
+          <t>deposition matrix</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -8464,7 +8604,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -8502,16 +8642,17 @@
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr"/>
+      <c r="AQ129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vocab:1106</t>
+          <t>vocab:1104</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>TSP matrix</t>
+          <t>whole air matrix</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -8558,16 +8699,17 @@
       <c r="AN130" t="inlineStr"/>
       <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr"/>
+      <c r="AQ130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1105</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PM 10 matrix</t>
+          <t>gas phase matrix</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -8614,16 +8756,17 @@
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr"/>
+      <c r="AQ131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>vocab:1108</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PM 2.5 matrix</t>
+          <t>TSP matrix</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -8670,16 +8813,17 @@
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr"/>
+      <c r="AQ132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vocab:1109</t>
+          <t>vocab:1107</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>PM 5 matrix</t>
+          <t>PM 10 matrix</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -8726,16 +8870,17 @@
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr"/>
+      <c r="AQ133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vocab:1110</t>
+          <t>vocab:1108</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>PM 2.5 matrix</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -8744,7 +8889,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -8782,16 +8927,17 @@
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr"/>
+      <c r="AQ134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vocab:1111</t>
+          <t>vocab:1109</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>sewage sludge matrix</t>
+          <t>PM 5 matrix</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -8800,7 +8946,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -8838,16 +8984,17 @@
       <c r="AN135" t="inlineStr"/>
       <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr"/>
+      <c r="AQ135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>vocab:1112</t>
+          <t>vocab:1110</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>stratified matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -8894,16 +9041,17 @@
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr"/>
+      <c r="AQ136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vocab:1113</t>
+          <t>vocab:1111</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>sewage sludge matrix</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -8912,7 +9060,7 @@
       <c r="F137" t="inlineStr"/>
       <c r="G137" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H137" t="inlineStr"/>
@@ -8950,16 +9098,17 @@
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr"/>
+      <c r="AQ137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>vocab:1114</t>
+          <t>vocab:1112</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>topsoil matrix</t>
+          <t>stratified matrix</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -8968,7 +9117,7 @@
       <c r="F138" t="inlineStr"/>
       <c r="G138" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H138" t="inlineStr"/>
@@ -9006,16 +9155,17 @@
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr"/>
+      <c r="AQ138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>vocab:1115</t>
+          <t>vocab:1113</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>subsoil A matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -9062,16 +9212,17 @@
       <c r="AN139" t="inlineStr"/>
       <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr"/>
+      <c r="AQ139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vocab:1116</t>
+          <t>vocab:1114</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>subsoil B matrix</t>
+          <t>topsoil matrix</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -9118,16 +9269,17 @@
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr"/>
+      <c r="AQ140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vocab:1117</t>
+          <t>vocab:1115</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>horizon A matrix</t>
+          <t>subsoil A matrix</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -9174,16 +9326,17 @@
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr"/>
+      <c r="AQ141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vocab:1118</t>
+          <t>vocab:1116</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>horizon B matrix</t>
+          <t>subsoil B matrix</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -9230,16 +9383,17 @@
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr"/>
+      <c r="AQ142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1117</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>horizon C matrix</t>
+          <t>horizon A matrix</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -9286,16 +9440,17 @@
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr"/>
+      <c r="AQ143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>vocab:1120</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>horizon E matrix</t>
+          <t>horizon B matrix</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -9342,16 +9497,17 @@
       <c r="AN144" t="inlineStr"/>
       <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr"/>
+      <c r="AQ144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vocab:1121</t>
+          <t>vocab:1119</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>horizon G matrix</t>
+          <t>horizon C matrix</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -9398,16 +9554,17 @@
       <c r="AN145" t="inlineStr"/>
       <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr"/>
+      <c r="AQ145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vocab:1122</t>
+          <t>vocab:1120</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>horizon M matrix</t>
+          <t>horizon E matrix</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -9454,16 +9611,17 @@
       <c r="AN146" t="inlineStr"/>
       <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr"/>
+      <c r="AQ146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vocab:1123</t>
+          <t>vocab:1121</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>horizon O matrix</t>
+          <t>horizon G matrix</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -9510,16 +9668,17 @@
       <c r="AN147" t="inlineStr"/>
       <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr"/>
+      <c r="AQ147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vocab:1124</t>
+          <t>vocab:1122</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>coastal matrix</t>
+          <t>horizon M matrix</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -9528,7 +9687,7 @@
       <c r="F148" t="inlineStr"/>
       <c r="G148" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H148" t="inlineStr"/>
@@ -9566,16 +9725,17 @@
       <c r="AN148" t="inlineStr"/>
       <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr"/>
+      <c r="AQ148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vocab:1125</t>
+          <t>vocab:1123</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>brackish matrix</t>
+          <t>horizon O matrix</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -9584,7 +9744,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -9622,16 +9782,17 @@
       <c r="AN149" t="inlineStr"/>
       <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr"/>
+      <c r="AQ149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vocab:1126</t>
+          <t>vocab:1124</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ocean matrix</t>
+          <t>coastal matrix</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -9678,16 +9839,17 @@
       <c r="AN150" t="inlineStr"/>
       <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr"/>
+      <c r="AQ150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vocab:1127</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>surface freshwater matrix</t>
+          <t>brackish matrix</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -9734,16 +9896,17 @@
       <c r="AN151" t="inlineStr"/>
       <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr"/>
+      <c r="AQ151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vocab:1128</t>
+          <t>vocab:1126</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>surface freshwater - reservoir matrix</t>
+          <t>ocean matrix</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -9790,16 +9953,17 @@
       <c r="AN152" t="inlineStr"/>
       <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr"/>
+      <c r="AQ152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vocab:1129</t>
+          <t>vocab:1127</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>surface freshwater - river matrix</t>
+          <t>surface freshwater matrix</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -9846,16 +10010,17 @@
       <c r="AN153" t="inlineStr"/>
       <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr"/>
+      <c r="AQ153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>vocab:1130</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ground water matrix</t>
+          <t>surface freshwater - reservoir matrix</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -9902,16 +10067,17 @@
       <c r="AN154" t="inlineStr"/>
       <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr"/>
+      <c r="AQ154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1129</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>fish matrix</t>
+          <t>surface freshwater - river matrix</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -9920,7 +10086,7 @@
       <c r="F155" t="inlineStr"/>
       <c r="G155" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H155" t="inlineStr"/>
@@ -9958,16 +10124,17 @@
       <c r="AN155" t="inlineStr"/>
       <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr"/>
+      <c r="AQ155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vocab:1132</t>
+          <t>vocab:1130</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>barley matrix</t>
+          <t>ground water matrix</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -9976,7 +10143,7 @@
       <c r="F156" t="inlineStr"/>
       <c r="G156" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H156" t="inlineStr"/>
@@ -10014,16 +10181,17 @@
       <c r="AN156" t="inlineStr"/>
       <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr"/>
+      <c r="AQ156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>vocab:1133</t>
+          <t>vocab:1131</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>grass matrix</t>
+          <t>fish matrix</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -10070,16 +10238,17 @@
       <c r="AN157" t="inlineStr"/>
       <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr"/>
+      <c r="AQ157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>vocab:1134</t>
+          <t>vocab:1132</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>hop matrix</t>
+          <t>barley matrix</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -10126,16 +10295,17 @@
       <c r="AN158" t="inlineStr"/>
       <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr"/>
+      <c r="AQ158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vocab:1135</t>
+          <t>vocab:1133</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>moss matrix</t>
+          <t>grass matrix</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -10182,16 +10352,17 @@
       <c r="AN159" t="inlineStr"/>
       <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr"/>
+      <c r="AQ159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vocab:1136</t>
+          <t>vocab:1134</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>mustard matrix</t>
+          <t>hop matrix</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -10238,16 +10409,17 @@
       <c r="AN160" t="inlineStr"/>
       <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr"/>
+      <c r="AQ160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vocab:1137</t>
+          <t>vocab:1135</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>maize matrix</t>
+          <t>moss matrix</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -10294,16 +10466,17 @@
       <c r="AN161" t="inlineStr"/>
       <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr"/>
+      <c r="AQ161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1136</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>oat matrix</t>
+          <t>mustard matrix</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -10350,16 +10523,17 @@
       <c r="AN162" t="inlineStr"/>
       <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr"/>
+      <c r="AQ162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vocab:1139</t>
+          <t>vocab:1137</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>peat moss matrix</t>
+          <t>maize matrix</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10406,16 +10580,17 @@
       <c r="AN163" t="inlineStr"/>
       <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr"/>
+      <c r="AQ163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vocab:1140</t>
+          <t>vocab:1138</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>pine matrix</t>
+          <t>oat matrix</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -10462,16 +10637,17 @@
       <c r="AN164" t="inlineStr"/>
       <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr"/>
+      <c r="AQ164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vocab:1141</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>potato matrix</t>
+          <t>peat moss matrix</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -10518,16 +10694,17 @@
       <c r="AN165" t="inlineStr"/>
       <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr"/>
+      <c r="AQ165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>vocab:1142</t>
+          <t>vocab:1140</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>rape matrix</t>
+          <t>pine matrix</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -10574,16 +10751,17 @@
       <c r="AN166" t="inlineStr"/>
       <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr"/>
+      <c r="AQ166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vocab:1143</t>
+          <t>vocab:1141</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>soya matrix</t>
+          <t>potato matrix</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -10630,16 +10808,17 @@
       <c r="AN167" t="inlineStr"/>
       <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr"/>
+      <c r="AQ167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vocab:1144</t>
+          <t>vocab:1142</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>sunflover matrix</t>
+          <t>rape matrix</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10686,16 +10865,17 @@
       <c r="AN168" t="inlineStr"/>
       <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr"/>
+      <c r="AQ168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>vocab:1145</t>
+          <t>vocab:1143</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>spruce matrix</t>
+          <t>soya matrix</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
@@ -10742,16 +10922,17 @@
       <c r="AN169" t="inlineStr"/>
       <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr"/>
+      <c r="AQ169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vocab:1146</t>
+          <t>vocab:1144</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>triticale matrix</t>
+          <t>sunflover matrix</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
@@ -10798,16 +10979,17 @@
       <c r="AN170" t="inlineStr"/>
       <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr"/>
+      <c r="AQ170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>vocab:1145</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>wheat matrix</t>
+          <t>spruce matrix</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
@@ -10854,16 +11036,17 @@
       <c r="AN171" t="inlineStr"/>
       <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr"/>
+      <c r="AQ171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>vocab:1146</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>dry matrix</t>
+          <t>triticale matrix</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
@@ -10872,7 +11055,7 @@
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -10910,16 +11093,17 @@
       <c r="AN172" t="inlineStr"/>
       <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr"/>
+      <c r="AQ172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>vocab:1149</t>
+          <t>vocab:1147</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>mixed matrix</t>
+          <t>wheat matrix</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
@@ -10928,7 +11112,7 @@
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -10966,16 +11150,17 @@
       <c r="AN173" t="inlineStr"/>
       <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr"/>
+      <c r="AQ173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vocab:1150</t>
+          <t>vocab:1148</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>wet matrix</t>
+          <t>dry matrix</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
@@ -11022,33 +11207,26 @@
       <c r="AN174" t="inlineStr"/>
       <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr"/>
+      <c r="AQ174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>vocab:1151</t>
+          <t>vocab:1149</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>blood-whole blood matrix</t>
+          <t>mixed matrix</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>BWB</t>
-        </is>
-      </c>
-      <c r="E175" t="inlineStr">
-        <is>
-          <t>Blood-whole blood</t>
-        </is>
-      </c>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
       <c r="F175" t="inlineStr"/>
       <c r="G175" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H175" t="inlineStr"/>
@@ -11086,33 +11264,26 @@
       <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr"/>
+      <c r="AQ175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1150</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>blood -plasma matrix</t>
+          <t>wet matrix</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
-      <c r="D176" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="E176" t="inlineStr">
-        <is>
-          <t>Blood -plasma</t>
-        </is>
-      </c>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
       <c r="F176" t="inlineStr"/>
       <c r="G176" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H176" t="inlineStr"/>
@@ -11150,27 +11321,28 @@
       <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr"/>
+      <c r="AQ176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>vocab:1153</t>
+          <t>vocab:1151</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>blood -serum matrix</t>
+          <t>blood-whole blood matrix</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BWB</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Blood -serum</t>
+          <t>Blood-whole blood</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -11214,27 +11386,28 @@
       <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr"/>
+      <c r="AQ177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>vocab:1152</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>cord blood-whole blood matrix</t>
+          <t>blood -plasma matrix</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CBWB</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Cord blood-whole blood</t>
+          <t>Blood -plasma</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -11278,27 +11451,28 @@
       <c r="AN178" t="inlineStr"/>
       <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr"/>
+      <c r="AQ178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>vocab:1155</t>
+          <t>vocab:1153</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>cord blood-plasma matrix</t>
+          <t>blood -serum matrix</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CBP</t>
+          <t>BS</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Cord blood-plasma</t>
+          <t>Blood -serum</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -11342,27 +11516,28 @@
       <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr"/>
+      <c r="AQ179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>vocab:1156</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>cord blood-serum matrix</t>
+          <t>cord blood-whole blood matrix</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>CBWB</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Cord blood-serum</t>
+          <t>Cord blood-whole blood</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -11406,27 +11581,28 @@
       <c r="AN180" t="inlineStr"/>
       <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr"/>
+      <c r="AQ180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>vocab:1157</t>
+          <t>vocab:1155</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>urine-spot matrix</t>
+          <t>cord blood-plasma matrix</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CBP</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Urine-spot</t>
+          <t>Cord blood-plasma</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -11470,27 +11646,28 @@
       <c r="AN181" t="inlineStr"/>
       <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr"/>
+      <c r="AQ181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>vocab:1158</t>
+          <t>vocab:1156</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>urine-24h matrix</t>
+          <t>cord blood-serum matrix</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Urine-24h</t>
+          <t>Cord blood-serum</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -11534,27 +11711,28 @@
       <c r="AN182" t="inlineStr"/>
       <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr"/>
+      <c r="AQ182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>vocab:1159</t>
+          <t>vocab:1157</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>urine-morning urine matrix</t>
+          <t>urine-spot matrix</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>UM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Urine-morning urine</t>
+          <t>Urine-spot</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -11598,27 +11776,28 @@
       <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr"/>
+      <c r="AQ183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>vocab:1160</t>
+          <t>vocab:1158</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>saliva and/or sputum matrix</t>
+          <t>urine-24h matrix</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Saliva and or sputum</t>
+          <t>Urine-24h</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -11662,27 +11841,28 @@
       <c r="AN184" t="inlineStr"/>
       <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr"/>
+      <c r="AQ184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>vocab:1161</t>
+          <t>vocab:1159</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>semen matrix</t>
+          <t>urine-morning urine matrix</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>UM</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Semen</t>
+          <t>Urine-morning urine</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -11726,27 +11906,28 @@
       <c r="AN185" t="inlineStr"/>
       <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr"/>
+      <c r="AQ185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>vocab:1162</t>
+          <t>vocab:1160</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>hair matrix</t>
+          <t>saliva and/or sputum matrix</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Hair</t>
+          <t>Saliva and or sputum</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -11790,27 +11971,28 @@
       <c r="AN186" t="inlineStr"/>
       <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr"/>
+      <c r="AQ186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vocab:1163</t>
+          <t>vocab:1161</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>exhaled breath condensate matrix</t>
+          <t>semen matrix</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>EBC</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Exhaled breath condensate</t>
+          <t>Semen</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -11854,27 +12036,28 @@
       <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr"/>
+      <c r="AQ187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>vocab:1164</t>
+          <t>vocab:1162</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>red blood cells matrix</t>
+          <t>hair matrix</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>RBC</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Red blood cells</t>
+          <t>Hair</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -11918,27 +12101,28 @@
       <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr"/>
+      <c r="AQ188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>vocab:1165</t>
+          <t>vocab:1163</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>breast milk matrix</t>
+          <t>exhaled breath condensate matrix</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>EBC</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Breast milk</t>
+          <t>Exhaled breath condensate</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -11982,27 +12166,28 @@
       <c r="AN189" t="inlineStr"/>
       <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr"/>
+      <c r="AQ189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>vocab:1164</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>adipose tissue/fat matrix</t>
+          <t>red blood cells matrix</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>RBC</t>
         </is>
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Adipose tissue/fat</t>
+          <t>Red blood cells</t>
         </is>
       </c>
       <c r="F190" t="inlineStr"/>
@@ -12028,7 +12213,11 @@
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
       <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="inlineStr"/>
@@ -12046,27 +12235,28 @@
       <c r="AN190" t="inlineStr"/>
       <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr"/>
+      <c r="AQ190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>vocab:1167</t>
+          <t>vocab:1165</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>all toe nails matrix</t>
+          <t>breast milk matrix</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
       <c r="D191" t="inlineStr">
         <is>
-          <t>ATN</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="E191" t="inlineStr">
         <is>
-          <t>All toe nails</t>
+          <t>Breast milk</t>
         </is>
       </c>
       <c r="F191" t="inlineStr"/>
@@ -12110,27 +12300,28 @@
       <c r="AN191" t="inlineStr"/>
       <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr"/>
+      <c r="AQ191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>vocab:1168</t>
+          <t>vocab:1166</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>big toe nails matrix</t>
+          <t>adipose tissue/fat matrix</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
       <c r="D192" t="inlineStr">
         <is>
-          <t>BTN</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Big toe nails</t>
+          <t>Adipose tissue/fat</t>
         </is>
       </c>
       <c r="F192" t="inlineStr"/>
@@ -12174,27 +12365,28 @@
       <c r="AN192" t="inlineStr"/>
       <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr"/>
+      <c r="AQ192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>vocab:1169</t>
+          <t>vocab:1167</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>dermal wipes matrix</t>
+          <t>all toe nails matrix</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
       <c r="D193" t="inlineStr">
         <is>
-          <t>DW</t>
+          <t>ATN</t>
         </is>
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Dermal wipes</t>
+          <t>All toe nails</t>
         </is>
       </c>
       <c r="F193" t="inlineStr"/>
@@ -12220,7 +12412,11 @@
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
       <c r="X193" t="inlineStr"/>
-      <c r="Y193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
       <c r="AB193" t="inlineStr"/>
@@ -12238,27 +12434,28 @@
       <c r="AN193" t="inlineStr"/>
       <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr"/>
+      <c r="AQ193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>vocab:1170</t>
+          <t>vocab:1168</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>amniotic fluid matrix</t>
+          <t>big toe nails matrix</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
       <c r="D194" t="inlineStr">
         <is>
-          <t>AF</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Amniotic fluid</t>
+          <t>Big toe nails</t>
         </is>
       </c>
       <c r="F194" t="inlineStr"/>
@@ -12302,27 +12499,28 @@
       <c r="AN194" t="inlineStr"/>
       <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr"/>
+      <c r="AQ194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>vocab:1171</t>
+          <t>vocab:1169</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>placenta tissue matrix</t>
+          <t>dermal wipes matrix</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
       <c r="D195" t="inlineStr">
         <is>
-          <t>PLT</t>
+          <t>DW</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>Placenta tissue</t>
+          <t>Dermal wipes</t>
         </is>
       </c>
       <c r="F195" t="inlineStr"/>
@@ -12348,7 +12546,11 @@
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
       <c r="X195" t="inlineStr"/>
-      <c r="Y195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
       <c r="AB195" t="inlineStr"/>
@@ -12366,25 +12568,34 @@
       <c r="AN195" t="inlineStr"/>
       <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="inlineStr"/>
+      <c r="AQ195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1170</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>human matrix</t>
+          <t>amniotic fluid matrix</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
-      <c r="D196" t="inlineStr"/>
-      <c r="E196" t="inlineStr"/>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Amniotic fluid</t>
+        </is>
+      </c>
       <c r="F196" t="inlineStr"/>
       <c r="G196" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H196" t="inlineStr"/>
@@ -12422,6 +12633,2462 @@
       <c r="AN196" t="inlineStr"/>
       <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="inlineStr"/>
+      <c r="AQ196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>vocab:1171</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>placenta tissue matrix</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>PLT</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Placenta tissue</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr"/>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr"/>
+      <c r="N197" t="inlineStr"/>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr"/>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
+      <c r="AO197" t="inlineStr"/>
+      <c r="AP197" t="inlineStr"/>
+      <c r="AQ197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>human matrix</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr"/>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
+      <c r="AO198" t="inlineStr"/>
+      <c r="AP198" t="inlineStr"/>
+      <c r="AQ198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr"/>
+      <c r="H199" t="inlineStr"/>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
+      <c r="AO199" t="inlineStr"/>
+      <c r="AP199" t="inlineStr"/>
+      <c r="AQ199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>vocab:1174</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t xml:space="preserve">soil erosion in arable land with a slope of 4 to 8 percent in catchment
+</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr"/>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/24</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/30330</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10092</t>
+        </is>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>vocab:1176,vocab:1177</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
+      <c r="AO200" t="inlineStr"/>
+      <c r="AP200" t="inlineStr"/>
+      <c r="AQ200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr"/>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr"/>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
+      <c r="AO201" t="inlineStr"/>
+      <c r="AP201" t="inlineStr"/>
+      <c r="AQ201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>vocab:1176</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>arable</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr"/>
+      <c r="N202" t="inlineStr"/>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
+      <c r="AO202" t="inlineStr"/>
+      <c r="AP202" t="inlineStr"/>
+      <c r="AQ202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>vocab:1177</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>slope 4 to 8 percent</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr"/>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
+      <c r="AO203" t="inlineStr"/>
+      <c r="AP203" t="inlineStr"/>
+      <c r="AQ203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>education level of the mother of the study participant</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
+      <c r="AO204" t="inlineStr"/>
+      <c r="AP204" t="inlineStr"/>
+      <c r="AQ204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>vocab:1179</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of  pcb52 in a house dust sample</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr"/>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_34206</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C84281</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41194</t>
+        </is>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>vocab:1197</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="inlineStr"/>
+      <c r="AQ205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>vocab:1180</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>concentration of pcb118 in air</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr"/>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_81520</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>vocab:1181</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>percentage of total organic carbon in sediment</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr"/>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/22183</t>
+        </is>
+      </c>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20813</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20899</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
+      <c r="AO207" t="inlineStr"/>
+      <c r="AP207" t="inlineStr"/>
+      <c r="AQ207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>vocab:1182</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>weight per volume concentration of chlorophyll-a in a water column</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr"/>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10073</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20785</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20538</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20924</t>
+        </is>
+      </c>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
+      <c r="AO208" t="inlineStr"/>
+      <c r="AP208" t="inlineStr"/>
+      <c r="AQ208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>vocab:1183</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>concentration of leukocytes in the gut of a patient</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/Concentration</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D007962</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/11/meo/MEO_0000468</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/116154003</t>
+        </is>
+      </c>
+      <c r="Q209" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/ICD10CM/G93.32, http://purl.bioontology.org/ontology/MESH/D007107</t>
+        </is>
+      </c>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+      <c r="AO209" t="inlineStr"/>
+      <c r="AP209" t="inlineStr"/>
+      <c r="AQ209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>vocab:1184</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>specific surface area of nanomaterials</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr"/>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/npo#NPO_199</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
+      <c r="AO210" t="inlineStr"/>
+      <c r="AP210" t="inlineStr"/>
+      <c r="AQ210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>vocab:1185</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>mass concentration of aldrin in air</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr"/>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
+      <c r="AO211" t="inlineStr"/>
+      <c r="AP211" t="inlineStr"/>
+      <c r="AQ211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>vocab:1186</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>mass concentration of NPs in medium at well bottom</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr"/>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
+      <c r="AO212" t="inlineStr"/>
+      <c r="AP212" t="inlineStr"/>
+      <c r="AQ212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>vocab:1187</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>concentration range of chemical agent in DMEM  in cells</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr"/>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20748</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr"/>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
+      <c r="AO213" t="inlineStr"/>
+      <c r="AP213" t="inlineStr"/>
+      <c r="AQ213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>vocab:1188</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of lead in river water</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr"/>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
+      <c r="AO214" t="inlineStr"/>
+      <c r="AP214" t="inlineStr"/>
+      <c r="AQ214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>vocab:1189</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>pH value of soil</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
+      <c r="AO215" t="inlineStr"/>
+      <c r="AP215" t="inlineStr"/>
+      <c r="AQ215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>vocab:1190</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of toluene in a persons morning urine</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>https://vocabulary.actris.nilu.no/actris_vocab/toluene</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
+      <c r="AO216" t="inlineStr"/>
+      <c r="AP216" t="inlineStr"/>
+      <c r="AQ216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>vocab:1191</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>frequency of dietary meat consumption in a person</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
+      <c r="AO217" t="inlineStr"/>
+      <c r="AP217" t="inlineStr"/>
+      <c r="AQ217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>vocab:1192</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>pressure of air in atmosphere at 2m height</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
+      <c r="AO218" t="inlineStr"/>
+      <c r="AP218" t="inlineStr"/>
+      <c r="AQ218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>vocab:1193</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>concentration of nitrate in running water</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
+      <c r="AO219" t="inlineStr"/>
+      <c r="AP219" t="inlineStr"/>
+      <c r="AQ219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>vocab:1194</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>concentration of NO2 in the organic horizon of soil</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
+      <c r="AO220" t="inlineStr"/>
+      <c r="AP220" t="inlineStr"/>
+      <c r="AQ220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>vocab:1195</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>chemical reactivity of natural organic matter extracted from river surface water</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr"/>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
+      <c r="AO221" t="inlineStr"/>
+      <c r="AP221" t="inlineStr"/>
+      <c r="AQ221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>vocab:1196</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>turbidity of river water</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr"/>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
+      <c r="AO222" t="inlineStr"/>
+      <c r="AP222" t="inlineStr"/>
+      <c r="AQ222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>vocab:1197</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>settled</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr"/>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
+      <c r="AO223" t="inlineStr"/>
+      <c r="AP223" t="inlineStr"/>
+      <c r="AQ223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>vocab:1198</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>DMEM</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
+      <c r="AO224" t="inlineStr"/>
+      <c r="AP224" t="inlineStr"/>
+      <c r="AQ224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>vocab:1199</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr"/>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
+      <c r="AO225" t="inlineStr"/>
+      <c r="AP225" t="inlineStr"/>
+      <c r="AQ225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>vocab:1200</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>neuroblastoma</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
+      <c r="AO226" t="inlineStr"/>
+      <c r="AP226" t="inlineStr"/>
+      <c r="AQ226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>vocab:1201</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
+      <c r="AO227" t="inlineStr"/>
+      <c r="AP227" t="inlineStr"/>
+      <c r="AQ227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
+      <c r="AO228" t="inlineStr"/>
+      <c r="AP228" t="inlineStr"/>
+      <c r="AQ228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>vocab:1203</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr"/>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
+      <c r="AO229" t="inlineStr"/>
+      <c r="AP229" t="inlineStr"/>
+      <c r="AQ229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>education level</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>vocab:1203</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17953</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
+      <c r="AO230" t="inlineStr"/>
+      <c r="AP230" t="inlineStr"/>
+      <c r="AQ230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr"/>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
+      <c r="AO231" t="inlineStr"/>
+      <c r="AP231" t="inlineStr"/>
+      <c r="AQ231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr"/>
+      <c r="E232" t="inlineStr"/>
+      <c r="F232" t="inlineStr"/>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>http://xmlns.com/foaf/0.1/Person</t>
+        </is>
+      </c>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr"/>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+      <c r="R232" t="inlineStr"/>
+      <c r="S232" t="inlineStr"/>
+      <c r="T232" t="inlineStr"/>
+      <c r="U232" t="inlineStr"/>
+      <c r="V232" t="inlineStr"/>
+      <c r="W232" t="inlineStr"/>
+      <c r="X232" t="inlineStr"/>
+      <c r="Y232" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z232" t="inlineStr"/>
+      <c r="AA232" t="inlineStr"/>
+      <c r="AB232" t="inlineStr"/>
+      <c r="AC232" t="inlineStr"/>
+      <c r="AD232" t="inlineStr"/>
+      <c r="AE232" t="inlineStr"/>
+      <c r="AF232" t="inlineStr"/>
+      <c r="AG232" t="inlineStr"/>
+      <c r="AH232" t="inlineStr"/>
+      <c r="AI232" t="inlineStr"/>
+      <c r="AJ232" t="inlineStr"/>
+      <c r="AK232" t="inlineStr"/>
+      <c r="AL232" t="inlineStr"/>
+      <c r="AM232" t="inlineStr"/>
+      <c r="AN232" t="inlineStr"/>
+      <c r="AO232" t="inlineStr"/>
+      <c r="AP232" t="inlineStr"/>
+      <c r="AQ232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr"/>
+      <c r="E233" t="inlineStr"/>
+      <c r="F233" t="inlineStr"/>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63536</t>
+        </is>
+      </c>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr"/>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+      <c r="R233" t="inlineStr"/>
+      <c r="S233" t="inlineStr"/>
+      <c r="T233" t="inlineStr"/>
+      <c r="U233" t="inlineStr"/>
+      <c r="V233" t="inlineStr"/>
+      <c r="W233" t="inlineStr"/>
+      <c r="X233" t="inlineStr"/>
+      <c r="Y233" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z233" t="inlineStr"/>
+      <c r="AA233" t="inlineStr"/>
+      <c r="AB233" t="inlineStr"/>
+      <c r="AC233" t="inlineStr"/>
+      <c r="AD233" t="inlineStr"/>
+      <c r="AE233" t="inlineStr"/>
+      <c r="AF233" t="inlineStr"/>
+      <c r="AG233" t="inlineStr"/>
+      <c r="AH233" t="inlineStr"/>
+      <c r="AI233" t="inlineStr"/>
+      <c r="AJ233" t="inlineStr"/>
+      <c r="AK233" t="inlineStr"/>
+      <c r="AL233" t="inlineStr"/>
+      <c r="AM233" t="inlineStr"/>
+      <c r="AN233" t="inlineStr"/>
+      <c r="AO233" t="inlineStr"/>
+      <c r="AP233" t="inlineStr"/>
+      <c r="AQ233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>mother of participant</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C25189</t>
+        </is>
+      </c>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+      <c r="R234" t="inlineStr"/>
+      <c r="S234" t="inlineStr"/>
+      <c r="T234" t="inlineStr"/>
+      <c r="U234" t="inlineStr"/>
+      <c r="V234" t="inlineStr"/>
+      <c r="W234" t="inlineStr"/>
+      <c r="X234" t="inlineStr"/>
+      <c r="Y234" t="inlineStr">
+        <is>
+          <t>2023-10-18</t>
+        </is>
+      </c>
+      <c r="Z234" t="inlineStr"/>
+      <c r="AA234" t="inlineStr"/>
+      <c r="AB234" t="inlineStr"/>
+      <c r="AC234" t="inlineStr"/>
+      <c r="AD234" t="inlineStr"/>
+      <c r="AE234" t="inlineStr"/>
+      <c r="AF234" t="inlineStr"/>
+      <c r="AG234" t="inlineStr"/>
+      <c r="AH234" t="inlineStr"/>
+      <c r="AI234" t="inlineStr"/>
+      <c r="AJ234" t="inlineStr"/>
+      <c r="AK234" t="inlineStr"/>
+      <c r="AL234" t="inlineStr"/>
+      <c r="AM234" t="inlineStr"/>
+      <c r="AN234" t="inlineStr"/>
+      <c r="AO234" t="inlineStr"/>
+      <c r="AP234" t="inlineStr"/>
+      <c r="AQ234" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>__</t>
+          <t>ConceptScheme URI</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
@@ -458,11 +458,7 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y1" t="inlineStr"/>
       <c r="Z1" t="inlineStr"/>
       <c r="AA1" t="inlineStr"/>
       <c r="AB1" t="inlineStr"/>
@@ -511,11 +507,7 @@
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
+      <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="inlineStr"/>
@@ -694,11 +686,7 @@
       <c r="V5" t="inlineStr"/>
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr"/>
       <c r="AA5" t="inlineStr"/>
       <c r="AB5" t="inlineStr"/>
@@ -877,11 +865,7 @@
       <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr"/>
       <c r="AA8" t="inlineStr"/>
       <c r="AB8" t="inlineStr"/>
@@ -938,11 +922,7 @@
       <c r="V9" t="inlineStr"/>
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr"/>
       <c r="AA9" t="inlineStr"/>
       <c r="AB9" t="inlineStr"/>
@@ -1469,11 +1449,7 @@
       <c r="V18" t="inlineStr"/>
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
-      <c r="Y18" t="inlineStr">
-        <is>
-          <t>2023-10-18</t>
-        </is>
-      </c>
+      <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr"/>
       <c r="AA18" t="inlineStr"/>
       <c r="AB18" t="inlineStr"/>
@@ -1583,11 +1559,7 @@
       <c r="V20" t="inlineStr"/>
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr">
-        <is>
-          <t>45242.64175063657</t>
-        </is>
-      </c>
+      <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr"/>
       <c r="AA20" t="inlineStr"/>
       <c r="AB20" t="inlineStr"/>
@@ -1644,11 +1616,7 @@
       <c r="V21" t="inlineStr"/>
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr"/>
       <c r="AA21" t="inlineStr"/>
       <c r="AB21" t="inlineStr"/>
@@ -1697,11 +1665,7 @@
       <c r="V22" t="inlineStr"/>
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
-      <c r="Y22" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr"/>
       <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
@@ -1750,11 +1714,7 @@
       <c r="V23" t="inlineStr"/>
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
-      <c r="Y23" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr"/>
       <c r="AA23" t="inlineStr"/>
       <c r="AB23" t="inlineStr"/>
@@ -1803,11 +1763,7 @@
       <c r="V24" t="inlineStr"/>
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr"/>
       <c r="AA24" t="inlineStr"/>
       <c r="AB24" t="inlineStr"/>
@@ -1856,11 +1812,7 @@
       <c r="V25" t="inlineStr"/>
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
-      <c r="Y25" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
       <c r="AA25" t="inlineStr"/>
       <c r="AB25" t="inlineStr"/>
@@ -1913,11 +1865,7 @@
       <c r="V26" t="inlineStr"/>
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
-      <c r="Y26" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr"/>
       <c r="AA26" t="inlineStr"/>
       <c r="AB26" t="inlineStr"/>
@@ -1966,11 +1914,7 @@
       <c r="V27" t="inlineStr"/>
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
-      <c r="Y27" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr"/>
       <c r="AA27" t="inlineStr"/>
       <c r="AB27" t="inlineStr"/>
@@ -2019,11 +1963,7 @@
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
@@ -2072,11 +2012,7 @@
       <c r="V29" t="inlineStr"/>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
       <c r="AA29" t="inlineStr"/>
       <c r="AB29" t="inlineStr"/>
@@ -2129,11 +2065,7 @@
       <c r="V30" t="inlineStr"/>
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
-      <c r="Y30" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
       <c r="AA30" t="inlineStr"/>
       <c r="AB30" t="inlineStr"/>
@@ -2235,11 +2167,7 @@
       <c r="V32" t="inlineStr"/>
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
-      <c r="Y32" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr"/>
       <c r="AA32" t="inlineStr"/>
       <c r="AB32" t="inlineStr"/>
@@ -2292,11 +2220,7 @@
       <c r="V33" t="inlineStr"/>
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr"/>
       <c r="AA33" t="inlineStr"/>
       <c r="AB33" t="inlineStr"/>
@@ -2394,11 +2318,7 @@
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -2500,11 +2420,7 @@
       <c r="V37" t="inlineStr"/>
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
-      <c r="Y37" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr"/>
       <c r="AA37" t="inlineStr"/>
       <c r="AB37" t="inlineStr"/>
@@ -2557,11 +2473,7 @@
       <c r="V38" t="inlineStr"/>
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
       <c r="AA38" t="inlineStr"/>
       <c r="AB38" t="inlineStr"/>
@@ -2618,11 +2530,7 @@
       <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
-      <c r="Y39" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
       <c r="AA39" t="inlineStr"/>
       <c r="AB39" t="inlineStr"/>
@@ -2679,11 +2587,7 @@
       <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
-      <c r="Y40" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr"/>
       <c r="AA40" t="inlineStr"/>
       <c r="AB40" t="inlineStr"/>
@@ -2736,11 +2640,7 @@
       <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
-      <c r="Y41" t="inlineStr">
-        <is>
-          <t>2023-11-12</t>
-        </is>
-      </c>
+      <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr"/>
       <c r="AA41" t="inlineStr"/>
       <c r="AB41" t="inlineStr"/>
@@ -3078,11 +2978,7 @@
           <t>vocab:1000</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ118"/>
+  <dimension ref="A1:AQ119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6935,7 +6935,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ongoing planned</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -6996,14 +6996,18 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>HBM type</t>
+          <t>planned</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr"/>
       <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>vocab:1062</t>
+        </is>
+      </c>
       <c r="H110" t="inlineStr"/>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -7053,18 +7057,14 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>research object</t>
+          <t>HBM type</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr">
-        <is>
-          <t>vocab:1056</t>
-        </is>
-      </c>
+      <c r="G111" t="inlineStr"/>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -7114,7 +7114,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>surveillance project</t>
+          <t>research object</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -7123,7 +7123,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -7175,14 +7175,18 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>monitoring project</t>
+          <t>surveillance project</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr"/>
       <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>vocab:1066</t>
+        </is>
+      </c>
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -7232,7 +7236,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>policy / legislation</t>
+          <t>monitoring project</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -7241,7 +7245,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>
@@ -7293,7 +7297,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>development of tools/guideles/training material</t>
+          <t>policy / legislation</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
@@ -7302,7 +7306,7 @@
       <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H115" t="inlineStr"/>
@@ -7354,7 +7358,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>quality control/quality assurance</t>
+          <t>development of tools/guideles/training material</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -7363,7 +7367,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -7415,7 +7419,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>improving health services delivery infrasturcte</t>
+          <t>quality control/quality assurance</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -7424,7 +7428,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -7476,7 +7480,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>health promotion</t>
+          <t>improving health services delivery infrasturcte</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -7485,7 +7489,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>vocab:1064</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -7529,6 +7533,67 @@
       <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="inlineStr"/>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>vocab:1074</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>health promotion</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>vocab:1066</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="inlineStr"/>
+      <c r="O119" t="inlineStr"/>
+      <c r="P119" t="inlineStr"/>
+      <c r="Q119" t="inlineStr"/>
+      <c r="R119" t="inlineStr"/>
+      <c r="S119" t="inlineStr"/>
+      <c r="T119" t="inlineStr"/>
+      <c r="U119" t="inlineStr"/>
+      <c r="V119" t="inlineStr"/>
+      <c r="W119" t="inlineStr"/>
+      <c r="X119" t="inlineStr"/>
+      <c r="Y119" t="inlineStr">
+        <is>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="Z119" t="inlineStr"/>
+      <c r="AA119" t="inlineStr"/>
+      <c r="AB119" t="inlineStr"/>
+      <c r="AC119" t="inlineStr"/>
+      <c r="AD119" t="inlineStr"/>
+      <c r="AE119" t="inlineStr"/>
+      <c r="AF119" t="inlineStr"/>
+      <c r="AG119" t="inlineStr"/>
+      <c r="AH119" t="inlineStr"/>
+      <c r="AI119" t="inlineStr"/>
+      <c r="AJ119" t="inlineStr"/>
+      <c r="AK119" t="inlineStr"/>
+      <c r="AL119" t="inlineStr"/>
+      <c r="AM119" t="inlineStr"/>
+      <c r="AN119" t="inlineStr"/>
+      <c r="AO119" t="inlineStr"/>
+      <c r="AP119" t="inlineStr"/>
+      <c r="AQ119" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -5376,11 +5376,7 @@
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr"/>
       <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>vocab:1034</t>
-        </is>
-      </c>
+      <c r="G83" t="inlineStr"/>
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -5400,7 +5396,7 @@
       <c r="X83" t="inlineStr"/>
       <c r="Y83" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Z83" t="inlineStr"/>
@@ -5439,7 +5435,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -5461,7 +5457,7 @@
       <c r="X84" t="inlineStr"/>
       <c r="Y84" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Z84" t="inlineStr"/>
@@ -5500,7 +5496,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5522,7 +5518,7 @@
       <c r="X85" t="inlineStr"/>
       <c r="Y85" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Z85" t="inlineStr"/>
@@ -5561,7 +5557,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3080,21 +3080,57 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="inlineStr"/>
-      <c r="T45" t="inlineStr"/>
-      <c r="U45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>test</t>
+        </is>
+      </c>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-23</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ119"/>
+  <dimension ref="A1:AQ231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,7 +458,11 @@
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
       <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr"/>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
       <c r="Z1" t="inlineStr"/>
       <c r="AA1" t="inlineStr"/>
       <c r="AB1" t="inlineStr"/>
@@ -3080,51 +3084,15 @@
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="P45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="S45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="T45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
-      <c r="U45" t="inlineStr">
-        <is>
-          <t>test</t>
-        </is>
-      </c>
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
@@ -7543,7 +7511,7 @@
       <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="Z118" t="inlineStr"/>
@@ -7602,11 +7570,7 @@
       <c r="V119" t="inlineStr"/>
       <c r="W119" t="inlineStr"/>
       <c r="X119" t="inlineStr"/>
-      <c r="Y119" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
+      <c r="Y119" t="inlineStr"/>
       <c r="Z119" t="inlineStr"/>
       <c r="AA119" t="inlineStr"/>
       <c r="AB119" t="inlineStr"/>
@@ -7626,6 +7590,6958 @@
       <c r="AP119" t="inlineStr"/>
       <c r="AQ119" t="inlineStr"/>
     </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>matrix</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr"/>
+      <c r="F120" t="inlineStr"/>
+      <c r="G120" t="inlineStr"/>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="inlineStr"/>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="inlineStr"/>
+      <c r="O120" t="inlineStr"/>
+      <c r="P120" t="inlineStr"/>
+      <c r="Q120" t="inlineStr"/>
+      <c r="R120" t="inlineStr"/>
+      <c r="S120" t="inlineStr"/>
+      <c r="T120" t="inlineStr"/>
+      <c r="U120" t="inlineStr"/>
+      <c r="V120" t="inlineStr"/>
+      <c r="W120" t="inlineStr"/>
+      <c r="X120" t="inlineStr"/>
+      <c r="Y120" t="inlineStr"/>
+      <c r="Z120" t="inlineStr"/>
+      <c r="AA120" t="inlineStr"/>
+      <c r="AB120" t="inlineStr"/>
+      <c r="AC120" t="inlineStr"/>
+      <c r="AD120" t="inlineStr"/>
+      <c r="AE120" t="inlineStr"/>
+      <c r="AF120" t="inlineStr"/>
+      <c r="AG120" t="inlineStr"/>
+      <c r="AH120" t="inlineStr"/>
+      <c r="AI120" t="inlineStr"/>
+      <c r="AJ120" t="inlineStr"/>
+      <c r="AK120" t="inlineStr"/>
+      <c r="AL120" t="inlineStr"/>
+      <c r="AM120" t="inlineStr"/>
+      <c r="AN120" t="inlineStr"/>
+      <c r="AO120" t="inlineStr"/>
+      <c r="AP120" t="inlineStr"/>
+      <c r="AQ120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>air matrix</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr"/>
+      <c r="F121" t="inlineStr"/>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="inlineStr"/>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="inlineStr"/>
+      <c r="O121" t="inlineStr"/>
+      <c r="P121" t="inlineStr"/>
+      <c r="Q121" t="inlineStr"/>
+      <c r="R121" t="inlineStr"/>
+      <c r="S121" t="inlineStr"/>
+      <c r="T121" t="inlineStr"/>
+      <c r="U121" t="inlineStr"/>
+      <c r="V121" t="inlineStr"/>
+      <c r="W121" t="inlineStr"/>
+      <c r="X121" t="inlineStr"/>
+      <c r="Y121" t="inlineStr"/>
+      <c r="Z121" t="inlineStr"/>
+      <c r="AA121" t="inlineStr"/>
+      <c r="AB121" t="inlineStr"/>
+      <c r="AC121" t="inlineStr"/>
+      <c r="AD121" t="inlineStr"/>
+      <c r="AE121" t="inlineStr"/>
+      <c r="AF121" t="inlineStr"/>
+      <c r="AG121" t="inlineStr"/>
+      <c r="AH121" t="inlineStr"/>
+      <c r="AI121" t="inlineStr"/>
+      <c r="AJ121" t="inlineStr"/>
+      <c r="AK121" t="inlineStr"/>
+      <c r="AL121" t="inlineStr"/>
+      <c r="AM121" t="inlineStr"/>
+      <c r="AN121" t="inlineStr"/>
+      <c r="AO121" t="inlineStr"/>
+      <c r="AP121" t="inlineStr"/>
+      <c r="AQ121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>sediment matrix</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+      <c r="E122" t="inlineStr"/>
+      <c r="F122" t="inlineStr"/>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="inlineStr"/>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="inlineStr"/>
+      <c r="O122" t="inlineStr"/>
+      <c r="P122" t="inlineStr"/>
+      <c r="Q122" t="inlineStr"/>
+      <c r="R122" t="inlineStr"/>
+      <c r="S122" t="inlineStr"/>
+      <c r="T122" t="inlineStr"/>
+      <c r="U122" t="inlineStr"/>
+      <c r="V122" t="inlineStr"/>
+      <c r="W122" t="inlineStr"/>
+      <c r="X122" t="inlineStr"/>
+      <c r="Y122" t="inlineStr"/>
+      <c r="Z122" t="inlineStr"/>
+      <c r="AA122" t="inlineStr"/>
+      <c r="AB122" t="inlineStr"/>
+      <c r="AC122" t="inlineStr"/>
+      <c r="AD122" t="inlineStr"/>
+      <c r="AE122" t="inlineStr"/>
+      <c r="AF122" t="inlineStr"/>
+      <c r="AG122" t="inlineStr"/>
+      <c r="AH122" t="inlineStr"/>
+      <c r="AI122" t="inlineStr"/>
+      <c r="AJ122" t="inlineStr"/>
+      <c r="AK122" t="inlineStr"/>
+      <c r="AL122" t="inlineStr"/>
+      <c r="AM122" t="inlineStr"/>
+      <c r="AN122" t="inlineStr"/>
+      <c r="AO122" t="inlineStr"/>
+      <c r="AP122" t="inlineStr"/>
+      <c r="AQ122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>soil matrix</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+      <c r="E123" t="inlineStr"/>
+      <c r="F123" t="inlineStr"/>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="inlineStr"/>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
+      <c r="AN123" t="inlineStr"/>
+      <c r="AO123" t="inlineStr"/>
+      <c r="AP123" t="inlineStr"/>
+      <c r="AQ123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>water matrix</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+      <c r="E124" t="inlineStr"/>
+      <c r="F124" t="inlineStr"/>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="inlineStr"/>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
+      <c r="AN124" t="inlineStr"/>
+      <c r="AO124" t="inlineStr"/>
+      <c r="AP124" t="inlineStr"/>
+      <c r="AQ124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>biota matrix</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr"/>
+      <c r="D125" t="inlineStr"/>
+      <c r="E125" t="inlineStr"/>
+      <c r="F125" t="inlineStr"/>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="inlineStr"/>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
+      <c r="AN125" t="inlineStr"/>
+      <c r="AO125" t="inlineStr"/>
+      <c r="AP125" t="inlineStr"/>
+      <c r="AQ125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>deposition matrix</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr"/>
+      <c r="D126" t="inlineStr"/>
+      <c r="E126" t="inlineStr"/>
+      <c r="F126" t="inlineStr"/>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="inlineStr"/>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
+      <c r="AN126" t="inlineStr"/>
+      <c r="AO126" t="inlineStr"/>
+      <c r="AP126" t="inlineStr"/>
+      <c r="AQ126" t="inlineStr"/>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>vocab:1104</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>whole air matrix</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr"/>
+      <c r="D127" t="inlineStr"/>
+      <c r="E127" t="inlineStr"/>
+      <c r="F127" t="inlineStr"/>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="inlineStr"/>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
+      <c r="AN127" t="inlineStr"/>
+      <c r="AO127" t="inlineStr"/>
+      <c r="AP127" t="inlineStr"/>
+      <c r="AQ127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>vocab:1105</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>gas phase matrix</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr"/>
+      <c r="D128" t="inlineStr"/>
+      <c r="E128" t="inlineStr"/>
+      <c r="F128" t="inlineStr"/>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="inlineStr"/>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
+      <c r="AN128" t="inlineStr"/>
+      <c r="AO128" t="inlineStr"/>
+      <c r="AP128" t="inlineStr"/>
+      <c r="AQ128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>vocab:1106</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>TSP matrix</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr"/>
+      <c r="D129" t="inlineStr"/>
+      <c r="E129" t="inlineStr"/>
+      <c r="F129" t="inlineStr"/>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="inlineStr"/>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
+      <c r="AN129" t="inlineStr"/>
+      <c r="AO129" t="inlineStr"/>
+      <c r="AP129" t="inlineStr"/>
+      <c r="AQ129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>vocab:1107</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>PM 10 matrix</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr"/>
+      <c r="D130" t="inlineStr"/>
+      <c r="E130" t="inlineStr"/>
+      <c r="F130" t="inlineStr"/>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="inlineStr"/>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
+      <c r="AN130" t="inlineStr"/>
+      <c r="AO130" t="inlineStr"/>
+      <c r="AP130" t="inlineStr"/>
+      <c r="AQ130" t="inlineStr"/>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>vocab:1108</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>PM 2.5 matrix</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr"/>
+      <c r="D131" t="inlineStr"/>
+      <c r="E131" t="inlineStr"/>
+      <c r="F131" t="inlineStr"/>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="inlineStr"/>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
+      <c r="AN131" t="inlineStr"/>
+      <c r="AO131" t="inlineStr"/>
+      <c r="AP131" t="inlineStr"/>
+      <c r="AQ131" t="inlineStr"/>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>vocab:1109</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>PM 5 matrix</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr"/>
+      <c r="D132" t="inlineStr"/>
+      <c r="E132" t="inlineStr"/>
+      <c r="F132" t="inlineStr"/>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="inlineStr"/>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
+      <c r="AN132" t="inlineStr"/>
+      <c r="AO132" t="inlineStr"/>
+      <c r="AP132" t="inlineStr"/>
+      <c r="AQ132" t="inlineStr"/>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>vocab:1110</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>surface matrix</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr"/>
+      <c r="E133" t="inlineStr"/>
+      <c r="F133" t="inlineStr"/>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="inlineStr"/>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
+      <c r="AN133" t="inlineStr"/>
+      <c r="AO133" t="inlineStr"/>
+      <c r="AP133" t="inlineStr"/>
+      <c r="AQ133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>vocab:1111</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>sewage sludge matrix</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr"/>
+      <c r="D134" t="inlineStr"/>
+      <c r="E134" t="inlineStr"/>
+      <c r="F134" t="inlineStr"/>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="inlineStr"/>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
+      <c r="AN134" t="inlineStr"/>
+      <c r="AO134" t="inlineStr"/>
+      <c r="AP134" t="inlineStr"/>
+      <c r="AQ134" t="inlineStr"/>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>vocab:1112</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>stratified matrix</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>vocab:1099</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
+      <c r="AN135" t="inlineStr"/>
+      <c r="AO135" t="inlineStr"/>
+      <c r="AP135" t="inlineStr"/>
+      <c r="AQ135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>vocab:1113</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>surface matrix</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr"/>
+      <c r="D136" t="inlineStr"/>
+      <c r="E136" t="inlineStr"/>
+      <c r="F136" t="inlineStr"/>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="inlineStr"/>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
+      <c r="AN136" t="inlineStr"/>
+      <c r="AO136" t="inlineStr"/>
+      <c r="AP136" t="inlineStr"/>
+      <c r="AQ136" t="inlineStr"/>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>vocab:1114</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>topsoil matrix</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr"/>
+      <c r="E137" t="inlineStr"/>
+      <c r="F137" t="inlineStr"/>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="inlineStr"/>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
+      <c r="AN137" t="inlineStr"/>
+      <c r="AO137" t="inlineStr"/>
+      <c r="AP137" t="inlineStr"/>
+      <c r="AQ137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>vocab:1115</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>subsoil A matrix</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
+      <c r="D138" t="inlineStr"/>
+      <c r="E138" t="inlineStr"/>
+      <c r="F138" t="inlineStr"/>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="inlineStr"/>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
+      <c r="AN138" t="inlineStr"/>
+      <c r="AO138" t="inlineStr"/>
+      <c r="AP138" t="inlineStr"/>
+      <c r="AQ138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>vocab:1116</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>subsoil B matrix</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr"/>
+      <c r="E139" t="inlineStr"/>
+      <c r="F139" t="inlineStr"/>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="inlineStr"/>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
+      <c r="AN139" t="inlineStr"/>
+      <c r="AO139" t="inlineStr"/>
+      <c r="AP139" t="inlineStr"/>
+      <c r="AQ139" t="inlineStr"/>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>vocab:1117</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>horizon A matrix</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr"/>
+      <c r="D140" t="inlineStr"/>
+      <c r="E140" t="inlineStr"/>
+      <c r="F140" t="inlineStr"/>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="inlineStr"/>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
+      <c r="AN140" t="inlineStr"/>
+      <c r="AO140" t="inlineStr"/>
+      <c r="AP140" t="inlineStr"/>
+      <c r="AQ140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>vocab:1118</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>horizon B matrix</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr"/>
+      <c r="D141" t="inlineStr"/>
+      <c r="E141" t="inlineStr"/>
+      <c r="F141" t="inlineStr"/>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="inlineStr"/>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
+      <c r="AN141" t="inlineStr"/>
+      <c r="AO141" t="inlineStr"/>
+      <c r="AP141" t="inlineStr"/>
+      <c r="AQ141" t="inlineStr"/>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>vocab:1119</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>horizon C matrix</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr"/>
+      <c r="D142" t="inlineStr"/>
+      <c r="E142" t="inlineStr"/>
+      <c r="F142" t="inlineStr"/>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="inlineStr"/>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
+      <c r="AN142" t="inlineStr"/>
+      <c r="AO142" t="inlineStr"/>
+      <c r="AP142" t="inlineStr"/>
+      <c r="AQ142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>vocab:1120</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>horizon E matrix</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr"/>
+      <c r="D143" t="inlineStr"/>
+      <c r="E143" t="inlineStr"/>
+      <c r="F143" t="inlineStr"/>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="inlineStr"/>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
+      <c r="AN143" t="inlineStr"/>
+      <c r="AO143" t="inlineStr"/>
+      <c r="AP143" t="inlineStr"/>
+      <c r="AQ143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>vocab:1121</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>horizon G matrix</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr"/>
+      <c r="D144" t="inlineStr"/>
+      <c r="E144" t="inlineStr"/>
+      <c r="F144" t="inlineStr"/>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="inlineStr"/>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
+      <c r="AN144" t="inlineStr"/>
+      <c r="AO144" t="inlineStr"/>
+      <c r="AP144" t="inlineStr"/>
+      <c r="AQ144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>vocab:1122</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>horizon M matrix</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
+      <c r="D145" t="inlineStr"/>
+      <c r="E145" t="inlineStr"/>
+      <c r="F145" t="inlineStr"/>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="inlineStr"/>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr"/>
+      <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
+      <c r="AN145" t="inlineStr"/>
+      <c r="AO145" t="inlineStr"/>
+      <c r="AP145" t="inlineStr"/>
+      <c r="AQ145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>vocab:1123</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>horizon O matrix</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
+      <c r="D146" t="inlineStr"/>
+      <c r="E146" t="inlineStr"/>
+      <c r="F146" t="inlineStr"/>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>vocab:1100</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="inlineStr"/>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="inlineStr"/>
+      <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
+      <c r="AN146" t="inlineStr"/>
+      <c r="AO146" t="inlineStr"/>
+      <c r="AP146" t="inlineStr"/>
+      <c r="AQ146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>vocab:1124</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>coastal matrix</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr"/>
+      <c r="D147" t="inlineStr"/>
+      <c r="E147" t="inlineStr"/>
+      <c r="F147" t="inlineStr"/>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="inlineStr"/>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="inlineStr"/>
+      <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
+      <c r="AN147" t="inlineStr"/>
+      <c r="AO147" t="inlineStr"/>
+      <c r="AP147" t="inlineStr"/>
+      <c r="AQ147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>vocab:1125</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>brackish matrix</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr"/>
+      <c r="D148" t="inlineStr"/>
+      <c r="E148" t="inlineStr"/>
+      <c r="F148" t="inlineStr"/>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr"/>
+      <c r="I148" t="inlineStr"/>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="inlineStr"/>
+      <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
+      <c r="AN148" t="inlineStr"/>
+      <c r="AO148" t="inlineStr"/>
+      <c r="AP148" t="inlineStr"/>
+      <c r="AQ148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>vocab:1126</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>ocean matrix</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr"/>
+      <c r="D149" t="inlineStr"/>
+      <c r="E149" t="inlineStr"/>
+      <c r="F149" t="inlineStr"/>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr"/>
+      <c r="I149" t="inlineStr"/>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="inlineStr"/>
+      <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
+      <c r="AN149" t="inlineStr"/>
+      <c r="AO149" t="inlineStr"/>
+      <c r="AP149" t="inlineStr"/>
+      <c r="AQ149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>vocab:1127</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>surface freshwater matrix</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr"/>
+      <c r="D150" t="inlineStr"/>
+      <c r="E150" t="inlineStr"/>
+      <c r="F150" t="inlineStr"/>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr"/>
+      <c r="I150" t="inlineStr"/>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="inlineStr"/>
+      <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
+      <c r="AN150" t="inlineStr"/>
+      <c r="AO150" t="inlineStr"/>
+      <c r="AP150" t="inlineStr"/>
+      <c r="AQ150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>vocab:1128</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>surface freshwater - reservoir matrix</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr"/>
+      <c r="D151" t="inlineStr"/>
+      <c r="E151" t="inlineStr"/>
+      <c r="F151" t="inlineStr"/>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr"/>
+      <c r="I151" t="inlineStr"/>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="inlineStr"/>
+      <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
+      <c r="AN151" t="inlineStr"/>
+      <c r="AO151" t="inlineStr"/>
+      <c r="AP151" t="inlineStr"/>
+      <c r="AQ151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>vocab:1129</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>surface freshwater - river matrix</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr"/>
+      <c r="D152" t="inlineStr"/>
+      <c r="E152" t="inlineStr"/>
+      <c r="F152" t="inlineStr"/>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr"/>
+      <c r="I152" t="inlineStr"/>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="inlineStr"/>
+      <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
+      <c r="AN152" t="inlineStr"/>
+      <c r="AO152" t="inlineStr"/>
+      <c r="AP152" t="inlineStr"/>
+      <c r="AQ152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>vocab:1130</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>ground water matrix</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr"/>
+      <c r="D153" t="inlineStr"/>
+      <c r="E153" t="inlineStr"/>
+      <c r="F153" t="inlineStr"/>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>vocab:1101</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr"/>
+      <c r="I153" t="inlineStr"/>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr"/>
+      <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
+      <c r="AN153" t="inlineStr"/>
+      <c r="AO153" t="inlineStr"/>
+      <c r="AP153" t="inlineStr"/>
+      <c r="AQ153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>vocab:1131</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>fish matrix</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr"/>
+      <c r="D154" t="inlineStr"/>
+      <c r="E154" t="inlineStr"/>
+      <c r="F154" t="inlineStr"/>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr"/>
+      <c r="I154" t="inlineStr"/>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr"/>
+      <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
+      <c r="AN154" t="inlineStr"/>
+      <c r="AO154" t="inlineStr"/>
+      <c r="AP154" t="inlineStr"/>
+      <c r="AQ154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>vocab:1132</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>barley matrix</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr"/>
+      <c r="D155" t="inlineStr"/>
+      <c r="E155" t="inlineStr"/>
+      <c r="F155" t="inlineStr"/>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr"/>
+      <c r="I155" t="inlineStr"/>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr"/>
+      <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
+      <c r="AN155" t="inlineStr"/>
+      <c r="AO155" t="inlineStr"/>
+      <c r="AP155" t="inlineStr"/>
+      <c r="AQ155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>vocab:1133</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>grass matrix</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
+      <c r="D156" t="inlineStr"/>
+      <c r="E156" t="inlineStr"/>
+      <c r="F156" t="inlineStr"/>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr"/>
+      <c r="I156" t="inlineStr"/>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="inlineStr"/>
+      <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
+      <c r="AN156" t="inlineStr"/>
+      <c r="AO156" t="inlineStr"/>
+      <c r="AP156" t="inlineStr"/>
+      <c r="AQ156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>vocab:1134</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>hop matrix</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr"/>
+      <c r="D157" t="inlineStr"/>
+      <c r="E157" t="inlineStr"/>
+      <c r="F157" t="inlineStr"/>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr"/>
+      <c r="I157" t="inlineStr"/>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="inlineStr"/>
+      <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
+      <c r="AN157" t="inlineStr"/>
+      <c r="AO157" t="inlineStr"/>
+      <c r="AP157" t="inlineStr"/>
+      <c r="AQ157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>vocab:1135</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>moss matrix</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr"/>
+      <c r="D158" t="inlineStr"/>
+      <c r="E158" t="inlineStr"/>
+      <c r="F158" t="inlineStr"/>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr"/>
+      <c r="I158" t="inlineStr"/>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="inlineStr"/>
+      <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
+      <c r="AN158" t="inlineStr"/>
+      <c r="AO158" t="inlineStr"/>
+      <c r="AP158" t="inlineStr"/>
+      <c r="AQ158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>vocab:1136</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>mustard matrix</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
+      <c r="D159" t="inlineStr"/>
+      <c r="E159" t="inlineStr"/>
+      <c r="F159" t="inlineStr"/>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr"/>
+      <c r="I159" t="inlineStr"/>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="inlineStr"/>
+      <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
+      <c r="AN159" t="inlineStr"/>
+      <c r="AO159" t="inlineStr"/>
+      <c r="AP159" t="inlineStr"/>
+      <c r="AQ159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>vocab:1137</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>maize matrix</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr"/>
+      <c r="F160" t="inlineStr"/>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr"/>
+      <c r="I160" t="inlineStr"/>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="inlineStr"/>
+      <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
+      <c r="AN160" t="inlineStr"/>
+      <c r="AO160" t="inlineStr"/>
+      <c r="AP160" t="inlineStr"/>
+      <c r="AQ160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>vocab:1138</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>oat matrix</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr"/>
+      <c r="E161" t="inlineStr"/>
+      <c r="F161" t="inlineStr"/>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr"/>
+      <c r="I161" t="inlineStr"/>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="inlineStr"/>
+      <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
+      <c r="AN161" t="inlineStr"/>
+      <c r="AO161" t="inlineStr"/>
+      <c r="AP161" t="inlineStr"/>
+      <c r="AQ161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>vocab:1139</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>peat moss matrix</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr"/>
+      <c r="D162" t="inlineStr"/>
+      <c r="E162" t="inlineStr"/>
+      <c r="F162" t="inlineStr"/>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr"/>
+      <c r="I162" t="inlineStr"/>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="inlineStr"/>
+      <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
+      <c r="AN162" t="inlineStr"/>
+      <c r="AO162" t="inlineStr"/>
+      <c r="AP162" t="inlineStr"/>
+      <c r="AQ162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>vocab:1140</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>pine matrix</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr"/>
+      <c r="E163" t="inlineStr"/>
+      <c r="F163" t="inlineStr"/>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr"/>
+      <c r="I163" t="inlineStr"/>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="inlineStr"/>
+      <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
+      <c r="AN163" t="inlineStr"/>
+      <c r="AO163" t="inlineStr"/>
+      <c r="AP163" t="inlineStr"/>
+      <c r="AQ163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>vocab:1141</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>potato matrix</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr"/>
+      <c r="E164" t="inlineStr"/>
+      <c r="F164" t="inlineStr"/>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H164" t="inlineStr"/>
+      <c r="I164" t="inlineStr"/>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="inlineStr"/>
+      <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
+      <c r="AN164" t="inlineStr"/>
+      <c r="AO164" t="inlineStr"/>
+      <c r="AP164" t="inlineStr"/>
+      <c r="AQ164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>vocab:1142</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>rape matrix</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="inlineStr"/>
+      <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
+      <c r="AN165" t="inlineStr"/>
+      <c r="AO165" t="inlineStr"/>
+      <c r="AP165" t="inlineStr"/>
+      <c r="AQ165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>vocab:1143</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>soya matrix</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
+      <c r="AN166" t="inlineStr"/>
+      <c r="AO166" t="inlineStr"/>
+      <c r="AP166" t="inlineStr"/>
+      <c r="AQ166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>vocab:1144</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>sunflover matrix</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="inlineStr"/>
+      <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
+      <c r="AN167" t="inlineStr"/>
+      <c r="AO167" t="inlineStr"/>
+      <c r="AP167" t="inlineStr"/>
+      <c r="AQ167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>vocab:1145</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>spruce matrix</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="inlineStr"/>
+      <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
+      <c r="AN168" t="inlineStr"/>
+      <c r="AO168" t="inlineStr"/>
+      <c r="AP168" t="inlineStr"/>
+      <c r="AQ168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>vocab:1146</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>triticale matrix</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="inlineStr"/>
+      <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
+      <c r="AN169" t="inlineStr"/>
+      <c r="AO169" t="inlineStr"/>
+      <c r="AP169" t="inlineStr"/>
+      <c r="AQ169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>vocab:1147</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>wheat matrix</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>vocab:1102</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="inlineStr"/>
+      <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
+      <c r="AN170" t="inlineStr"/>
+      <c r="AO170" t="inlineStr"/>
+      <c r="AP170" t="inlineStr"/>
+      <c r="AQ170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>vocab:1148</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>dry matrix</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="inlineStr"/>
+      <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
+      <c r="AN171" t="inlineStr"/>
+      <c r="AO171" t="inlineStr"/>
+      <c r="AP171" t="inlineStr"/>
+      <c r="AQ171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>vocab:1149</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>mixed matrix</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="inlineStr"/>
+      <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
+      <c r="AN172" t="inlineStr"/>
+      <c r="AO172" t="inlineStr"/>
+      <c r="AP172" t="inlineStr"/>
+      <c r="AQ172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>vocab:1150</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>wet matrix</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>vocab:1103</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
+      <c r="M173" t="inlineStr"/>
+      <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
+      <c r="AN173" t="inlineStr"/>
+      <c r="AO173" t="inlineStr"/>
+      <c r="AP173" t="inlineStr"/>
+      <c r="AQ173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>vocab:1151</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>blood-whole blood matrix</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>BWB</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>Blood-whole blood</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
+      <c r="M174" t="inlineStr"/>
+      <c r="N174" t="inlineStr"/>
+      <c r="O174" t="inlineStr"/>
+      <c r="P174" t="inlineStr"/>
+      <c r="Q174" t="inlineStr"/>
+      <c r="R174" t="inlineStr"/>
+      <c r="S174" t="inlineStr"/>
+      <c r="T174" t="inlineStr"/>
+      <c r="U174" t="inlineStr"/>
+      <c r="V174" t="inlineStr"/>
+      <c r="W174" t="inlineStr"/>
+      <c r="X174" t="inlineStr"/>
+      <c r="Y174" t="inlineStr"/>
+      <c r="Z174" t="inlineStr"/>
+      <c r="AA174" t="inlineStr"/>
+      <c r="AB174" t="inlineStr"/>
+      <c r="AC174" t="inlineStr"/>
+      <c r="AD174" t="inlineStr"/>
+      <c r="AE174" t="inlineStr"/>
+      <c r="AF174" t="inlineStr"/>
+      <c r="AG174" t="inlineStr"/>
+      <c r="AH174" t="inlineStr"/>
+      <c r="AI174" t="inlineStr"/>
+      <c r="AJ174" t="inlineStr"/>
+      <c r="AK174" t="inlineStr"/>
+      <c r="AL174" t="inlineStr"/>
+      <c r="AM174" t="inlineStr"/>
+      <c r="AN174" t="inlineStr"/>
+      <c r="AO174" t="inlineStr"/>
+      <c r="AP174" t="inlineStr"/>
+      <c r="AQ174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>vocab:1152</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>blood -plasma matrix</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>Blood -plasma</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
+      <c r="M175" t="inlineStr"/>
+      <c r="N175" t="inlineStr"/>
+      <c r="O175" t="inlineStr"/>
+      <c r="P175" t="inlineStr"/>
+      <c r="Q175" t="inlineStr"/>
+      <c r="R175" t="inlineStr"/>
+      <c r="S175" t="inlineStr"/>
+      <c r="T175" t="inlineStr"/>
+      <c r="U175" t="inlineStr"/>
+      <c r="V175" t="inlineStr"/>
+      <c r="W175" t="inlineStr"/>
+      <c r="X175" t="inlineStr"/>
+      <c r="Y175" t="inlineStr"/>
+      <c r="Z175" t="inlineStr"/>
+      <c r="AA175" t="inlineStr"/>
+      <c r="AB175" t="inlineStr"/>
+      <c r="AC175" t="inlineStr"/>
+      <c r="AD175" t="inlineStr"/>
+      <c r="AE175" t="inlineStr"/>
+      <c r="AF175" t="inlineStr"/>
+      <c r="AG175" t="inlineStr"/>
+      <c r="AH175" t="inlineStr"/>
+      <c r="AI175" t="inlineStr"/>
+      <c r="AJ175" t="inlineStr"/>
+      <c r="AK175" t="inlineStr"/>
+      <c r="AL175" t="inlineStr"/>
+      <c r="AM175" t="inlineStr"/>
+      <c r="AN175" t="inlineStr"/>
+      <c r="AO175" t="inlineStr"/>
+      <c r="AP175" t="inlineStr"/>
+      <c r="AQ175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>vocab:1153</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>blood -serum matrix</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Blood -serum</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr"/>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr"/>
+      <c r="R176" t="inlineStr"/>
+      <c r="S176" t="inlineStr"/>
+      <c r="T176" t="inlineStr"/>
+      <c r="U176" t="inlineStr"/>
+      <c r="V176" t="inlineStr"/>
+      <c r="W176" t="inlineStr"/>
+      <c r="X176" t="inlineStr"/>
+      <c r="Y176" t="inlineStr"/>
+      <c r="Z176" t="inlineStr"/>
+      <c r="AA176" t="inlineStr"/>
+      <c r="AB176" t="inlineStr"/>
+      <c r="AC176" t="inlineStr"/>
+      <c r="AD176" t="inlineStr"/>
+      <c r="AE176" t="inlineStr"/>
+      <c r="AF176" t="inlineStr"/>
+      <c r="AG176" t="inlineStr"/>
+      <c r="AH176" t="inlineStr"/>
+      <c r="AI176" t="inlineStr"/>
+      <c r="AJ176" t="inlineStr"/>
+      <c r="AK176" t="inlineStr"/>
+      <c r="AL176" t="inlineStr"/>
+      <c r="AM176" t="inlineStr"/>
+      <c r="AN176" t="inlineStr"/>
+      <c r="AO176" t="inlineStr"/>
+      <c r="AP176" t="inlineStr"/>
+      <c r="AQ176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>vocab:1154</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>cord blood-whole blood matrix</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>CBWB</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Cord blood-whole blood</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr"/>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr"/>
+      <c r="R177" t="inlineStr"/>
+      <c r="S177" t="inlineStr"/>
+      <c r="T177" t="inlineStr"/>
+      <c r="U177" t="inlineStr"/>
+      <c r="V177" t="inlineStr"/>
+      <c r="W177" t="inlineStr"/>
+      <c r="X177" t="inlineStr"/>
+      <c r="Y177" t="inlineStr"/>
+      <c r="Z177" t="inlineStr"/>
+      <c r="AA177" t="inlineStr"/>
+      <c r="AB177" t="inlineStr"/>
+      <c r="AC177" t="inlineStr"/>
+      <c r="AD177" t="inlineStr"/>
+      <c r="AE177" t="inlineStr"/>
+      <c r="AF177" t="inlineStr"/>
+      <c r="AG177" t="inlineStr"/>
+      <c r="AH177" t="inlineStr"/>
+      <c r="AI177" t="inlineStr"/>
+      <c r="AJ177" t="inlineStr"/>
+      <c r="AK177" t="inlineStr"/>
+      <c r="AL177" t="inlineStr"/>
+      <c r="AM177" t="inlineStr"/>
+      <c r="AN177" t="inlineStr"/>
+      <c r="AO177" t="inlineStr"/>
+      <c r="AP177" t="inlineStr"/>
+      <c r="AQ177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>vocab:1155</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>cord blood-plasma matrix</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr"/>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>CBP</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Cord blood-plasma</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr"/>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+      <c r="R178" t="inlineStr"/>
+      <c r="S178" t="inlineStr"/>
+      <c r="T178" t="inlineStr"/>
+      <c r="U178" t="inlineStr"/>
+      <c r="V178" t="inlineStr"/>
+      <c r="W178" t="inlineStr"/>
+      <c r="X178" t="inlineStr"/>
+      <c r="Y178" t="inlineStr"/>
+      <c r="Z178" t="inlineStr"/>
+      <c r="AA178" t="inlineStr"/>
+      <c r="AB178" t="inlineStr"/>
+      <c r="AC178" t="inlineStr"/>
+      <c r="AD178" t="inlineStr"/>
+      <c r="AE178" t="inlineStr"/>
+      <c r="AF178" t="inlineStr"/>
+      <c r="AG178" t="inlineStr"/>
+      <c r="AH178" t="inlineStr"/>
+      <c r="AI178" t="inlineStr"/>
+      <c r="AJ178" t="inlineStr"/>
+      <c r="AK178" t="inlineStr"/>
+      <c r="AL178" t="inlineStr"/>
+      <c r="AM178" t="inlineStr"/>
+      <c r="AN178" t="inlineStr"/>
+      <c r="AO178" t="inlineStr"/>
+      <c r="AP178" t="inlineStr"/>
+      <c r="AQ178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>vocab:1156</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>cord blood-serum matrix</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr"/>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>CBS</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Cord blood-serum</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr"/>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr"/>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr"/>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr"/>
+      <c r="R179" t="inlineStr"/>
+      <c r="S179" t="inlineStr"/>
+      <c r="T179" t="inlineStr"/>
+      <c r="U179" t="inlineStr"/>
+      <c r="V179" t="inlineStr"/>
+      <c r="W179" t="inlineStr"/>
+      <c r="X179" t="inlineStr"/>
+      <c r="Y179" t="inlineStr"/>
+      <c r="Z179" t="inlineStr"/>
+      <c r="AA179" t="inlineStr"/>
+      <c r="AB179" t="inlineStr"/>
+      <c r="AC179" t="inlineStr"/>
+      <c r="AD179" t="inlineStr"/>
+      <c r="AE179" t="inlineStr"/>
+      <c r="AF179" t="inlineStr"/>
+      <c r="AG179" t="inlineStr"/>
+      <c r="AH179" t="inlineStr"/>
+      <c r="AI179" t="inlineStr"/>
+      <c r="AJ179" t="inlineStr"/>
+      <c r="AK179" t="inlineStr"/>
+      <c r="AL179" t="inlineStr"/>
+      <c r="AM179" t="inlineStr"/>
+      <c r="AN179" t="inlineStr"/>
+      <c r="AO179" t="inlineStr"/>
+      <c r="AP179" t="inlineStr"/>
+      <c r="AQ179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>vocab:1157</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>urine-spot matrix</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr"/>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>US</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Urine-spot</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr"/>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr"/>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr"/>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr"/>
+      <c r="R180" t="inlineStr"/>
+      <c r="S180" t="inlineStr"/>
+      <c r="T180" t="inlineStr"/>
+      <c r="U180" t="inlineStr"/>
+      <c r="V180" t="inlineStr"/>
+      <c r="W180" t="inlineStr"/>
+      <c r="X180" t="inlineStr"/>
+      <c r="Y180" t="inlineStr"/>
+      <c r="Z180" t="inlineStr"/>
+      <c r="AA180" t="inlineStr"/>
+      <c r="AB180" t="inlineStr"/>
+      <c r="AC180" t="inlineStr"/>
+      <c r="AD180" t="inlineStr"/>
+      <c r="AE180" t="inlineStr"/>
+      <c r="AF180" t="inlineStr"/>
+      <c r="AG180" t="inlineStr"/>
+      <c r="AH180" t="inlineStr"/>
+      <c r="AI180" t="inlineStr"/>
+      <c r="AJ180" t="inlineStr"/>
+      <c r="AK180" t="inlineStr"/>
+      <c r="AL180" t="inlineStr"/>
+      <c r="AM180" t="inlineStr"/>
+      <c r="AN180" t="inlineStr"/>
+      <c r="AO180" t="inlineStr"/>
+      <c r="AP180" t="inlineStr"/>
+      <c r="AQ180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>vocab:1158</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>urine-24h matrix</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr"/>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>UD</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Urine-24h</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr"/>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr"/>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr"/>
+      <c r="N181" t="inlineStr"/>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr"/>
+      <c r="R181" t="inlineStr"/>
+      <c r="S181" t="inlineStr"/>
+      <c r="T181" t="inlineStr"/>
+      <c r="U181" t="inlineStr"/>
+      <c r="V181" t="inlineStr"/>
+      <c r="W181" t="inlineStr"/>
+      <c r="X181" t="inlineStr"/>
+      <c r="Y181" t="inlineStr"/>
+      <c r="Z181" t="inlineStr"/>
+      <c r="AA181" t="inlineStr"/>
+      <c r="AB181" t="inlineStr"/>
+      <c r="AC181" t="inlineStr"/>
+      <c r="AD181" t="inlineStr"/>
+      <c r="AE181" t="inlineStr"/>
+      <c r="AF181" t="inlineStr"/>
+      <c r="AG181" t="inlineStr"/>
+      <c r="AH181" t="inlineStr"/>
+      <c r="AI181" t="inlineStr"/>
+      <c r="AJ181" t="inlineStr"/>
+      <c r="AK181" t="inlineStr"/>
+      <c r="AL181" t="inlineStr"/>
+      <c r="AM181" t="inlineStr"/>
+      <c r="AN181" t="inlineStr"/>
+      <c r="AO181" t="inlineStr"/>
+      <c r="AP181" t="inlineStr"/>
+      <c r="AQ181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>vocab:1159</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>urine-morning urine matrix</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr"/>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>UM</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Urine-morning urine</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr"/>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr"/>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr"/>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr"/>
+      <c r="R182" t="inlineStr"/>
+      <c r="S182" t="inlineStr"/>
+      <c r="T182" t="inlineStr"/>
+      <c r="U182" t="inlineStr"/>
+      <c r="V182" t="inlineStr"/>
+      <c r="W182" t="inlineStr"/>
+      <c r="X182" t="inlineStr"/>
+      <c r="Y182" t="inlineStr"/>
+      <c r="Z182" t="inlineStr"/>
+      <c r="AA182" t="inlineStr"/>
+      <c r="AB182" t="inlineStr"/>
+      <c r="AC182" t="inlineStr"/>
+      <c r="AD182" t="inlineStr"/>
+      <c r="AE182" t="inlineStr"/>
+      <c r="AF182" t="inlineStr"/>
+      <c r="AG182" t="inlineStr"/>
+      <c r="AH182" t="inlineStr"/>
+      <c r="AI182" t="inlineStr"/>
+      <c r="AJ182" t="inlineStr"/>
+      <c r="AK182" t="inlineStr"/>
+      <c r="AL182" t="inlineStr"/>
+      <c r="AM182" t="inlineStr"/>
+      <c r="AN182" t="inlineStr"/>
+      <c r="AO182" t="inlineStr"/>
+      <c r="AP182" t="inlineStr"/>
+      <c r="AQ182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>vocab:1160</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>saliva and/or sputum matrix</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr"/>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>SA</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Saliva and or sputum</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr"/>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr"/>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr"/>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr"/>
+      <c r="R183" t="inlineStr"/>
+      <c r="S183" t="inlineStr"/>
+      <c r="T183" t="inlineStr"/>
+      <c r="U183" t="inlineStr"/>
+      <c r="V183" t="inlineStr"/>
+      <c r="W183" t="inlineStr"/>
+      <c r="X183" t="inlineStr"/>
+      <c r="Y183" t="inlineStr"/>
+      <c r="Z183" t="inlineStr"/>
+      <c r="AA183" t="inlineStr"/>
+      <c r="AB183" t="inlineStr"/>
+      <c r="AC183" t="inlineStr"/>
+      <c r="AD183" t="inlineStr"/>
+      <c r="AE183" t="inlineStr"/>
+      <c r="AF183" t="inlineStr"/>
+      <c r="AG183" t="inlineStr"/>
+      <c r="AH183" t="inlineStr"/>
+      <c r="AI183" t="inlineStr"/>
+      <c r="AJ183" t="inlineStr"/>
+      <c r="AK183" t="inlineStr"/>
+      <c r="AL183" t="inlineStr"/>
+      <c r="AM183" t="inlineStr"/>
+      <c r="AN183" t="inlineStr"/>
+      <c r="AO183" t="inlineStr"/>
+      <c r="AP183" t="inlineStr"/>
+      <c r="AQ183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>vocab:1161</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>semen matrix</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>SEM</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>Semen</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+      <c r="R184" t="inlineStr"/>
+      <c r="S184" t="inlineStr"/>
+      <c r="T184" t="inlineStr"/>
+      <c r="U184" t="inlineStr"/>
+      <c r="V184" t="inlineStr"/>
+      <c r="W184" t="inlineStr"/>
+      <c r="X184" t="inlineStr"/>
+      <c r="Y184" t="inlineStr"/>
+      <c r="Z184" t="inlineStr"/>
+      <c r="AA184" t="inlineStr"/>
+      <c r="AB184" t="inlineStr"/>
+      <c r="AC184" t="inlineStr"/>
+      <c r="AD184" t="inlineStr"/>
+      <c r="AE184" t="inlineStr"/>
+      <c r="AF184" t="inlineStr"/>
+      <c r="AG184" t="inlineStr"/>
+      <c r="AH184" t="inlineStr"/>
+      <c r="AI184" t="inlineStr"/>
+      <c r="AJ184" t="inlineStr"/>
+      <c r="AK184" t="inlineStr"/>
+      <c r="AL184" t="inlineStr"/>
+      <c r="AM184" t="inlineStr"/>
+      <c r="AN184" t="inlineStr"/>
+      <c r="AO184" t="inlineStr"/>
+      <c r="AP184" t="inlineStr"/>
+      <c r="AQ184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>vocab:1162</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>hair matrix</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>H</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Hair</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr"/>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr"/>
+      <c r="N185" t="inlineStr"/>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+      <c r="R185" t="inlineStr"/>
+      <c r="S185" t="inlineStr"/>
+      <c r="T185" t="inlineStr"/>
+      <c r="U185" t="inlineStr"/>
+      <c r="V185" t="inlineStr"/>
+      <c r="W185" t="inlineStr"/>
+      <c r="X185" t="inlineStr"/>
+      <c r="Y185" t="inlineStr"/>
+      <c r="Z185" t="inlineStr"/>
+      <c r="AA185" t="inlineStr"/>
+      <c r="AB185" t="inlineStr"/>
+      <c r="AC185" t="inlineStr"/>
+      <c r="AD185" t="inlineStr"/>
+      <c r="AE185" t="inlineStr"/>
+      <c r="AF185" t="inlineStr"/>
+      <c r="AG185" t="inlineStr"/>
+      <c r="AH185" t="inlineStr"/>
+      <c r="AI185" t="inlineStr"/>
+      <c r="AJ185" t="inlineStr"/>
+      <c r="AK185" t="inlineStr"/>
+      <c r="AL185" t="inlineStr"/>
+      <c r="AM185" t="inlineStr"/>
+      <c r="AN185" t="inlineStr"/>
+      <c r="AO185" t="inlineStr"/>
+      <c r="AP185" t="inlineStr"/>
+      <c r="AQ185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>vocab:1163</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>exhaled breath condensate matrix</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr"/>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>EBC</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Exhaled breath condensate</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr"/>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr"/>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr"/>
+      <c r="N186" t="inlineStr"/>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr"/>
+      <c r="R186" t="inlineStr"/>
+      <c r="S186" t="inlineStr"/>
+      <c r="T186" t="inlineStr"/>
+      <c r="U186" t="inlineStr"/>
+      <c r="V186" t="inlineStr"/>
+      <c r="W186" t="inlineStr"/>
+      <c r="X186" t="inlineStr"/>
+      <c r="Y186" t="inlineStr"/>
+      <c r="Z186" t="inlineStr"/>
+      <c r="AA186" t="inlineStr"/>
+      <c r="AB186" t="inlineStr"/>
+      <c r="AC186" t="inlineStr"/>
+      <c r="AD186" t="inlineStr"/>
+      <c r="AE186" t="inlineStr"/>
+      <c r="AF186" t="inlineStr"/>
+      <c r="AG186" t="inlineStr"/>
+      <c r="AH186" t="inlineStr"/>
+      <c r="AI186" t="inlineStr"/>
+      <c r="AJ186" t="inlineStr"/>
+      <c r="AK186" t="inlineStr"/>
+      <c r="AL186" t="inlineStr"/>
+      <c r="AM186" t="inlineStr"/>
+      <c r="AN186" t="inlineStr"/>
+      <c r="AO186" t="inlineStr"/>
+      <c r="AP186" t="inlineStr"/>
+      <c r="AQ186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>vocab:1164</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>red blood cells matrix</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr"/>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>RBC</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>Red blood cells</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr"/>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr"/>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr"/>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr"/>
+      <c r="R187" t="inlineStr"/>
+      <c r="S187" t="inlineStr"/>
+      <c r="T187" t="inlineStr"/>
+      <c r="U187" t="inlineStr"/>
+      <c r="V187" t="inlineStr"/>
+      <c r="W187" t="inlineStr"/>
+      <c r="X187" t="inlineStr"/>
+      <c r="Y187" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z187" t="inlineStr"/>
+      <c r="AA187" t="inlineStr"/>
+      <c r="AB187" t="inlineStr"/>
+      <c r="AC187" t="inlineStr"/>
+      <c r="AD187" t="inlineStr"/>
+      <c r="AE187" t="inlineStr"/>
+      <c r="AF187" t="inlineStr"/>
+      <c r="AG187" t="inlineStr"/>
+      <c r="AH187" t="inlineStr"/>
+      <c r="AI187" t="inlineStr"/>
+      <c r="AJ187" t="inlineStr"/>
+      <c r="AK187" t="inlineStr"/>
+      <c r="AL187" t="inlineStr"/>
+      <c r="AM187" t="inlineStr"/>
+      <c r="AN187" t="inlineStr"/>
+      <c r="AO187" t="inlineStr"/>
+      <c r="AP187" t="inlineStr"/>
+      <c r="AQ187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>vocab:1165</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>breast milk matrix</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr"/>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>BM</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Breast milk</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr"/>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr"/>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr"/>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr"/>
+      <c r="R188" t="inlineStr"/>
+      <c r="S188" t="inlineStr"/>
+      <c r="T188" t="inlineStr"/>
+      <c r="U188" t="inlineStr"/>
+      <c r="V188" t="inlineStr"/>
+      <c r="W188" t="inlineStr"/>
+      <c r="X188" t="inlineStr"/>
+      <c r="Y188" t="inlineStr"/>
+      <c r="Z188" t="inlineStr"/>
+      <c r="AA188" t="inlineStr"/>
+      <c r="AB188" t="inlineStr"/>
+      <c r="AC188" t="inlineStr"/>
+      <c r="AD188" t="inlineStr"/>
+      <c r="AE188" t="inlineStr"/>
+      <c r="AF188" t="inlineStr"/>
+      <c r="AG188" t="inlineStr"/>
+      <c r="AH188" t="inlineStr"/>
+      <c r="AI188" t="inlineStr"/>
+      <c r="AJ188" t="inlineStr"/>
+      <c r="AK188" t="inlineStr"/>
+      <c r="AL188" t="inlineStr"/>
+      <c r="AM188" t="inlineStr"/>
+      <c r="AN188" t="inlineStr"/>
+      <c r="AO188" t="inlineStr"/>
+      <c r="AP188" t="inlineStr"/>
+      <c r="AQ188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>vocab:1166</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>adipose tissue/fat matrix</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr"/>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>ADI</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Adipose tissue/fat</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr"/>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr"/>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr"/>
+      <c r="N189" t="inlineStr"/>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr"/>
+      <c r="R189" t="inlineStr"/>
+      <c r="S189" t="inlineStr"/>
+      <c r="T189" t="inlineStr"/>
+      <c r="U189" t="inlineStr"/>
+      <c r="V189" t="inlineStr"/>
+      <c r="W189" t="inlineStr"/>
+      <c r="X189" t="inlineStr"/>
+      <c r="Y189" t="inlineStr"/>
+      <c r="Z189" t="inlineStr"/>
+      <c r="AA189" t="inlineStr"/>
+      <c r="AB189" t="inlineStr"/>
+      <c r="AC189" t="inlineStr"/>
+      <c r="AD189" t="inlineStr"/>
+      <c r="AE189" t="inlineStr"/>
+      <c r="AF189" t="inlineStr"/>
+      <c r="AG189" t="inlineStr"/>
+      <c r="AH189" t="inlineStr"/>
+      <c r="AI189" t="inlineStr"/>
+      <c r="AJ189" t="inlineStr"/>
+      <c r="AK189" t="inlineStr"/>
+      <c r="AL189" t="inlineStr"/>
+      <c r="AM189" t="inlineStr"/>
+      <c r="AN189" t="inlineStr"/>
+      <c r="AO189" t="inlineStr"/>
+      <c r="AP189" t="inlineStr"/>
+      <c r="AQ189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>vocab:1167</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>all toe nails matrix</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr"/>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>ATN</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>All toe nails</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr"/>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+      <c r="R190" t="inlineStr"/>
+      <c r="S190" t="inlineStr"/>
+      <c r="T190" t="inlineStr"/>
+      <c r="U190" t="inlineStr"/>
+      <c r="V190" t="inlineStr"/>
+      <c r="W190" t="inlineStr"/>
+      <c r="X190" t="inlineStr"/>
+      <c r="Y190" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z190" t="inlineStr"/>
+      <c r="AA190" t="inlineStr"/>
+      <c r="AB190" t="inlineStr"/>
+      <c r="AC190" t="inlineStr"/>
+      <c r="AD190" t="inlineStr"/>
+      <c r="AE190" t="inlineStr"/>
+      <c r="AF190" t="inlineStr"/>
+      <c r="AG190" t="inlineStr"/>
+      <c r="AH190" t="inlineStr"/>
+      <c r="AI190" t="inlineStr"/>
+      <c r="AJ190" t="inlineStr"/>
+      <c r="AK190" t="inlineStr"/>
+      <c r="AL190" t="inlineStr"/>
+      <c r="AM190" t="inlineStr"/>
+      <c r="AN190" t="inlineStr"/>
+      <c r="AO190" t="inlineStr"/>
+      <c r="AP190" t="inlineStr"/>
+      <c r="AQ190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>vocab:1168</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>big toe nails matrix</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr"/>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>BTN</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Big toe nails</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr"/>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr"/>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+      <c r="R191" t="inlineStr"/>
+      <c r="S191" t="inlineStr"/>
+      <c r="T191" t="inlineStr"/>
+      <c r="U191" t="inlineStr"/>
+      <c r="V191" t="inlineStr"/>
+      <c r="W191" t="inlineStr"/>
+      <c r="X191" t="inlineStr"/>
+      <c r="Y191" t="inlineStr"/>
+      <c r="Z191" t="inlineStr"/>
+      <c r="AA191" t="inlineStr"/>
+      <c r="AB191" t="inlineStr"/>
+      <c r="AC191" t="inlineStr"/>
+      <c r="AD191" t="inlineStr"/>
+      <c r="AE191" t="inlineStr"/>
+      <c r="AF191" t="inlineStr"/>
+      <c r="AG191" t="inlineStr"/>
+      <c r="AH191" t="inlineStr"/>
+      <c r="AI191" t="inlineStr"/>
+      <c r="AJ191" t="inlineStr"/>
+      <c r="AK191" t="inlineStr"/>
+      <c r="AL191" t="inlineStr"/>
+      <c r="AM191" t="inlineStr"/>
+      <c r="AN191" t="inlineStr"/>
+      <c r="AO191" t="inlineStr"/>
+      <c r="AP191" t="inlineStr"/>
+      <c r="AQ191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>vocab:1169</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>dermal wipes matrix</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>DW</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Dermal wipes</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+      <c r="R192" t="inlineStr"/>
+      <c r="S192" t="inlineStr"/>
+      <c r="T192" t="inlineStr"/>
+      <c r="U192" t="inlineStr"/>
+      <c r="V192" t="inlineStr"/>
+      <c r="W192" t="inlineStr"/>
+      <c r="X192" t="inlineStr"/>
+      <c r="Y192" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z192" t="inlineStr"/>
+      <c r="AA192" t="inlineStr"/>
+      <c r="AB192" t="inlineStr"/>
+      <c r="AC192" t="inlineStr"/>
+      <c r="AD192" t="inlineStr"/>
+      <c r="AE192" t="inlineStr"/>
+      <c r="AF192" t="inlineStr"/>
+      <c r="AG192" t="inlineStr"/>
+      <c r="AH192" t="inlineStr"/>
+      <c r="AI192" t="inlineStr"/>
+      <c r="AJ192" t="inlineStr"/>
+      <c r="AK192" t="inlineStr"/>
+      <c r="AL192" t="inlineStr"/>
+      <c r="AM192" t="inlineStr"/>
+      <c r="AN192" t="inlineStr"/>
+      <c r="AO192" t="inlineStr"/>
+      <c r="AP192" t="inlineStr"/>
+      <c r="AQ192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>vocab:1170</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>amniotic fluid matrix</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr"/>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>AF</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Amniotic fluid</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr"/>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+      <c r="R193" t="inlineStr"/>
+      <c r="S193" t="inlineStr"/>
+      <c r="T193" t="inlineStr"/>
+      <c r="U193" t="inlineStr"/>
+      <c r="V193" t="inlineStr"/>
+      <c r="W193" t="inlineStr"/>
+      <c r="X193" t="inlineStr"/>
+      <c r="Y193" t="inlineStr"/>
+      <c r="Z193" t="inlineStr"/>
+      <c r="AA193" t="inlineStr"/>
+      <c r="AB193" t="inlineStr"/>
+      <c r="AC193" t="inlineStr"/>
+      <c r="AD193" t="inlineStr"/>
+      <c r="AE193" t="inlineStr"/>
+      <c r="AF193" t="inlineStr"/>
+      <c r="AG193" t="inlineStr"/>
+      <c r="AH193" t="inlineStr"/>
+      <c r="AI193" t="inlineStr"/>
+      <c r="AJ193" t="inlineStr"/>
+      <c r="AK193" t="inlineStr"/>
+      <c r="AL193" t="inlineStr"/>
+      <c r="AM193" t="inlineStr"/>
+      <c r="AN193" t="inlineStr"/>
+      <c r="AO193" t="inlineStr"/>
+      <c r="AP193" t="inlineStr"/>
+      <c r="AQ193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>vocab:1171</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>placenta tissue matrix</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr"/>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>PLT</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Placenta tissue</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr"/>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr"/>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr"/>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr"/>
+      <c r="R194" t="inlineStr"/>
+      <c r="S194" t="inlineStr"/>
+      <c r="T194" t="inlineStr"/>
+      <c r="U194" t="inlineStr"/>
+      <c r="V194" t="inlineStr"/>
+      <c r="W194" t="inlineStr"/>
+      <c r="X194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z194" t="inlineStr"/>
+      <c r="AA194" t="inlineStr"/>
+      <c r="AB194" t="inlineStr"/>
+      <c r="AC194" t="inlineStr"/>
+      <c r="AD194" t="inlineStr"/>
+      <c r="AE194" t="inlineStr"/>
+      <c r="AF194" t="inlineStr"/>
+      <c r="AG194" t="inlineStr"/>
+      <c r="AH194" t="inlineStr"/>
+      <c r="AI194" t="inlineStr"/>
+      <c r="AJ194" t="inlineStr"/>
+      <c r="AK194" t="inlineStr"/>
+      <c r="AL194" t="inlineStr"/>
+      <c r="AM194" t="inlineStr"/>
+      <c r="AN194" t="inlineStr"/>
+      <c r="AO194" t="inlineStr"/>
+      <c r="AP194" t="inlineStr"/>
+      <c r="AQ194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>vocab:1172</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>human matrix</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr"/>
+      <c r="D195" t="inlineStr"/>
+      <c r="E195" t="inlineStr"/>
+      <c r="F195" t="inlineStr"/>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr"/>
+      <c r="N195" t="inlineStr"/>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+      <c r="R195" t="inlineStr"/>
+      <c r="S195" t="inlineStr"/>
+      <c r="T195" t="inlineStr"/>
+      <c r="U195" t="inlineStr"/>
+      <c r="V195" t="inlineStr"/>
+      <c r="W195" t="inlineStr"/>
+      <c r="X195" t="inlineStr"/>
+      <c r="Y195" t="inlineStr"/>
+      <c r="Z195" t="inlineStr"/>
+      <c r="AA195" t="inlineStr"/>
+      <c r="AB195" t="inlineStr"/>
+      <c r="AC195" t="inlineStr"/>
+      <c r="AD195" t="inlineStr"/>
+      <c r="AE195" t="inlineStr"/>
+      <c r="AF195" t="inlineStr"/>
+      <c r="AG195" t="inlineStr"/>
+      <c r="AH195" t="inlineStr"/>
+      <c r="AI195" t="inlineStr"/>
+      <c r="AJ195" t="inlineStr"/>
+      <c r="AK195" t="inlineStr"/>
+      <c r="AL195" t="inlineStr"/>
+      <c r="AM195" t="inlineStr"/>
+      <c r="AN195" t="inlineStr"/>
+      <c r="AO195" t="inlineStr"/>
+      <c r="AP195" t="inlineStr"/>
+      <c r="AQ195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>variable</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr"/>
+      <c r="D196" t="inlineStr"/>
+      <c r="E196" t="inlineStr"/>
+      <c r="F196" t="inlineStr"/>
+      <c r="G196" t="inlineStr"/>
+      <c r="H196" t="inlineStr"/>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr"/>
+      <c r="N196" t="inlineStr"/>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr"/>
+      <c r="R196" t="inlineStr"/>
+      <c r="S196" t="inlineStr"/>
+      <c r="T196" t="inlineStr"/>
+      <c r="U196" t="inlineStr"/>
+      <c r="V196" t="inlineStr"/>
+      <c r="W196" t="inlineStr"/>
+      <c r="X196" t="inlineStr"/>
+      <c r="Y196" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z196" t="inlineStr"/>
+      <c r="AA196" t="inlineStr"/>
+      <c r="AB196" t="inlineStr"/>
+      <c r="AC196" t="inlineStr"/>
+      <c r="AD196" t="inlineStr"/>
+      <c r="AE196" t="inlineStr"/>
+      <c r="AF196" t="inlineStr"/>
+      <c r="AG196" t="inlineStr"/>
+      <c r="AH196" t="inlineStr"/>
+      <c r="AI196" t="inlineStr"/>
+      <c r="AJ196" t="inlineStr"/>
+      <c r="AK196" t="inlineStr"/>
+      <c r="AL196" t="inlineStr"/>
+      <c r="AM196" t="inlineStr"/>
+      <c r="AN196" t="inlineStr"/>
+      <c r="AO196" t="inlineStr"/>
+      <c r="AP196" t="inlineStr"/>
+      <c r="AQ196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>vocab:1174</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>soil erosion in arable land with a slope of 4 to 8 percent in catchment</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr"/>
+      <c r="D197" t="inlineStr"/>
+      <c r="E197" t="inlineStr"/>
+      <c r="F197" t="inlineStr"/>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/24</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/30330</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10092</t>
+        </is>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>vocab:1176,vocab:1177</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr"/>
+      <c r="S197" t="inlineStr"/>
+      <c r="T197" t="inlineStr"/>
+      <c r="U197" t="inlineStr"/>
+      <c r="V197" t="inlineStr"/>
+      <c r="W197" t="inlineStr"/>
+      <c r="X197" t="inlineStr"/>
+      <c r="Y197" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z197" t="inlineStr"/>
+      <c r="AA197" t="inlineStr"/>
+      <c r="AB197" t="inlineStr"/>
+      <c r="AC197" t="inlineStr"/>
+      <c r="AD197" t="inlineStr"/>
+      <c r="AE197" t="inlineStr"/>
+      <c r="AF197" t="inlineStr"/>
+      <c r="AG197" t="inlineStr"/>
+      <c r="AH197" t="inlineStr"/>
+      <c r="AI197" t="inlineStr"/>
+      <c r="AJ197" t="inlineStr"/>
+      <c r="AK197" t="inlineStr"/>
+      <c r="AL197" t="inlineStr"/>
+      <c r="AM197" t="inlineStr"/>
+      <c r="AN197" t="inlineStr"/>
+      <c r="AO197" t="inlineStr"/>
+      <c r="AP197" t="inlineStr"/>
+      <c r="AQ197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>constraint</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr"/>
+      <c r="D198" t="inlineStr"/>
+      <c r="E198" t="inlineStr"/>
+      <c r="F198" t="inlineStr"/>
+      <c r="G198" t="inlineStr"/>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+      <c r="R198" t="inlineStr"/>
+      <c r="S198" t="inlineStr"/>
+      <c r="T198" t="inlineStr"/>
+      <c r="U198" t="inlineStr"/>
+      <c r="V198" t="inlineStr"/>
+      <c r="W198" t="inlineStr"/>
+      <c r="X198" t="inlineStr"/>
+      <c r="Y198" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z198" t="inlineStr"/>
+      <c r="AA198" t="inlineStr"/>
+      <c r="AB198" t="inlineStr"/>
+      <c r="AC198" t="inlineStr"/>
+      <c r="AD198" t="inlineStr"/>
+      <c r="AE198" t="inlineStr"/>
+      <c r="AF198" t="inlineStr"/>
+      <c r="AG198" t="inlineStr"/>
+      <c r="AH198" t="inlineStr"/>
+      <c r="AI198" t="inlineStr"/>
+      <c r="AJ198" t="inlineStr"/>
+      <c r="AK198" t="inlineStr"/>
+      <c r="AL198" t="inlineStr"/>
+      <c r="AM198" t="inlineStr"/>
+      <c r="AN198" t="inlineStr"/>
+      <c r="AO198" t="inlineStr"/>
+      <c r="AP198" t="inlineStr"/>
+      <c r="AQ198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>vocab:1176</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>arable</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr"/>
+      <c r="D199" t="inlineStr"/>
+      <c r="E199" t="inlineStr"/>
+      <c r="F199" t="inlineStr"/>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr"/>
+      <c r="N199" t="inlineStr"/>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr"/>
+      <c r="R199" t="inlineStr"/>
+      <c r="S199" t="inlineStr"/>
+      <c r="T199" t="inlineStr"/>
+      <c r="U199" t="inlineStr"/>
+      <c r="V199" t="inlineStr"/>
+      <c r="W199" t="inlineStr"/>
+      <c r="X199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z199" t="inlineStr"/>
+      <c r="AA199" t="inlineStr"/>
+      <c r="AB199" t="inlineStr"/>
+      <c r="AC199" t="inlineStr"/>
+      <c r="AD199" t="inlineStr"/>
+      <c r="AE199" t="inlineStr"/>
+      <c r="AF199" t="inlineStr"/>
+      <c r="AG199" t="inlineStr"/>
+      <c r="AH199" t="inlineStr"/>
+      <c r="AI199" t="inlineStr"/>
+      <c r="AJ199" t="inlineStr"/>
+      <c r="AK199" t="inlineStr"/>
+      <c r="AL199" t="inlineStr"/>
+      <c r="AM199" t="inlineStr"/>
+      <c r="AN199" t="inlineStr"/>
+      <c r="AO199" t="inlineStr"/>
+      <c r="AP199" t="inlineStr"/>
+      <c r="AQ199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>vocab:1177</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>slope 4 to 8 percent</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr"/>
+      <c r="E200" t="inlineStr"/>
+      <c r="F200" t="inlineStr"/>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr"/>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr"/>
+      <c r="R200" t="inlineStr"/>
+      <c r="S200" t="inlineStr"/>
+      <c r="T200" t="inlineStr"/>
+      <c r="U200" t="inlineStr"/>
+      <c r="V200" t="inlineStr"/>
+      <c r="W200" t="inlineStr"/>
+      <c r="X200" t="inlineStr"/>
+      <c r="Y200" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z200" t="inlineStr"/>
+      <c r="AA200" t="inlineStr"/>
+      <c r="AB200" t="inlineStr"/>
+      <c r="AC200" t="inlineStr"/>
+      <c r="AD200" t="inlineStr"/>
+      <c r="AE200" t="inlineStr"/>
+      <c r="AF200" t="inlineStr"/>
+      <c r="AG200" t="inlineStr"/>
+      <c r="AH200" t="inlineStr"/>
+      <c r="AI200" t="inlineStr"/>
+      <c r="AJ200" t="inlineStr"/>
+      <c r="AK200" t="inlineStr"/>
+      <c r="AL200" t="inlineStr"/>
+      <c r="AM200" t="inlineStr"/>
+      <c r="AN200" t="inlineStr"/>
+      <c r="AO200" t="inlineStr"/>
+      <c r="AP200" t="inlineStr"/>
+      <c r="AQ200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>vocab:1178</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>education level of the mother of the study participant</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr"/>
+      <c r="E201" t="inlineStr"/>
+      <c r="F201" t="inlineStr"/>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr"/>
+      <c r="S201" t="inlineStr"/>
+      <c r="T201" t="inlineStr"/>
+      <c r="U201" t="inlineStr"/>
+      <c r="V201" t="inlineStr"/>
+      <c r="W201" t="inlineStr"/>
+      <c r="X201" t="inlineStr"/>
+      <c r="Y201" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z201" t="inlineStr"/>
+      <c r="AA201" t="inlineStr"/>
+      <c r="AB201" t="inlineStr"/>
+      <c r="AC201" t="inlineStr"/>
+      <c r="AD201" t="inlineStr"/>
+      <c r="AE201" t="inlineStr"/>
+      <c r="AF201" t="inlineStr"/>
+      <c r="AG201" t="inlineStr"/>
+      <c r="AH201" t="inlineStr"/>
+      <c r="AI201" t="inlineStr"/>
+      <c r="AJ201" t="inlineStr"/>
+      <c r="AK201" t="inlineStr"/>
+      <c r="AL201" t="inlineStr"/>
+      <c r="AM201" t="inlineStr"/>
+      <c r="AN201" t="inlineStr"/>
+      <c r="AO201" t="inlineStr"/>
+      <c r="AP201" t="inlineStr"/>
+      <c r="AQ201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>vocab:1179</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of pcb52 in a house dust sample</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr"/>
+      <c r="E202" t="inlineStr"/>
+      <c r="F202" t="inlineStr"/>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_34206</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C84281</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41194</t>
+        </is>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>vocab:1197</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr"/>
+      <c r="S202" t="inlineStr"/>
+      <c r="T202" t="inlineStr"/>
+      <c r="U202" t="inlineStr"/>
+      <c r="V202" t="inlineStr"/>
+      <c r="W202" t="inlineStr"/>
+      <c r="X202" t="inlineStr"/>
+      <c r="Y202" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z202" t="inlineStr"/>
+      <c r="AA202" t="inlineStr"/>
+      <c r="AB202" t="inlineStr"/>
+      <c r="AC202" t="inlineStr"/>
+      <c r="AD202" t="inlineStr"/>
+      <c r="AE202" t="inlineStr"/>
+      <c r="AF202" t="inlineStr"/>
+      <c r="AG202" t="inlineStr"/>
+      <c r="AH202" t="inlineStr"/>
+      <c r="AI202" t="inlineStr"/>
+      <c r="AJ202" t="inlineStr"/>
+      <c r="AK202" t="inlineStr"/>
+      <c r="AL202" t="inlineStr"/>
+      <c r="AM202" t="inlineStr"/>
+      <c r="AN202" t="inlineStr"/>
+      <c r="AO202" t="inlineStr"/>
+      <c r="AP202" t="inlineStr"/>
+      <c r="AQ202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>vocab:1180</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>concentration of pcb118 in air</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr"/>
+      <c r="E203" t="inlineStr"/>
+      <c r="F203" t="inlineStr"/>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_81520</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr"/>
+      <c r="R203" t="inlineStr"/>
+      <c r="S203" t="inlineStr"/>
+      <c r="T203" t="inlineStr"/>
+      <c r="U203" t="inlineStr"/>
+      <c r="V203" t="inlineStr"/>
+      <c r="W203" t="inlineStr"/>
+      <c r="X203" t="inlineStr"/>
+      <c r="Y203" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z203" t="inlineStr"/>
+      <c r="AA203" t="inlineStr"/>
+      <c r="AB203" t="inlineStr"/>
+      <c r="AC203" t="inlineStr"/>
+      <c r="AD203" t="inlineStr"/>
+      <c r="AE203" t="inlineStr"/>
+      <c r="AF203" t="inlineStr"/>
+      <c r="AG203" t="inlineStr"/>
+      <c r="AH203" t="inlineStr"/>
+      <c r="AI203" t="inlineStr"/>
+      <c r="AJ203" t="inlineStr"/>
+      <c r="AK203" t="inlineStr"/>
+      <c r="AL203" t="inlineStr"/>
+      <c r="AM203" t="inlineStr"/>
+      <c r="AN203" t="inlineStr"/>
+      <c r="AO203" t="inlineStr"/>
+      <c r="AP203" t="inlineStr"/>
+      <c r="AQ203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>vocab:1181</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>percentage of total organic carbon in sediment</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/22183</t>
+        </is>
+      </c>
+      <c r="N204" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20813</t>
+        </is>
+      </c>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20899</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+      <c r="R204" t="inlineStr"/>
+      <c r="S204" t="inlineStr"/>
+      <c r="T204" t="inlineStr"/>
+      <c r="U204" t="inlineStr"/>
+      <c r="V204" t="inlineStr"/>
+      <c r="W204" t="inlineStr"/>
+      <c r="X204" t="inlineStr"/>
+      <c r="Y204" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="Z204" t="inlineStr"/>
+      <c r="AA204" t="inlineStr"/>
+      <c r="AB204" t="inlineStr"/>
+      <c r="AC204" t="inlineStr"/>
+      <c r="AD204" t="inlineStr"/>
+      <c r="AE204" t="inlineStr"/>
+      <c r="AF204" t="inlineStr"/>
+      <c r="AG204" t="inlineStr"/>
+      <c r="AH204" t="inlineStr"/>
+      <c r="AI204" t="inlineStr"/>
+      <c r="AJ204" t="inlineStr"/>
+      <c r="AK204" t="inlineStr"/>
+      <c r="AL204" t="inlineStr"/>
+      <c r="AM204" t="inlineStr"/>
+      <c r="AN204" t="inlineStr"/>
+      <c r="AO204" t="inlineStr"/>
+      <c r="AP204" t="inlineStr"/>
+      <c r="AQ204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>vocab:1182</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>weight per volume concentration of chlorophyll-a in a water column</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr"/>
+      <c r="E205" t="inlineStr"/>
+      <c r="F205" t="inlineStr"/>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10073</t>
+        </is>
+      </c>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20785</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20538</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20924</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr"/>
+      <c r="S205" t="inlineStr"/>
+      <c r="T205" t="inlineStr"/>
+      <c r="U205" t="inlineStr"/>
+      <c r="V205" t="inlineStr"/>
+      <c r="W205" t="inlineStr"/>
+      <c r="X205" t="inlineStr"/>
+      <c r="Y205" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z205" t="inlineStr"/>
+      <c r="AA205" t="inlineStr"/>
+      <c r="AB205" t="inlineStr"/>
+      <c r="AC205" t="inlineStr"/>
+      <c r="AD205" t="inlineStr"/>
+      <c r="AE205" t="inlineStr"/>
+      <c r="AF205" t="inlineStr"/>
+      <c r="AG205" t="inlineStr"/>
+      <c r="AH205" t="inlineStr"/>
+      <c r="AI205" t="inlineStr"/>
+      <c r="AJ205" t="inlineStr"/>
+      <c r="AK205" t="inlineStr"/>
+      <c r="AL205" t="inlineStr"/>
+      <c r="AM205" t="inlineStr"/>
+      <c r="AN205" t="inlineStr"/>
+      <c r="AO205" t="inlineStr"/>
+      <c r="AP205" t="inlineStr"/>
+      <c r="AQ205" t="inlineStr"/>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>vocab:1183</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>concentration of leukocytes in the gut of a patient</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr"/>
+      <c r="D206" t="inlineStr"/>
+      <c r="E206" t="inlineStr"/>
+      <c r="F206" t="inlineStr"/>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/Concentration</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/MESH/D007962</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/11/meo/MEO_0000468</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/116154003</t>
+        </is>
+      </c>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/ICD10CM/G93.32, http://purl.bioontology.org/ontology/MESH/D007107</t>
+        </is>
+      </c>
+      <c r="R206" t="inlineStr"/>
+      <c r="S206" t="inlineStr"/>
+      <c r="T206" t="inlineStr"/>
+      <c r="U206" t="inlineStr"/>
+      <c r="V206" t="inlineStr"/>
+      <c r="W206" t="inlineStr"/>
+      <c r="X206" t="inlineStr"/>
+      <c r="Y206" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="Z206" t="inlineStr"/>
+      <c r="AA206" t="inlineStr"/>
+      <c r="AB206" t="inlineStr"/>
+      <c r="AC206" t="inlineStr"/>
+      <c r="AD206" t="inlineStr"/>
+      <c r="AE206" t="inlineStr"/>
+      <c r="AF206" t="inlineStr"/>
+      <c r="AG206" t="inlineStr"/>
+      <c r="AH206" t="inlineStr"/>
+      <c r="AI206" t="inlineStr"/>
+      <c r="AJ206" t="inlineStr"/>
+      <c r="AK206" t="inlineStr"/>
+      <c r="AL206" t="inlineStr"/>
+      <c r="AM206" t="inlineStr"/>
+      <c r="AN206" t="inlineStr"/>
+      <c r="AO206" t="inlineStr"/>
+      <c r="AP206" t="inlineStr"/>
+      <c r="AQ206" t="inlineStr"/>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>vocab:1184</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>specific surface area of nanomaterials</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr"/>
+      <c r="D207" t="inlineStr"/>
+      <c r="E207" t="inlineStr"/>
+      <c r="F207" t="inlineStr"/>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>http://purl.bioontology.org/ontology/npo#NPO_199</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr"/>
+      <c r="R207" t="inlineStr"/>
+      <c r="S207" t="inlineStr"/>
+      <c r="T207" t="inlineStr"/>
+      <c r="U207" t="inlineStr"/>
+      <c r="V207" t="inlineStr"/>
+      <c r="W207" t="inlineStr"/>
+      <c r="X207" t="inlineStr"/>
+      <c r="Y207" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z207" t="inlineStr"/>
+      <c r="AA207" t="inlineStr"/>
+      <c r="AB207" t="inlineStr"/>
+      <c r="AC207" t="inlineStr"/>
+      <c r="AD207" t="inlineStr"/>
+      <c r="AE207" t="inlineStr"/>
+      <c r="AF207" t="inlineStr"/>
+      <c r="AG207" t="inlineStr"/>
+      <c r="AH207" t="inlineStr"/>
+      <c r="AI207" t="inlineStr"/>
+      <c r="AJ207" t="inlineStr"/>
+      <c r="AK207" t="inlineStr"/>
+      <c r="AL207" t="inlineStr"/>
+      <c r="AM207" t="inlineStr"/>
+      <c r="AN207" t="inlineStr"/>
+      <c r="AO207" t="inlineStr"/>
+      <c r="AP207" t="inlineStr"/>
+      <c r="AQ207" t="inlineStr"/>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>vocab:1185</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>mass concentration of aldrin in air</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr"/>
+      <c r="D208" t="inlineStr"/>
+      <c r="E208" t="inlineStr"/>
+      <c r="F208" t="inlineStr"/>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr"/>
+      <c r="N208" t="inlineStr"/>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr"/>
+      <c r="R208" t="inlineStr"/>
+      <c r="S208" t="inlineStr"/>
+      <c r="T208" t="inlineStr"/>
+      <c r="U208" t="inlineStr"/>
+      <c r="V208" t="inlineStr"/>
+      <c r="W208" t="inlineStr"/>
+      <c r="X208" t="inlineStr"/>
+      <c r="Y208" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z208" t="inlineStr"/>
+      <c r="AA208" t="inlineStr"/>
+      <c r="AB208" t="inlineStr"/>
+      <c r="AC208" t="inlineStr"/>
+      <c r="AD208" t="inlineStr"/>
+      <c r="AE208" t="inlineStr"/>
+      <c r="AF208" t="inlineStr"/>
+      <c r="AG208" t="inlineStr"/>
+      <c r="AH208" t="inlineStr"/>
+      <c r="AI208" t="inlineStr"/>
+      <c r="AJ208" t="inlineStr"/>
+      <c r="AK208" t="inlineStr"/>
+      <c r="AL208" t="inlineStr"/>
+      <c r="AM208" t="inlineStr"/>
+      <c r="AN208" t="inlineStr"/>
+      <c r="AO208" t="inlineStr"/>
+      <c r="AP208" t="inlineStr"/>
+      <c r="AQ208" t="inlineStr"/>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>vocab:1186</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>mass concentration of NPs in medium at well bottom</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr"/>
+      <c r="D209" t="inlineStr"/>
+      <c r="E209" t="inlineStr"/>
+      <c r="F209" t="inlineStr"/>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr"/>
+      <c r="N209" t="inlineStr"/>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+      <c r="R209" t="inlineStr"/>
+      <c r="S209" t="inlineStr"/>
+      <c r="T209" t="inlineStr"/>
+      <c r="U209" t="inlineStr"/>
+      <c r="V209" t="inlineStr"/>
+      <c r="W209" t="inlineStr"/>
+      <c r="X209" t="inlineStr"/>
+      <c r="Y209" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z209" t="inlineStr"/>
+      <c r="AA209" t="inlineStr"/>
+      <c r="AB209" t="inlineStr"/>
+      <c r="AC209" t="inlineStr"/>
+      <c r="AD209" t="inlineStr"/>
+      <c r="AE209" t="inlineStr"/>
+      <c r="AF209" t="inlineStr"/>
+      <c r="AG209" t="inlineStr"/>
+      <c r="AH209" t="inlineStr"/>
+      <c r="AI209" t="inlineStr"/>
+      <c r="AJ209" t="inlineStr"/>
+      <c r="AK209" t="inlineStr"/>
+      <c r="AL209" t="inlineStr"/>
+      <c r="AM209" t="inlineStr"/>
+      <c r="AN209" t="inlineStr"/>
+      <c r="AO209" t="inlineStr"/>
+      <c r="AP209" t="inlineStr"/>
+      <c r="AQ209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>vocab:1187</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>concentration range of chemical agent in DMEM in cells</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr"/>
+      <c r="D210" t="inlineStr"/>
+      <c r="E210" t="inlineStr"/>
+      <c r="F210" t="inlineStr"/>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr"/>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20748</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr"/>
+      <c r="R210" t="inlineStr"/>
+      <c r="S210" t="inlineStr"/>
+      <c r="T210" t="inlineStr"/>
+      <c r="U210" t="inlineStr"/>
+      <c r="V210" t="inlineStr"/>
+      <c r="W210" t="inlineStr"/>
+      <c r="X210" t="inlineStr"/>
+      <c r="Y210" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z210" t="inlineStr"/>
+      <c r="AA210" t="inlineStr"/>
+      <c r="AB210" t="inlineStr"/>
+      <c r="AC210" t="inlineStr"/>
+      <c r="AD210" t="inlineStr"/>
+      <c r="AE210" t="inlineStr"/>
+      <c r="AF210" t="inlineStr"/>
+      <c r="AG210" t="inlineStr"/>
+      <c r="AH210" t="inlineStr"/>
+      <c r="AI210" t="inlineStr"/>
+      <c r="AJ210" t="inlineStr"/>
+      <c r="AK210" t="inlineStr"/>
+      <c r="AL210" t="inlineStr"/>
+      <c r="AM210" t="inlineStr"/>
+      <c r="AN210" t="inlineStr"/>
+      <c r="AO210" t="inlineStr"/>
+      <c r="AP210" t="inlineStr"/>
+      <c r="AQ210" t="inlineStr"/>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>vocab:1188</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of lead in river water</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr"/>
+      <c r="D211" t="inlineStr"/>
+      <c r="E211" t="inlineStr"/>
+      <c r="F211" t="inlineStr"/>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr"/>
+      <c r="N211" t="inlineStr"/>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr"/>
+      <c r="R211" t="inlineStr"/>
+      <c r="S211" t="inlineStr"/>
+      <c r="T211" t="inlineStr"/>
+      <c r="U211" t="inlineStr"/>
+      <c r="V211" t="inlineStr"/>
+      <c r="W211" t="inlineStr"/>
+      <c r="X211" t="inlineStr"/>
+      <c r="Y211" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z211" t="inlineStr"/>
+      <c r="AA211" t="inlineStr"/>
+      <c r="AB211" t="inlineStr"/>
+      <c r="AC211" t="inlineStr"/>
+      <c r="AD211" t="inlineStr"/>
+      <c r="AE211" t="inlineStr"/>
+      <c r="AF211" t="inlineStr"/>
+      <c r="AG211" t="inlineStr"/>
+      <c r="AH211" t="inlineStr"/>
+      <c r="AI211" t="inlineStr"/>
+      <c r="AJ211" t="inlineStr"/>
+      <c r="AK211" t="inlineStr"/>
+      <c r="AL211" t="inlineStr"/>
+      <c r="AM211" t="inlineStr"/>
+      <c r="AN211" t="inlineStr"/>
+      <c r="AO211" t="inlineStr"/>
+      <c r="AP211" t="inlineStr"/>
+      <c r="AQ211" t="inlineStr"/>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>vocab:1189</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>pH value of soil</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr"/>
+      <c r="D212" t="inlineStr"/>
+      <c r="E212" t="inlineStr"/>
+      <c r="F212" t="inlineStr"/>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr"/>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr"/>
+      <c r="R212" t="inlineStr"/>
+      <c r="S212" t="inlineStr"/>
+      <c r="T212" t="inlineStr"/>
+      <c r="U212" t="inlineStr"/>
+      <c r="V212" t="inlineStr"/>
+      <c r="W212" t="inlineStr"/>
+      <c r="X212" t="inlineStr"/>
+      <c r="Y212" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z212" t="inlineStr"/>
+      <c r="AA212" t="inlineStr"/>
+      <c r="AB212" t="inlineStr"/>
+      <c r="AC212" t="inlineStr"/>
+      <c r="AD212" t="inlineStr"/>
+      <c r="AE212" t="inlineStr"/>
+      <c r="AF212" t="inlineStr"/>
+      <c r="AG212" t="inlineStr"/>
+      <c r="AH212" t="inlineStr"/>
+      <c r="AI212" t="inlineStr"/>
+      <c r="AJ212" t="inlineStr"/>
+      <c r="AK212" t="inlineStr"/>
+      <c r="AL212" t="inlineStr"/>
+      <c r="AM212" t="inlineStr"/>
+      <c r="AN212" t="inlineStr"/>
+      <c r="AO212" t="inlineStr"/>
+      <c r="AP212" t="inlineStr"/>
+      <c r="AQ212" t="inlineStr"/>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>vocab:1190</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>mass per volume concentration of toluene in a persons morning urine</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr"/>
+      <c r="D213" t="inlineStr"/>
+      <c r="E213" t="inlineStr"/>
+      <c r="F213" t="inlineStr"/>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>https://vocabulary.actris.nilu.no/actris_vocab/toluene</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
+      <c r="R213" t="inlineStr"/>
+      <c r="S213" t="inlineStr"/>
+      <c r="T213" t="inlineStr"/>
+      <c r="U213" t="inlineStr"/>
+      <c r="V213" t="inlineStr"/>
+      <c r="W213" t="inlineStr"/>
+      <c r="X213" t="inlineStr"/>
+      <c r="Y213" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z213" t="inlineStr"/>
+      <c r="AA213" t="inlineStr"/>
+      <c r="AB213" t="inlineStr"/>
+      <c r="AC213" t="inlineStr"/>
+      <c r="AD213" t="inlineStr"/>
+      <c r="AE213" t="inlineStr"/>
+      <c r="AF213" t="inlineStr"/>
+      <c r="AG213" t="inlineStr"/>
+      <c r="AH213" t="inlineStr"/>
+      <c r="AI213" t="inlineStr"/>
+      <c r="AJ213" t="inlineStr"/>
+      <c r="AK213" t="inlineStr"/>
+      <c r="AL213" t="inlineStr"/>
+      <c r="AM213" t="inlineStr"/>
+      <c r="AN213" t="inlineStr"/>
+      <c r="AO213" t="inlineStr"/>
+      <c r="AP213" t="inlineStr"/>
+      <c r="AQ213" t="inlineStr"/>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>vocab:1191</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>frequency of dietary meat consumption in a person</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr"/>
+      <c r="D214" t="inlineStr"/>
+      <c r="E214" t="inlineStr"/>
+      <c r="F214" t="inlineStr"/>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr"/>
+      <c r="N214" t="inlineStr"/>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr"/>
+      <c r="R214" t="inlineStr"/>
+      <c r="S214" t="inlineStr"/>
+      <c r="T214" t="inlineStr"/>
+      <c r="U214" t="inlineStr"/>
+      <c r="V214" t="inlineStr"/>
+      <c r="W214" t="inlineStr"/>
+      <c r="X214" t="inlineStr"/>
+      <c r="Y214" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z214" t="inlineStr"/>
+      <c r="AA214" t="inlineStr"/>
+      <c r="AB214" t="inlineStr"/>
+      <c r="AC214" t="inlineStr"/>
+      <c r="AD214" t="inlineStr"/>
+      <c r="AE214" t="inlineStr"/>
+      <c r="AF214" t="inlineStr"/>
+      <c r="AG214" t="inlineStr"/>
+      <c r="AH214" t="inlineStr"/>
+      <c r="AI214" t="inlineStr"/>
+      <c r="AJ214" t="inlineStr"/>
+      <c r="AK214" t="inlineStr"/>
+      <c r="AL214" t="inlineStr"/>
+      <c r="AM214" t="inlineStr"/>
+      <c r="AN214" t="inlineStr"/>
+      <c r="AO214" t="inlineStr"/>
+      <c r="AP214" t="inlineStr"/>
+      <c r="AQ214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>vocab:1192</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>pressure of air in atmosphere at 2m height</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr"/>
+      <c r="D215" t="inlineStr"/>
+      <c r="E215" t="inlineStr"/>
+      <c r="F215" t="inlineStr"/>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr"/>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr"/>
+      <c r="R215" t="inlineStr"/>
+      <c r="S215" t="inlineStr"/>
+      <c r="T215" t="inlineStr"/>
+      <c r="U215" t="inlineStr"/>
+      <c r="V215" t="inlineStr"/>
+      <c r="W215" t="inlineStr"/>
+      <c r="X215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z215" t="inlineStr"/>
+      <c r="AA215" t="inlineStr"/>
+      <c r="AB215" t="inlineStr"/>
+      <c r="AC215" t="inlineStr"/>
+      <c r="AD215" t="inlineStr"/>
+      <c r="AE215" t="inlineStr"/>
+      <c r="AF215" t="inlineStr"/>
+      <c r="AG215" t="inlineStr"/>
+      <c r="AH215" t="inlineStr"/>
+      <c r="AI215" t="inlineStr"/>
+      <c r="AJ215" t="inlineStr"/>
+      <c r="AK215" t="inlineStr"/>
+      <c r="AL215" t="inlineStr"/>
+      <c r="AM215" t="inlineStr"/>
+      <c r="AN215" t="inlineStr"/>
+      <c r="AO215" t="inlineStr"/>
+      <c r="AP215" t="inlineStr"/>
+      <c r="AQ215" t="inlineStr"/>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>vocab:1193</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>concentration of nitrate in running water</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr"/>
+      <c r="D216" t="inlineStr"/>
+      <c r="E216" t="inlineStr"/>
+      <c r="F216" t="inlineStr"/>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr"/>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+      <c r="R216" t="inlineStr"/>
+      <c r="S216" t="inlineStr"/>
+      <c r="T216" t="inlineStr"/>
+      <c r="U216" t="inlineStr"/>
+      <c r="V216" t="inlineStr"/>
+      <c r="W216" t="inlineStr"/>
+      <c r="X216" t="inlineStr"/>
+      <c r="Y216" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z216" t="inlineStr"/>
+      <c r="AA216" t="inlineStr"/>
+      <c r="AB216" t="inlineStr"/>
+      <c r="AC216" t="inlineStr"/>
+      <c r="AD216" t="inlineStr"/>
+      <c r="AE216" t="inlineStr"/>
+      <c r="AF216" t="inlineStr"/>
+      <c r="AG216" t="inlineStr"/>
+      <c r="AH216" t="inlineStr"/>
+      <c r="AI216" t="inlineStr"/>
+      <c r="AJ216" t="inlineStr"/>
+      <c r="AK216" t="inlineStr"/>
+      <c r="AL216" t="inlineStr"/>
+      <c r="AM216" t="inlineStr"/>
+      <c r="AN216" t="inlineStr"/>
+      <c r="AO216" t="inlineStr"/>
+      <c r="AP216" t="inlineStr"/>
+      <c r="AQ216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>vocab:1194</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>concentration of NO2 in the organic horizon of soil</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr"/>
+      <c r="D217" t="inlineStr"/>
+      <c r="E217" t="inlineStr"/>
+      <c r="F217" t="inlineStr"/>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr"/>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+      <c r="R217" t="inlineStr"/>
+      <c r="S217" t="inlineStr"/>
+      <c r="T217" t="inlineStr"/>
+      <c r="U217" t="inlineStr"/>
+      <c r="V217" t="inlineStr"/>
+      <c r="W217" t="inlineStr"/>
+      <c r="X217" t="inlineStr"/>
+      <c r="Y217" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z217" t="inlineStr"/>
+      <c r="AA217" t="inlineStr"/>
+      <c r="AB217" t="inlineStr"/>
+      <c r="AC217" t="inlineStr"/>
+      <c r="AD217" t="inlineStr"/>
+      <c r="AE217" t="inlineStr"/>
+      <c r="AF217" t="inlineStr"/>
+      <c r="AG217" t="inlineStr"/>
+      <c r="AH217" t="inlineStr"/>
+      <c r="AI217" t="inlineStr"/>
+      <c r="AJ217" t="inlineStr"/>
+      <c r="AK217" t="inlineStr"/>
+      <c r="AL217" t="inlineStr"/>
+      <c r="AM217" t="inlineStr"/>
+      <c r="AN217" t="inlineStr"/>
+      <c r="AO217" t="inlineStr"/>
+      <c r="AP217" t="inlineStr"/>
+      <c r="AQ217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>vocab:1195</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>chemical reactivity of natural organic matter extracted from river surface water</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr"/>
+      <c r="D218" t="inlineStr"/>
+      <c r="E218" t="inlineStr"/>
+      <c r="F218" t="inlineStr"/>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr"/>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+      <c r="R218" t="inlineStr"/>
+      <c r="S218" t="inlineStr"/>
+      <c r="T218" t="inlineStr"/>
+      <c r="U218" t="inlineStr"/>
+      <c r="V218" t="inlineStr"/>
+      <c r="W218" t="inlineStr"/>
+      <c r="X218" t="inlineStr"/>
+      <c r="Y218" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z218" t="inlineStr"/>
+      <c r="AA218" t="inlineStr"/>
+      <c r="AB218" t="inlineStr"/>
+      <c r="AC218" t="inlineStr"/>
+      <c r="AD218" t="inlineStr"/>
+      <c r="AE218" t="inlineStr"/>
+      <c r="AF218" t="inlineStr"/>
+      <c r="AG218" t="inlineStr"/>
+      <c r="AH218" t="inlineStr"/>
+      <c r="AI218" t="inlineStr"/>
+      <c r="AJ218" t="inlineStr"/>
+      <c r="AK218" t="inlineStr"/>
+      <c r="AL218" t="inlineStr"/>
+      <c r="AM218" t="inlineStr"/>
+      <c r="AN218" t="inlineStr"/>
+      <c r="AO218" t="inlineStr"/>
+      <c r="AP218" t="inlineStr"/>
+      <c r="AQ218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>vocab:1196</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>turbidity of river water</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr"/>
+      <c r="D219" t="inlineStr"/>
+      <c r="E219" t="inlineStr"/>
+      <c r="F219" t="inlineStr"/>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr"/>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+      <c r="R219" t="inlineStr"/>
+      <c r="S219" t="inlineStr"/>
+      <c r="T219" t="inlineStr"/>
+      <c r="U219" t="inlineStr"/>
+      <c r="V219" t="inlineStr"/>
+      <c r="W219" t="inlineStr"/>
+      <c r="X219" t="inlineStr"/>
+      <c r="Y219" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z219" t="inlineStr"/>
+      <c r="AA219" t="inlineStr"/>
+      <c r="AB219" t="inlineStr"/>
+      <c r="AC219" t="inlineStr"/>
+      <c r="AD219" t="inlineStr"/>
+      <c r="AE219" t="inlineStr"/>
+      <c r="AF219" t="inlineStr"/>
+      <c r="AG219" t="inlineStr"/>
+      <c r="AH219" t="inlineStr"/>
+      <c r="AI219" t="inlineStr"/>
+      <c r="AJ219" t="inlineStr"/>
+      <c r="AK219" t="inlineStr"/>
+      <c r="AL219" t="inlineStr"/>
+      <c r="AM219" t="inlineStr"/>
+      <c r="AN219" t="inlineStr"/>
+      <c r="AO219" t="inlineStr"/>
+      <c r="AP219" t="inlineStr"/>
+      <c r="AQ219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>vocab:1197</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>settled</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr"/>
+      <c r="D220" t="inlineStr"/>
+      <c r="E220" t="inlineStr"/>
+      <c r="F220" t="inlineStr"/>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr"/>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+      <c r="R220" t="inlineStr"/>
+      <c r="S220" t="inlineStr"/>
+      <c r="T220" t="inlineStr"/>
+      <c r="U220" t="inlineStr"/>
+      <c r="V220" t="inlineStr"/>
+      <c r="W220" t="inlineStr"/>
+      <c r="X220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z220" t="inlineStr"/>
+      <c r="AA220" t="inlineStr"/>
+      <c r="AB220" t="inlineStr"/>
+      <c r="AC220" t="inlineStr"/>
+      <c r="AD220" t="inlineStr"/>
+      <c r="AE220" t="inlineStr"/>
+      <c r="AF220" t="inlineStr"/>
+      <c r="AG220" t="inlineStr"/>
+      <c r="AH220" t="inlineStr"/>
+      <c r="AI220" t="inlineStr"/>
+      <c r="AJ220" t="inlineStr"/>
+      <c r="AK220" t="inlineStr"/>
+      <c r="AL220" t="inlineStr"/>
+      <c r="AM220" t="inlineStr"/>
+      <c r="AN220" t="inlineStr"/>
+      <c r="AO220" t="inlineStr"/>
+      <c r="AP220" t="inlineStr"/>
+      <c r="AQ220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>vocab:1198</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>DMEM</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr"/>
+      <c r="R221" t="inlineStr"/>
+      <c r="S221" t="inlineStr"/>
+      <c r="T221" t="inlineStr"/>
+      <c r="U221" t="inlineStr"/>
+      <c r="V221" t="inlineStr"/>
+      <c r="W221" t="inlineStr"/>
+      <c r="X221" t="inlineStr"/>
+      <c r="Y221" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z221" t="inlineStr"/>
+      <c r="AA221" t="inlineStr"/>
+      <c r="AB221" t="inlineStr"/>
+      <c r="AC221" t="inlineStr"/>
+      <c r="AD221" t="inlineStr"/>
+      <c r="AE221" t="inlineStr"/>
+      <c r="AF221" t="inlineStr"/>
+      <c r="AG221" t="inlineStr"/>
+      <c r="AH221" t="inlineStr"/>
+      <c r="AI221" t="inlineStr"/>
+      <c r="AJ221" t="inlineStr"/>
+      <c r="AK221" t="inlineStr"/>
+      <c r="AL221" t="inlineStr"/>
+      <c r="AM221" t="inlineStr"/>
+      <c r="AN221" t="inlineStr"/>
+      <c r="AO221" t="inlineStr"/>
+      <c r="AP221" t="inlineStr"/>
+      <c r="AQ221" t="inlineStr"/>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>vocab:1199</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>medium</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr"/>
+      <c r="D222" t="inlineStr"/>
+      <c r="E222" t="inlineStr"/>
+      <c r="F222" t="inlineStr"/>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr"/>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr"/>
+      <c r="R222" t="inlineStr"/>
+      <c r="S222" t="inlineStr"/>
+      <c r="T222" t="inlineStr"/>
+      <c r="U222" t="inlineStr"/>
+      <c r="V222" t="inlineStr"/>
+      <c r="W222" t="inlineStr"/>
+      <c r="X222" t="inlineStr"/>
+      <c r="Y222" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z222" t="inlineStr"/>
+      <c r="AA222" t="inlineStr"/>
+      <c r="AB222" t="inlineStr"/>
+      <c r="AC222" t="inlineStr"/>
+      <c r="AD222" t="inlineStr"/>
+      <c r="AE222" t="inlineStr"/>
+      <c r="AF222" t="inlineStr"/>
+      <c r="AG222" t="inlineStr"/>
+      <c r="AH222" t="inlineStr"/>
+      <c r="AI222" t="inlineStr"/>
+      <c r="AJ222" t="inlineStr"/>
+      <c r="AK222" t="inlineStr"/>
+      <c r="AL222" t="inlineStr"/>
+      <c r="AM222" t="inlineStr"/>
+      <c r="AN222" t="inlineStr"/>
+      <c r="AO222" t="inlineStr"/>
+      <c r="AP222" t="inlineStr"/>
+      <c r="AQ222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>vocab:1200</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>neuroblastoma</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr"/>
+      <c r="D223" t="inlineStr"/>
+      <c r="E223" t="inlineStr"/>
+      <c r="F223" t="inlineStr"/>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr"/>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr"/>
+      <c r="R223" t="inlineStr"/>
+      <c r="S223" t="inlineStr"/>
+      <c r="T223" t="inlineStr"/>
+      <c r="U223" t="inlineStr"/>
+      <c r="V223" t="inlineStr"/>
+      <c r="W223" t="inlineStr"/>
+      <c r="X223" t="inlineStr"/>
+      <c r="Y223" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z223" t="inlineStr"/>
+      <c r="AA223" t="inlineStr"/>
+      <c r="AB223" t="inlineStr"/>
+      <c r="AC223" t="inlineStr"/>
+      <c r="AD223" t="inlineStr"/>
+      <c r="AE223" t="inlineStr"/>
+      <c r="AF223" t="inlineStr"/>
+      <c r="AG223" t="inlineStr"/>
+      <c r="AH223" t="inlineStr"/>
+      <c r="AI223" t="inlineStr"/>
+      <c r="AJ223" t="inlineStr"/>
+      <c r="AK223" t="inlineStr"/>
+      <c r="AL223" t="inlineStr"/>
+      <c r="AM223" t="inlineStr"/>
+      <c r="AN223" t="inlineStr"/>
+      <c r="AO223" t="inlineStr"/>
+      <c r="AP223" t="inlineStr"/>
+      <c r="AQ223" t="inlineStr"/>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>vocab:1201</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>differentiated</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr"/>
+      <c r="D224" t="inlineStr"/>
+      <c r="E224" t="inlineStr"/>
+      <c r="F224" t="inlineStr"/>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr"/>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+      <c r="R224" t="inlineStr"/>
+      <c r="S224" t="inlineStr"/>
+      <c r="T224" t="inlineStr"/>
+      <c r="U224" t="inlineStr"/>
+      <c r="V224" t="inlineStr"/>
+      <c r="W224" t="inlineStr"/>
+      <c r="X224" t="inlineStr"/>
+      <c r="Y224" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z224" t="inlineStr"/>
+      <c r="AA224" t="inlineStr"/>
+      <c r="AB224" t="inlineStr"/>
+      <c r="AC224" t="inlineStr"/>
+      <c r="AD224" t="inlineStr"/>
+      <c r="AE224" t="inlineStr"/>
+      <c r="AF224" t="inlineStr"/>
+      <c r="AG224" t="inlineStr"/>
+      <c r="AH224" t="inlineStr"/>
+      <c r="AI224" t="inlineStr"/>
+      <c r="AJ224" t="inlineStr"/>
+      <c r="AK224" t="inlineStr"/>
+      <c r="AL224" t="inlineStr"/>
+      <c r="AM224" t="inlineStr"/>
+      <c r="AN224" t="inlineStr"/>
+      <c r="AO224" t="inlineStr"/>
+      <c r="AP224" t="inlineStr"/>
+      <c r="AQ224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>morning</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr"/>
+      <c r="D225" t="inlineStr"/>
+      <c r="E225" t="inlineStr"/>
+      <c r="F225" t="inlineStr"/>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>iop:Constraint</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr"/>
+      <c r="N225" t="inlineStr"/>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr"/>
+      <c r="R225" t="inlineStr"/>
+      <c r="S225" t="inlineStr"/>
+      <c r="T225" t="inlineStr"/>
+      <c r="U225" t="inlineStr"/>
+      <c r="V225" t="inlineStr"/>
+      <c r="W225" t="inlineStr"/>
+      <c r="X225" t="inlineStr"/>
+      <c r="Y225" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z225" t="inlineStr"/>
+      <c r="AA225" t="inlineStr"/>
+      <c r="AB225" t="inlineStr"/>
+      <c r="AC225" t="inlineStr"/>
+      <c r="AD225" t="inlineStr"/>
+      <c r="AE225" t="inlineStr"/>
+      <c r="AF225" t="inlineStr"/>
+      <c r="AG225" t="inlineStr"/>
+      <c r="AH225" t="inlineStr"/>
+      <c r="AI225" t="inlineStr"/>
+      <c r="AJ225" t="inlineStr"/>
+      <c r="AK225" t="inlineStr"/>
+      <c r="AL225" t="inlineStr"/>
+      <c r="AM225" t="inlineStr"/>
+      <c r="AN225" t="inlineStr"/>
+      <c r="AO225" t="inlineStr"/>
+      <c r="AP225" t="inlineStr"/>
+      <c r="AQ225" t="inlineStr"/>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>vocab:1203</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>property</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr"/>
+      <c r="D226" t="inlineStr"/>
+      <c r="E226" t="inlineStr"/>
+      <c r="F226" t="inlineStr"/>
+      <c r="G226" t="inlineStr"/>
+      <c r="H226" t="inlineStr"/>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr"/>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr"/>
+      <c r="R226" t="inlineStr"/>
+      <c r="S226" t="inlineStr"/>
+      <c r="T226" t="inlineStr"/>
+      <c r="U226" t="inlineStr"/>
+      <c r="V226" t="inlineStr"/>
+      <c r="W226" t="inlineStr"/>
+      <c r="X226" t="inlineStr"/>
+      <c r="Y226" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z226" t="inlineStr"/>
+      <c r="AA226" t="inlineStr"/>
+      <c r="AB226" t="inlineStr"/>
+      <c r="AC226" t="inlineStr"/>
+      <c r="AD226" t="inlineStr"/>
+      <c r="AE226" t="inlineStr"/>
+      <c r="AF226" t="inlineStr"/>
+      <c r="AG226" t="inlineStr"/>
+      <c r="AH226" t="inlineStr"/>
+      <c r="AI226" t="inlineStr"/>
+      <c r="AJ226" t="inlineStr"/>
+      <c r="AK226" t="inlineStr"/>
+      <c r="AL226" t="inlineStr"/>
+      <c r="AM226" t="inlineStr"/>
+      <c r="AN226" t="inlineStr"/>
+      <c r="AO226" t="inlineStr"/>
+      <c r="AP226" t="inlineStr"/>
+      <c r="AQ226" t="inlineStr"/>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>education level</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr"/>
+      <c r="D227" t="inlineStr"/>
+      <c r="E227" t="inlineStr"/>
+      <c r="F227" t="inlineStr"/>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>vocab:1203</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17953</t>
+        </is>
+      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr"/>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+      <c r="R227" t="inlineStr"/>
+      <c r="S227" t="inlineStr"/>
+      <c r="T227" t="inlineStr"/>
+      <c r="U227" t="inlineStr"/>
+      <c r="V227" t="inlineStr"/>
+      <c r="W227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z227" t="inlineStr"/>
+      <c r="AA227" t="inlineStr"/>
+      <c r="AB227" t="inlineStr"/>
+      <c r="AC227" t="inlineStr"/>
+      <c r="AD227" t="inlineStr"/>
+      <c r="AE227" t="inlineStr"/>
+      <c r="AF227" t="inlineStr"/>
+      <c r="AG227" t="inlineStr"/>
+      <c r="AH227" t="inlineStr"/>
+      <c r="AI227" t="inlineStr"/>
+      <c r="AJ227" t="inlineStr"/>
+      <c r="AK227" t="inlineStr"/>
+      <c r="AL227" t="inlineStr"/>
+      <c r="AM227" t="inlineStr"/>
+      <c r="AN227" t="inlineStr"/>
+      <c r="AO227" t="inlineStr"/>
+      <c r="AP227" t="inlineStr"/>
+      <c r="AQ227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>entity</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr"/>
+      <c r="E228" t="inlineStr"/>
+      <c r="F228" t="inlineStr"/>
+      <c r="G228" t="inlineStr"/>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="inlineStr"/>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+      <c r="R228" t="inlineStr"/>
+      <c r="S228" t="inlineStr"/>
+      <c r="T228" t="inlineStr"/>
+      <c r="U228" t="inlineStr"/>
+      <c r="V228" t="inlineStr"/>
+      <c r="W228" t="inlineStr"/>
+      <c r="X228" t="inlineStr"/>
+      <c r="Y228" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z228" t="inlineStr"/>
+      <c r="AA228" t="inlineStr"/>
+      <c r="AB228" t="inlineStr"/>
+      <c r="AC228" t="inlineStr"/>
+      <c r="AD228" t="inlineStr"/>
+      <c r="AE228" t="inlineStr"/>
+      <c r="AF228" t="inlineStr"/>
+      <c r="AG228" t="inlineStr"/>
+      <c r="AH228" t="inlineStr"/>
+      <c r="AI228" t="inlineStr"/>
+      <c r="AJ228" t="inlineStr"/>
+      <c r="AK228" t="inlineStr"/>
+      <c r="AL228" t="inlineStr"/>
+      <c r="AM228" t="inlineStr"/>
+      <c r="AN228" t="inlineStr"/>
+      <c r="AO228" t="inlineStr"/>
+      <c r="AP228" t="inlineStr"/>
+      <c r="AQ228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>person</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr"/>
+      <c r="E229" t="inlineStr"/>
+      <c r="F229" t="inlineStr"/>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr">
+        <is>
+          <t>http://xmlns.com/foaf/0.1/Person</t>
+        </is>
+      </c>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="inlineStr"/>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+      <c r="R229" t="inlineStr"/>
+      <c r="S229" t="inlineStr"/>
+      <c r="T229" t="inlineStr"/>
+      <c r="U229" t="inlineStr"/>
+      <c r="V229" t="inlineStr"/>
+      <c r="W229" t="inlineStr"/>
+      <c r="X229" t="inlineStr"/>
+      <c r="Y229" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z229" t="inlineStr"/>
+      <c r="AA229" t="inlineStr"/>
+      <c r="AB229" t="inlineStr"/>
+      <c r="AC229" t="inlineStr"/>
+      <c r="AD229" t="inlineStr"/>
+      <c r="AE229" t="inlineStr"/>
+      <c r="AF229" t="inlineStr"/>
+      <c r="AG229" t="inlineStr"/>
+      <c r="AH229" t="inlineStr"/>
+      <c r="AI229" t="inlineStr"/>
+      <c r="AJ229" t="inlineStr"/>
+      <c r="AK229" t="inlineStr"/>
+      <c r="AL229" t="inlineStr"/>
+      <c r="AM229" t="inlineStr"/>
+      <c r="AN229" t="inlineStr"/>
+      <c r="AO229" t="inlineStr"/>
+      <c r="AP229" t="inlineStr"/>
+      <c r="AQ229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>study</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr"/>
+      <c r="E230" t="inlineStr"/>
+      <c r="F230" t="inlineStr"/>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>vocab:1205</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr"/>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63536</t>
+        </is>
+      </c>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr"/>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr"/>
+      <c r="R230" t="inlineStr"/>
+      <c r="S230" t="inlineStr"/>
+      <c r="T230" t="inlineStr"/>
+      <c r="U230" t="inlineStr"/>
+      <c r="V230" t="inlineStr"/>
+      <c r="W230" t="inlineStr"/>
+      <c r="X230" t="inlineStr"/>
+      <c r="Y230" t="inlineStr">
+        <is>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="Z230" t="inlineStr"/>
+      <c r="AA230" t="inlineStr"/>
+      <c r="AB230" t="inlineStr"/>
+      <c r="AC230" t="inlineStr"/>
+      <c r="AD230" t="inlineStr"/>
+      <c r="AE230" t="inlineStr"/>
+      <c r="AF230" t="inlineStr"/>
+      <c r="AG230" t="inlineStr"/>
+      <c r="AH230" t="inlineStr"/>
+      <c r="AI230" t="inlineStr"/>
+      <c r="AJ230" t="inlineStr"/>
+      <c r="AK230" t="inlineStr"/>
+      <c r="AL230" t="inlineStr"/>
+      <c r="AM230" t="inlineStr"/>
+      <c r="AN230" t="inlineStr"/>
+      <c r="AO230" t="inlineStr"/>
+      <c r="AP230" t="inlineStr"/>
+      <c r="AQ230" t="inlineStr"/>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>mother of participant</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C25189</t>
+        </is>
+      </c>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+      <c r="R231" t="inlineStr"/>
+      <c r="S231" t="inlineStr"/>
+      <c r="T231" t="inlineStr"/>
+      <c r="U231" t="inlineStr"/>
+      <c r="V231" t="inlineStr"/>
+      <c r="W231" t="inlineStr"/>
+      <c r="X231" t="inlineStr"/>
+      <c r="Y231" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
+      <c r="Z231" t="inlineStr"/>
+      <c r="AA231" t="inlineStr"/>
+      <c r="AB231" t="inlineStr"/>
+      <c r="AC231" t="inlineStr"/>
+      <c r="AD231" t="inlineStr"/>
+      <c r="AE231" t="inlineStr"/>
+      <c r="AF231" t="inlineStr"/>
+      <c r="AG231" t="inlineStr"/>
+      <c r="AH231" t="inlineStr"/>
+      <c r="AI231" t="inlineStr"/>
+      <c r="AJ231" t="inlineStr"/>
+      <c r="AK231" t="inlineStr"/>
+      <c r="AL231" t="inlineStr"/>
+      <c r="AM231" t="inlineStr"/>
+      <c r="AN231" t="inlineStr"/>
+      <c r="AO231" t="inlineStr"/>
+      <c r="AP231" t="inlineStr"/>
+      <c r="AQ231" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -12219,10 +12219,14 @@
       <c r="U197" t="inlineStr"/>
       <c r="V197" t="inlineStr"/>
       <c r="W197" t="inlineStr"/>
-      <c r="X197" t="inlineStr"/>
+      <c r="X197" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y197" t="inlineStr">
         <is>
-          <t>########</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="Z197" t="inlineStr"/>
@@ -12276,10 +12280,14 @@
       <c r="U198" t="inlineStr"/>
       <c r="V198" t="inlineStr"/>
       <c r="W198" t="inlineStr"/>
-      <c r="X198" t="inlineStr"/>
+      <c r="X198" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y198" t="inlineStr">
         <is>
-          <t>########</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="Z198" t="inlineStr"/>
@@ -12341,7 +12349,11 @@
       <c r="U199" t="inlineStr"/>
       <c r="V199" t="inlineStr"/>
       <c r="W199" t="inlineStr"/>
-      <c r="X199" t="inlineStr"/>
+      <c r="X199" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y199" t="inlineStr">
         <is>
           <t>########</t>
@@ -12406,7 +12418,11 @@
       <c r="U200" t="inlineStr"/>
       <c r="V200" t="inlineStr"/>
       <c r="W200" t="inlineStr"/>
-      <c r="X200" t="inlineStr"/>
+      <c r="X200" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y200" t="inlineStr">
         <is>
           <t>########</t>
@@ -12487,7 +12503,11 @@
       <c r="U201" t="inlineStr"/>
       <c r="V201" t="inlineStr"/>
       <c r="W201" t="inlineStr"/>
-      <c r="X201" t="inlineStr"/>
+      <c r="X201" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y201" t="inlineStr">
         <is>
           <t>########</t>
@@ -12572,7 +12592,11 @@
       <c r="U202" t="inlineStr"/>
       <c r="V202" t="inlineStr"/>
       <c r="W202" t="inlineStr"/>
-      <c r="X202" t="inlineStr"/>
+      <c r="X202" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y202" t="inlineStr">
         <is>
           <t>########</t>
@@ -12649,7 +12673,11 @@
       <c r="U203" t="inlineStr"/>
       <c r="V203" t="inlineStr"/>
       <c r="W203" t="inlineStr"/>
-      <c r="X203" t="inlineStr"/>
+      <c r="X203" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y203" t="inlineStr">
         <is>
           <t>########</t>
@@ -12726,7 +12754,11 @@
       <c r="U204" t="inlineStr"/>
       <c r="V204" t="inlineStr"/>
       <c r="W204" t="inlineStr"/>
-      <c r="X204" t="inlineStr"/>
+      <c r="X204" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y204" t="inlineStr">
         <is>
           <t>2023-11-26</t>
@@ -12807,7 +12839,11 @@
       <c r="U205" t="inlineStr"/>
       <c r="V205" t="inlineStr"/>
       <c r="W205" t="inlineStr"/>
-      <c r="X205" t="inlineStr"/>
+      <c r="X205" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y205" t="inlineStr">
         <is>
           <t>########</t>
@@ -12892,7 +12928,11 @@
       <c r="U206" t="inlineStr"/>
       <c r="V206" t="inlineStr"/>
       <c r="W206" t="inlineStr"/>
-      <c r="X206" t="inlineStr"/>
+      <c r="X206" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y206" t="inlineStr">
         <is>
           <t>2023-11-26</t>
@@ -12961,7 +13001,11 @@
       <c r="U207" t="inlineStr"/>
       <c r="V207" t="inlineStr"/>
       <c r="W207" t="inlineStr"/>
-      <c r="X207" t="inlineStr"/>
+      <c r="X207" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y207" t="inlineStr">
         <is>
           <t>########</t>
@@ -13026,7 +13070,11 @@
       <c r="U208" t="inlineStr"/>
       <c r="V208" t="inlineStr"/>
       <c r="W208" t="inlineStr"/>
-      <c r="X208" t="inlineStr"/>
+      <c r="X208" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y208" t="inlineStr">
         <is>
           <t>########</t>
@@ -13091,7 +13139,11 @@
       <c r="U209" t="inlineStr"/>
       <c r="V209" t="inlineStr"/>
       <c r="W209" t="inlineStr"/>
-      <c r="X209" t="inlineStr"/>
+      <c r="X209" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y209" t="inlineStr">
         <is>
           <t>########</t>
@@ -13160,7 +13212,11 @@
       <c r="U210" t="inlineStr"/>
       <c r="V210" t="inlineStr"/>
       <c r="W210" t="inlineStr"/>
-      <c r="X210" t="inlineStr"/>
+      <c r="X210" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y210" t="inlineStr">
         <is>
           <t>########</t>
@@ -13225,7 +13281,11 @@
       <c r="U211" t="inlineStr"/>
       <c r="V211" t="inlineStr"/>
       <c r="W211" t="inlineStr"/>
-      <c r="X211" t="inlineStr"/>
+      <c r="X211" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y211" t="inlineStr">
         <is>
           <t>########</t>
@@ -13290,7 +13350,11 @@
       <c r="U212" t="inlineStr"/>
       <c r="V212" t="inlineStr"/>
       <c r="W212" t="inlineStr"/>
-      <c r="X212" t="inlineStr"/>
+      <c r="X212" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y212" t="inlineStr">
         <is>
           <t>########</t>
@@ -13363,7 +13427,11 @@
       <c r="U213" t="inlineStr"/>
       <c r="V213" t="inlineStr"/>
       <c r="W213" t="inlineStr"/>
-      <c r="X213" t="inlineStr"/>
+      <c r="X213" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y213" t="inlineStr">
         <is>
           <t>########</t>
@@ -13428,7 +13496,11 @@
       <c r="U214" t="inlineStr"/>
       <c r="V214" t="inlineStr"/>
       <c r="W214" t="inlineStr"/>
-      <c r="X214" t="inlineStr"/>
+      <c r="X214" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y214" t="inlineStr">
         <is>
           <t>########</t>
@@ -13493,7 +13565,11 @@
       <c r="U215" t="inlineStr"/>
       <c r="V215" t="inlineStr"/>
       <c r="W215" t="inlineStr"/>
-      <c r="X215" t="inlineStr"/>
+      <c r="X215" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y215" t="inlineStr">
         <is>
           <t>########</t>
@@ -13558,7 +13634,11 @@
       <c r="U216" t="inlineStr"/>
       <c r="V216" t="inlineStr"/>
       <c r="W216" t="inlineStr"/>
-      <c r="X216" t="inlineStr"/>
+      <c r="X216" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y216" t="inlineStr">
         <is>
           <t>########</t>
@@ -13623,7 +13703,11 @@
       <c r="U217" t="inlineStr"/>
       <c r="V217" t="inlineStr"/>
       <c r="W217" t="inlineStr"/>
-      <c r="X217" t="inlineStr"/>
+      <c r="X217" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y217" t="inlineStr">
         <is>
           <t>########</t>
@@ -13688,7 +13772,11 @@
       <c r="U218" t="inlineStr"/>
       <c r="V218" t="inlineStr"/>
       <c r="W218" t="inlineStr"/>
-      <c r="X218" t="inlineStr"/>
+      <c r="X218" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y218" t="inlineStr">
         <is>
           <t>########</t>
@@ -13753,7 +13841,11 @@
       <c r="U219" t="inlineStr"/>
       <c r="V219" t="inlineStr"/>
       <c r="W219" t="inlineStr"/>
-      <c r="X219" t="inlineStr"/>
+      <c r="X219" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="Y219" t="inlineStr">
         <is>
           <t>########</t>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ231"/>
+  <dimension ref="A1:AP231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,12 +457,12 @@
       <c r="U1" t="inlineStr"/>
       <c r="V1" t="inlineStr"/>
       <c r="W1" t="inlineStr"/>
-      <c r="X1" t="inlineStr"/>
-      <c r="Y1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
       </c>
+      <c r="Y1" t="inlineStr"/>
       <c r="Z1" t="inlineStr"/>
       <c r="AA1" t="inlineStr"/>
       <c r="AB1" t="inlineStr"/>
@@ -480,7 +480,6 @@
       <c r="AN1" t="inlineStr"/>
       <c r="AO1" t="inlineStr"/>
       <c r="AP1" t="inlineStr"/>
-      <c r="AQ1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -529,7 +528,6 @@
       <c r="AN2" t="inlineStr"/>
       <c r="AO2" t="inlineStr"/>
       <c r="AP2" t="inlineStr"/>
-      <c r="AQ2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -590,7 +588,6 @@
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
       <c r="AP3" t="inlineStr"/>
-      <c r="AQ3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -651,7 +648,6 @@
       <c r="AN4" t="inlineStr"/>
       <c r="AO4" t="inlineStr"/>
       <c r="AP4" t="inlineStr"/>
-      <c r="AQ4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -712,7 +708,6 @@
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
       <c r="AP5" t="inlineStr"/>
-      <c r="AQ5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -773,7 +768,6 @@
       <c r="AN6" t="inlineStr"/>
       <c r="AO6" t="inlineStr"/>
       <c r="AP6" t="inlineStr"/>
-      <c r="AQ6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -834,7 +828,6 @@
       <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
-      <c r="AQ7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -895,7 +888,6 @@
       <c r="AN8" t="inlineStr"/>
       <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
-      <c r="AQ8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -956,7 +948,6 @@
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
-      <c r="AQ9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1017,7 +1008,6 @@
       <c r="AN10" t="inlineStr"/>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
-      <c r="AQ10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1080,7 +1070,6 @@
       <c r="AN11" t="inlineStr"/>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
-      <c r="AQ11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1141,7 +1130,6 @@
       <c r="AN12" t="inlineStr"/>
       <c r="AO12" t="inlineStr"/>
       <c r="AP12" t="inlineStr"/>
-      <c r="AQ12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1202,7 +1190,6 @@
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
       <c r="AP13" t="inlineStr"/>
-      <c r="AQ13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1263,7 +1250,6 @@
       <c r="AN14" t="inlineStr"/>
       <c r="AO14" t="inlineStr"/>
       <c r="AP14" t="inlineStr"/>
-      <c r="AQ14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1324,7 +1310,6 @@
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
       <c r="AP15" t="inlineStr"/>
-      <c r="AQ15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1385,7 +1370,6 @@
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
-      <c r="AQ16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1446,7 +1430,6 @@
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
       <c r="AP17" t="inlineStr"/>
-      <c r="AQ17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1495,7 +1478,6 @@
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
-      <c r="AQ18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1552,7 +1534,6 @@
       <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
-      <c r="AQ19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1609,7 +1590,6 @@
       <c r="AN20" t="inlineStr"/>
       <c r="AO20" t="inlineStr"/>
       <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1666,7 +1646,6 @@
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
       <c r="AP21" t="inlineStr"/>
-      <c r="AQ21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1723,7 +1702,6 @@
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
       <c r="AP22" t="inlineStr"/>
-      <c r="AQ22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1776,7 +1754,6 @@
       <c r="AN23" t="inlineStr"/>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
-      <c r="AQ23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1829,7 +1806,6 @@
       <c r="AN24" t="inlineStr"/>
       <c r="AO24" t="inlineStr"/>
       <c r="AP24" t="inlineStr"/>
-      <c r="AQ24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1886,7 +1862,6 @@
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
       <c r="AP25" t="inlineStr"/>
-      <c r="AQ25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1943,7 +1918,6 @@
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
-      <c r="AQ26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -2000,7 +1974,6 @@
       <c r="AN27" t="inlineStr"/>
       <c r="AO27" t="inlineStr"/>
       <c r="AP27" t="inlineStr"/>
-      <c r="AQ27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -2038,12 +2011,12 @@
       <c r="U28" t="inlineStr"/>
       <c r="V28" t="inlineStr"/>
       <c r="W28" t="inlineStr"/>
-      <c r="X28" t="inlineStr"/>
-      <c r="Y28" t="inlineStr">
+      <c r="X28" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
+      <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
       <c r="AA28" t="inlineStr"/>
       <c r="AB28" t="inlineStr"/>
@@ -2061,7 +2034,6 @@
       <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
-      <c r="AQ28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -2114,7 +2086,6 @@
       <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
-      <c r="AQ29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -2171,7 +2142,6 @@
       <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
-      <c r="AQ30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -2228,7 +2198,6 @@
       <c r="AN31" t="inlineStr"/>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
-      <c r="AQ31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -2281,7 +2250,6 @@
       <c r="AN32" t="inlineStr"/>
       <c r="AO32" t="inlineStr"/>
       <c r="AP32" t="inlineStr"/>
-      <c r="AQ32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -2338,7 +2306,6 @@
       <c r="AN33" t="inlineStr"/>
       <c r="AO33" t="inlineStr"/>
       <c r="AP33" t="inlineStr"/>
-      <c r="AQ33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -2376,12 +2343,12 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr"/>
       <c r="W34" t="inlineStr"/>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr">
+      <c r="X34" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
+      <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr"/>
       <c r="AA34" t="inlineStr"/>
       <c r="AB34" t="inlineStr"/>
@@ -2399,7 +2366,6 @@
       <c r="AN34" t="inlineStr"/>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
-      <c r="AQ34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -2437,12 +2403,12 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
-      <c r="X35" t="inlineStr"/>
-      <c r="Y35" t="inlineStr">
+      <c r="X35" t="inlineStr">
         <is>
           <t>2023-11-14</t>
         </is>
       </c>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr"/>
       <c r="AA35" t="inlineStr"/>
       <c r="AB35" t="inlineStr"/>
@@ -2460,7 +2426,6 @@
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
       <c r="AP35" t="inlineStr"/>
-      <c r="AQ35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -2517,7 +2482,6 @@
       <c r="AN36" t="inlineStr"/>
       <c r="AO36" t="inlineStr"/>
       <c r="AP36" t="inlineStr"/>
-      <c r="AQ36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -2574,7 +2538,6 @@
       <c r="AN37" t="inlineStr"/>
       <c r="AO37" t="inlineStr"/>
       <c r="AP37" t="inlineStr"/>
-      <c r="AQ37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -2631,7 +2594,6 @@
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
-      <c r="AQ38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2688,7 +2650,6 @@
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
       <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -2745,7 +2706,6 @@
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
       <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -2802,7 +2762,6 @@
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
       <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -2855,7 +2814,6 @@
       <c r="AN42" t="inlineStr"/>
       <c r="AO42" t="inlineStr"/>
       <c r="AP42" t="inlineStr"/>
-      <c r="AQ42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -2904,7 +2862,6 @@
       <c r="AN43" t="inlineStr"/>
       <c r="AO43" t="inlineStr"/>
       <c r="AP43" t="inlineStr"/>
-      <c r="AQ43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -3024,29 +2981,25 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>rdf:type</t>
+          <t>dct:created^^xsd:date</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>dct:created^^xsd:date</t>
+          <t>dct:modified^^xsd:date</t>
         </is>
       </c>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>dct:modified^^xsd:date</t>
+          <t>dct:creator(separator=",")</t>
         </is>
       </c>
       <c r="AA44" t="inlineStr">
         <is>
-          <t>dct:creator(separator=",")</t>
-        </is>
-      </c>
-      <c r="AB44" t="inlineStr">
-        <is>
           <t>dct:contributor(separator=",")</t>
         </is>
       </c>
+      <c r="AB44" t="inlineStr"/>
       <c r="AC44" t="inlineStr"/>
       <c r="AD44" t="inlineStr"/>
       <c r="AE44" t="inlineStr"/>
@@ -3061,7 +3014,6 @@
       <c r="AN44" t="inlineStr"/>
       <c r="AO44" t="inlineStr"/>
       <c r="AP44" t="inlineStr"/>
-      <c r="AQ44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -3095,12 +3047,12 @@
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr"/>
-      <c r="X45" t="inlineStr"/>
-      <c r="Y45" t="inlineStr">
+      <c r="X45" t="inlineStr">
         <is>
           <t>2023-11-23</t>
         </is>
       </c>
+      <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -3118,7 +3070,6 @@
       <c r="AN45" t="inlineStr"/>
       <c r="AO45" t="inlineStr"/>
       <c r="AP45" t="inlineStr"/>
-      <c r="AQ45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -3156,12 +3107,12 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr"/>
-      <c r="X46" t="inlineStr"/>
-      <c r="Y46" t="inlineStr">
+      <c r="X46" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr"/>
       <c r="AA46" t="inlineStr"/>
       <c r="AB46" t="inlineStr"/>
@@ -3179,7 +3130,6 @@
       <c r="AN46" t="inlineStr"/>
       <c r="AO46" t="inlineStr"/>
       <c r="AP46" t="inlineStr"/>
-      <c r="AQ46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -3217,12 +3167,12 @@
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
-      <c r="X47" t="inlineStr"/>
-      <c r="Y47" t="inlineStr">
+      <c r="X47" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr"/>
       <c r="AA47" t="inlineStr"/>
       <c r="AB47" t="inlineStr"/>
@@ -3240,7 +3190,6 @@
       <c r="AN47" t="inlineStr"/>
       <c r="AO47" t="inlineStr"/>
       <c r="AP47" t="inlineStr"/>
-      <c r="AQ47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -3278,12 +3227,12 @@
       <c r="U48" t="inlineStr"/>
       <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr"/>
-      <c r="X48" t="inlineStr"/>
-      <c r="Y48" t="inlineStr">
+      <c r="X48" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
@@ -3301,7 +3250,6 @@
       <c r="AN48" t="inlineStr"/>
       <c r="AO48" t="inlineStr"/>
       <c r="AP48" t="inlineStr"/>
-      <c r="AQ48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -3335,12 +3283,12 @@
       <c r="U49" t="inlineStr"/>
       <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr"/>
-      <c r="X49" t="inlineStr"/>
-      <c r="Y49" t="inlineStr">
+      <c r="X49" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr"/>
       <c r="AA49" t="inlineStr"/>
       <c r="AB49" t="inlineStr"/>
@@ -3358,7 +3306,6 @@
       <c r="AN49" t="inlineStr"/>
       <c r="AO49" t="inlineStr"/>
       <c r="AP49" t="inlineStr"/>
-      <c r="AQ49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -3396,12 +3343,12 @@
       <c r="U50" t="inlineStr"/>
       <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr"/>
-      <c r="X50" t="inlineStr"/>
-      <c r="Y50" t="inlineStr">
+      <c r="X50" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr"/>
       <c r="AA50" t="inlineStr"/>
       <c r="AB50" t="inlineStr"/>
@@ -3419,7 +3366,6 @@
       <c r="AN50" t="inlineStr"/>
       <c r="AO50" t="inlineStr"/>
       <c r="AP50" t="inlineStr"/>
-      <c r="AQ50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -3457,12 +3403,12 @@
       <c r="U51" t="inlineStr"/>
       <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
-      <c r="X51" t="inlineStr"/>
-      <c r="Y51" t="inlineStr">
+      <c r="X51" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr"/>
       <c r="AA51" t="inlineStr"/>
       <c r="AB51" t="inlineStr"/>
@@ -3480,7 +3426,6 @@
       <c r="AN51" t="inlineStr"/>
       <c r="AO51" t="inlineStr"/>
       <c r="AP51" t="inlineStr"/>
-      <c r="AQ51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -3518,12 +3463,12 @@
       <c r="U52" t="inlineStr"/>
       <c r="V52" t="inlineStr"/>
       <c r="W52" t="inlineStr"/>
-      <c r="X52" t="inlineStr"/>
-      <c r="Y52" t="inlineStr">
+      <c r="X52" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr"/>
       <c r="AA52" t="inlineStr"/>
       <c r="AB52" t="inlineStr"/>
@@ -3541,7 +3486,6 @@
       <c r="AN52" t="inlineStr"/>
       <c r="AO52" t="inlineStr"/>
       <c r="AP52" t="inlineStr"/>
-      <c r="AQ52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -3579,12 +3523,12 @@
       <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr"/>
       <c r="W53" t="inlineStr"/>
-      <c r="X53" t="inlineStr"/>
-      <c r="Y53" t="inlineStr">
+      <c r="X53" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="inlineStr"/>
       <c r="AB53" t="inlineStr"/>
@@ -3602,7 +3546,6 @@
       <c r="AN53" t="inlineStr"/>
       <c r="AO53" t="inlineStr"/>
       <c r="AP53" t="inlineStr"/>
-      <c r="AQ53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -3640,12 +3583,12 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr"/>
       <c r="W54" t="inlineStr"/>
-      <c r="X54" t="inlineStr"/>
-      <c r="Y54" t="inlineStr">
+      <c r="X54" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr"/>
       <c r="AA54" t="inlineStr"/>
       <c r="AB54" t="inlineStr"/>
@@ -3663,7 +3606,6 @@
       <c r="AN54" t="inlineStr"/>
       <c r="AO54" t="inlineStr"/>
       <c r="AP54" t="inlineStr"/>
-      <c r="AQ54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -3701,12 +3643,12 @@
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr"/>
       <c r="W55" t="inlineStr"/>
-      <c r="X55" t="inlineStr"/>
-      <c r="Y55" t="inlineStr">
+      <c r="X55" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr"/>
       <c r="AA55" t="inlineStr"/>
       <c r="AB55" t="inlineStr"/>
@@ -3724,7 +3666,6 @@
       <c r="AN55" t="inlineStr"/>
       <c r="AO55" t="inlineStr"/>
       <c r="AP55" t="inlineStr"/>
-      <c r="AQ55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -3762,12 +3703,12 @@
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr"/>
       <c r="W56" t="inlineStr"/>
-      <c r="X56" t="inlineStr"/>
-      <c r="Y56" t="inlineStr">
+      <c r="X56" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr"/>
       <c r="AA56" t="inlineStr"/>
       <c r="AB56" t="inlineStr"/>
@@ -3785,7 +3726,6 @@
       <c r="AN56" t="inlineStr"/>
       <c r="AO56" t="inlineStr"/>
       <c r="AP56" t="inlineStr"/>
-      <c r="AQ56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -3823,12 +3763,12 @@
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr"/>
       <c r="W57" t="inlineStr"/>
-      <c r="X57" t="inlineStr"/>
-      <c r="Y57" t="inlineStr">
+      <c r="X57" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr"/>
       <c r="AA57" t="inlineStr"/>
       <c r="AB57" t="inlineStr"/>
@@ -3846,7 +3786,6 @@
       <c r="AN57" t="inlineStr"/>
       <c r="AO57" t="inlineStr"/>
       <c r="AP57" t="inlineStr"/>
-      <c r="AQ57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -3884,12 +3823,12 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr"/>
       <c r="W58" t="inlineStr"/>
-      <c r="X58" t="inlineStr"/>
-      <c r="Y58" t="inlineStr">
+      <c r="X58" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr"/>
       <c r="AA58" t="inlineStr"/>
       <c r="AB58" t="inlineStr"/>
@@ -3907,7 +3846,6 @@
       <c r="AN58" t="inlineStr"/>
       <c r="AO58" t="inlineStr"/>
       <c r="AP58" t="inlineStr"/>
-      <c r="AQ58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -3945,12 +3883,12 @@
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr"/>
       <c r="W59" t="inlineStr"/>
-      <c r="X59" t="inlineStr"/>
-      <c r="Y59" t="inlineStr">
+      <c r="X59" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr"/>
       <c r="AA59" t="inlineStr"/>
       <c r="AB59" t="inlineStr"/>
@@ -3968,7 +3906,6 @@
       <c r="AN59" t="inlineStr"/>
       <c r="AO59" t="inlineStr"/>
       <c r="AP59" t="inlineStr"/>
-      <c r="AQ59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -4006,12 +3943,12 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr"/>
       <c r="W60" t="inlineStr"/>
-      <c r="X60" t="inlineStr"/>
-      <c r="Y60" t="inlineStr">
+      <c r="X60" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr"/>
       <c r="AA60" t="inlineStr"/>
       <c r="AB60" t="inlineStr"/>
@@ -4029,7 +3966,6 @@
       <c r="AN60" t="inlineStr"/>
       <c r="AO60" t="inlineStr"/>
       <c r="AP60" t="inlineStr"/>
-      <c r="AQ60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -4067,12 +4003,12 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr"/>
       <c r="W61" t="inlineStr"/>
-      <c r="X61" t="inlineStr"/>
-      <c r="Y61" t="inlineStr">
+      <c r="X61" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr"/>
       <c r="AA61" t="inlineStr"/>
       <c r="AB61" t="inlineStr"/>
@@ -4090,7 +4026,6 @@
       <c r="AN61" t="inlineStr"/>
       <c r="AO61" t="inlineStr"/>
       <c r="AP61" t="inlineStr"/>
-      <c r="AQ61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -4128,12 +4063,12 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr"/>
       <c r="W62" t="inlineStr"/>
-      <c r="X62" t="inlineStr"/>
-      <c r="Y62" t="inlineStr">
+      <c r="X62" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr"/>
       <c r="AA62" t="inlineStr"/>
       <c r="AB62" t="inlineStr"/>
@@ -4151,7 +4086,6 @@
       <c r="AN62" t="inlineStr"/>
       <c r="AO62" t="inlineStr"/>
       <c r="AP62" t="inlineStr"/>
-      <c r="AQ62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -4189,12 +4123,12 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr"/>
       <c r="W63" t="inlineStr"/>
-      <c r="X63" t="inlineStr"/>
-      <c r="Y63" t="inlineStr">
+      <c r="X63" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
@@ -4212,7 +4146,6 @@
       <c r="AN63" t="inlineStr"/>
       <c r="AO63" t="inlineStr"/>
       <c r="AP63" t="inlineStr"/>
-      <c r="AQ63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -4250,12 +4183,12 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
-      <c r="X64" t="inlineStr"/>
-      <c r="Y64" t="inlineStr">
+      <c r="X64" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr"/>
       <c r="AA64" t="inlineStr"/>
       <c r="AB64" t="inlineStr"/>
@@ -4273,7 +4206,6 @@
       <c r="AN64" t="inlineStr"/>
       <c r="AO64" t="inlineStr"/>
       <c r="AP64" t="inlineStr"/>
-      <c r="AQ64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -4311,12 +4243,12 @@
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr"/>
       <c r="W65" t="inlineStr"/>
-      <c r="X65" t="inlineStr"/>
-      <c r="Y65" t="inlineStr">
+      <c r="X65" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -4334,7 +4266,6 @@
       <c r="AN65" t="inlineStr"/>
       <c r="AO65" t="inlineStr"/>
       <c r="AP65" t="inlineStr"/>
-      <c r="AQ65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -4372,12 +4303,12 @@
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
-      <c r="X66" t="inlineStr"/>
-      <c r="Y66" t="inlineStr">
+      <c r="X66" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
@@ -4395,7 +4326,6 @@
       <c r="AN66" t="inlineStr"/>
       <c r="AO66" t="inlineStr"/>
       <c r="AP66" t="inlineStr"/>
-      <c r="AQ66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -4433,12 +4363,12 @@
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
       <c r="W67" t="inlineStr"/>
-      <c r="X67" t="inlineStr"/>
-      <c r="Y67" t="inlineStr">
+      <c r="X67" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
@@ -4456,7 +4386,6 @@
       <c r="AN67" t="inlineStr"/>
       <c r="AO67" t="inlineStr"/>
       <c r="AP67" t="inlineStr"/>
-      <c r="AQ67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -4494,12 +4423,12 @@
       <c r="U68" t="inlineStr"/>
       <c r="V68" t="inlineStr"/>
       <c r="W68" t="inlineStr"/>
-      <c r="X68" t="inlineStr"/>
-      <c r="Y68" t="inlineStr">
+      <c r="X68" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
@@ -4517,7 +4446,6 @@
       <c r="AN68" t="inlineStr"/>
       <c r="AO68" t="inlineStr"/>
       <c r="AP68" t="inlineStr"/>
-      <c r="AQ68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -4555,12 +4483,12 @@
       <c r="U69" t="inlineStr"/>
       <c r="V69" t="inlineStr"/>
       <c r="W69" t="inlineStr"/>
-      <c r="X69" t="inlineStr"/>
-      <c r="Y69" t="inlineStr">
+      <c r="X69" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr"/>
       <c r="AA69" t="inlineStr"/>
       <c r="AB69" t="inlineStr"/>
@@ -4578,7 +4506,6 @@
       <c r="AN69" t="inlineStr"/>
       <c r="AO69" t="inlineStr"/>
       <c r="AP69" t="inlineStr"/>
-      <c r="AQ69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -4616,12 +4543,12 @@
       <c r="U70" t="inlineStr"/>
       <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
-      <c r="X70" t="inlineStr"/>
-      <c r="Y70" t="inlineStr">
+      <c r="X70" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr"/>
       <c r="AA70" t="inlineStr"/>
       <c r="AB70" t="inlineStr"/>
@@ -4639,7 +4566,6 @@
       <c r="AN70" t="inlineStr"/>
       <c r="AO70" t="inlineStr"/>
       <c r="AP70" t="inlineStr"/>
-      <c r="AQ70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -4677,12 +4603,12 @@
       <c r="U71" t="inlineStr"/>
       <c r="V71" t="inlineStr"/>
       <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr">
+      <c r="X71" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr"/>
       <c r="AA71" t="inlineStr"/>
       <c r="AB71" t="inlineStr"/>
@@ -4700,7 +4626,6 @@
       <c r="AN71" t="inlineStr"/>
       <c r="AO71" t="inlineStr"/>
       <c r="AP71" t="inlineStr"/>
-      <c r="AQ71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -4738,12 +4663,12 @@
       <c r="U72" t="inlineStr"/>
       <c r="V72" t="inlineStr"/>
       <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr">
+      <c r="X72" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr"/>
       <c r="AA72" t="inlineStr"/>
       <c r="AB72" t="inlineStr"/>
@@ -4761,7 +4686,6 @@
       <c r="AN72" t="inlineStr"/>
       <c r="AO72" t="inlineStr"/>
       <c r="AP72" t="inlineStr"/>
-      <c r="AQ72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -4795,12 +4719,12 @@
       <c r="U73" t="inlineStr"/>
       <c r="V73" t="inlineStr"/>
       <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr">
+      <c r="X73" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr"/>
       <c r="AA73" t="inlineStr"/>
       <c r="AB73" t="inlineStr"/>
@@ -4818,7 +4742,6 @@
       <c r="AN73" t="inlineStr"/>
       <c r="AO73" t="inlineStr"/>
       <c r="AP73" t="inlineStr"/>
-      <c r="AQ73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -4856,12 +4779,12 @@
       <c r="U74" t="inlineStr"/>
       <c r="V74" t="inlineStr"/>
       <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr">
+      <c r="X74" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr"/>
       <c r="AA74" t="inlineStr"/>
       <c r="AB74" t="inlineStr"/>
@@ -4879,7 +4802,6 @@
       <c r="AN74" t="inlineStr"/>
       <c r="AO74" t="inlineStr"/>
       <c r="AP74" t="inlineStr"/>
-      <c r="AQ74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -4917,12 +4839,12 @@
       <c r="U75" t="inlineStr"/>
       <c r="V75" t="inlineStr"/>
       <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr">
+      <c r="X75" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr"/>
       <c r="AA75" t="inlineStr"/>
       <c r="AB75" t="inlineStr"/>
@@ -4940,7 +4862,6 @@
       <c r="AN75" t="inlineStr"/>
       <c r="AO75" t="inlineStr"/>
       <c r="AP75" t="inlineStr"/>
-      <c r="AQ75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -4978,12 +4899,12 @@
       <c r="U76" t="inlineStr"/>
       <c r="V76" t="inlineStr"/>
       <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr">
+      <c r="X76" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -5001,7 +4922,6 @@
       <c r="AN76" t="inlineStr"/>
       <c r="AO76" t="inlineStr"/>
       <c r="AP76" t="inlineStr"/>
-      <c r="AQ76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -5039,12 +4959,12 @@
       <c r="U77" t="inlineStr"/>
       <c r="V77" t="inlineStr"/>
       <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr">
+      <c r="X77" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -5062,7 +4982,6 @@
       <c r="AN77" t="inlineStr"/>
       <c r="AO77" t="inlineStr"/>
       <c r="AP77" t="inlineStr"/>
-      <c r="AQ77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -5100,12 +5019,12 @@
       <c r="U78" t="inlineStr"/>
       <c r="V78" t="inlineStr"/>
       <c r="W78" t="inlineStr"/>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr">
+      <c r="X78" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr"/>
       <c r="AA78" t="inlineStr"/>
       <c r="AB78" t="inlineStr"/>
@@ -5123,7 +5042,6 @@
       <c r="AN78" t="inlineStr"/>
       <c r="AO78" t="inlineStr"/>
       <c r="AP78" t="inlineStr"/>
-      <c r="AQ78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5157,12 +5075,12 @@
       <c r="U79" t="inlineStr"/>
       <c r="V79" t="inlineStr"/>
       <c r="W79" t="inlineStr"/>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr">
+      <c r="X79" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr"/>
       <c r="AA79" t="inlineStr"/>
       <c r="AB79" t="inlineStr"/>
@@ -5180,7 +5098,6 @@
       <c r="AN79" t="inlineStr"/>
       <c r="AO79" t="inlineStr"/>
       <c r="AP79" t="inlineStr"/>
-      <c r="AQ79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -5218,12 +5135,12 @@
       <c r="U80" t="inlineStr"/>
       <c r="V80" t="inlineStr"/>
       <c r="W80" t="inlineStr"/>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr">
+      <c r="X80" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr"/>
       <c r="AA80" t="inlineStr"/>
       <c r="AB80" t="inlineStr"/>
@@ -5241,7 +5158,6 @@
       <c r="AN80" t="inlineStr"/>
       <c r="AO80" t="inlineStr"/>
       <c r="AP80" t="inlineStr"/>
-      <c r="AQ80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5279,12 +5195,12 @@
       <c r="U81" t="inlineStr"/>
       <c r="V81" t="inlineStr"/>
       <c r="W81" t="inlineStr"/>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr">
+      <c r="X81" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr"/>
       <c r="AA81" t="inlineStr"/>
       <c r="AB81" t="inlineStr"/>
@@ -5302,7 +5218,6 @@
       <c r="AN81" t="inlineStr"/>
       <c r="AO81" t="inlineStr"/>
       <c r="AP81" t="inlineStr"/>
-      <c r="AQ81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -5340,12 +5255,12 @@
       <c r="U82" t="inlineStr"/>
       <c r="V82" t="inlineStr"/>
       <c r="W82" t="inlineStr"/>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr">
+      <c r="X82" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>
@@ -5363,7 +5278,6 @@
       <c r="AN82" t="inlineStr"/>
       <c r="AO82" t="inlineStr"/>
       <c r="AP82" t="inlineStr"/>
-      <c r="AQ82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -5397,12 +5311,12 @@
       <c r="U83" t="inlineStr"/>
       <c r="V83" t="inlineStr"/>
       <c r="W83" t="inlineStr"/>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr">
+      <c r="X83" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
+      <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr"/>
       <c r="AA83" t="inlineStr"/>
       <c r="AB83" t="inlineStr"/>
@@ -5420,7 +5334,6 @@
       <c r="AN83" t="inlineStr"/>
       <c r="AO83" t="inlineStr"/>
       <c r="AP83" t="inlineStr"/>
-      <c r="AQ83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -5458,12 +5371,12 @@
       <c r="U84" t="inlineStr"/>
       <c r="V84" t="inlineStr"/>
       <c r="W84" t="inlineStr"/>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr">
+      <c r="X84" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
+      <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -5481,7 +5394,6 @@
       <c r="AN84" t="inlineStr"/>
       <c r="AO84" t="inlineStr"/>
       <c r="AP84" t="inlineStr"/>
-      <c r="AQ84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -5519,12 +5431,12 @@
       <c r="U85" t="inlineStr"/>
       <c r="V85" t="inlineStr"/>
       <c r="W85" t="inlineStr"/>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr">
+      <c r="X85" t="inlineStr">
         <is>
           <t>2023-11-22</t>
         </is>
       </c>
+      <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -5542,7 +5454,6 @@
       <c r="AN85" t="inlineStr"/>
       <c r="AO85" t="inlineStr"/>
       <c r="AP85" t="inlineStr"/>
-      <c r="AQ85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -5580,12 +5491,12 @@
       <c r="U86" t="inlineStr"/>
       <c r="V86" t="inlineStr"/>
       <c r="W86" t="inlineStr"/>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr">
+      <c r="X86" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -5603,7 +5514,6 @@
       <c r="AN86" t="inlineStr"/>
       <c r="AO86" t="inlineStr"/>
       <c r="AP86" t="inlineStr"/>
-      <c r="AQ86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -5637,12 +5547,12 @@
       <c r="U87" t="inlineStr"/>
       <c r="V87" t="inlineStr"/>
       <c r="W87" t="inlineStr"/>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr">
+      <c r="X87" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -5660,7 +5570,6 @@
       <c r="AN87" t="inlineStr"/>
       <c r="AO87" t="inlineStr"/>
       <c r="AP87" t="inlineStr"/>
-      <c r="AQ87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -5698,12 +5607,12 @@
       <c r="U88" t="inlineStr"/>
       <c r="V88" t="inlineStr"/>
       <c r="W88" t="inlineStr"/>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr">
+      <c r="X88" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -5721,7 +5630,6 @@
       <c r="AN88" t="inlineStr"/>
       <c r="AO88" t="inlineStr"/>
       <c r="AP88" t="inlineStr"/>
-      <c r="AQ88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -5759,12 +5667,12 @@
       <c r="U89" t="inlineStr"/>
       <c r="V89" t="inlineStr"/>
       <c r="W89" t="inlineStr"/>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr">
+      <c r="X89" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
@@ -5782,7 +5690,6 @@
       <c r="AN89" t="inlineStr"/>
       <c r="AO89" t="inlineStr"/>
       <c r="AP89" t="inlineStr"/>
-      <c r="AQ89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -5820,12 +5727,12 @@
       <c r="U90" t="inlineStr"/>
       <c r="V90" t="inlineStr"/>
       <c r="W90" t="inlineStr"/>
-      <c r="X90" t="inlineStr"/>
-      <c r="Y90" t="inlineStr">
+      <c r="X90" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
@@ -5843,7 +5750,6 @@
       <c r="AN90" t="inlineStr"/>
       <c r="AO90" t="inlineStr"/>
       <c r="AP90" t="inlineStr"/>
-      <c r="AQ90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -5877,12 +5783,12 @@
       <c r="U91" t="inlineStr"/>
       <c r="V91" t="inlineStr"/>
       <c r="W91" t="inlineStr"/>
-      <c r="X91" t="inlineStr"/>
-      <c r="Y91" t="inlineStr">
+      <c r="X91" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
@@ -5900,7 +5806,6 @@
       <c r="AN91" t="inlineStr"/>
       <c r="AO91" t="inlineStr"/>
       <c r="AP91" t="inlineStr"/>
-      <c r="AQ91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -5938,12 +5843,12 @@
       <c r="U92" t="inlineStr"/>
       <c r="V92" t="inlineStr"/>
       <c r="W92" t="inlineStr"/>
-      <c r="X92" t="inlineStr"/>
-      <c r="Y92" t="inlineStr">
+      <c r="X92" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
@@ -5961,7 +5866,6 @@
       <c r="AN92" t="inlineStr"/>
       <c r="AO92" t="inlineStr"/>
       <c r="AP92" t="inlineStr"/>
-      <c r="AQ92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -5999,12 +5903,12 @@
       <c r="U93" t="inlineStr"/>
       <c r="V93" t="inlineStr"/>
       <c r="W93" t="inlineStr"/>
-      <c r="X93" t="inlineStr"/>
-      <c r="Y93" t="inlineStr">
+      <c r="X93" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -6022,7 +5926,6 @@
       <c r="AN93" t="inlineStr"/>
       <c r="AO93" t="inlineStr"/>
       <c r="AP93" t="inlineStr"/>
-      <c r="AQ93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -6060,12 +5963,12 @@
       <c r="U94" t="inlineStr"/>
       <c r="V94" t="inlineStr"/>
       <c r="W94" t="inlineStr"/>
-      <c r="X94" t="inlineStr"/>
-      <c r="Y94" t="inlineStr">
+      <c r="X94" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
@@ -6083,7 +5986,6 @@
       <c r="AN94" t="inlineStr"/>
       <c r="AO94" t="inlineStr"/>
       <c r="AP94" t="inlineStr"/>
-      <c r="AQ94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -6121,12 +6023,12 @@
       <c r="U95" t="inlineStr"/>
       <c r="V95" t="inlineStr"/>
       <c r="W95" t="inlineStr"/>
-      <c r="X95" t="inlineStr"/>
-      <c r="Y95" t="inlineStr">
+      <c r="X95" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -6144,7 +6046,6 @@
       <c r="AN95" t="inlineStr"/>
       <c r="AO95" t="inlineStr"/>
       <c r="AP95" t="inlineStr"/>
-      <c r="AQ95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -6178,12 +6079,12 @@
       <c r="U96" t="inlineStr"/>
       <c r="V96" t="inlineStr"/>
       <c r="W96" t="inlineStr"/>
-      <c r="X96" t="inlineStr"/>
-      <c r="Y96" t="inlineStr">
+      <c r="X96" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -6201,7 +6102,6 @@
       <c r="AN96" t="inlineStr"/>
       <c r="AO96" t="inlineStr"/>
       <c r="AP96" t="inlineStr"/>
-      <c r="AQ96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -6239,12 +6139,12 @@
       <c r="U97" t="inlineStr"/>
       <c r="V97" t="inlineStr"/>
       <c r="W97" t="inlineStr"/>
-      <c r="X97" t="inlineStr"/>
-      <c r="Y97" t="inlineStr">
+      <c r="X97" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr"/>
       <c r="AA97" t="inlineStr"/>
       <c r="AB97" t="inlineStr"/>
@@ -6262,7 +6162,6 @@
       <c r="AN97" t="inlineStr"/>
       <c r="AO97" t="inlineStr"/>
       <c r="AP97" t="inlineStr"/>
-      <c r="AQ97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -6300,12 +6199,12 @@
       <c r="U98" t="inlineStr"/>
       <c r="V98" t="inlineStr"/>
       <c r="W98" t="inlineStr"/>
-      <c r="X98" t="inlineStr"/>
-      <c r="Y98" t="inlineStr">
+      <c r="X98" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
@@ -6323,7 +6222,6 @@
       <c r="AN98" t="inlineStr"/>
       <c r="AO98" t="inlineStr"/>
       <c r="AP98" t="inlineStr"/>
-      <c r="AQ98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -6361,12 +6259,12 @@
       <c r="U99" t="inlineStr"/>
       <c r="V99" t="inlineStr"/>
       <c r="W99" t="inlineStr"/>
-      <c r="X99" t="inlineStr"/>
-      <c r="Y99" t="inlineStr">
+      <c r="X99" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
@@ -6384,7 +6282,6 @@
       <c r="AN99" t="inlineStr"/>
       <c r="AO99" t="inlineStr"/>
       <c r="AP99" t="inlineStr"/>
-      <c r="AQ99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -6422,12 +6319,12 @@
       <c r="U100" t="inlineStr"/>
       <c r="V100" t="inlineStr"/>
       <c r="W100" t="inlineStr"/>
-      <c r="X100" t="inlineStr"/>
-      <c r="Y100" t="inlineStr">
+      <c r="X100" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
@@ -6445,7 +6342,6 @@
       <c r="AN100" t="inlineStr"/>
       <c r="AO100" t="inlineStr"/>
       <c r="AP100" t="inlineStr"/>
-      <c r="AQ100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -6479,12 +6375,12 @@
       <c r="U101" t="inlineStr"/>
       <c r="V101" t="inlineStr"/>
       <c r="W101" t="inlineStr"/>
-      <c r="X101" t="inlineStr"/>
-      <c r="Y101" t="inlineStr">
+      <c r="X101" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
@@ -6502,7 +6398,6 @@
       <c r="AN101" t="inlineStr"/>
       <c r="AO101" t="inlineStr"/>
       <c r="AP101" t="inlineStr"/>
-      <c r="AQ101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -6540,12 +6435,12 @@
       <c r="U102" t="inlineStr"/>
       <c r="V102" t="inlineStr"/>
       <c r="W102" t="inlineStr"/>
-      <c r="X102" t="inlineStr"/>
-      <c r="Y102" t="inlineStr">
+      <c r="X102" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr"/>
       <c r="AA102" t="inlineStr"/>
       <c r="AB102" t="inlineStr"/>
@@ -6563,7 +6458,6 @@
       <c r="AN102" t="inlineStr"/>
       <c r="AO102" t="inlineStr"/>
       <c r="AP102" t="inlineStr"/>
-      <c r="AQ102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -6601,12 +6495,12 @@
       <c r="U103" t="inlineStr"/>
       <c r="V103" t="inlineStr"/>
       <c r="W103" t="inlineStr"/>
-      <c r="X103" t="inlineStr"/>
-      <c r="Y103" t="inlineStr">
+      <c r="X103" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
@@ -6624,7 +6518,6 @@
       <c r="AN103" t="inlineStr"/>
       <c r="AO103" t="inlineStr"/>
       <c r="AP103" t="inlineStr"/>
-      <c r="AQ103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -6662,12 +6555,12 @@
       <c r="U104" t="inlineStr"/>
       <c r="V104" t="inlineStr"/>
       <c r="W104" t="inlineStr"/>
-      <c r="X104" t="inlineStr"/>
-      <c r="Y104" t="inlineStr">
+      <c r="X104" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
@@ -6685,7 +6578,6 @@
       <c r="AN104" t="inlineStr"/>
       <c r="AO104" t="inlineStr"/>
       <c r="AP104" t="inlineStr"/>
-      <c r="AQ104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -6723,12 +6615,12 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr">
+      <c r="X105" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
@@ -6746,7 +6638,6 @@
       <c r="AN105" t="inlineStr"/>
       <c r="AO105" t="inlineStr"/>
       <c r="AP105" t="inlineStr"/>
-      <c r="AQ105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -6780,12 +6671,12 @@
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr">
+      <c r="X106" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr"/>
       <c r="AA106" t="inlineStr"/>
       <c r="AB106" t="inlineStr"/>
@@ -6803,7 +6694,6 @@
       <c r="AN106" t="inlineStr"/>
       <c r="AO106" t="inlineStr"/>
       <c r="AP106" t="inlineStr"/>
-      <c r="AQ106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -6841,12 +6731,12 @@
       <c r="U107" t="inlineStr"/>
       <c r="V107" t="inlineStr"/>
       <c r="W107" t="inlineStr"/>
-      <c r="X107" t="inlineStr"/>
-      <c r="Y107" t="inlineStr">
+      <c r="X107" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
@@ -6864,7 +6754,6 @@
       <c r="AN107" t="inlineStr"/>
       <c r="AO107" t="inlineStr"/>
       <c r="AP107" t="inlineStr"/>
-      <c r="AQ107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -6902,12 +6791,12 @@
       <c r="U108" t="inlineStr"/>
       <c r="V108" t="inlineStr"/>
       <c r="W108" t="inlineStr"/>
-      <c r="X108" t="inlineStr"/>
-      <c r="Y108" t="inlineStr">
+      <c r="X108" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
@@ -6925,7 +6814,6 @@
       <c r="AN108" t="inlineStr"/>
       <c r="AO108" t="inlineStr"/>
       <c r="AP108" t="inlineStr"/>
-      <c r="AQ108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -6963,12 +6851,12 @@
       <c r="U109" t="inlineStr"/>
       <c r="V109" t="inlineStr"/>
       <c r="W109" t="inlineStr"/>
-      <c r="X109" t="inlineStr"/>
-      <c r="Y109" t="inlineStr">
+      <c r="X109" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr"/>
       <c r="AA109" t="inlineStr"/>
       <c r="AB109" t="inlineStr"/>
@@ -6986,7 +6874,6 @@
       <c r="AN109" t="inlineStr"/>
       <c r="AO109" t="inlineStr"/>
       <c r="AP109" t="inlineStr"/>
-      <c r="AQ109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -7024,12 +6911,12 @@
       <c r="U110" t="inlineStr"/>
       <c r="V110" t="inlineStr"/>
       <c r="W110" t="inlineStr"/>
-      <c r="X110" t="inlineStr"/>
-      <c r="Y110" t="inlineStr">
+      <c r="X110" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr"/>
       <c r="AA110" t="inlineStr"/>
       <c r="AB110" t="inlineStr"/>
@@ -7047,7 +6934,6 @@
       <c r="AN110" t="inlineStr"/>
       <c r="AO110" t="inlineStr"/>
       <c r="AP110" t="inlineStr"/>
-      <c r="AQ110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -7081,12 +6967,12 @@
       <c r="U111" t="inlineStr"/>
       <c r="V111" t="inlineStr"/>
       <c r="W111" t="inlineStr"/>
-      <c r="X111" t="inlineStr"/>
-      <c r="Y111" t="inlineStr">
+      <c r="X111" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr"/>
       <c r="AA111" t="inlineStr"/>
       <c r="AB111" t="inlineStr"/>
@@ -7104,7 +6990,6 @@
       <c r="AN111" t="inlineStr"/>
       <c r="AO111" t="inlineStr"/>
       <c r="AP111" t="inlineStr"/>
-      <c r="AQ111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -7142,12 +7027,12 @@
       <c r="U112" t="inlineStr"/>
       <c r="V112" t="inlineStr"/>
       <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr">
+      <c r="X112" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr"/>
       <c r="AA112" t="inlineStr"/>
       <c r="AB112" t="inlineStr"/>
@@ -7165,7 +7050,6 @@
       <c r="AN112" t="inlineStr"/>
       <c r="AO112" t="inlineStr"/>
       <c r="AP112" t="inlineStr"/>
-      <c r="AQ112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -7203,12 +7087,12 @@
       <c r="U113" t="inlineStr"/>
       <c r="V113" t="inlineStr"/>
       <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr">
+      <c r="X113" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y113" t="inlineStr"/>
       <c r="Z113" t="inlineStr"/>
       <c r="AA113" t="inlineStr"/>
       <c r="AB113" t="inlineStr"/>
@@ -7226,7 +7110,6 @@
       <c r="AN113" t="inlineStr"/>
       <c r="AO113" t="inlineStr"/>
       <c r="AP113" t="inlineStr"/>
-      <c r="AQ113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -7264,12 +7147,12 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr">
+      <c r="X114" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
       <c r="AB114" t="inlineStr"/>
@@ -7287,7 +7170,6 @@
       <c r="AN114" t="inlineStr"/>
       <c r="AO114" t="inlineStr"/>
       <c r="AP114" t="inlineStr"/>
-      <c r="AQ114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -7325,12 +7207,12 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr">
+      <c r="X115" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
@@ -7348,7 +7230,6 @@
       <c r="AN115" t="inlineStr"/>
       <c r="AO115" t="inlineStr"/>
       <c r="AP115" t="inlineStr"/>
-      <c r="AQ115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -7386,12 +7267,12 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr">
+      <c r="X116" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
@@ -7409,7 +7290,6 @@
       <c r="AN116" t="inlineStr"/>
       <c r="AO116" t="inlineStr"/>
       <c r="AP116" t="inlineStr"/>
-      <c r="AQ116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -7447,12 +7327,12 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr"/>
-      <c r="Y117" t="inlineStr">
+      <c r="X117" t="inlineStr">
         <is>
           <t>2023-11-21</t>
         </is>
       </c>
+      <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
       <c r="AB117" t="inlineStr"/>
@@ -7470,7 +7350,6 @@
       <c r="AN117" t="inlineStr"/>
       <c r="AO117" t="inlineStr"/>
       <c r="AP117" t="inlineStr"/>
-      <c r="AQ117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -7508,12 +7387,12 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr"/>
-      <c r="Y118" t="inlineStr">
+      <c r="X118" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
       </c>
+      <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
       <c r="AB118" t="inlineStr"/>
@@ -7531,7 +7410,6 @@
       <c r="AN118" t="inlineStr"/>
       <c r="AO118" t="inlineStr"/>
       <c r="AP118" t="inlineStr"/>
-      <c r="AQ118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -7588,7 +7466,6 @@
       <c r="AN119" t="inlineStr"/>
       <c r="AO119" t="inlineStr"/>
       <c r="AP119" t="inlineStr"/>
-      <c r="AQ119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -7641,7 +7518,6 @@
       <c r="AN120" t="inlineStr"/>
       <c r="AO120" t="inlineStr"/>
       <c r="AP120" t="inlineStr"/>
-      <c r="AQ120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -7698,7 +7574,6 @@
       <c r="AN121" t="inlineStr"/>
       <c r="AO121" t="inlineStr"/>
       <c r="AP121" t="inlineStr"/>
-      <c r="AQ121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -7755,7 +7630,6 @@
       <c r="AN122" t="inlineStr"/>
       <c r="AO122" t="inlineStr"/>
       <c r="AP122" t="inlineStr"/>
-      <c r="AQ122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -7812,7 +7686,6 @@
       <c r="AN123" t="inlineStr"/>
       <c r="AO123" t="inlineStr"/>
       <c r="AP123" t="inlineStr"/>
-      <c r="AQ123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -7869,7 +7742,6 @@
       <c r="AN124" t="inlineStr"/>
       <c r="AO124" t="inlineStr"/>
       <c r="AP124" t="inlineStr"/>
-      <c r="AQ124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -7926,7 +7798,6 @@
       <c r="AN125" t="inlineStr"/>
       <c r="AO125" t="inlineStr"/>
       <c r="AP125" t="inlineStr"/>
-      <c r="AQ125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -7983,7 +7854,6 @@
       <c r="AN126" t="inlineStr"/>
       <c r="AO126" t="inlineStr"/>
       <c r="AP126" t="inlineStr"/>
-      <c r="AQ126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -8040,7 +7910,6 @@
       <c r="AN127" t="inlineStr"/>
       <c r="AO127" t="inlineStr"/>
       <c r="AP127" t="inlineStr"/>
-      <c r="AQ127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -8097,7 +7966,6 @@
       <c r="AN128" t="inlineStr"/>
       <c r="AO128" t="inlineStr"/>
       <c r="AP128" t="inlineStr"/>
-      <c r="AQ128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -8154,7 +8022,6 @@
       <c r="AN129" t="inlineStr"/>
       <c r="AO129" t="inlineStr"/>
       <c r="AP129" t="inlineStr"/>
-      <c r="AQ129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -8211,7 +8078,6 @@
       <c r="AN130" t="inlineStr"/>
       <c r="AO130" t="inlineStr"/>
       <c r="AP130" t="inlineStr"/>
-      <c r="AQ130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -8268,7 +8134,6 @@
       <c r="AN131" t="inlineStr"/>
       <c r="AO131" t="inlineStr"/>
       <c r="AP131" t="inlineStr"/>
-      <c r="AQ131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -8325,7 +8190,6 @@
       <c r="AN132" t="inlineStr"/>
       <c r="AO132" t="inlineStr"/>
       <c r="AP132" t="inlineStr"/>
-      <c r="AQ132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -8382,7 +8246,6 @@
       <c r="AN133" t="inlineStr"/>
       <c r="AO133" t="inlineStr"/>
       <c r="AP133" t="inlineStr"/>
-      <c r="AQ133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -8439,7 +8302,6 @@
       <c r="AN134" t="inlineStr"/>
       <c r="AO134" t="inlineStr"/>
       <c r="AP134" t="inlineStr"/>
-      <c r="AQ134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -8496,7 +8358,6 @@
       <c r="AN135" t="inlineStr"/>
       <c r="AO135" t="inlineStr"/>
       <c r="AP135" t="inlineStr"/>
-      <c r="AQ135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -8553,7 +8414,6 @@
       <c r="AN136" t="inlineStr"/>
       <c r="AO136" t="inlineStr"/>
       <c r="AP136" t="inlineStr"/>
-      <c r="AQ136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -8610,7 +8470,6 @@
       <c r="AN137" t="inlineStr"/>
       <c r="AO137" t="inlineStr"/>
       <c r="AP137" t="inlineStr"/>
-      <c r="AQ137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -8667,7 +8526,6 @@
       <c r="AN138" t="inlineStr"/>
       <c r="AO138" t="inlineStr"/>
       <c r="AP138" t="inlineStr"/>
-      <c r="AQ138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -8724,7 +8582,6 @@
       <c r="AN139" t="inlineStr"/>
       <c r="AO139" t="inlineStr"/>
       <c r="AP139" t="inlineStr"/>
-      <c r="AQ139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -8781,7 +8638,6 @@
       <c r="AN140" t="inlineStr"/>
       <c r="AO140" t="inlineStr"/>
       <c r="AP140" t="inlineStr"/>
-      <c r="AQ140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -8838,7 +8694,6 @@
       <c r="AN141" t="inlineStr"/>
       <c r="AO141" t="inlineStr"/>
       <c r="AP141" t="inlineStr"/>
-      <c r="AQ141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -8895,7 +8750,6 @@
       <c r="AN142" t="inlineStr"/>
       <c r="AO142" t="inlineStr"/>
       <c r="AP142" t="inlineStr"/>
-      <c r="AQ142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -8952,7 +8806,6 @@
       <c r="AN143" t="inlineStr"/>
       <c r="AO143" t="inlineStr"/>
       <c r="AP143" t="inlineStr"/>
-      <c r="AQ143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -9009,7 +8862,6 @@
       <c r="AN144" t="inlineStr"/>
       <c r="AO144" t="inlineStr"/>
       <c r="AP144" t="inlineStr"/>
-      <c r="AQ144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -9066,7 +8918,6 @@
       <c r="AN145" t="inlineStr"/>
       <c r="AO145" t="inlineStr"/>
       <c r="AP145" t="inlineStr"/>
-      <c r="AQ145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -9123,7 +8974,6 @@
       <c r="AN146" t="inlineStr"/>
       <c r="AO146" t="inlineStr"/>
       <c r="AP146" t="inlineStr"/>
-      <c r="AQ146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -9180,7 +9030,6 @@
       <c r="AN147" t="inlineStr"/>
       <c r="AO147" t="inlineStr"/>
       <c r="AP147" t="inlineStr"/>
-      <c r="AQ147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -9237,7 +9086,6 @@
       <c r="AN148" t="inlineStr"/>
       <c r="AO148" t="inlineStr"/>
       <c r="AP148" t="inlineStr"/>
-      <c r="AQ148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -9294,7 +9142,6 @@
       <c r="AN149" t="inlineStr"/>
       <c r="AO149" t="inlineStr"/>
       <c r="AP149" t="inlineStr"/>
-      <c r="AQ149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -9351,7 +9198,6 @@
       <c r="AN150" t="inlineStr"/>
       <c r="AO150" t="inlineStr"/>
       <c r="AP150" t="inlineStr"/>
-      <c r="AQ150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -9408,7 +9254,6 @@
       <c r="AN151" t="inlineStr"/>
       <c r="AO151" t="inlineStr"/>
       <c r="AP151" t="inlineStr"/>
-      <c r="AQ151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -9465,7 +9310,6 @@
       <c r="AN152" t="inlineStr"/>
       <c r="AO152" t="inlineStr"/>
       <c r="AP152" t="inlineStr"/>
-      <c r="AQ152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -9522,7 +9366,6 @@
       <c r="AN153" t="inlineStr"/>
       <c r="AO153" t="inlineStr"/>
       <c r="AP153" t="inlineStr"/>
-      <c r="AQ153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -9579,7 +9422,6 @@
       <c r="AN154" t="inlineStr"/>
       <c r="AO154" t="inlineStr"/>
       <c r="AP154" t="inlineStr"/>
-      <c r="AQ154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -9636,7 +9478,6 @@
       <c r="AN155" t="inlineStr"/>
       <c r="AO155" t="inlineStr"/>
       <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -9693,7 +9534,6 @@
       <c r="AN156" t="inlineStr"/>
       <c r="AO156" t="inlineStr"/>
       <c r="AP156" t="inlineStr"/>
-      <c r="AQ156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -9750,7 +9590,6 @@
       <c r="AN157" t="inlineStr"/>
       <c r="AO157" t="inlineStr"/>
       <c r="AP157" t="inlineStr"/>
-      <c r="AQ157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -9807,7 +9646,6 @@
       <c r="AN158" t="inlineStr"/>
       <c r="AO158" t="inlineStr"/>
       <c r="AP158" t="inlineStr"/>
-      <c r="AQ158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -9864,7 +9702,6 @@
       <c r="AN159" t="inlineStr"/>
       <c r="AO159" t="inlineStr"/>
       <c r="AP159" t="inlineStr"/>
-      <c r="AQ159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -9921,7 +9758,6 @@
       <c r="AN160" t="inlineStr"/>
       <c r="AO160" t="inlineStr"/>
       <c r="AP160" t="inlineStr"/>
-      <c r="AQ160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -9978,7 +9814,6 @@
       <c r="AN161" t="inlineStr"/>
       <c r="AO161" t="inlineStr"/>
       <c r="AP161" t="inlineStr"/>
-      <c r="AQ161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -10035,7 +9870,6 @@
       <c r="AN162" t="inlineStr"/>
       <c r="AO162" t="inlineStr"/>
       <c r="AP162" t="inlineStr"/>
-      <c r="AQ162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -10092,7 +9926,6 @@
       <c r="AN163" t="inlineStr"/>
       <c r="AO163" t="inlineStr"/>
       <c r="AP163" t="inlineStr"/>
-      <c r="AQ163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -10149,7 +9982,6 @@
       <c r="AN164" t="inlineStr"/>
       <c r="AO164" t="inlineStr"/>
       <c r="AP164" t="inlineStr"/>
-      <c r="AQ164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -10206,7 +10038,6 @@
       <c r="AN165" t="inlineStr"/>
       <c r="AO165" t="inlineStr"/>
       <c r="AP165" t="inlineStr"/>
-      <c r="AQ165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -10263,7 +10094,6 @@
       <c r="AN166" t="inlineStr"/>
       <c r="AO166" t="inlineStr"/>
       <c r="AP166" t="inlineStr"/>
-      <c r="AQ166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -10320,7 +10150,6 @@
       <c r="AN167" t="inlineStr"/>
       <c r="AO167" t="inlineStr"/>
       <c r="AP167" t="inlineStr"/>
-      <c r="AQ167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -10377,7 +10206,6 @@
       <c r="AN168" t="inlineStr"/>
       <c r="AO168" t="inlineStr"/>
       <c r="AP168" t="inlineStr"/>
-      <c r="AQ168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -10434,7 +10262,6 @@
       <c r="AN169" t="inlineStr"/>
       <c r="AO169" t="inlineStr"/>
       <c r="AP169" t="inlineStr"/>
-      <c r="AQ169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -10491,7 +10318,6 @@
       <c r="AN170" t="inlineStr"/>
       <c r="AO170" t="inlineStr"/>
       <c r="AP170" t="inlineStr"/>
-      <c r="AQ170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -10548,7 +10374,6 @@
       <c r="AN171" t="inlineStr"/>
       <c r="AO171" t="inlineStr"/>
       <c r="AP171" t="inlineStr"/>
-      <c r="AQ171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -10605,7 +10430,6 @@
       <c r="AN172" t="inlineStr"/>
       <c r="AO172" t="inlineStr"/>
       <c r="AP172" t="inlineStr"/>
-      <c r="AQ172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -10662,7 +10486,6 @@
       <c r="AN173" t="inlineStr"/>
       <c r="AO173" t="inlineStr"/>
       <c r="AP173" t="inlineStr"/>
-      <c r="AQ173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -10727,7 +10550,6 @@
       <c r="AN174" t="inlineStr"/>
       <c r="AO174" t="inlineStr"/>
       <c r="AP174" t="inlineStr"/>
-      <c r="AQ174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -10792,7 +10614,6 @@
       <c r="AN175" t="inlineStr"/>
       <c r="AO175" t="inlineStr"/>
       <c r="AP175" t="inlineStr"/>
-      <c r="AQ175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -10857,7 +10678,6 @@
       <c r="AN176" t="inlineStr"/>
       <c r="AO176" t="inlineStr"/>
       <c r="AP176" t="inlineStr"/>
-      <c r="AQ176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -10922,7 +10742,6 @@
       <c r="AN177" t="inlineStr"/>
       <c r="AO177" t="inlineStr"/>
       <c r="AP177" t="inlineStr"/>
-      <c r="AQ177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -10987,7 +10806,6 @@
       <c r="AN178" t="inlineStr"/>
       <c r="AO178" t="inlineStr"/>
       <c r="AP178" t="inlineStr"/>
-      <c r="AQ178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -11052,7 +10870,6 @@
       <c r="AN179" t="inlineStr"/>
       <c r="AO179" t="inlineStr"/>
       <c r="AP179" t="inlineStr"/>
-      <c r="AQ179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -11117,7 +10934,6 @@
       <c r="AN180" t="inlineStr"/>
       <c r="AO180" t="inlineStr"/>
       <c r="AP180" t="inlineStr"/>
-      <c r="AQ180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -11182,7 +10998,6 @@
       <c r="AN181" t="inlineStr"/>
       <c r="AO181" t="inlineStr"/>
       <c r="AP181" t="inlineStr"/>
-      <c r="AQ181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -11247,7 +11062,6 @@
       <c r="AN182" t="inlineStr"/>
       <c r="AO182" t="inlineStr"/>
       <c r="AP182" t="inlineStr"/>
-      <c r="AQ182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -11312,7 +11126,6 @@
       <c r="AN183" t="inlineStr"/>
       <c r="AO183" t="inlineStr"/>
       <c r="AP183" t="inlineStr"/>
-      <c r="AQ183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -11377,7 +11190,6 @@
       <c r="AN184" t="inlineStr"/>
       <c r="AO184" t="inlineStr"/>
       <c r="AP184" t="inlineStr"/>
-      <c r="AQ184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -11442,7 +11254,6 @@
       <c r="AN185" t="inlineStr"/>
       <c r="AO185" t="inlineStr"/>
       <c r="AP185" t="inlineStr"/>
-      <c r="AQ185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -11507,7 +11318,6 @@
       <c r="AN186" t="inlineStr"/>
       <c r="AO186" t="inlineStr"/>
       <c r="AP186" t="inlineStr"/>
-      <c r="AQ186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -11553,12 +11363,12 @@
       <c r="U187" t="inlineStr"/>
       <c r="V187" t="inlineStr"/>
       <c r="W187" t="inlineStr"/>
-      <c r="X187" t="inlineStr"/>
-      <c r="Y187" t="inlineStr">
+      <c r="X187" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y187" t="inlineStr"/>
       <c r="Z187" t="inlineStr"/>
       <c r="AA187" t="inlineStr"/>
       <c r="AB187" t="inlineStr"/>
@@ -11576,7 +11386,6 @@
       <c r="AN187" t="inlineStr"/>
       <c r="AO187" t="inlineStr"/>
       <c r="AP187" t="inlineStr"/>
-      <c r="AQ187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -11641,7 +11450,6 @@
       <c r="AN188" t="inlineStr"/>
       <c r="AO188" t="inlineStr"/>
       <c r="AP188" t="inlineStr"/>
-      <c r="AQ188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -11706,7 +11514,6 @@
       <c r="AN189" t="inlineStr"/>
       <c r="AO189" t="inlineStr"/>
       <c r="AP189" t="inlineStr"/>
-      <c r="AQ189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -11752,12 +11559,12 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr"/>
-      <c r="Y190" t="inlineStr">
+      <c r="X190" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
       <c r="AB190" t="inlineStr"/>
@@ -11775,7 +11582,6 @@
       <c r="AN190" t="inlineStr"/>
       <c r="AO190" t="inlineStr"/>
       <c r="AP190" t="inlineStr"/>
-      <c r="AQ190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -11840,7 +11646,6 @@
       <c r="AN191" t="inlineStr"/>
       <c r="AO191" t="inlineStr"/>
       <c r="AP191" t="inlineStr"/>
-      <c r="AQ191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -11886,12 +11691,12 @@
       <c r="U192" t="inlineStr"/>
       <c r="V192" t="inlineStr"/>
       <c r="W192" t="inlineStr"/>
-      <c r="X192" t="inlineStr"/>
-      <c r="Y192" t="inlineStr">
+      <c r="X192" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y192" t="inlineStr"/>
       <c r="Z192" t="inlineStr"/>
       <c r="AA192" t="inlineStr"/>
       <c r="AB192" t="inlineStr"/>
@@ -11909,7 +11714,6 @@
       <c r="AN192" t="inlineStr"/>
       <c r="AO192" t="inlineStr"/>
       <c r="AP192" t="inlineStr"/>
-      <c r="AQ192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -11974,7 +11778,6 @@
       <c r="AN193" t="inlineStr"/>
       <c r="AO193" t="inlineStr"/>
       <c r="AP193" t="inlineStr"/>
-      <c r="AQ193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -12020,12 +11823,12 @@
       <c r="U194" t="inlineStr"/>
       <c r="V194" t="inlineStr"/>
       <c r="W194" t="inlineStr"/>
-      <c r="X194" t="inlineStr"/>
-      <c r="Y194" t="inlineStr">
+      <c r="X194" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y194" t="inlineStr"/>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="inlineStr"/>
@@ -12043,7 +11846,6 @@
       <c r="AN194" t="inlineStr"/>
       <c r="AO194" t="inlineStr"/>
       <c r="AP194" t="inlineStr"/>
-      <c r="AQ194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -12100,7 +11902,6 @@
       <c r="AN195" t="inlineStr"/>
       <c r="AO195" t="inlineStr"/>
       <c r="AP195" t="inlineStr"/>
-      <c r="AQ195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -12134,12 +11935,12 @@
       <c r="U196" t="inlineStr"/>
       <c r="V196" t="inlineStr"/>
       <c r="W196" t="inlineStr"/>
-      <c r="X196" t="inlineStr"/>
-      <c r="Y196" t="inlineStr">
+      <c r="X196" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y196" t="inlineStr"/>
       <c r="Z196" t="inlineStr"/>
       <c r="AA196" t="inlineStr"/>
       <c r="AB196" t="inlineStr"/>
@@ -12157,7 +11958,6 @@
       <c r="AN196" t="inlineStr"/>
       <c r="AO196" t="inlineStr"/>
       <c r="AP196" t="inlineStr"/>
-      <c r="AQ196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -12221,14 +12021,10 @@
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y197" t="inlineStr">
-        <is>
           <t>2023-11-29</t>
         </is>
       </c>
+      <c r="Y197" t="inlineStr"/>
       <c r="Z197" t="inlineStr"/>
       <c r="AA197" t="inlineStr"/>
       <c r="AB197" t="inlineStr"/>
@@ -12246,7 +12042,6 @@
       <c r="AN197" t="inlineStr"/>
       <c r="AO197" t="inlineStr"/>
       <c r="AP197" t="inlineStr"/>
-      <c r="AQ197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -12282,14 +12077,10 @@
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y198" t="inlineStr">
-        <is>
           <t>2023-11-29</t>
         </is>
       </c>
+      <c r="Y198" t="inlineStr"/>
       <c r="Z198" t="inlineStr"/>
       <c r="AA198" t="inlineStr"/>
       <c r="AB198" t="inlineStr"/>
@@ -12307,7 +12098,6 @@
       <c r="AN198" t="inlineStr"/>
       <c r="AO198" t="inlineStr"/>
       <c r="AP198" t="inlineStr"/>
-      <c r="AQ198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -12351,14 +12141,10 @@
       <c r="W199" t="inlineStr"/>
       <c r="X199" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y199" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr"/>
@@ -12376,7 +12162,6 @@
       <c r="AN199" t="inlineStr"/>
       <c r="AO199" t="inlineStr"/>
       <c r="AP199" t="inlineStr"/>
-      <c r="AQ199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -12420,14 +12205,10 @@
       <c r="W200" t="inlineStr"/>
       <c r="X200" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y200" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y200" t="inlineStr"/>
       <c r="Z200" t="inlineStr"/>
       <c r="AA200" t="inlineStr"/>
       <c r="AB200" t="inlineStr"/>
@@ -12445,7 +12226,6 @@
       <c r="AN200" t="inlineStr"/>
       <c r="AO200" t="inlineStr"/>
       <c r="AP200" t="inlineStr"/>
-      <c r="AQ200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -12505,14 +12285,10 @@
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y201" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y201" t="inlineStr"/>
       <c r="Z201" t="inlineStr"/>
       <c r="AA201" t="inlineStr"/>
       <c r="AB201" t="inlineStr"/>
@@ -12530,7 +12306,6 @@
       <c r="AN201" t="inlineStr"/>
       <c r="AO201" t="inlineStr"/>
       <c r="AP201" t="inlineStr"/>
-      <c r="AQ201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -12594,14 +12369,10 @@
       <c r="W202" t="inlineStr"/>
       <c r="X202" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y202" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y202" t="inlineStr"/>
       <c r="Z202" t="inlineStr"/>
       <c r="AA202" t="inlineStr"/>
       <c r="AB202" t="inlineStr"/>
@@ -12619,7 +12390,6 @@
       <c r="AN202" t="inlineStr"/>
       <c r="AO202" t="inlineStr"/>
       <c r="AP202" t="inlineStr"/>
-      <c r="AQ202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -12675,14 +12445,10 @@
       <c r="W203" t="inlineStr"/>
       <c r="X203" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y203" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y203" t="inlineStr"/>
       <c r="Z203" t="inlineStr"/>
       <c r="AA203" t="inlineStr"/>
       <c r="AB203" t="inlineStr"/>
@@ -12700,7 +12466,6 @@
       <c r="AN203" t="inlineStr"/>
       <c r="AO203" t="inlineStr"/>
       <c r="AP203" t="inlineStr"/>
-      <c r="AQ203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -12756,14 +12521,10 @@
       <c r="W204" t="inlineStr"/>
       <c r="X204" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y204" t="inlineStr">
-        <is>
           <t>2023-11-26</t>
         </is>
       </c>
+      <c r="Y204" t="inlineStr"/>
       <c r="Z204" t="inlineStr"/>
       <c r="AA204" t="inlineStr"/>
       <c r="AB204" t="inlineStr"/>
@@ -12781,7 +12542,6 @@
       <c r="AN204" t="inlineStr"/>
       <c r="AO204" t="inlineStr"/>
       <c r="AP204" t="inlineStr"/>
-      <c r="AQ204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -12841,14 +12601,10 @@
       <c r="W205" t="inlineStr"/>
       <c r="X205" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y205" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y205" t="inlineStr"/>
       <c r="Z205" t="inlineStr"/>
       <c r="AA205" t="inlineStr"/>
       <c r="AB205" t="inlineStr"/>
@@ -12866,7 +12622,6 @@
       <c r="AN205" t="inlineStr"/>
       <c r="AO205" t="inlineStr"/>
       <c r="AP205" t="inlineStr"/>
-      <c r="AQ205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -12930,14 +12685,10 @@
       <c r="W206" t="inlineStr"/>
       <c r="X206" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y206" t="inlineStr">
-        <is>
           <t>2023-11-26</t>
         </is>
       </c>
+      <c r="Y206" t="inlineStr"/>
       <c r="Z206" t="inlineStr"/>
       <c r="AA206" t="inlineStr"/>
       <c r="AB206" t="inlineStr"/>
@@ -12955,7 +12706,6 @@
       <c r="AN206" t="inlineStr"/>
       <c r="AO206" t="inlineStr"/>
       <c r="AP206" t="inlineStr"/>
-      <c r="AQ206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -13003,14 +12753,10 @@
       <c r="W207" t="inlineStr"/>
       <c r="X207" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y207" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y207" t="inlineStr"/>
       <c r="Z207" t="inlineStr"/>
       <c r="AA207" t="inlineStr"/>
       <c r="AB207" t="inlineStr"/>
@@ -13028,7 +12774,6 @@
       <c r="AN207" t="inlineStr"/>
       <c r="AO207" t="inlineStr"/>
       <c r="AP207" t="inlineStr"/>
-      <c r="AQ207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -13072,14 +12817,10 @@
       <c r="W208" t="inlineStr"/>
       <c r="X208" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y208" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y208" t="inlineStr"/>
       <c r="Z208" t="inlineStr"/>
       <c r="AA208" t="inlineStr"/>
       <c r="AB208" t="inlineStr"/>
@@ -13097,7 +12838,6 @@
       <c r="AN208" t="inlineStr"/>
       <c r="AO208" t="inlineStr"/>
       <c r="AP208" t="inlineStr"/>
-      <c r="AQ208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -13141,14 +12881,10 @@
       <c r="W209" t="inlineStr"/>
       <c r="X209" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y209" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y209" t="inlineStr"/>
       <c r="Z209" t="inlineStr"/>
       <c r="AA209" t="inlineStr"/>
       <c r="AB209" t="inlineStr"/>
@@ -13166,7 +12902,6 @@
       <c r="AN209" t="inlineStr"/>
       <c r="AO209" t="inlineStr"/>
       <c r="AP209" t="inlineStr"/>
-      <c r="AQ209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -13214,14 +12949,10 @@
       <c r="W210" t="inlineStr"/>
       <c r="X210" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y210" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y210" t="inlineStr"/>
       <c r="Z210" t="inlineStr"/>
       <c r="AA210" t="inlineStr"/>
       <c r="AB210" t="inlineStr"/>
@@ -13239,7 +12970,6 @@
       <c r="AN210" t="inlineStr"/>
       <c r="AO210" t="inlineStr"/>
       <c r="AP210" t="inlineStr"/>
-      <c r="AQ210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -13283,14 +13013,10 @@
       <c r="W211" t="inlineStr"/>
       <c r="X211" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y211" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y211" t="inlineStr"/>
       <c r="Z211" t="inlineStr"/>
       <c r="AA211" t="inlineStr"/>
       <c r="AB211" t="inlineStr"/>
@@ -13308,7 +13034,6 @@
       <c r="AN211" t="inlineStr"/>
       <c r="AO211" t="inlineStr"/>
       <c r="AP211" t="inlineStr"/>
-      <c r="AQ211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -13352,14 +13077,10 @@
       <c r="W212" t="inlineStr"/>
       <c r="X212" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y212" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y212" t="inlineStr"/>
       <c r="Z212" t="inlineStr"/>
       <c r="AA212" t="inlineStr"/>
       <c r="AB212" t="inlineStr"/>
@@ -13377,7 +13098,6 @@
       <c r="AN212" t="inlineStr"/>
       <c r="AO212" t="inlineStr"/>
       <c r="AP212" t="inlineStr"/>
-      <c r="AQ212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -13429,14 +13149,10 @@
       <c r="W213" t="inlineStr"/>
       <c r="X213" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y213" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y213" t="inlineStr"/>
       <c r="Z213" t="inlineStr"/>
       <c r="AA213" t="inlineStr"/>
       <c r="AB213" t="inlineStr"/>
@@ -13454,7 +13170,6 @@
       <c r="AN213" t="inlineStr"/>
       <c r="AO213" t="inlineStr"/>
       <c r="AP213" t="inlineStr"/>
-      <c r="AQ213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -13498,14 +13213,10 @@
       <c r="W214" t="inlineStr"/>
       <c r="X214" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y214" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y214" t="inlineStr"/>
       <c r="Z214" t="inlineStr"/>
       <c r="AA214" t="inlineStr"/>
       <c r="AB214" t="inlineStr"/>
@@ -13523,7 +13234,6 @@
       <c r="AN214" t="inlineStr"/>
       <c r="AO214" t="inlineStr"/>
       <c r="AP214" t="inlineStr"/>
-      <c r="AQ214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -13567,14 +13277,10 @@
       <c r="W215" t="inlineStr"/>
       <c r="X215" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y215" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y215" t="inlineStr"/>
       <c r="Z215" t="inlineStr"/>
       <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="inlineStr"/>
@@ -13592,7 +13298,6 @@
       <c r="AN215" t="inlineStr"/>
       <c r="AO215" t="inlineStr"/>
       <c r="AP215" t="inlineStr"/>
-      <c r="AQ215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -13636,14 +13341,10 @@
       <c r="W216" t="inlineStr"/>
       <c r="X216" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y216" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y216" t="inlineStr"/>
       <c r="Z216" t="inlineStr"/>
       <c r="AA216" t="inlineStr"/>
       <c r="AB216" t="inlineStr"/>
@@ -13661,7 +13362,6 @@
       <c r="AN216" t="inlineStr"/>
       <c r="AO216" t="inlineStr"/>
       <c r="AP216" t="inlineStr"/>
-      <c r="AQ216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -13705,14 +13405,10 @@
       <c r="W217" t="inlineStr"/>
       <c r="X217" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y217" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y217" t="inlineStr"/>
       <c r="Z217" t="inlineStr"/>
       <c r="AA217" t="inlineStr"/>
       <c r="AB217" t="inlineStr"/>
@@ -13730,7 +13426,6 @@
       <c r="AN217" t="inlineStr"/>
       <c r="AO217" t="inlineStr"/>
       <c r="AP217" t="inlineStr"/>
-      <c r="AQ217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -13774,14 +13469,10 @@
       <c r="W218" t="inlineStr"/>
       <c r="X218" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y218" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y218" t="inlineStr"/>
       <c r="Z218" t="inlineStr"/>
       <c r="AA218" t="inlineStr"/>
       <c r="AB218" t="inlineStr"/>
@@ -13799,7 +13490,6 @@
       <c r="AN218" t="inlineStr"/>
       <c r="AO218" t="inlineStr"/>
       <c r="AP218" t="inlineStr"/>
-      <c r="AQ218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -13843,14 +13533,10 @@
       <c r="W219" t="inlineStr"/>
       <c r="X219" t="inlineStr">
         <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
-      <c r="Y219" t="inlineStr">
-        <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y219" t="inlineStr"/>
       <c r="Z219" t="inlineStr"/>
       <c r="AA219" t="inlineStr"/>
       <c r="AB219" t="inlineStr"/>
@@ -13868,7 +13554,6 @@
       <c r="AN219" t="inlineStr"/>
       <c r="AO219" t="inlineStr"/>
       <c r="AP219" t="inlineStr"/>
-      <c r="AQ219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -13910,12 +13595,12 @@
       <c r="U220" t="inlineStr"/>
       <c r="V220" t="inlineStr"/>
       <c r="W220" t="inlineStr"/>
-      <c r="X220" t="inlineStr"/>
-      <c r="Y220" t="inlineStr">
+      <c r="X220" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="inlineStr"/>
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="inlineStr"/>
@@ -13933,7 +13618,6 @@
       <c r="AN220" t="inlineStr"/>
       <c r="AO220" t="inlineStr"/>
       <c r="AP220" t="inlineStr"/>
-      <c r="AQ220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -13975,12 +13659,12 @@
       <c r="U221" t="inlineStr"/>
       <c r="V221" t="inlineStr"/>
       <c r="W221" t="inlineStr"/>
-      <c r="X221" t="inlineStr"/>
-      <c r="Y221" t="inlineStr">
+      <c r="X221" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y221" t="inlineStr"/>
       <c r="Z221" t="inlineStr"/>
       <c r="AA221" t="inlineStr"/>
       <c r="AB221" t="inlineStr"/>
@@ -13998,7 +13682,6 @@
       <c r="AN221" t="inlineStr"/>
       <c r="AO221" t="inlineStr"/>
       <c r="AP221" t="inlineStr"/>
-      <c r="AQ221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -14040,12 +13723,12 @@
       <c r="U222" t="inlineStr"/>
       <c r="V222" t="inlineStr"/>
       <c r="W222" t="inlineStr"/>
-      <c r="X222" t="inlineStr"/>
-      <c r="Y222" t="inlineStr">
+      <c r="X222" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y222" t="inlineStr"/>
       <c r="Z222" t="inlineStr"/>
       <c r="AA222" t="inlineStr"/>
       <c r="AB222" t="inlineStr"/>
@@ -14063,7 +13746,6 @@
       <c r="AN222" t="inlineStr"/>
       <c r="AO222" t="inlineStr"/>
       <c r="AP222" t="inlineStr"/>
-      <c r="AQ222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -14105,12 +13787,12 @@
       <c r="U223" t="inlineStr"/>
       <c r="V223" t="inlineStr"/>
       <c r="W223" t="inlineStr"/>
-      <c r="X223" t="inlineStr"/>
-      <c r="Y223" t="inlineStr">
+      <c r="X223" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y223" t="inlineStr"/>
       <c r="Z223" t="inlineStr"/>
       <c r="AA223" t="inlineStr"/>
       <c r="AB223" t="inlineStr"/>
@@ -14128,7 +13810,6 @@
       <c r="AN223" t="inlineStr"/>
       <c r="AO223" t="inlineStr"/>
       <c r="AP223" t="inlineStr"/>
-      <c r="AQ223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -14170,12 +13851,12 @@
       <c r="U224" t="inlineStr"/>
       <c r="V224" t="inlineStr"/>
       <c r="W224" t="inlineStr"/>
-      <c r="X224" t="inlineStr"/>
-      <c r="Y224" t="inlineStr">
+      <c r="X224" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y224" t="inlineStr"/>
       <c r="Z224" t="inlineStr"/>
       <c r="AA224" t="inlineStr"/>
       <c r="AB224" t="inlineStr"/>
@@ -14193,7 +13874,6 @@
       <c r="AN224" t="inlineStr"/>
       <c r="AO224" t="inlineStr"/>
       <c r="AP224" t="inlineStr"/>
-      <c r="AQ224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -14235,12 +13915,12 @@
       <c r="U225" t="inlineStr"/>
       <c r="V225" t="inlineStr"/>
       <c r="W225" t="inlineStr"/>
-      <c r="X225" t="inlineStr"/>
-      <c r="Y225" t="inlineStr">
+      <c r="X225" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y225" t="inlineStr"/>
       <c r="Z225" t="inlineStr"/>
       <c r="AA225" t="inlineStr"/>
       <c r="AB225" t="inlineStr"/>
@@ -14258,7 +13938,6 @@
       <c r="AN225" t="inlineStr"/>
       <c r="AO225" t="inlineStr"/>
       <c r="AP225" t="inlineStr"/>
-      <c r="AQ225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -14292,12 +13971,12 @@
       <c r="U226" t="inlineStr"/>
       <c r="V226" t="inlineStr"/>
       <c r="W226" t="inlineStr"/>
-      <c r="X226" t="inlineStr"/>
-      <c r="Y226" t="inlineStr">
+      <c r="X226" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y226" t="inlineStr"/>
       <c r="Z226" t="inlineStr"/>
       <c r="AA226" t="inlineStr"/>
       <c r="AB226" t="inlineStr"/>
@@ -14315,7 +13994,6 @@
       <c r="AN226" t="inlineStr"/>
       <c r="AO226" t="inlineStr"/>
       <c r="AP226" t="inlineStr"/>
-      <c r="AQ226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -14357,12 +14035,12 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr"/>
-      <c r="Y227" t="inlineStr">
+      <c r="X227" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y227" t="inlineStr"/>
       <c r="Z227" t="inlineStr"/>
       <c r="AA227" t="inlineStr"/>
       <c r="AB227" t="inlineStr"/>
@@ -14380,7 +14058,6 @@
       <c r="AN227" t="inlineStr"/>
       <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr"/>
-      <c r="AQ227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -14414,12 +14091,12 @@
       <c r="U228" t="inlineStr"/>
       <c r="V228" t="inlineStr"/>
       <c r="W228" t="inlineStr"/>
-      <c r="X228" t="inlineStr"/>
-      <c r="Y228" t="inlineStr">
+      <c r="X228" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y228" t="inlineStr"/>
       <c r="Z228" t="inlineStr"/>
       <c r="AA228" t="inlineStr"/>
       <c r="AB228" t="inlineStr"/>
@@ -14437,7 +14114,6 @@
       <c r="AN228" t="inlineStr"/>
       <c r="AO228" t="inlineStr"/>
       <c r="AP228" t="inlineStr"/>
-      <c r="AQ228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -14479,12 +14155,12 @@
       <c r="U229" t="inlineStr"/>
       <c r="V229" t="inlineStr"/>
       <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr"/>
-      <c r="Y229" t="inlineStr">
+      <c r="X229" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y229" t="inlineStr"/>
       <c r="Z229" t="inlineStr"/>
       <c r="AA229" t="inlineStr"/>
       <c r="AB229" t="inlineStr"/>
@@ -14502,7 +14178,6 @@
       <c r="AN229" t="inlineStr"/>
       <c r="AO229" t="inlineStr"/>
       <c r="AP229" t="inlineStr"/>
-      <c r="AQ229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -14544,12 +14219,12 @@
       <c r="U230" t="inlineStr"/>
       <c r="V230" t="inlineStr"/>
       <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr"/>
-      <c r="Y230" t="inlineStr">
+      <c r="X230" t="inlineStr">
         <is>
           <t>2023-11-26</t>
         </is>
       </c>
+      <c r="Y230" t="inlineStr"/>
       <c r="Z230" t="inlineStr"/>
       <c r="AA230" t="inlineStr"/>
       <c r="AB230" t="inlineStr"/>
@@ -14567,7 +14242,6 @@
       <c r="AN230" t="inlineStr"/>
       <c r="AO230" t="inlineStr"/>
       <c r="AP230" t="inlineStr"/>
-      <c r="AQ230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -14609,12 +14283,12 @@
       <c r="U231" t="inlineStr"/>
       <c r="V231" t="inlineStr"/>
       <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr"/>
-      <c r="Y231" t="inlineStr">
+      <c r="X231" t="inlineStr">
         <is>
           <t>########</t>
         </is>
       </c>
+      <c r="Y231" t="inlineStr"/>
       <c r="Z231" t="inlineStr"/>
       <c r="AA231" t="inlineStr"/>
       <c r="AB231" t="inlineStr"/>
@@ -14632,7 +14306,6 @@
       <c r="AN231" t="inlineStr"/>
       <c r="AO231" t="inlineStr"/>
       <c r="AP231" t="inlineStr"/>
-      <c r="AQ231" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -12119,11 +12119,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H199" t="inlineStr"/>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
@@ -12144,7 +12140,11 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y199" t="inlineStr"/>
+      <c r="Y199" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
       <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr"/>
@@ -13575,11 +13575,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H220" t="inlineStr"/>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -13600,7 +13596,11 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y220" t="inlineStr"/>
+      <c r="Y220" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
       <c r="Z220" t="inlineStr"/>
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="inlineStr"/>
@@ -13639,11 +13639,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
@@ -13703,11 +13699,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -13767,11 +13759,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -13831,11 +13819,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -13895,11 +13879,7 @@
           <t>vocab:1175</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>iop:Constraint</t>
-        </is>
-      </c>
+      <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP231"/>
+  <dimension ref="A1:AP227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3052,7 +3052,11 @@
           <t>2023-11-23</t>
         </is>
       </c>
-      <c r="Y45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z45" t="inlineStr"/>
       <c r="AA45" t="inlineStr"/>
       <c r="AB45" t="inlineStr"/>
@@ -4215,14 +4219,10 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>study area</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>degurba</t>
-        </is>
-      </c>
+          <t>degree of urbanisation</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr"/>
@@ -4248,7 +4248,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y65" t="inlineStr"/>
+      <c r="Y65" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z65" t="inlineStr"/>
       <c r="AA65" t="inlineStr"/>
       <c r="AB65" t="inlineStr"/>
@@ -4275,7 +4279,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>urban</t>
+          <t>densely populated area (cities)</t>
         </is>
       </c>
       <c r="C66" t="inlineStr"/>
@@ -4308,7 +4312,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y66" t="inlineStr"/>
+      <c r="Y66" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z66" t="inlineStr"/>
       <c r="AA66" t="inlineStr"/>
       <c r="AB66" t="inlineStr"/>
@@ -4335,7 +4343,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>semi-urban</t>
+          <t>intermediate desity area (towns or suburbs)</t>
         </is>
       </c>
       <c r="C67" t="inlineStr"/>
@@ -4368,7 +4376,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y67" t="inlineStr"/>
+      <c r="Y67" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z67" t="inlineStr"/>
       <c r="AA67" t="inlineStr"/>
       <c r="AB67" t="inlineStr"/>
@@ -4395,7 +4407,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>rural</t>
+          <t>thinly populated area (rural area)</t>
         </is>
       </c>
       <c r="C68" t="inlineStr"/>
@@ -4428,7 +4440,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y68" t="inlineStr"/>
+      <c r="Y68" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z68" t="inlineStr"/>
       <c r="AA68" t="inlineStr"/>
       <c r="AB68" t="inlineStr"/>
@@ -4455,18 +4471,14 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>urban and semi-urban</t>
+          <t>probabilistic selection</t>
         </is>
       </c>
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
       <c r="F69" t="inlineStr"/>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>vocab:1020</t>
-        </is>
-      </c>
+      <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -4515,7 +4527,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>urban and rural</t>
+          <t>simple random</t>
         </is>
       </c>
       <c r="C70" t="inlineStr"/>
@@ -4524,7 +4536,7 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="H70" t="inlineStr"/>
@@ -4575,7 +4587,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>rural and semi-urban</t>
+          <t>stratified random</t>
         </is>
       </c>
       <c r="C71" t="inlineStr"/>
@@ -4584,7 +4596,7 @@
       <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="H71" t="inlineStr"/>
@@ -4635,7 +4647,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>urban, semi-urban and rural</t>
+          <t>cluster</t>
         </is>
       </c>
       <c r="C72" t="inlineStr"/>
@@ -4644,7 +4656,7 @@
       <c r="F72" t="inlineStr"/>
       <c r="G72" t="inlineStr">
         <is>
-          <t>vocab:1020</t>
+          <t>vocab:1028</t>
         </is>
       </c>
       <c r="H72" t="inlineStr"/>
@@ -4695,14 +4707,18 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>probabilistic selection</t>
+          <t xml:space="preserve">systematic </t>
         </is>
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr"/>
       <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>vocab:1028</t>
+        </is>
+      </c>
       <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -4751,7 +4767,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>simple random</t>
+          <t>not applicable</t>
         </is>
       </c>
       <c r="C74" t="inlineStr"/>
@@ -4760,7 +4776,7 @@
       <c r="F74" t="inlineStr"/>
       <c r="G74" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1028,vocab:1034;vocab1028</t>
         </is>
       </c>
       <c r="H74" t="inlineStr"/>
@@ -4811,18 +4827,14 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>stratified random</t>
+          <t>non-probabilitstic selection</t>
         </is>
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr"/>
       <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>vocab:1028</t>
-        </is>
-      </c>
+      <c r="G75" t="inlineStr"/>
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -4871,7 +4883,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>cluster</t>
+          <t>convenience</t>
         </is>
       </c>
       <c r="C76" t="inlineStr"/>
@@ -4880,7 +4892,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4931,7 +4943,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t xml:space="preserve">systematic </t>
+          <t>quota</t>
         </is>
       </c>
       <c r="C77" t="inlineStr"/>
@@ -4940,7 +4952,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>vocab:1028</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -4991,7 +5003,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>not applicable</t>
+          <t>purposive</t>
         </is>
       </c>
       <c r="C78" t="inlineStr"/>
@@ -5000,7 +5012,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>vocab:1028,vocab:1034;vocab1028</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -5051,7 +5063,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>non-probabilitstic selection</t>
+          <t>study design</t>
         </is>
       </c>
       <c r="C79" t="inlineStr"/>
@@ -5077,7 +5089,7 @@
       <c r="W79" t="inlineStr"/>
       <c r="X79" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr"/>
@@ -5107,7 +5119,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>convenience</t>
+          <t>cross-sectional survey</t>
         </is>
       </c>
       <c r="C80" t="inlineStr"/>
@@ -5116,7 +5128,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -5137,7 +5149,7 @@
       <c r="W80" t="inlineStr"/>
       <c r="X80" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr"/>
@@ -5167,7 +5179,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>quota</t>
+          <t>case-control</t>
         </is>
       </c>
       <c r="C81" t="inlineStr"/>
@@ -5176,7 +5188,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -5197,7 +5209,7 @@
       <c r="W81" t="inlineStr"/>
       <c r="X81" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-22</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr"/>
@@ -5227,7 +5239,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>purposive</t>
+          <t>longitutdinal (cohort)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -5236,7 +5248,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -5287,7 +5299,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>study design</t>
+          <t>study setting</t>
         </is>
       </c>
       <c r="C83" t="inlineStr"/>
@@ -5313,7 +5325,7 @@
       <c r="W83" t="inlineStr"/>
       <c r="X83" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
+          <t>2023-11-21</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr"/>
@@ -5343,7 +5355,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>cross-sectional survey</t>
+          <t>occupationally exposed population</t>
         </is>
       </c>
       <c r="C84" t="inlineStr"/>
@@ -5352,7 +5364,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -5373,10 +5385,14 @@
       <c r="W84" t="inlineStr"/>
       <c r="X84" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
-        </is>
-      </c>
-      <c r="Y84" t="inlineStr"/>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z84" t="inlineStr"/>
       <c r="AA84" t="inlineStr"/>
       <c r="AB84" t="inlineStr"/>
@@ -5403,7 +5419,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>case-control</t>
+          <t>hotspot residents</t>
         </is>
       </c>
       <c r="C85" t="inlineStr"/>
@@ -5412,7 +5428,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5433,10 +5449,14 @@
       <c r="W85" t="inlineStr"/>
       <c r="X85" t="inlineStr">
         <is>
-          <t>2023-11-22</t>
-        </is>
-      </c>
-      <c r="Y85" t="inlineStr"/>
+          <t>2023-11-21</t>
+        </is>
+      </c>
+      <c r="Y85" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z85" t="inlineStr"/>
       <c r="AA85" t="inlineStr"/>
       <c r="AB85" t="inlineStr"/>
@@ -5463,7 +5483,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>longitutdinal (cohort)</t>
+          <t>general population</t>
         </is>
       </c>
       <c r="C86" t="inlineStr"/>
@@ -5472,7 +5492,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5523,7 +5543,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>study setting</t>
+          <t>seasonality</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -5579,7 +5599,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>occupational exposure study</t>
+          <t>summer</t>
         </is>
       </c>
       <c r="C88" t="inlineStr"/>
@@ -5588,7 +5608,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1046</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -5639,7 +5659,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>hotspot area</t>
+          <t>spring</t>
         </is>
       </c>
       <c r="C89" t="inlineStr"/>
@@ -5648,7 +5668,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1046</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -5699,7 +5719,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>general population</t>
+          <t>autumn</t>
         </is>
       </c>
       <c r="C90" t="inlineStr"/>
@@ -5708,7 +5728,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1046</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -5759,14 +5779,18 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>seasonality</t>
+          <t>winter</t>
         </is>
       </c>
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
       <c r="F91" t="inlineStr"/>
-      <c r="G91" t="inlineStr"/>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>vocab:1046</t>
+        </is>
+      </c>
       <c r="H91" t="inlineStr"/>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -5815,18 +5839,14 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>summer</t>
+          <t>study implementation level</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>vocab:1046</t>
-        </is>
-      </c>
+      <c r="G92" t="inlineStr"/>
       <c r="H92" t="inlineStr"/>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -5875,7 +5895,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>spring</t>
+          <t>international level</t>
         </is>
       </c>
       <c r="C93" t="inlineStr"/>
@@ -5884,7 +5904,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1051</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5935,7 +5955,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>autumn</t>
+          <t>national level</t>
         </is>
       </c>
       <c r="C94" t="inlineStr"/>
@@ -5944,7 +5964,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1051</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5995,7 +6015,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>winter</t>
+          <t>regional level</t>
         </is>
       </c>
       <c r="C95" t="inlineStr"/>
@@ -6004,7 +6024,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1051</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -6055,14 +6075,18 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>study implementation level</t>
+          <t>local level</t>
         </is>
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
-      <c r="G96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>vocab:1051</t>
+        </is>
+      </c>
       <c r="H96" t="inlineStr"/>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
@@ -6111,18 +6135,14 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>international level</t>
+          <t>level of data granularity</t>
         </is>
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
-      <c r="G97" t="inlineStr">
-        <is>
-          <t>vocab:1051</t>
-        </is>
-      </c>
+      <c r="G97" t="inlineStr"/>
       <c r="H97" t="inlineStr"/>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -6171,7 +6191,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>national level</t>
+          <t>single measurement data (pseudonymized)</t>
         </is>
       </c>
       <c r="C98" t="inlineStr"/>
@@ -6180,7 +6200,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1056</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -6231,7 +6251,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>regional level</t>
+          <t>single measurement data (anonymized)</t>
         </is>
       </c>
       <c r="C99" t="inlineStr"/>
@@ -6240,7 +6260,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1056</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -6291,7 +6311,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>local level</t>
+          <t>aggreged data</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -6300,7 +6320,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1056</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -6351,14 +6371,18 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>level of data granularity</t>
+          <t>metadata only</t>
         </is>
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
-      <c r="G101" t="inlineStr"/>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>vocab:1056</t>
+        </is>
+      </c>
       <c r="H101" t="inlineStr"/>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -6407,18 +6431,14 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>single measurement data (pseudonymized)</t>
+          <t>status</t>
         </is>
       </c>
       <c r="C102" t="inlineStr"/>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
-      <c r="G102" t="inlineStr">
-        <is>
-          <t>vocab:1056</t>
-        </is>
-      </c>
+      <c r="G102" t="inlineStr"/>
       <c r="H102" t="inlineStr"/>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -6467,7 +6487,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>single measurement data (anonymized)</t>
+          <t>concluded</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
@@ -6476,7 +6496,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1061</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -6527,7 +6547,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>aggreged data</t>
+          <t>ongoing</t>
         </is>
       </c>
       <c r="C104" t="inlineStr"/>
@@ -6536,7 +6556,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1061</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -6587,7 +6607,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>metadata only</t>
+          <t>planned</t>
         </is>
       </c>
       <c r="C105" t="inlineStr"/>
@@ -6596,7 +6616,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -6647,7 +6667,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>status</t>
+          <t>HBM type</t>
         </is>
       </c>
       <c r="C106" t="inlineStr"/>
@@ -6703,7 +6723,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>concluded</t>
+          <t>research object</t>
         </is>
       </c>
       <c r="C107" t="inlineStr"/>
@@ -6712,7 +6732,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -6763,7 +6783,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>initiated</t>
+          <t>surveillance project</t>
         </is>
       </c>
       <c r="C108" t="inlineStr"/>
@@ -6772,7 +6792,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -6823,7 +6843,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ongoing</t>
+          <t>monitoring project</t>
         </is>
       </c>
       <c r="C109" t="inlineStr"/>
@@ -6832,7 +6852,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -6883,7 +6903,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>planned</t>
+          <t>policy / legislation</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -6892,7 +6912,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>vocab:1062</t>
+          <t>vocab:1066</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -6943,14 +6963,18 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>HBM type</t>
+          <t>development of tools/guideles/training material</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr"/>
       <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>vocab:1066</t>
+        </is>
+      </c>
       <c r="H111" t="inlineStr"/>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -6999,7 +7023,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>research object</t>
+          <t>quality control/quality assurance</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -7059,7 +7083,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>surveillance project</t>
+          <t>improving health services delivery infrasturcte</t>
         </is>
       </c>
       <c r="C113" t="inlineStr"/>
@@ -7089,7 +7113,7 @@
       <c r="W113" t="inlineStr"/>
       <c r="X113" t="inlineStr">
         <is>
-          <t>2023-11-21</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr"/>
@@ -7119,7 +7143,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>monitoring project</t>
+          <t>health promotion</t>
         </is>
       </c>
       <c r="C114" t="inlineStr"/>
@@ -7147,11 +7171,7 @@
       <c r="U114" t="inlineStr"/>
       <c r="V114" t="inlineStr"/>
       <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
+      <c r="X114" t="inlineStr"/>
       <c r="Y114" t="inlineStr"/>
       <c r="Z114" t="inlineStr"/>
       <c r="AA114" t="inlineStr"/>
@@ -7174,23 +7194,19 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>vocab:1070</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>policy / legislation</t>
+          <t>matrix</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr">
-        <is>
-          <t>vocab:1066</t>
-        </is>
-      </c>
+      <c r="G115" t="inlineStr"/>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -7207,11 +7223,7 @@
       <c r="U115" t="inlineStr"/>
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
-      <c r="X115" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
+      <c r="X115" t="inlineStr"/>
       <c r="Y115" t="inlineStr"/>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
@@ -7234,12 +7246,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>vocab:1071</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>development of tools/guideles/training material</t>
+          <t>air matrix</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -7248,7 +7260,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -7267,11 +7279,7 @@
       <c r="U116" t="inlineStr"/>
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
-      <c r="X116" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
+      <c r="X116" t="inlineStr"/>
       <c r="Y116" t="inlineStr"/>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
@@ -7294,12 +7302,12 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vocab:1072</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>quality control/quality assurance</t>
+          <t>sediment matrix</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
@@ -7308,7 +7316,7 @@
       <c r="F117" t="inlineStr"/>
       <c r="G117" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H117" t="inlineStr"/>
@@ -7327,11 +7335,7 @@
       <c r="U117" t="inlineStr"/>
       <c r="V117" t="inlineStr"/>
       <c r="W117" t="inlineStr"/>
-      <c r="X117" t="inlineStr">
-        <is>
-          <t>2023-11-21</t>
-        </is>
-      </c>
+      <c r="X117" t="inlineStr"/>
       <c r="Y117" t="inlineStr"/>
       <c r="Z117" t="inlineStr"/>
       <c r="AA117" t="inlineStr"/>
@@ -7354,12 +7358,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vocab:1073</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>improving health services delivery infrasturcte</t>
+          <t>soil matrix</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -7368,7 +7372,7 @@
       <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H118" t="inlineStr"/>
@@ -7387,11 +7391,7 @@
       <c r="U118" t="inlineStr"/>
       <c r="V118" t="inlineStr"/>
       <c r="W118" t="inlineStr"/>
-      <c r="X118" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
+      <c r="X118" t="inlineStr"/>
       <c r="Y118" t="inlineStr"/>
       <c r="Z118" t="inlineStr"/>
       <c r="AA118" t="inlineStr"/>
@@ -7414,12 +7414,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vocab:1074</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>health promotion</t>
+          <t>water matrix</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -7428,7 +7428,7 @@
       <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H119" t="inlineStr"/>
@@ -7470,19 +7470,23 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>matrix</t>
+          <t>biota matrix</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr"/>
       <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>vocab:1097</t>
+        </is>
+      </c>
       <c r="H120" t="inlineStr"/>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -7522,12 +7526,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>air matrix</t>
+          <t>deposition matrix</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -7578,12 +7582,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1104</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>sediment matrix</t>
+          <t>whole air matrix</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -7592,7 +7596,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -7634,12 +7638,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1105</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>soil matrix</t>
+          <t>gas phase matrix</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -7648,7 +7652,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -7690,12 +7694,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>water matrix</t>
+          <t>TSP matrix</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -7704,7 +7708,7 @@
       <c r="F124" t="inlineStr"/>
       <c r="G124" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H124" t="inlineStr"/>
@@ -7746,12 +7750,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1107</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>biota matrix</t>
+          <t>PM 10 matrix</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -7760,7 +7764,7 @@
       <c r="F125" t="inlineStr"/>
       <c r="G125" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H125" t="inlineStr"/>
@@ -7802,12 +7806,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1108</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>deposition matrix</t>
+          <t>PM 2.5 matrix</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -7816,7 +7820,7 @@
       <c r="F126" t="inlineStr"/>
       <c r="G126" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H126" t="inlineStr"/>
@@ -7858,12 +7862,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>vocab:1104</t>
+          <t>vocab:1109</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>whole air matrix</t>
+          <t>PM 5 matrix</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -7914,12 +7918,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vocab:1105</t>
+          <t>vocab:1110</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>gas phase matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -7928,7 +7932,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -7970,12 +7974,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>vocab:1106</t>
+          <t>vocab:1111</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>TSP matrix</t>
+          <t>sewage sludge matrix</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -7984,7 +7988,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -8026,12 +8030,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1112</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>PM 10 matrix</t>
+          <t>stratified matrix</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -8040,7 +8044,7 @@
       <c r="F130" t="inlineStr"/>
       <c r="G130" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H130" t="inlineStr"/>
@@ -8082,12 +8086,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vocab:1108</t>
+          <t>vocab:1113</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>PM 2.5 matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -8096,7 +8100,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -8138,12 +8142,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>vocab:1109</t>
+          <t>vocab:1114</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>PM 5 matrix</t>
+          <t>topsoil matrix</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -8152,7 +8156,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -8194,12 +8198,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vocab:1110</t>
+          <t>vocab:1115</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>subsoil A matrix</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -8208,7 +8212,7 @@
       <c r="F133" t="inlineStr"/>
       <c r="G133" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H133" t="inlineStr"/>
@@ -8250,12 +8254,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vocab:1111</t>
+          <t>vocab:1116</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>sewage sludge matrix</t>
+          <t>subsoil B matrix</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -8264,7 +8268,7 @@
       <c r="F134" t="inlineStr"/>
       <c r="G134" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H134" t="inlineStr"/>
@@ -8306,12 +8310,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vocab:1112</t>
+          <t>vocab:1117</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>stratified matrix</t>
+          <t>horizon A matrix</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -8320,7 +8324,7 @@
       <c r="F135" t="inlineStr"/>
       <c r="G135" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H135" t="inlineStr"/>
@@ -8362,12 +8366,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>vocab:1113</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>horizon B matrix</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -8418,12 +8422,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vocab:1114</t>
+          <t>vocab:1119</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>topsoil matrix</t>
+          <t>horizon C matrix</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -8474,12 +8478,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>vocab:1115</t>
+          <t>vocab:1120</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>subsoil A matrix</t>
+          <t>horizon E matrix</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -8530,12 +8534,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>vocab:1116</t>
+          <t>vocab:1121</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>subsoil B matrix</t>
+          <t>horizon G matrix</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -8586,12 +8590,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vocab:1117</t>
+          <t>vocab:1122</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>horizon A matrix</t>
+          <t>horizon M matrix</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -8642,12 +8646,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vocab:1118</t>
+          <t>vocab:1123</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>horizon B matrix</t>
+          <t>horizon O matrix</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -8698,12 +8702,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1124</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>horizon C matrix</t>
+          <t>coastal matrix</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -8712,7 +8716,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -8754,12 +8758,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vocab:1120</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>horizon E matrix</t>
+          <t>brackish matrix</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -8768,7 +8772,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -8810,12 +8814,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>vocab:1121</t>
+          <t>vocab:1126</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>horizon G matrix</t>
+          <t>ocean matrix</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -8824,7 +8828,7 @@
       <c r="F144" t="inlineStr"/>
       <c r="G144" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H144" t="inlineStr"/>
@@ -8866,12 +8870,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vocab:1122</t>
+          <t>vocab:1127</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>horizon M matrix</t>
+          <t>surface freshwater matrix</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -8880,7 +8884,7 @@
       <c r="F145" t="inlineStr"/>
       <c r="G145" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H145" t="inlineStr"/>
@@ -8922,12 +8926,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vocab:1123</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>horizon O matrix</t>
+          <t>surface freshwater - reservoir matrix</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -8936,7 +8940,7 @@
       <c r="F146" t="inlineStr"/>
       <c r="G146" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H146" t="inlineStr"/>
@@ -8978,12 +8982,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vocab:1124</t>
+          <t>vocab:1129</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>coastal matrix</t>
+          <t>surface freshwater - river matrix</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -9034,12 +9038,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vocab:1125</t>
+          <t>vocab:1130</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>brackish matrix</t>
+          <t>ground water matrix</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -9090,12 +9094,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vocab:1126</t>
+          <t>vocab:1131</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ocean matrix</t>
+          <t>fish matrix</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -9104,7 +9108,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -9146,12 +9150,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vocab:1127</t>
+          <t>vocab:1132</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>surface freshwater matrix</t>
+          <t>barley matrix</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -9160,7 +9164,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -9202,12 +9206,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vocab:1128</t>
+          <t>vocab:1133</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>surface freshwater - reservoir matrix</t>
+          <t>grass matrix</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -9216,7 +9220,7 @@
       <c r="F151" t="inlineStr"/>
       <c r="G151" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H151" t="inlineStr"/>
@@ -9258,12 +9262,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vocab:1129</t>
+          <t>vocab:1134</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>surface freshwater - river matrix</t>
+          <t>hop matrix</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -9272,7 +9276,7 @@
       <c r="F152" t="inlineStr"/>
       <c r="G152" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H152" t="inlineStr"/>
@@ -9314,12 +9318,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vocab:1130</t>
+          <t>vocab:1135</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ground water matrix</t>
+          <t>moss matrix</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -9328,7 +9332,7 @@
       <c r="F153" t="inlineStr"/>
       <c r="G153" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H153" t="inlineStr"/>
@@ -9370,12 +9374,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1136</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>fish matrix</t>
+          <t>mustard matrix</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -9426,12 +9430,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>vocab:1132</t>
+          <t>vocab:1137</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>barley matrix</t>
+          <t>maize matrix</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -9482,12 +9486,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vocab:1133</t>
+          <t>vocab:1138</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>grass matrix</t>
+          <t>oat matrix</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -9538,12 +9542,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>vocab:1134</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>hop matrix</t>
+          <t>peat moss matrix</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -9594,12 +9598,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>vocab:1135</t>
+          <t>vocab:1140</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>moss matrix</t>
+          <t>pine matrix</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -9650,12 +9654,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vocab:1136</t>
+          <t>vocab:1141</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>mustard matrix</t>
+          <t>potato matrix</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -9706,12 +9710,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vocab:1137</t>
+          <t>vocab:1142</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>maize matrix</t>
+          <t>rape matrix</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -9762,12 +9766,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1143</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>oat matrix</t>
+          <t>soya matrix</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -9818,12 +9822,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vocab:1139</t>
+          <t>vocab:1144</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>peat moss matrix</t>
+          <t>sunflover matrix</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -9874,12 +9878,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vocab:1140</t>
+          <t>vocab:1145</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>pine matrix</t>
+          <t>spruce matrix</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -9930,12 +9934,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vocab:1141</t>
+          <t>vocab:1146</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>potato matrix</t>
+          <t>triticale matrix</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -9986,12 +9990,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vocab:1142</t>
+          <t>vocab:1147</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>rape matrix</t>
+          <t>wheat matrix</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -10042,12 +10046,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>vocab:1143</t>
+          <t>vocab:1148</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>soya matrix</t>
+          <t>dry matrix</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -10056,7 +10060,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -10098,12 +10102,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vocab:1144</t>
+          <t>vocab:1149</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>sunflover matrix</t>
+          <t>mixed matrix</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -10112,7 +10116,7 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -10154,12 +10158,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vocab:1145</t>
+          <t>vocab:1150</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>spruce matrix</t>
+          <t>wet matrix</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10168,7 +10172,7 @@
       <c r="F168" t="inlineStr"/>
       <c r="G168" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H168" t="inlineStr"/>
@@ -10210,21 +10214,29 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>vocab:1146</t>
+          <t>vocab:1151</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>triticale matrix</t>
+          <t>blood-whole blood matrix</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr"/>
-      <c r="E169" t="inlineStr"/>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>BWB</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>Blood-whole blood</t>
+        </is>
+      </c>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -10266,21 +10278,29 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>vocab:1152</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>wheat matrix</t>
+          <t>blood -plasma matrix</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr"/>
-      <c r="E170" t="inlineStr"/>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>BP</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>Blood -plasma</t>
+        </is>
+      </c>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -10322,21 +10342,29 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>vocab:1153</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>dry matrix</t>
+          <t>blood -serum matrix</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
-      <c r="D171" t="inlineStr"/>
-      <c r="E171" t="inlineStr"/>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>Blood -serum</t>
+        </is>
+      </c>
       <c r="F171" t="inlineStr"/>
       <c r="G171" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H171" t="inlineStr"/>
@@ -10378,21 +10406,29 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vocab:1149</t>
+          <t>vocab:1154</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>mixed matrix</t>
+          <t>cord blood-whole blood matrix</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
-      <c r="D172" t="inlineStr"/>
-      <c r="E172" t="inlineStr"/>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>CBWB</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Cord blood-whole blood</t>
+        </is>
+      </c>
       <c r="F172" t="inlineStr"/>
       <c r="G172" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H172" t="inlineStr"/>
@@ -10434,21 +10470,29 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>vocab:1150</t>
+          <t>vocab:1155</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>wet matrix</t>
+          <t>cord blood-plasma matrix</t>
         </is>
       </c>
       <c r="C173" t="inlineStr"/>
-      <c r="D173" t="inlineStr"/>
-      <c r="E173" t="inlineStr"/>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>CBP</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Cord blood-plasma</t>
+        </is>
+      </c>
       <c r="F173" t="inlineStr"/>
       <c r="G173" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="H173" t="inlineStr"/>
@@ -10490,23 +10534,23 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>vocab:1151</t>
+          <t>vocab:1156</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>blood-whole blood matrix</t>
+          <t>cord blood-serum matrix</t>
         </is>
       </c>
       <c r="C174" t="inlineStr"/>
       <c r="D174" t="inlineStr">
         <is>
-          <t>BWB</t>
+          <t>CBS</t>
         </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>Blood-whole blood</t>
+          <t>Cord blood-serum</t>
         </is>
       </c>
       <c r="F174" t="inlineStr"/>
@@ -10554,23 +10598,23 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1157</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>blood -plasma matrix</t>
+          <t>urine-spot matrix</t>
         </is>
       </c>
       <c r="C175" t="inlineStr"/>
       <c r="D175" t="inlineStr">
         <is>
-          <t>BP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
-          <t>Blood -plasma</t>
+          <t>Urine-spot</t>
         </is>
       </c>
       <c r="F175" t="inlineStr"/>
@@ -10618,23 +10662,23 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>vocab:1153</t>
+          <t>vocab:1158</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>blood -serum matrix</t>
+          <t>urine-24h matrix</t>
         </is>
       </c>
       <c r="C176" t="inlineStr"/>
       <c r="D176" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>UD</t>
         </is>
       </c>
       <c r="E176" t="inlineStr">
         <is>
-          <t>Blood -serum</t>
+          <t>Urine-24h</t>
         </is>
       </c>
       <c r="F176" t="inlineStr"/>
@@ -10682,23 +10726,23 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>vocab:1159</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>cord blood-whole blood matrix</t>
+          <t>urine-morning urine matrix</t>
         </is>
       </c>
       <c r="C177" t="inlineStr"/>
       <c r="D177" t="inlineStr">
         <is>
-          <t>CBWB</t>
+          <t>UM</t>
         </is>
       </c>
       <c r="E177" t="inlineStr">
         <is>
-          <t>Cord blood-whole blood</t>
+          <t>Urine-morning urine</t>
         </is>
       </c>
       <c r="F177" t="inlineStr"/>
@@ -10746,23 +10790,23 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>vocab:1155</t>
+          <t>vocab:1160</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>cord blood-plasma matrix</t>
+          <t>saliva and/or sputum matrix</t>
         </is>
       </c>
       <c r="C178" t="inlineStr"/>
       <c r="D178" t="inlineStr">
         <is>
-          <t>CBP</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>Cord blood-plasma</t>
+          <t>Saliva and or sputum</t>
         </is>
       </c>
       <c r="F178" t="inlineStr"/>
@@ -10810,23 +10854,23 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>vocab:1156</t>
+          <t>vocab:1161</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>cord blood-serum matrix</t>
+          <t>semen matrix</t>
         </is>
       </c>
       <c r="C179" t="inlineStr"/>
       <c r="D179" t="inlineStr">
         <is>
-          <t>CBS</t>
+          <t>SEM</t>
         </is>
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Cord blood-serum</t>
+          <t>Semen</t>
         </is>
       </c>
       <c r="F179" t="inlineStr"/>
@@ -10874,23 +10918,23 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>vocab:1157</t>
+          <t>vocab:1162</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>urine-spot matrix</t>
+          <t>hair matrix</t>
         </is>
       </c>
       <c r="C180" t="inlineStr"/>
       <c r="D180" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>H</t>
         </is>
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Urine-spot</t>
+          <t>Hair</t>
         </is>
       </c>
       <c r="F180" t="inlineStr"/>
@@ -10938,23 +10982,23 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>vocab:1158</t>
+          <t>vocab:1163</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>urine-24h matrix</t>
+          <t>exhaled breath condensate matrix</t>
         </is>
       </c>
       <c r="C181" t="inlineStr"/>
       <c r="D181" t="inlineStr">
         <is>
-          <t>UD</t>
+          <t>EBC</t>
         </is>
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Urine-24h</t>
+          <t>Exhaled breath condensate</t>
         </is>
       </c>
       <c r="F181" t="inlineStr"/>
@@ -11002,23 +11046,23 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>vocab:1159</t>
+          <t>vocab:1164</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>urine-morning urine matrix</t>
+          <t>red blood cells matrix</t>
         </is>
       </c>
       <c r="C182" t="inlineStr"/>
       <c r="D182" t="inlineStr">
         <is>
-          <t>UM</t>
+          <t>RBC</t>
         </is>
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Urine-morning urine</t>
+          <t>Red blood cells</t>
         </is>
       </c>
       <c r="F182" t="inlineStr"/>
@@ -11043,7 +11087,11 @@
       <c r="U182" t="inlineStr"/>
       <c r="V182" t="inlineStr"/>
       <c r="W182" t="inlineStr"/>
-      <c r="X182" t="inlineStr"/>
+      <c r="X182" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
       <c r="Y182" t="inlineStr"/>
       <c r="Z182" t="inlineStr"/>
       <c r="AA182" t="inlineStr"/>
@@ -11066,23 +11114,23 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>vocab:1160</t>
+          <t>vocab:1165</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>saliva and/or sputum matrix</t>
+          <t>breast milk matrix</t>
         </is>
       </c>
       <c r="C183" t="inlineStr"/>
       <c r="D183" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>BM</t>
         </is>
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Saliva and or sputum</t>
+          <t>Breast milk</t>
         </is>
       </c>
       <c r="F183" t="inlineStr"/>
@@ -11130,23 +11178,23 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>vocab:1161</t>
+          <t>vocab:1166</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>semen matrix</t>
+          <t>adipose tissue/fat matrix</t>
         </is>
       </c>
       <c r="C184" t="inlineStr"/>
       <c r="D184" t="inlineStr">
         <is>
-          <t>SEM</t>
+          <t>ADI</t>
         </is>
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Semen</t>
+          <t>Adipose tissue/fat</t>
         </is>
       </c>
       <c r="F184" t="inlineStr"/>
@@ -11194,23 +11242,23 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>vocab:1162</t>
+          <t>vocab:1167</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>hair matrix</t>
+          <t>all toe nails matrix</t>
         </is>
       </c>
       <c r="C185" t="inlineStr"/>
       <c r="D185" t="inlineStr">
         <is>
-          <t>H</t>
+          <t>ATN</t>
         </is>
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Hair</t>
+          <t>All toe nails</t>
         </is>
       </c>
       <c r="F185" t="inlineStr"/>
@@ -11235,7 +11283,11 @@
       <c r="U185" t="inlineStr"/>
       <c r="V185" t="inlineStr"/>
       <c r="W185" t="inlineStr"/>
-      <c r="X185" t="inlineStr"/>
+      <c r="X185" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
       <c r="Y185" t="inlineStr"/>
       <c r="Z185" t="inlineStr"/>
       <c r="AA185" t="inlineStr"/>
@@ -11258,23 +11310,23 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>vocab:1163</t>
+          <t>vocab:1168</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>exhaled breath condensate matrix</t>
+          <t>big toe nails matrix</t>
         </is>
       </c>
       <c r="C186" t="inlineStr"/>
       <c r="D186" t="inlineStr">
         <is>
-          <t>EBC</t>
+          <t>BTN</t>
         </is>
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Exhaled breath condensate</t>
+          <t>Big toe nails</t>
         </is>
       </c>
       <c r="F186" t="inlineStr"/>
@@ -11322,23 +11374,23 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>vocab:1164</t>
+          <t>vocab:1169</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>red blood cells matrix</t>
+          <t>dermal wipes matrix</t>
         </is>
       </c>
       <c r="C187" t="inlineStr"/>
       <c r="D187" t="inlineStr">
         <is>
-          <t>RBC</t>
+          <t>DW</t>
         </is>
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>Red blood cells</t>
+          <t>Dermal wipes</t>
         </is>
       </c>
       <c r="F187" t="inlineStr"/>
@@ -11390,23 +11442,23 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>vocab:1165</t>
+          <t>vocab:1170</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>breast milk matrix</t>
+          <t>amniotic fluid matrix</t>
         </is>
       </c>
       <c r="C188" t="inlineStr"/>
       <c r="D188" t="inlineStr">
         <is>
-          <t>BM</t>
+          <t>AF</t>
         </is>
       </c>
       <c r="E188" t="inlineStr">
         <is>
-          <t>Breast milk</t>
+          <t>Amniotic fluid</t>
         </is>
       </c>
       <c r="F188" t="inlineStr"/>
@@ -11454,23 +11506,23 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>vocab:1166</t>
+          <t>vocab:1171</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>adipose tissue/fat matrix</t>
+          <t>placenta tissue matrix</t>
         </is>
       </c>
       <c r="C189" t="inlineStr"/>
       <c r="D189" t="inlineStr">
         <is>
-          <t>ADI</t>
+          <t>PLT</t>
         </is>
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Adipose tissue/fat</t>
+          <t>Placenta tissue</t>
         </is>
       </c>
       <c r="F189" t="inlineStr"/>
@@ -11495,7 +11547,11 @@
       <c r="U189" t="inlineStr"/>
       <c r="V189" t="inlineStr"/>
       <c r="W189" t="inlineStr"/>
-      <c r="X189" t="inlineStr"/>
+      <c r="X189" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
       <c r="Y189" t="inlineStr"/>
       <c r="Z189" t="inlineStr"/>
       <c r="AA189" t="inlineStr"/>
@@ -11518,29 +11574,21 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>vocab:1167</t>
+          <t>vocab:1172</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>all toe nails matrix</t>
+          <t>human matrix</t>
         </is>
       </c>
       <c r="C190" t="inlineStr"/>
-      <c r="D190" t="inlineStr">
-        <is>
-          <t>ATN</t>
-        </is>
-      </c>
-      <c r="E190" t="inlineStr">
-        <is>
-          <t>All toe nails</t>
-        </is>
-      </c>
+      <c r="D190" t="inlineStr"/>
+      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr"/>
       <c r="G190" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H190" t="inlineStr"/>
@@ -11559,11 +11607,7 @@
       <c r="U190" t="inlineStr"/>
       <c r="V190" t="inlineStr"/>
       <c r="W190" t="inlineStr"/>
-      <c r="X190" t="inlineStr">
-        <is>
-          <t>########</t>
-        </is>
-      </c>
+      <c r="X190" t="inlineStr"/>
       <c r="Y190" t="inlineStr"/>
       <c r="Z190" t="inlineStr"/>
       <c r="AA190" t="inlineStr"/>
@@ -11586,31 +11630,19 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>vocab:1168</t>
+          <t>vocab:1173</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>big toe nails matrix</t>
+          <t>variable</t>
         </is>
       </c>
       <c r="C191" t="inlineStr"/>
-      <c r="D191" t="inlineStr">
-        <is>
-          <t>BTN</t>
-        </is>
-      </c>
-      <c r="E191" t="inlineStr">
-        <is>
-          <t>Big toe nails</t>
-        </is>
-      </c>
+      <c r="D191" t="inlineStr"/>
+      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr">
-        <is>
-          <t>vocab:1172</t>
-        </is>
-      </c>
+      <c r="G191" t="inlineStr"/>
       <c r="H191" t="inlineStr"/>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -11627,7 +11659,11 @@
       <c r="U191" t="inlineStr"/>
       <c r="V191" t="inlineStr"/>
       <c r="W191" t="inlineStr"/>
-      <c r="X191" t="inlineStr"/>
+      <c r="X191" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
       <c r="Y191" t="inlineStr"/>
       <c r="Z191" t="inlineStr"/>
       <c r="AA191" t="inlineStr"/>
@@ -11650,41 +11686,57 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>vocab:1169</t>
+          <t>vocab:1174</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>dermal wipes matrix</t>
+          <t>soil erosion in arable land with a slope of 4 to 8 percent in catchment</t>
         </is>
       </c>
       <c r="C192" t="inlineStr"/>
-      <c r="D192" t="inlineStr">
-        <is>
-          <t>DW</t>
-        </is>
-      </c>
-      <c r="E192" t="inlineStr">
-        <is>
-          <t>Dermal wipes</t>
-        </is>
-      </c>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
       <c r="F192" t="inlineStr"/>
       <c r="G192" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
-        </is>
-      </c>
-      <c r="H192" t="inlineStr"/>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr"/>
-      <c r="M192" t="inlineStr"/>
-      <c r="N192" t="inlineStr"/>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
+      <c r="M192" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+        </is>
+      </c>
+      <c r="N192" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/24</t>
+        </is>
+      </c>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/30330</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10092</t>
+        </is>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>vocab:1176,vocab:1177</t>
+        </is>
+      </c>
       <c r="R192" t="inlineStr"/>
       <c r="S192" t="inlineStr"/>
       <c r="T192" t="inlineStr"/>
@@ -11693,7 +11745,7 @@
       <c r="W192" t="inlineStr"/>
       <c r="X192" t="inlineStr">
         <is>
-          <t>########</t>
+          <t>2023-11-29</t>
         </is>
       </c>
       <c r="Y192" t="inlineStr"/>
@@ -11718,31 +11770,19 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>vocab:1170</t>
+          <t>vocab:1175</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>amniotic fluid matrix</t>
+          <t>constraint</t>
         </is>
       </c>
       <c r="C193" t="inlineStr"/>
-      <c r="D193" t="inlineStr">
-        <is>
-          <t>AF</t>
-        </is>
-      </c>
-      <c r="E193" t="inlineStr">
-        <is>
-          <t>Amniotic fluid</t>
-        </is>
-      </c>
+      <c r="D193" t="inlineStr"/>
+      <c r="E193" t="inlineStr"/>
       <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr">
-        <is>
-          <t>vocab:1172</t>
-        </is>
-      </c>
+      <c r="G193" t="inlineStr"/>
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -11759,7 +11799,11 @@
       <c r="U193" t="inlineStr"/>
       <c r="V193" t="inlineStr"/>
       <c r="W193" t="inlineStr"/>
-      <c r="X193" t="inlineStr"/>
+      <c r="X193" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
       <c r="Y193" t="inlineStr"/>
       <c r="Z193" t="inlineStr"/>
       <c r="AA193" t="inlineStr"/>
@@ -11782,29 +11826,21 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>vocab:1171</t>
+          <t>vocab:1176</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>placenta tissue matrix</t>
+          <t>arable</t>
         </is>
       </c>
       <c r="C194" t="inlineStr"/>
-      <c r="D194" t="inlineStr">
-        <is>
-          <t>PLT</t>
-        </is>
-      </c>
-      <c r="E194" t="inlineStr">
-        <is>
-          <t>Placenta tissue</t>
-        </is>
-      </c>
+      <c r="D194" t="inlineStr"/>
+      <c r="E194" t="inlineStr"/>
       <c r="F194" t="inlineStr"/>
       <c r="G194" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1175</t>
         </is>
       </c>
       <c r="H194" t="inlineStr"/>
@@ -11828,7 +11864,11 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y194" t="inlineStr"/>
+      <c r="Y194" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
       <c r="Z194" t="inlineStr"/>
       <c r="AA194" t="inlineStr"/>
       <c r="AB194" t="inlineStr"/>
@@ -11850,12 +11890,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1177</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>human matrix</t>
+          <t>slope 4 to 8 percent</t>
         </is>
       </c>
       <c r="C195" t="inlineStr"/>
@@ -11864,10 +11904,14 @@
       <c r="F195" t="inlineStr"/>
       <c r="G195" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
-        </is>
-      </c>
-      <c r="H195" t="inlineStr"/>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
@@ -11883,7 +11927,11 @@
       <c r="U195" t="inlineStr"/>
       <c r="V195" t="inlineStr"/>
       <c r="W195" t="inlineStr"/>
-      <c r="X195" t="inlineStr"/>
+      <c r="X195" t="inlineStr">
+        <is>
+          <t>########</t>
+        </is>
+      </c>
       <c r="Y195" t="inlineStr"/>
       <c r="Z195" t="inlineStr"/>
       <c r="AA195" t="inlineStr"/>
@@ -11906,29 +11954,53 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
+          <t>vocab:1178</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>education level of the mother of the study participant</t>
         </is>
       </c>
       <c r="C196" t="inlineStr"/>
       <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr"/>
       <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-      <c r="H196" t="inlineStr"/>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr"/>
-      <c r="M196" t="inlineStr"/>
-      <c r="N196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>vocab:1204</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>vocab:1206</t>
+        </is>
+      </c>
       <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>vocab:1207</t>
+        </is>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>vocab:1208</t>
+        </is>
+      </c>
       <c r="R196" t="inlineStr"/>
       <c r="S196" t="inlineStr"/>
       <c r="T196" t="inlineStr"/>
@@ -11962,12 +12034,12 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>vocab:1174</t>
+          <t>vocab:1179</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>soil erosion in arable land with a slope of 4 to 8 percent in catchment</t>
+          <t>mass per volume concentration of pcb52 in a house dust sample</t>
         </is>
       </c>
       <c r="C197" t="inlineStr"/>
@@ -11990,27 +12062,27 @@
       <c r="L197" t="inlineStr"/>
       <c r="M197" t="inlineStr">
         <is>
-          <t>http://qudt.org/vocab/quantitykind/MassPerAreaTime</t>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
         </is>
       </c>
       <c r="N197" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/24</t>
+          <t>http://purl.obolibrary.org/obo/CHEBI_34206</t>
         </is>
       </c>
       <c r="O197" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/30330</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C84281</t>
         </is>
       </c>
       <c r="P197" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/10092</t>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41194</t>
         </is>
       </c>
       <c r="Q197" t="inlineStr">
         <is>
-          <t>vocab:1176,vocab:1177</t>
+          <t>vocab:1197</t>
         </is>
       </c>
       <c r="R197" t="inlineStr"/>
@@ -12021,7 +12093,7 @@
       <c r="W197" t="inlineStr"/>
       <c r="X197" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>########</t>
         </is>
       </c>
       <c r="Y197" t="inlineStr"/>
@@ -12046,27 +12118,47 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
+          <t>vocab:1180</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>constraint</t>
+          <t>concentration of pcb118 in air</t>
         </is>
       </c>
       <c r="C198" t="inlineStr"/>
       <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr"/>
       <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-      <c r="H198" t="inlineStr"/>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr"/>
-      <c r="M198" t="inlineStr"/>
-      <c r="N198" t="inlineStr"/>
-      <c r="O198" t="inlineStr"/>
+      <c r="M198" t="inlineStr">
+        <is>
+          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
+        </is>
+      </c>
+      <c r="N198" t="inlineStr">
+        <is>
+          <t>http://purl.obolibrary.org/obo/CHEBI_81520</t>
+        </is>
+      </c>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>vocab:1098</t>
+        </is>
+      </c>
       <c r="P198" t="inlineStr"/>
       <c r="Q198" t="inlineStr"/>
       <c r="R198" t="inlineStr"/>
@@ -12077,7 +12169,7 @@
       <c r="W198" t="inlineStr"/>
       <c r="X198" t="inlineStr">
         <is>
-          <t>2023-11-29</t>
+          <t>########</t>
         </is>
       </c>
       <c r="Y198" t="inlineStr"/>
@@ -12102,12 +12194,12 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>vocab:1176</t>
+          <t>vocab:1181</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>arable</t>
+          <t>percentage of total organic carbon in sediment</t>
         </is>
       </c>
       <c r="C199" t="inlineStr"/>
@@ -12116,17 +12208,33 @@
       <c r="F199" t="inlineStr"/>
       <c r="G199" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
-        </is>
-      </c>
-      <c r="H199" t="inlineStr"/>
+          <t>vocab:1173</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>iop:Variable</t>
+        </is>
+      </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr"/>
-      <c r="M199" t="inlineStr"/>
-      <c r="N199" t="inlineStr"/>
-      <c r="O199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/22183</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20813</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20899</t>
+        </is>
+      </c>
       <c r="P199" t="inlineStr"/>
       <c r="Q199" t="inlineStr"/>
       <c r="R199" t="inlineStr"/>
@@ -12137,14 +12245,10 @@
       <c r="W199" t="inlineStr"/>
       <c r="X199" t="inlineStr">
         <is>
-          <t>########</t>
-        </is>
-      </c>
-      <c r="Y199" t="inlineStr">
-        <is>
-          <t>2023-11-29</t>
-        </is>
-      </c>
+          <t>2023-11-26</t>
+        </is>
+      </c>
+      <c r="Y199" t="inlineStr"/>
       <c r="Z199" t="inlineStr"/>
       <c r="AA199" t="inlineStr"/>
       <c r="AB199" t="inlineStr"/>
@@ -12166,12 +12270,12 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>vocab:1177</t>
+          <t>vocab:1182</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>slope 4 to 8 percent</t>
+          <t>weight per volume concentration of chlorophyll-a in a water column</t>
         </is>
       </c>
       <c r="C200" t="inlineStr"/>
@@ -12192,11 +12296,27 @@
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr"/>
-      <c r="M200" t="inlineStr"/>
-      <c r="N200" t="inlineStr"/>
-      <c r="O200" t="inlineStr"/>
+      <c r="M200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/10073</t>
+        </is>
+      </c>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20785</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20538</t>
+        </is>
+      </c>
       <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>http://vocabs.lter-europe.net/EnvThes/20924</t>
+        </is>
+      </c>
       <c r="R200" t="inlineStr"/>
       <c r="S200" t="inlineStr"/>
       <c r="T200" t="inlineStr"/>
@@ -12230,12 +12350,12 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>vocab:1178</t>
+          <t>vocab:1183</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>education level of the mother of the study participant</t>
+          <t>concentration of leukocytes in the gut of a patient</t>
         </is>
       </c>
       <c r="C201" t="inlineStr"/>
@@ -12258,23 +12378,27 @@
       <c r="L201" t="inlineStr"/>
       <c r="M201" t="inlineStr">
         <is>
-          <t>vocab:1204</t>
+          <t>http://qudt.org/vocab/quantitykind/Concentration</t>
         </is>
       </c>
       <c r="N201" t="inlineStr">
         <is>
-          <t>vocab:1206</t>
-        </is>
-      </c>
-      <c r="O201" t="inlineStr"/>
+          <t>http://purl.bioontology.org/ontology/MESH/D007962</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>http://purl.jp/bio/11/meo/MEO_0000468</t>
+        </is>
+      </c>
       <c r="P201" t="inlineStr">
         <is>
-          <t>vocab:1207</t>
+          <t>http://purl.bioontology.org/ontology/SNOMEDCT/116154003</t>
         </is>
       </c>
       <c r="Q201" t="inlineStr">
         <is>
-          <t>vocab:1208</t>
+          <t>http://purl.bioontology.org/ontology/ICD10CM/G93.32, http://purl.bioontology.org/ontology/MESH/D007107</t>
         </is>
       </c>
       <c r="R201" t="inlineStr"/>
@@ -12285,7 +12409,7 @@
       <c r="W201" t="inlineStr"/>
       <c r="X201" t="inlineStr">
         <is>
-          <t>########</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="Y201" t="inlineStr"/>
@@ -12310,12 +12434,12 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>vocab:1179</t>
+          <t>vocab:1184</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>mass per volume concentration of pcb52 in a house dust sample</t>
+          <t>specific surface area of nanomaterials</t>
         </is>
       </c>
       <c r="C202" t="inlineStr"/>
@@ -12336,31 +12460,15 @@
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr"/>
-      <c r="M202" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
-        </is>
-      </c>
+      <c r="M202" t="inlineStr"/>
       <c r="N202" t="inlineStr">
         <is>
-          <t>http://purl.obolibrary.org/obo/CHEBI_34206</t>
-        </is>
-      </c>
-      <c r="O202" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C84281</t>
-        </is>
-      </c>
-      <c r="P202" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C41194</t>
-        </is>
-      </c>
-      <c r="Q202" t="inlineStr">
-        <is>
-          <t>vocab:1197</t>
-        </is>
-      </c>
+          <t>http://purl.bioontology.org/ontology/npo#NPO_199</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
       <c r="R202" t="inlineStr"/>
       <c r="S202" t="inlineStr"/>
       <c r="T202" t="inlineStr"/>
@@ -12394,12 +12502,12 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>vocab:1180</t>
+          <t>vocab:1185</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>concentration of pcb118 in air</t>
+          <t>mass concentration of aldrin in air</t>
         </is>
       </c>
       <c r="C203" t="inlineStr"/>
@@ -12420,21 +12528,9 @@
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr"/>
-      <c r="M203" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/quantitykind/MassConcentration</t>
-        </is>
-      </c>
-      <c r="N203" t="inlineStr">
-        <is>
-          <t>http://purl.obolibrary.org/obo/CHEBI_81520</t>
-        </is>
-      </c>
-      <c r="O203" t="inlineStr">
-        <is>
-          <t>vocab:1098</t>
-        </is>
-      </c>
+      <c r="M203" t="inlineStr"/>
+      <c r="N203" t="inlineStr"/>
+      <c r="O203" t="inlineStr"/>
       <c r="P203" t="inlineStr"/>
       <c r="Q203" t="inlineStr"/>
       <c r="R203" t="inlineStr"/>
@@ -12470,12 +12566,12 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>vocab:1181</t>
+          <t>vocab:1186</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>percentage of total organic carbon in sediment</t>
+          <t>mass concentration of NPs in medium at well bottom</t>
         </is>
       </c>
       <c r="C204" t="inlineStr"/>
@@ -12496,21 +12592,9 @@
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr"/>
-      <c r="M204" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/22183</t>
-        </is>
-      </c>
-      <c r="N204" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20813</t>
-        </is>
-      </c>
-      <c r="O204" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20899</t>
-        </is>
-      </c>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
       <c r="P204" t="inlineStr"/>
       <c r="Q204" t="inlineStr"/>
       <c r="R204" t="inlineStr"/>
@@ -12521,7 +12605,7 @@
       <c r="W204" t="inlineStr"/>
       <c r="X204" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>########</t>
         </is>
       </c>
       <c r="Y204" t="inlineStr"/>
@@ -12546,12 +12630,12 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>vocab:1182</t>
+          <t>vocab:1187</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>weight per volume concentration of chlorophyll-a in a water column</t>
+          <t>concentration range of chemical agent in DMEM in cells</t>
         </is>
       </c>
       <c r="C205" t="inlineStr"/>
@@ -12572,27 +12656,15 @@
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr"/>
-      <c r="M205" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/10073</t>
-        </is>
-      </c>
+      <c r="M205" t="inlineStr"/>
       <c r="N205" t="inlineStr">
         <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20785</t>
-        </is>
-      </c>
-      <c r="O205" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20538</t>
-        </is>
-      </c>
+          <t>http://vocabs.lter-europe.net/EnvThes/20748</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
       <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20924</t>
-        </is>
-      </c>
+      <c r="Q205" t="inlineStr"/>
       <c r="R205" t="inlineStr"/>
       <c r="S205" t="inlineStr"/>
       <c r="T205" t="inlineStr"/>
@@ -12626,12 +12698,12 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>vocab:1183</t>
+          <t>vocab:1188</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>concentration of leukocytes in the gut of a patient</t>
+          <t>mass per volume concentration of lead in river water</t>
         </is>
       </c>
       <c r="C206" t="inlineStr"/>
@@ -12652,31 +12724,11 @@
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr"/>
-      <c r="M206" t="inlineStr">
-        <is>
-          <t>http://qudt.org/vocab/quantitykind/Concentration</t>
-        </is>
-      </c>
-      <c r="N206" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/MESH/D007962</t>
-        </is>
-      </c>
-      <c r="O206" t="inlineStr">
-        <is>
-          <t>http://purl.jp/bio/11/meo/MEO_0000468</t>
-        </is>
-      </c>
-      <c r="P206" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/SNOMEDCT/116154003</t>
-        </is>
-      </c>
-      <c r="Q206" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/ICD10CM/G93.32, http://purl.bioontology.org/ontology/MESH/D007107</t>
-        </is>
-      </c>
+      <c r="M206" t="inlineStr"/>
+      <c r="N206" t="inlineStr"/>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr"/>
       <c r="R206" t="inlineStr"/>
       <c r="S206" t="inlineStr"/>
       <c r="T206" t="inlineStr"/>
@@ -12685,7 +12737,7 @@
       <c r="W206" t="inlineStr"/>
       <c r="X206" t="inlineStr">
         <is>
-          <t>2023-11-26</t>
+          <t>########</t>
         </is>
       </c>
       <c r="Y206" t="inlineStr"/>
@@ -12710,12 +12762,12 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>vocab:1184</t>
+          <t>vocab:1189</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>specific surface area of nanomaterials</t>
+          <t>pH value of soil</t>
         </is>
       </c>
       <c r="C207" t="inlineStr"/>
@@ -12737,11 +12789,7 @@
       <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr"/>
       <c r="M207" t="inlineStr"/>
-      <c r="N207" t="inlineStr">
-        <is>
-          <t>http://purl.bioontology.org/ontology/npo#NPO_199</t>
-        </is>
-      </c>
+      <c r="N207" t="inlineStr"/>
       <c r="O207" t="inlineStr"/>
       <c r="P207" t="inlineStr"/>
       <c r="Q207" t="inlineStr"/>
@@ -12778,12 +12826,12 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>vocab:1185</t>
+          <t>vocab:1190</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>mass concentration of aldrin in air</t>
+          <t>mass per volume concentration of toluene in a persons morning urine</t>
         </is>
       </c>
       <c r="C208" t="inlineStr"/>
@@ -12805,10 +12853,18 @@
       <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr"/>
       <c r="M208" t="inlineStr"/>
-      <c r="N208" t="inlineStr"/>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>https://vocabulary.actris.nilu.no/actris_vocab/toluene</t>
+        </is>
+      </c>
       <c r="O208" t="inlineStr"/>
       <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>vocab:1202</t>
+        </is>
+      </c>
       <c r="R208" t="inlineStr"/>
       <c r="S208" t="inlineStr"/>
       <c r="T208" t="inlineStr"/>
@@ -12842,12 +12898,12 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>vocab:1186</t>
+          <t>vocab:1191</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>mass concentration of NPs in medium at well bottom</t>
+          <t>frequency of dietary meat consumption in a person</t>
         </is>
       </c>
       <c r="C209" t="inlineStr"/>
@@ -12906,12 +12962,12 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>vocab:1187</t>
+          <t>vocab:1192</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>concentration range of chemical agent in DMEM in cells</t>
+          <t>pressure of air in atmosphere at 2m height</t>
         </is>
       </c>
       <c r="C210" t="inlineStr"/>
@@ -12933,11 +12989,7 @@
       <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr"/>
       <c r="M210" t="inlineStr"/>
-      <c r="N210" t="inlineStr">
-        <is>
-          <t>http://vocabs.lter-europe.net/EnvThes/20748</t>
-        </is>
-      </c>
+      <c r="N210" t="inlineStr"/>
       <c r="O210" t="inlineStr"/>
       <c r="P210" t="inlineStr"/>
       <c r="Q210" t="inlineStr"/>
@@ -12974,12 +13026,12 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>vocab:1188</t>
+          <t>vocab:1193</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>mass per volume concentration of lead in river water</t>
+          <t>concentration of nitrate in running water</t>
         </is>
       </c>
       <c r="C211" t="inlineStr"/>
@@ -13038,12 +13090,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>vocab:1189</t>
+          <t>vocab:1194</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>pH value of soil</t>
+          <t>concentration of NO2 in the organic horizon of soil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr"/>
@@ -13102,12 +13154,12 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>vocab:1190</t>
+          <t>vocab:1195</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>mass per volume concentration of toluene in a persons morning urine</t>
+          <t>chemical reactivity of natural organic matter extracted from river surface water</t>
         </is>
       </c>
       <c r="C213" t="inlineStr"/>
@@ -13129,18 +13181,10 @@
       <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr"/>
       <c r="M213" t="inlineStr"/>
-      <c r="N213" t="inlineStr">
-        <is>
-          <t>https://vocabulary.actris.nilu.no/actris_vocab/toluene</t>
-        </is>
-      </c>
+      <c r="N213" t="inlineStr"/>
       <c r="O213" t="inlineStr"/>
       <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr">
-        <is>
-          <t>vocab:1202</t>
-        </is>
-      </c>
+      <c r="Q213" t="inlineStr"/>
       <c r="R213" t="inlineStr"/>
       <c r="S213" t="inlineStr"/>
       <c r="T213" t="inlineStr"/>
@@ -13174,12 +13218,12 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>vocab:1191</t>
+          <t>vocab:1196</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>frequency of dietary meat consumption in a person</t>
+          <t>turbidity of river water</t>
         </is>
       </c>
       <c r="C214" t="inlineStr"/>
@@ -13238,12 +13282,12 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>vocab:1192</t>
+          <t>vocab:1197</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>pressure of air in atmosphere at 2m height</t>
+          <t>settled</t>
         </is>
       </c>
       <c r="C215" t="inlineStr"/>
@@ -13252,14 +13296,10 @@
       <c r="F215" t="inlineStr"/>
       <c r="G215" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
-        </is>
-      </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr"/>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -13280,7 +13320,11 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y215" t="inlineStr"/>
+      <c r="Y215" t="inlineStr">
+        <is>
+          <t>2023-11-29</t>
+        </is>
+      </c>
       <c r="Z215" t="inlineStr"/>
       <c r="AA215" t="inlineStr"/>
       <c r="AB215" t="inlineStr"/>
@@ -13302,12 +13346,12 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>vocab:1193</t>
+          <t>vocab:1198</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>concentration of nitrate in running water</t>
+          <t>DMEM</t>
         </is>
       </c>
       <c r="C216" t="inlineStr"/>
@@ -13316,14 +13360,10 @@
       <c r="F216" t="inlineStr"/>
       <c r="G216" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
-        </is>
-      </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -13366,12 +13406,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>vocab:1194</t>
+          <t>vocab:1199</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>concentration of NO2 in the organic horizon of soil</t>
+          <t>medium</t>
         </is>
       </c>
       <c r="C217" t="inlineStr"/>
@@ -13380,14 +13420,10 @@
       <c r="F217" t="inlineStr"/>
       <c r="G217" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
-        </is>
-      </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
@@ -13430,12 +13466,12 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>vocab:1195</t>
+          <t>vocab:1200</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>chemical reactivity of natural organic matter extracted from river surface water</t>
+          <t>neuroblastoma</t>
         </is>
       </c>
       <c r="C218" t="inlineStr"/>
@@ -13444,14 +13480,10 @@
       <c r="F218" t="inlineStr"/>
       <c r="G218" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
-        </is>
-      </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -13494,12 +13526,12 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>vocab:1196</t>
+          <t>vocab:1201</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>turbidity of river water</t>
+          <t>differentiated</t>
         </is>
       </c>
       <c r="C219" t="inlineStr"/>
@@ -13508,14 +13540,10 @@
       <c r="F219" t="inlineStr"/>
       <c r="G219" t="inlineStr">
         <is>
-          <t>vocab:1173</t>
-        </is>
-      </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>iop:Variable</t>
-        </is>
-      </c>
+          <t>vocab:1175</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -13558,12 +13586,12 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>vocab:1197</t>
+          <t>vocab:1202</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>settled</t>
+          <t>morning</t>
         </is>
       </c>
       <c r="C220" t="inlineStr"/>
@@ -13596,11 +13624,7 @@
           <t>########</t>
         </is>
       </c>
-      <c r="Y220" t="inlineStr">
-        <is>
-          <t>2023-11-29</t>
-        </is>
-      </c>
+      <c r="Y220" t="inlineStr"/>
       <c r="Z220" t="inlineStr"/>
       <c r="AA220" t="inlineStr"/>
       <c r="AB220" t="inlineStr"/>
@@ -13622,23 +13646,19 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>vocab:1198</t>
+          <t>vocab:1203</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>DMEM</t>
+          <t>property</t>
         </is>
       </c>
       <c r="C221" t="inlineStr"/>
       <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr"/>
       <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr">
-        <is>
-          <t>vocab:1175</t>
-        </is>
-      </c>
+      <c r="G221" t="inlineStr"/>
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -13682,12 +13702,12 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>vocab:1199</t>
+          <t>vocab:1204</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>medium</t>
+          <t>education level</t>
         </is>
       </c>
       <c r="C222" t="inlineStr"/>
@@ -13696,12 +13716,16 @@
       <c r="F222" t="inlineStr"/>
       <c r="G222" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
+          <t>vocab:1203</t>
         </is>
       </c>
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+      <c r="J222" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17953</t>
+        </is>
+      </c>
       <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr"/>
       <c r="M222" t="inlineStr"/>
@@ -13742,23 +13766,19 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>vocab:1200</t>
+          <t>vocab:1205</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>neuroblastoma</t>
+          <t>entity</t>
         </is>
       </c>
       <c r="C223" t="inlineStr"/>
       <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr"/>
       <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr">
-        <is>
-          <t>vocab:1175</t>
-        </is>
-      </c>
+      <c r="G223" t="inlineStr"/>
       <c r="H223" t="inlineStr"/>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -13802,12 +13822,12 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>vocab:1201</t>
+          <t>vocab:1206</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>differentiated</t>
+          <t>person</t>
         </is>
       </c>
       <c r="C224" t="inlineStr"/>
@@ -13816,12 +13836,16 @@
       <c r="F224" t="inlineStr"/>
       <c r="G224" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
+          <t>vocab:1205</t>
         </is>
       </c>
       <c r="H224" t="inlineStr"/>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+      <c r="J224" t="inlineStr">
+        <is>
+          <t>http://xmlns.com/foaf/0.1/Person</t>
+        </is>
+      </c>
       <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr"/>
       <c r="M224" t="inlineStr"/>
@@ -13862,12 +13886,12 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>vocab:1202</t>
+          <t>vocab:1207</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>morning</t>
+          <t>study</t>
         </is>
       </c>
       <c r="C225" t="inlineStr"/>
@@ -13876,12 +13900,16 @@
       <c r="F225" t="inlineStr"/>
       <c r="G225" t="inlineStr">
         <is>
-          <t>vocab:1175</t>
+          <t>vocab:1205</t>
         </is>
       </c>
       <c r="H225" t="inlineStr"/>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+      <c r="J225" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63536</t>
+        </is>
+      </c>
       <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr"/>
       <c r="M225" t="inlineStr"/>
@@ -13897,7 +13925,7 @@
       <c r="W225" t="inlineStr"/>
       <c r="X225" t="inlineStr">
         <is>
-          <t>########</t>
+          <t>2023-11-26</t>
         </is>
       </c>
       <c r="Y225" t="inlineStr"/>
@@ -13922,23 +13950,31 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>vocab:1203</t>
+          <t>vocab:1208</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>property</t>
+          <t>mother of participant</t>
         </is>
       </c>
       <c r="C226" t="inlineStr"/>
       <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr"/>
       <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>vocab:1175</t>
+        </is>
+      </c>
       <c r="H226" t="inlineStr"/>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="inlineStr">
+        <is>
+          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C25189</t>
+        </is>
+      </c>
       <c r="L226" t="inlineStr"/>
       <c r="M226" t="inlineStr"/>
       <c r="N226" t="inlineStr"/>
@@ -13978,12 +14014,12 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>vocab:1204</t>
+          <t>vocab:1209</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>education level</t>
+          <t>clinical (patient) population</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -13992,16 +14028,12 @@
       <c r="F227" t="inlineStr"/>
       <c r="G227" t="inlineStr">
         <is>
-          <t>vocab:1203</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H227" t="inlineStr"/>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17953</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
       <c r="M227" t="inlineStr"/>
@@ -14015,12 +14047,12 @@
       <c r="U227" t="inlineStr"/>
       <c r="V227" t="inlineStr"/>
       <c r="W227" t="inlineStr"/>
-      <c r="X227" t="inlineStr">
-        <is>
-          <t>########</t>
-        </is>
-      </c>
-      <c r="Y227" t="inlineStr"/>
+      <c r="X227" t="inlineStr"/>
+      <c r="Y227" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z227" t="inlineStr"/>
       <c r="AA227" t="inlineStr"/>
       <c r="AB227" t="inlineStr"/>
@@ -14039,254 +14071,6 @@
       <c r="AO227" t="inlineStr"/>
       <c r="AP227" t="inlineStr"/>
     </row>
-    <row r="228">
-      <c r="A228" t="inlineStr">
-        <is>
-          <t>vocab:1205</t>
-        </is>
-      </c>
-      <c r="B228" t="inlineStr">
-        <is>
-          <t>entity</t>
-        </is>
-      </c>
-      <c r="C228" t="inlineStr"/>
-      <c r="D228" t="inlineStr"/>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
-      <c r="M228" t="inlineStr"/>
-      <c r="N228" t="inlineStr"/>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="inlineStr"/>
-      <c r="T228" t="inlineStr"/>
-      <c r="U228" t="inlineStr"/>
-      <c r="V228" t="inlineStr"/>
-      <c r="W228" t="inlineStr"/>
-      <c r="X228" t="inlineStr">
-        <is>
-          <t>########</t>
-        </is>
-      </c>
-      <c r="Y228" t="inlineStr"/>
-      <c r="Z228" t="inlineStr"/>
-      <c r="AA228" t="inlineStr"/>
-      <c r="AB228" t="inlineStr"/>
-      <c r="AC228" t="inlineStr"/>
-      <c r="AD228" t="inlineStr"/>
-      <c r="AE228" t="inlineStr"/>
-      <c r="AF228" t="inlineStr"/>
-      <c r="AG228" t="inlineStr"/>
-      <c r="AH228" t="inlineStr"/>
-      <c r="AI228" t="inlineStr"/>
-      <c r="AJ228" t="inlineStr"/>
-      <c r="AK228" t="inlineStr"/>
-      <c r="AL228" t="inlineStr"/>
-      <c r="AM228" t="inlineStr"/>
-      <c r="AN228" t="inlineStr"/>
-      <c r="AO228" t="inlineStr"/>
-      <c r="AP228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t>vocab:1206</t>
-        </is>
-      </c>
-      <c r="B229" t="inlineStr">
-        <is>
-          <t>person</t>
-        </is>
-      </c>
-      <c r="C229" t="inlineStr"/>
-      <c r="D229" t="inlineStr"/>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr">
-        <is>
-          <t>vocab:1205</t>
-        </is>
-      </c>
-      <c r="H229" t="inlineStr"/>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr">
-        <is>
-          <t>http://xmlns.com/foaf/0.1/Person</t>
-        </is>
-      </c>
-      <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
-      <c r="M229" t="inlineStr"/>
-      <c r="N229" t="inlineStr"/>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="inlineStr"/>
-      <c r="T229" t="inlineStr"/>
-      <c r="U229" t="inlineStr"/>
-      <c r="V229" t="inlineStr"/>
-      <c r="W229" t="inlineStr"/>
-      <c r="X229" t="inlineStr">
-        <is>
-          <t>########</t>
-        </is>
-      </c>
-      <c r="Y229" t="inlineStr"/>
-      <c r="Z229" t="inlineStr"/>
-      <c r="AA229" t="inlineStr"/>
-      <c r="AB229" t="inlineStr"/>
-      <c r="AC229" t="inlineStr"/>
-      <c r="AD229" t="inlineStr"/>
-      <c r="AE229" t="inlineStr"/>
-      <c r="AF229" t="inlineStr"/>
-      <c r="AG229" t="inlineStr"/>
-      <c r="AH229" t="inlineStr"/>
-      <c r="AI229" t="inlineStr"/>
-      <c r="AJ229" t="inlineStr"/>
-      <c r="AK229" t="inlineStr"/>
-      <c r="AL229" t="inlineStr"/>
-      <c r="AM229" t="inlineStr"/>
-      <c r="AN229" t="inlineStr"/>
-      <c r="AO229" t="inlineStr"/>
-      <c r="AP229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" t="inlineStr">
-        <is>
-          <t>vocab:1207</t>
-        </is>
-      </c>
-      <c r="B230" t="inlineStr">
-        <is>
-          <t>study</t>
-        </is>
-      </c>
-      <c r="C230" t="inlineStr"/>
-      <c r="D230" t="inlineStr"/>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr">
-        <is>
-          <t>vocab:1205</t>
-        </is>
-      </c>
-      <c r="H230" t="inlineStr"/>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C63536</t>
-        </is>
-      </c>
-      <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
-      <c r="M230" t="inlineStr"/>
-      <c r="N230" t="inlineStr"/>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="inlineStr"/>
-      <c r="T230" t="inlineStr"/>
-      <c r="U230" t="inlineStr"/>
-      <c r="V230" t="inlineStr"/>
-      <c r="W230" t="inlineStr"/>
-      <c r="X230" t="inlineStr">
-        <is>
-          <t>2023-11-26</t>
-        </is>
-      </c>
-      <c r="Y230" t="inlineStr"/>
-      <c r="Z230" t="inlineStr"/>
-      <c r="AA230" t="inlineStr"/>
-      <c r="AB230" t="inlineStr"/>
-      <c r="AC230" t="inlineStr"/>
-      <c r="AD230" t="inlineStr"/>
-      <c r="AE230" t="inlineStr"/>
-      <c r="AF230" t="inlineStr"/>
-      <c r="AG230" t="inlineStr"/>
-      <c r="AH230" t="inlineStr"/>
-      <c r="AI230" t="inlineStr"/>
-      <c r="AJ230" t="inlineStr"/>
-      <c r="AK230" t="inlineStr"/>
-      <c r="AL230" t="inlineStr"/>
-      <c r="AM230" t="inlineStr"/>
-      <c r="AN230" t="inlineStr"/>
-      <c r="AO230" t="inlineStr"/>
-      <c r="AP230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" t="inlineStr">
-        <is>
-          <t>vocab:1208</t>
-        </is>
-      </c>
-      <c r="B231" t="inlineStr">
-        <is>
-          <t>mother of participant</t>
-        </is>
-      </c>
-      <c r="C231" t="inlineStr"/>
-      <c r="D231" t="inlineStr"/>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr">
-        <is>
-          <t>vocab:1175</t>
-        </is>
-      </c>
-      <c r="H231" t="inlineStr"/>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C25189</t>
-        </is>
-      </c>
-      <c r="L231" t="inlineStr"/>
-      <c r="M231" t="inlineStr"/>
-      <c r="N231" t="inlineStr"/>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="inlineStr"/>
-      <c r="T231" t="inlineStr"/>
-      <c r="U231" t="inlineStr"/>
-      <c r="V231" t="inlineStr"/>
-      <c r="W231" t="inlineStr"/>
-      <c r="X231" t="inlineStr">
-        <is>
-          <t>########</t>
-        </is>
-      </c>
-      <c r="Y231" t="inlineStr"/>
-      <c r="Z231" t="inlineStr"/>
-      <c r="AA231" t="inlineStr"/>
-      <c r="AB231" t="inlineStr"/>
-      <c r="AC231" t="inlineStr"/>
-      <c r="AD231" t="inlineStr"/>
-      <c r="AE231" t="inlineStr"/>
-      <c r="AF231" t="inlineStr"/>
-      <c r="AG231" t="inlineStr"/>
-      <c r="AH231" t="inlineStr"/>
-      <c r="AI231" t="inlineStr"/>
-      <c r="AJ231" t="inlineStr"/>
-      <c r="AK231" t="inlineStr"/>
-      <c r="AL231" t="inlineStr"/>
-      <c r="AM231" t="inlineStr"/>
-      <c r="AN231" t="inlineStr"/>
-      <c r="AO231" t="inlineStr"/>
-      <c r="AP231" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -4892,7 +4892,7 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="H76" t="inlineStr"/>
@@ -4916,7 +4916,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y76" t="inlineStr"/>
+      <c r="Y76" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z76" t="inlineStr"/>
       <c r="AA76" t="inlineStr"/>
       <c r="AB76" t="inlineStr"/>
@@ -4952,7 +4956,7 @@
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="H77" t="inlineStr"/>
@@ -4976,7 +4980,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z77" t="inlineStr"/>
       <c r="AA77" t="inlineStr"/>
       <c r="AB77" t="inlineStr"/>
@@ -5012,7 +5020,7 @@
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr">
         <is>
-          <t>vocab:1034</t>
+          <t>vocab:1030</t>
         </is>
       </c>
       <c r="H78" t="inlineStr"/>
@@ -5128,7 +5136,7 @@
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H80" t="inlineStr"/>
@@ -5188,7 +5196,7 @@
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
@@ -5248,7 +5256,7 @@
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr">
         <is>
-          <t>vocab:1038</t>
+          <t>vocab:1034</t>
         </is>
       </c>
       <c r="H82" t="inlineStr"/>
@@ -5364,7 +5372,7 @@
       <c r="F84" t="inlineStr"/>
       <c r="G84" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H84" t="inlineStr"/>
@@ -5428,7 +5436,7 @@
       <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H85" t="inlineStr"/>
@@ -5492,7 +5500,7 @@
       <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr">
         <is>
-          <t>vocab:1042</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H86" t="inlineStr"/>
@@ -5516,7 +5524,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y86" t="inlineStr"/>
+      <c r="Y86" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z86" t="inlineStr"/>
       <c r="AA86" t="inlineStr"/>
       <c r="AB86" t="inlineStr"/>
@@ -5543,7 +5555,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>seasonality</t>
+          <t>seasonal coverage</t>
         </is>
       </c>
       <c r="C87" t="inlineStr"/>
@@ -5572,7 +5584,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y87" t="inlineStr"/>
+      <c r="Y87" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z87" t="inlineStr"/>
       <c r="AA87" t="inlineStr"/>
       <c r="AB87" t="inlineStr"/>
@@ -5608,7 +5624,7 @@
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H88" t="inlineStr"/>
@@ -5632,7 +5648,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y88" t="inlineStr"/>
+      <c r="Y88" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z88" t="inlineStr"/>
       <c r="AA88" t="inlineStr"/>
       <c r="AB88" t="inlineStr"/>
@@ -5668,7 +5688,7 @@
       <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H89" t="inlineStr"/>
@@ -5692,7 +5712,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y89" t="inlineStr"/>
+      <c r="Y89" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z89" t="inlineStr"/>
       <c r="AA89" t="inlineStr"/>
       <c r="AB89" t="inlineStr"/>
@@ -5728,7 +5752,7 @@
       <c r="F90" t="inlineStr"/>
       <c r="G90" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H90" t="inlineStr"/>
@@ -5752,7 +5776,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y90" t="inlineStr"/>
+      <c r="Y90" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z90" t="inlineStr"/>
       <c r="AA90" t="inlineStr"/>
       <c r="AB90" t="inlineStr"/>
@@ -5788,7 +5816,7 @@
       <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr">
         <is>
-          <t>vocab:1046</t>
+          <t>vocab:1042</t>
         </is>
       </c>
       <c r="H91" t="inlineStr"/>
@@ -5812,7 +5840,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y91" t="inlineStr"/>
+      <c r="Y91" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z91" t="inlineStr"/>
       <c r="AA91" t="inlineStr"/>
       <c r="AB91" t="inlineStr"/>
@@ -5839,7 +5871,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>study implementation level</t>
+          <t>implementation level</t>
         </is>
       </c>
       <c r="C92" t="inlineStr"/>
@@ -5868,7 +5900,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y92" t="inlineStr"/>
+      <c r="Y92" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z92" t="inlineStr"/>
       <c r="AA92" t="inlineStr"/>
       <c r="AB92" t="inlineStr"/>
@@ -5904,7 +5940,7 @@
       <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="H93" t="inlineStr"/>
@@ -5928,7 +5964,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y93" t="inlineStr"/>
+      <c r="Y93" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z93" t="inlineStr"/>
       <c r="AA93" t="inlineStr"/>
       <c r="AB93" t="inlineStr"/>
@@ -5964,7 +6004,7 @@
       <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="H94" t="inlineStr"/>
@@ -5988,7 +6028,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y94" t="inlineStr"/>
+      <c r="Y94" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z94" t="inlineStr"/>
       <c r="AA94" t="inlineStr"/>
       <c r="AB94" t="inlineStr"/>
@@ -6024,7 +6068,7 @@
       <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="H95" t="inlineStr"/>
@@ -6048,7 +6092,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y95" t="inlineStr"/>
+      <c r="Y95" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z95" t="inlineStr"/>
       <c r="AA95" t="inlineStr"/>
       <c r="AB95" t="inlineStr"/>
@@ -6084,7 +6132,7 @@
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr">
         <is>
-          <t>vocab:1051</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="H96" t="inlineStr"/>
@@ -6108,7 +6156,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y96" t="inlineStr"/>
+      <c r="Y96" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z96" t="inlineStr"/>
       <c r="AA96" t="inlineStr"/>
       <c r="AB96" t="inlineStr"/>
@@ -6200,7 +6252,7 @@
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="H98" t="inlineStr"/>
@@ -6224,7 +6276,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y98" t="inlineStr"/>
+      <c r="Y98" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z98" t="inlineStr"/>
       <c r="AA98" t="inlineStr"/>
       <c r="AB98" t="inlineStr"/>
@@ -6260,7 +6316,7 @@
       <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="H99" t="inlineStr"/>
@@ -6284,7 +6340,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y99" t="inlineStr"/>
+      <c r="Y99" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z99" t="inlineStr"/>
       <c r="AA99" t="inlineStr"/>
       <c r="AB99" t="inlineStr"/>
@@ -6320,7 +6380,7 @@
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="H100" t="inlineStr"/>
@@ -6344,7 +6404,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y100" t="inlineStr"/>
+      <c r="Y100" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z100" t="inlineStr"/>
       <c r="AA100" t="inlineStr"/>
       <c r="AB100" t="inlineStr"/>
@@ -6380,7 +6444,7 @@
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr">
         <is>
-          <t>vocab:1056</t>
+          <t>vocab:1052</t>
         </is>
       </c>
       <c r="H101" t="inlineStr"/>
@@ -6404,7 +6468,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y101" t="inlineStr"/>
+      <c r="Y101" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z101" t="inlineStr"/>
       <c r="AA101" t="inlineStr"/>
       <c r="AB101" t="inlineStr"/>
@@ -6496,7 +6564,7 @@
       <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1057</t>
         </is>
       </c>
       <c r="H103" t="inlineStr"/>
@@ -6520,7 +6588,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y103" t="inlineStr"/>
+      <c r="Y103" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z103" t="inlineStr"/>
       <c r="AA103" t="inlineStr"/>
       <c r="AB103" t="inlineStr"/>
@@ -6556,7 +6628,7 @@
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr">
         <is>
-          <t>vocab:1061</t>
+          <t>vocab:1057</t>
         </is>
       </c>
       <c r="H104" t="inlineStr"/>
@@ -6580,7 +6652,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y104" t="inlineStr"/>
+      <c r="Y104" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z104" t="inlineStr"/>
       <c r="AA104" t="inlineStr"/>
       <c r="AB104" t="inlineStr"/>
@@ -6616,7 +6692,7 @@
       <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr">
         <is>
-          <t>vocab:1062</t>
+          <t>vocab:1057</t>
         </is>
       </c>
       <c r="H105" t="inlineStr"/>
@@ -6640,7 +6716,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y105" t="inlineStr"/>
+      <c r="Y105" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z105" t="inlineStr"/>
       <c r="AA105" t="inlineStr"/>
       <c r="AB105" t="inlineStr"/>
@@ -6732,7 +6812,7 @@
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H107" t="inlineStr"/>
@@ -6756,7 +6836,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y107" t="inlineStr"/>
+      <c r="Y107" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z107" t="inlineStr"/>
       <c r="AA107" t="inlineStr"/>
       <c r="AB107" t="inlineStr"/>
@@ -6792,7 +6876,7 @@
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H108" t="inlineStr"/>
@@ -6816,7 +6900,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y108" t="inlineStr"/>
+      <c r="Y108" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z108" t="inlineStr"/>
       <c r="AA108" t="inlineStr"/>
       <c r="AB108" t="inlineStr"/>
@@ -6852,7 +6940,7 @@
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H109" t="inlineStr"/>
@@ -6912,7 +7000,7 @@
       <c r="F110" t="inlineStr"/>
       <c r="G110" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H110" t="inlineStr"/>
@@ -6972,7 +7060,7 @@
       <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H111" t="inlineStr"/>
@@ -7032,7 +7120,7 @@
       <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H112" t="inlineStr"/>
@@ -7092,7 +7180,7 @@
       <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H113" t="inlineStr"/>
@@ -7152,7 +7240,7 @@
       <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr">
         <is>
-          <t>vocab:1066</t>
+          <t>vocab:1062</t>
         </is>
       </c>
       <c r="H114" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3212,7 +3212,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1020,vocab:1042,vocab:1038,vocab:1034,vocab:1028,vocab:1064</t>
+          <t>vocab:1000,vocab:1020,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3236,7 +3236,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y48" t="inlineStr"/>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z48" t="inlineStr"/>
       <c r="AA48" t="inlineStr"/>
       <c r="AB48" t="inlineStr"/>
@@ -5247,7 +5251,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>longitutdinal (cohort)</t>
+          <t>longitudinal (cohort)</t>
         </is>
       </c>
       <c r="C82" t="inlineStr"/>
@@ -5280,7 +5284,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y82" t="inlineStr"/>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>2023-12-07</t>
+        </is>
+      </c>
       <c r="Z82" t="inlineStr"/>
       <c r="AA82" t="inlineStr"/>
       <c r="AB82" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -3212,7 +3212,7 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>vocab:1000,vocab:1020,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057</t>
+          <t>vocab:1000,vocab:1038,vocab:1034,vocab:1028,vocab:1064,vocab:1057</t>
         </is>
       </c>
       <c r="H48" t="inlineStr"/>
@@ -3238,7 +3238,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="Z48" t="inlineStr"/>

--- a/vocabulary.xlsx
+++ b/vocabulary.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AP227"/>
+  <dimension ref="A1:AP229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4103,7 +4103,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>reqruited/collected</t>
+          <t>recruited/collected</t>
         </is>
       </c>
       <c r="C63" t="inlineStr"/>
@@ -4112,7 +4112,7 @@
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
-          <t>vocab:1004</t>
+          <t>vocab:1038</t>
         </is>
       </c>
       <c r="H63" t="inlineStr"/>
@@ -4136,7 +4136,11 @@
           <t>2023-11-21</t>
         </is>
       </c>
-      <c r="Y63" t="inlineStr"/>
+      <c r="Y63" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
       <c r="Z63" t="inlineStr"/>
       <c r="AA63" t="inlineStr"/>
       <c r="AB63" t="inlineStr"/>
@@ -6379,7 +6383,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>aggreged data</t>
+          <t>aggregated data</t>
         </is>
       </c>
       <c r="C100" t="inlineStr"/>
@@ -6414,7 +6418,7 @@
       </c>
       <c r="Y100" t="inlineStr">
         <is>
-          <t>2023-12-07</t>
+          <t>2023-12-14</t>
         </is>
       </c>
       <c r="Z100" t="inlineStr"/>
@@ -7290,19 +7294,23 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1070</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>matrix</t>
+          <t>pregnant women</t>
         </is>
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr"/>
       <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>vocab:1038</t>
+        </is>
+      </c>
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -7320,7 +7328,11 @@
       <c r="V115" t="inlineStr"/>
       <c r="W115" t="inlineStr"/>
       <c r="X115" t="inlineStr"/>
-      <c r="Y115" t="inlineStr"/>
+      <c r="Y115" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
       <c r="Z115" t="inlineStr"/>
       <c r="AA115" t="inlineStr"/>
       <c r="AB115" t="inlineStr"/>
@@ -7342,12 +7354,12 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1071</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>air matrix</t>
+          <t>European level</t>
         </is>
       </c>
       <c r="C116" t="inlineStr"/>
@@ -7356,7 +7368,7 @@
       <c r="F116" t="inlineStr"/>
       <c r="G116" t="inlineStr">
         <is>
-          <t>vocab:1097</t>
+          <t>vocab:1047</t>
         </is>
       </c>
       <c r="H116" t="inlineStr"/>
@@ -7376,7 +7388,11 @@
       <c r="V116" t="inlineStr"/>
       <c r="W116" t="inlineStr"/>
       <c r="X116" t="inlineStr"/>
-      <c r="Y116" t="inlineStr"/>
+      <c r="Y116" t="inlineStr">
+        <is>
+          <t>2023-12-14</t>
+        </is>
+      </c>
       <c r="Z116" t="inlineStr"/>
       <c r="AA116" t="inlineStr"/>
       <c r="AB116" t="inlineStr"/>
@@ -7398,23 +7414,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>sediment matrix</t>
+          <t>matrix</t>
         </is>
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr"/>
       <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr">
-        <is>
-          <t>vocab:1097</t>
-        </is>
-      </c>
+      <c r="G117" t="inlineStr"/>
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -7454,12 +7466,12 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>soil matrix</t>
+          <t>air matrix</t>
         </is>
       </c>
       <c r="C118" t="inlineStr"/>
@@ -7510,12 +7522,12 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>water matrix</t>
+          <t>sediment matrix</t>
         </is>
       </c>
       <c r="C119" t="inlineStr"/>
@@ -7566,12 +7578,12 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>biota matrix</t>
+          <t>soil matrix</t>
         </is>
       </c>
       <c r="C120" t="inlineStr"/>
@@ -7622,12 +7634,12 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>deposition matrix</t>
+          <t>water matrix</t>
         </is>
       </c>
       <c r="C121" t="inlineStr"/>
@@ -7678,12 +7690,12 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>vocab:1104</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>whole air matrix</t>
+          <t>biota matrix</t>
         </is>
       </c>
       <c r="C122" t="inlineStr"/>
@@ -7692,7 +7704,7 @@
       <c r="F122" t="inlineStr"/>
       <c r="G122" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H122" t="inlineStr"/>
@@ -7734,12 +7746,12 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>vocab:1105</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>gas phase matrix</t>
+          <t>deposition matrix</t>
         </is>
       </c>
       <c r="C123" t="inlineStr"/>
@@ -7748,7 +7760,7 @@
       <c r="F123" t="inlineStr"/>
       <c r="G123" t="inlineStr">
         <is>
-          <t>vocab:1098</t>
+          <t>vocab:1097</t>
         </is>
       </c>
       <c r="H123" t="inlineStr"/>
@@ -7790,12 +7802,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>vocab:1106</t>
+          <t>vocab:1104</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>TSP matrix</t>
+          <t>whole air matrix</t>
         </is>
       </c>
       <c r="C124" t="inlineStr"/>
@@ -7846,12 +7858,12 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>vocab:1107</t>
+          <t>vocab:1105</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>PM 10 matrix</t>
+          <t>gas phase matrix</t>
         </is>
       </c>
       <c r="C125" t="inlineStr"/>
@@ -7902,12 +7914,12 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>vocab:1108</t>
+          <t>vocab:1106</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>PM 2.5 matrix</t>
+          <t>TSP matrix</t>
         </is>
       </c>
       <c r="C126" t="inlineStr"/>
@@ -7958,12 +7970,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>vocab:1109</t>
+          <t>vocab:1107</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>PM 5 matrix</t>
+          <t>PM 10 matrix</t>
         </is>
       </c>
       <c r="C127" t="inlineStr"/>
@@ -8014,12 +8026,12 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>vocab:1110</t>
+          <t>vocab:1108</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>PM 2.5 matrix</t>
         </is>
       </c>
       <c r="C128" t="inlineStr"/>
@@ -8028,7 +8040,7 @@
       <c r="F128" t="inlineStr"/>
       <c r="G128" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H128" t="inlineStr"/>
@@ -8070,12 +8082,12 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>vocab:1111</t>
+          <t>vocab:1109</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>sewage sludge matrix</t>
+          <t>PM 5 matrix</t>
         </is>
       </c>
       <c r="C129" t="inlineStr"/>
@@ -8084,7 +8096,7 @@
       <c r="F129" t="inlineStr"/>
       <c r="G129" t="inlineStr">
         <is>
-          <t>vocab:1099</t>
+          <t>vocab:1098</t>
         </is>
       </c>
       <c r="H129" t="inlineStr"/>
@@ -8126,12 +8138,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>vocab:1112</t>
+          <t>vocab:1110</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>stratified matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C130" t="inlineStr"/>
@@ -8182,12 +8194,12 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>vocab:1113</t>
+          <t>vocab:1111</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>surface matrix</t>
+          <t>sewage sludge matrix</t>
         </is>
       </c>
       <c r="C131" t="inlineStr"/>
@@ -8196,7 +8208,7 @@
       <c r="F131" t="inlineStr"/>
       <c r="G131" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H131" t="inlineStr"/>
@@ -8238,12 +8250,12 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>vocab:1114</t>
+          <t>vocab:1112</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>topsoil matrix</t>
+          <t>stratified matrix</t>
         </is>
       </c>
       <c r="C132" t="inlineStr"/>
@@ -8252,7 +8264,7 @@
       <c r="F132" t="inlineStr"/>
       <c r="G132" t="inlineStr">
         <is>
-          <t>vocab:1100</t>
+          <t>vocab:1099</t>
         </is>
       </c>
       <c r="H132" t="inlineStr"/>
@@ -8294,12 +8306,12 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>vocab:1115</t>
+          <t>vocab:1113</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>subsoil A matrix</t>
+          <t>surface matrix</t>
         </is>
       </c>
       <c r="C133" t="inlineStr"/>
@@ -8350,12 +8362,12 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>vocab:1116</t>
+          <t>vocab:1114</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>subsoil B matrix</t>
+          <t>topsoil matrix</t>
         </is>
       </c>
       <c r="C134" t="inlineStr"/>
@@ -8406,12 +8418,12 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vocab:1117</t>
+          <t>vocab:1115</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>horizon A matrix</t>
+          <t>subsoil A matrix</t>
         </is>
       </c>
       <c r="C135" t="inlineStr"/>
@@ -8462,12 +8474,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>vocab:1118</t>
+          <t>vocab:1116</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>horizon B matrix</t>
+          <t>subsoil B matrix</t>
         </is>
       </c>
       <c r="C136" t="inlineStr"/>
@@ -8518,12 +8530,12 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>vocab:1119</t>
+          <t>vocab:1117</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>horizon C matrix</t>
+          <t>horizon A matrix</t>
         </is>
       </c>
       <c r="C137" t="inlineStr"/>
@@ -8574,12 +8586,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>vocab:1120</t>
+          <t>vocab:1118</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>horizon E matrix</t>
+          <t>horizon B matrix</t>
         </is>
       </c>
       <c r="C138" t="inlineStr"/>
@@ -8630,12 +8642,12 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>vocab:1121</t>
+          <t>vocab:1119</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>horizon G matrix</t>
+          <t>horizon C matrix</t>
         </is>
       </c>
       <c r="C139" t="inlineStr"/>
@@ -8686,12 +8698,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>vocab:1122</t>
+          <t>vocab:1120</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>horizon M matrix</t>
+          <t>horizon E matrix</t>
         </is>
       </c>
       <c r="C140" t="inlineStr"/>
@@ -8742,12 +8754,12 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>vocab:1123</t>
+          <t>vocab:1121</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>horizon O matrix</t>
+          <t>horizon G matrix</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
@@ -8798,12 +8810,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>vocab:1124</t>
+          <t>vocab:1122</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>coastal matrix</t>
+          <t>horizon M matrix</t>
         </is>
       </c>
       <c r="C142" t="inlineStr"/>
@@ -8812,7 +8824,7 @@
       <c r="F142" t="inlineStr"/>
       <c r="G142" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H142" t="inlineStr"/>
@@ -8854,12 +8866,12 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>vocab:1125</t>
+          <t>vocab:1123</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>brackish matrix</t>
+          <t>horizon O matrix</t>
         </is>
       </c>
       <c r="C143" t="inlineStr"/>
@@ -8868,7 +8880,7 @@
       <c r="F143" t="inlineStr"/>
       <c r="G143" t="inlineStr">
         <is>
-          <t>vocab:1101</t>
+          <t>vocab:1100</t>
         </is>
       </c>
       <c r="H143" t="inlineStr"/>
@@ -8910,12 +8922,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>vocab:1126</t>
+          <t>vocab:1124</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ocean matrix</t>
+          <t>coastal matrix</t>
         </is>
       </c>
       <c r="C144" t="inlineStr"/>
@@ -8966,12 +8978,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>vocab:1127</t>
+          <t>vocab:1125</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>surface freshwater matrix</t>
+          <t>brackish matrix</t>
         </is>
       </c>
       <c r="C145" t="inlineStr"/>
@@ -9022,12 +9034,12 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>vocab:1128</t>
+          <t>vocab:1126</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>surface freshwater - reservoir matrix</t>
+          <t>ocean matrix</t>
         </is>
       </c>
       <c r="C146" t="inlineStr"/>
@@ -9078,12 +9090,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>vocab:1129</t>
+          <t>vocab:1127</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>surface freshwater - river matrix</t>
+          <t>surface freshwater matrix</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
@@ -9134,12 +9146,12 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>vocab:1130</t>
+          <t>vocab:1128</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ground water matrix</t>
+          <t>surface freshwater - reservoir matrix</t>
         </is>
       </c>
       <c r="C148" t="inlineStr"/>
@@ -9190,12 +9202,12 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>vocab:1131</t>
+          <t>vocab:1129</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>fish matrix</t>
+          <t>surface freshwater - river matrix</t>
         </is>
       </c>
       <c r="C149" t="inlineStr"/>
@@ -9204,7 +9216,7 @@
       <c r="F149" t="inlineStr"/>
       <c r="G149" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H149" t="inlineStr"/>
@@ -9246,12 +9258,12 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>vocab:1132</t>
+          <t>vocab:1130</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>barley matrix</t>
+          <t>ground water matrix</t>
         </is>
       </c>
       <c r="C150" t="inlineStr"/>
@@ -9260,7 +9272,7 @@
       <c r="F150" t="inlineStr"/>
       <c r="G150" t="inlineStr">
         <is>
-          <t>vocab:1102</t>
+          <t>vocab:1101</t>
         </is>
       </c>
       <c r="H150" t="inlineStr"/>
@@ -9302,12 +9314,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>vocab:1133</t>
+          <t>vocab:1131</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>grass matrix</t>
+          <t>fish matrix</t>
         </is>
       </c>
       <c r="C151" t="inlineStr"/>
@@ -9358,12 +9370,12 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>vocab:1134</t>
+          <t>vocab:1132</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>hop matrix</t>
+          <t>barley matrix</t>
         </is>
       </c>
       <c r="C152" t="inlineStr"/>
@@ -9414,12 +9426,12 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>vocab:1135</t>
+          <t>vocab:1133</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>moss matrix</t>
+          <t>grass matrix</t>
         </is>
       </c>
       <c r="C153" t="inlineStr"/>
@@ -9470,12 +9482,12 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>vocab:1136</t>
+          <t>vocab:1134</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>mustard matrix</t>
+          <t>hop matrix</t>
         </is>
       </c>
       <c r="C154" t="inlineStr"/>
@@ -9526,12 +9538,12 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>vocab:1137</t>
+          <t>vocab:1135</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>maize matrix</t>
+          <t>moss matrix</t>
         </is>
       </c>
       <c r="C155" t="inlineStr"/>
@@ -9582,12 +9594,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>vocab:1138</t>
+          <t>vocab:1136</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>oat matrix</t>
+          <t>mustard matrix</t>
         </is>
       </c>
       <c r="C156" t="inlineStr"/>
@@ -9638,12 +9650,12 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>vocab:1139</t>
+          <t>vocab:1137</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>peat moss matrix</t>
+          <t>maize matrix</t>
         </is>
       </c>
       <c r="C157" t="inlineStr"/>
@@ -9694,12 +9706,12 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>vocab:1140</t>
+          <t>vocab:1138</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>pine matrix</t>
+          <t>oat matrix</t>
         </is>
       </c>
       <c r="C158" t="inlineStr"/>
@@ -9750,12 +9762,12 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>vocab:1141</t>
+          <t>vocab:1139</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>potato matrix</t>
+          <t>peat moss matrix</t>
         </is>
       </c>
       <c r="C159" t="inlineStr"/>
@@ -9806,12 +9818,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>vocab:1142</t>
+          <t>vocab:1140</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>rape matrix</t>
+          <t>pine matrix</t>
         </is>
       </c>
       <c r="C160" t="inlineStr"/>
@@ -9862,12 +9874,12 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>vocab:1143</t>
+          <t>vocab:1141</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>soya matrix</t>
+          <t>potato matrix</t>
         </is>
       </c>
       <c r="C161" t="inlineStr"/>
@@ -9918,12 +9930,12 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>vocab:1144</t>
+          <t>vocab:1142</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>sunflover matrix</t>
+          <t>rape matrix</t>
         </is>
       </c>
       <c r="C162" t="inlineStr"/>
@@ -9974,12 +9986,12 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>vocab:1145</t>
+          <t>vocab:1143</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>spruce matrix</t>
+          <t>soya matrix</t>
         </is>
       </c>
       <c r="C163" t="inlineStr"/>
@@ -10030,12 +10042,12 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>vocab:1146</t>
+          <t>vocab:1144</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>triticale matrix</t>
+          <t>sunflover matrix</t>
         </is>
       </c>
       <c r="C164" t="inlineStr"/>
@@ -10086,12 +10098,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>vocab:1147</t>
+          <t>vocab:1145</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>wheat matrix</t>
+          <t>spruce matrix</t>
         </is>
       </c>
       <c r="C165" t="inlineStr"/>
@@ -10142,12 +10154,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>vocab:1148</t>
+          <t>vocab:1146</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>dry matrix</t>
+          <t>triticale matrix</t>
         </is>
       </c>
       <c r="C166" t="inlineStr"/>
@@ -10156,7 +10168,7 @@
       <c r="F166" t="inlineStr"/>
       <c r="G166" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H166" t="inlineStr"/>
@@ -10198,12 +10210,12 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>vocab:1149</t>
+          <t>vocab:1147</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>mixed matrix</t>
+          <t>wheat matrix</t>
         </is>
       </c>
       <c r="C167" t="inlineStr"/>
@@ -10212,7 +10224,7 @@
       <c r="F167" t="inlineStr"/>
       <c r="G167" t="inlineStr">
         <is>
-          <t>vocab:1103</t>
+          <t>vocab:1102</t>
         </is>
       </c>
       <c r="H167" t="inlineStr"/>
@@ -10254,12 +10266,12 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>vocab:1150</t>
+          <t>vocab:1148</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>wet matrix</t>
+          <t>dry matrix</t>
         </is>
       </c>
       <c r="C168" t="inlineStr"/>
@@ -10310,29 +10322,21 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>vocab:1151</t>
+          <t>vocab:1149</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>blood-whole blood matrix</t>
+          <t>mixed matrix</t>
         </is>
       </c>
       <c r="C169" t="inlineStr"/>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>BWB</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>Blood-whole blood</t>
-        </is>
-      </c>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
       <c r="F169" t="inlineStr"/>
       <c r="G169" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H169" t="inlineStr"/>
@@ -10374,29 +10378,21 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>vocab:1152</t>
+          <t>vocab:1150</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>blood -plasma matrix</t>
+          <t>wet matrix</t>
         </is>
       </c>
       <c r="C170" t="inlineStr"/>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>BP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>Blood -plasma</t>
-        </is>
-      </c>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
       <c r="F170" t="inlineStr"/>
       <c r="G170" t="inlineStr">
         <is>
-          <t>vocab:1172</t>
+          <t>vocab:1103</t>
         </is>
       </c>
       <c r="H170" t="inlineStr"/>
@@ -10438,23 +10434,23 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>vocab:1153</t>
+          <t>vocab:1151</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>blood -serum matrix</t>
+          <t>blood-whole blood matrix</t>
         </is>
       </c>
       <c r="C171" t="inlineStr"/>
       <c r="D171" t="inlineStr">
         <is>
-          <t>BS</t>
+          <t>BWB</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
-          <t>Blood -serum</t>
+          <t>Blood-whole blood</t>
         </is>
       </c>
       <c r="F171" t="inlineStr"/>
@@ -10502,23 +10498,23 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>vocab:1154</t>
+          <t>vocab:1152</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>cord blood-whole blood matrix</t>
+          <t>blood -plasma matrix</t>
         </is>
       </c>
       <c r="C172" t="inlineStr"/>
       <c r="D172" t="inlineStr">
         <is>
-          <t>CBWB</t>
+          <t>BP</t>
         </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
-          <t>Cord blood-whole blood</t>
+          <t>Blo